--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="577">
   <si>
     <t>Term</t>
   </si>
@@ -1553,15 +1553,24 @@
     <t>System will calculate provision for total purcahse cost for specific period (default is 12 months). Merchant can override it for value (i.e. total provision – e.g. 5 lakh instead of 3 lakhs recommended by system), or period (e.g. 6 montsh instead of 12 months recommended by system).</t>
   </si>
   <si>
+    <t>To be done (new batch will be written)</t>
+  </si>
+  <si>
     <t>System will calculate provision for fixed operating expenses (i.e. common operarting expenses) for specific period (default is 12 months). Merchant can override it for value (i.e. total provision – e.g. 5 lakh instead of 3 lakhs recommended by system), or period (e.g. 6 montsh instead of 12 months recommended by system).</t>
   </si>
   <si>
     <t>System will calculate provision for variable operating expenses (i.e. subscription specific operarting expenses) for specific period (default is 12 months). Merchant can override it for value (i.e. total provision – e.g. 5 lakh instead of 3 lakhs recommended by system), or period (e.g. 6 montsh instead of 12 months recommended by system).</t>
   </si>
   <si>
+    <t>Will be provided by integration domain (OperatingExpenseReceivedEvent)</t>
+  </si>
+  <si>
     <t>Merchant will make provision for losses.</t>
   </si>
   <si>
+    <t>To be done (from admin console – will come via REST controller)</t>
+  </si>
+  <si>
     <t>Merchant will make provision for benefits.</t>
   </si>
   <si>
@@ -1574,19 +1583,31 @@
     <t>When system receives incoming inventory details from main application, their total purchase cost is debited under 'purchase cost' and respective provision account.</t>
   </si>
   <si>
+    <t>ProductStatusReceivedEvent from integration domain (to be revisit)</t>
+  </si>
+  <si>
     <t>When system receives incoming operating expenses details from main application, they are debited under respective expense categories and respective provision account.</t>
   </si>
   <si>
     <t>When system receives common taxes paid from main application, their total taxes paid is debited under 'taxes cost' and respective provision account.</t>
   </si>
   <si>
+    <t>Will be provided by integration domain (to be done)</t>
+  </si>
+  <si>
     <t>When a product exceeds its revenue beyond its forecast by x% then additional amount will be credited to nodal account.</t>
   </si>
   <si>
+    <t>Will be calculated in business account domain for each event</t>
+  </si>
+  <si>
     <t>When a product's revenue falls behind its forecast by x% then difference  amount will be debited from nodal account and respective provision account.</t>
   </si>
   <si>
-    <t>When a subscriber does subscription, but has not yet made payment yet, his total subscription value is credited to provisional revenue.</t>
+    <t>When a subscriber does subscription, but has not yet made payment, his total subscription value is credited to provisional revenue.</t>
+  </si>
+  <si>
+    <t>SubscriptionActivatedEvent from subscriber domain</t>
   </si>
   <si>
     <t>When a subscriber does subscription and has made partial/full advanced payment, then the payment amount is credited to booking amount.</t>
@@ -1595,25 +1616,67 @@
     <t>When a delivery is made to subscriber(s),  the delivery amount should be debited from provisional revenue and respective provision account.</t>
   </si>
   <si>
+    <t>BasketDeliveryStatusEvent from subscriber domain</t>
+  </si>
+  <si>
     <t>When a delivery is made to subscriber(s), its revenue is credited under “revenue” subject to receipt of payment. In case some of advanced payment made by subscriber still exists under booking amount, the delivery amount should be debited from booking amount and respective provision account.</t>
   </si>
   <si>
     <t>When interest is gained on booking amount, it will be credited to “interests”.</t>
   </si>
   <si>
+    <t>To be done (via integration domain)</t>
+  </si>
+  <si>
     <t>Debit delivery expense from subscription specific expenses upon successful delivery. Also debit from respective provision account.</t>
   </si>
   <si>
-    <t>Debit fixed operating expense when the same are received from main application. Also debit from respective provision account.</t>
-  </si>
-  <si>
     <t>Debit benefits when subscriber(s) get specific benefit. Also debit from respective provision account.</t>
   </si>
   <si>
     <t>Upon every debit, if balance in respective provision account is approaching to zero, then notification should be sent to merchant to make additional provisions.</t>
   </si>
   <si>
+    <t>Output will be ProvisionNotSufficientNotificationEvent (to be done)</t>
+  </si>
+  <si>
     <t>When the subscription forecast as well as expense forecast is adjusted by the forecast correction job, it should also correct the provisions required under each category and send it to merchant for approval. Once it is approved by merchant, the provisions elements will be credited under respective provisions.</t>
+  </si>
+  <si>
+    <t>When an item is cancelled or replaced from subscription, appropriate item cancellation event should be fired from subscriber domain and they should debit provisional revenue.</t>
+  </si>
+  <si>
+    <t>BasketDeletedEvent and DeliveryCreatedEvent in subscriber domain</t>
+  </si>
+  <si>
+    <t>When an item is replaced or added to current subscription, appropriate item addition event should be fired from subscriber domain and they should credit provisional revenue.</t>
+  </si>
+  <si>
+    <t>When subscriber cancells subscription, appropriate subscription cancelled event should be fired from subscriber domain and they should debit the total sum amount of remaining subscription amount from provisional revenue.</t>
+  </si>
+  <si>
+    <t>Multiple instances of BasketDeletedEvent from subscriber domain</t>
+  </si>
+  <si>
+    <t>When a refund is made to a subscriber subject to cancellation of subscription, appropriate amount is debited from booking amount.</t>
+  </si>
+  <si>
+    <t>To be done (from subscriber domain)</t>
+  </si>
+  <si>
+    <t>When an new subscription is made, any benefits other than product level discount made to the customer are debited from provision for benefits.</t>
+  </si>
+  <si>
+    <t>SubscriptionActivatedEvent from subscriber domain (to be done)</t>
+  </si>
+  <si>
+    <t>When an item is cancelled from subscription, the difference of previous benefit offered and newly calculated benefit will be credited to provision for benefits.</t>
+  </si>
+  <si>
+    <t>When a subscription is cancelled from subscription, the difference of previous benefit offered and newly calculated benefit will be credited to provision for benefits.</t>
+  </si>
+  <si>
+    <t>BasketDeletedEvent in subscriber domain</t>
   </si>
   <si>
     <t>Subscriber fills registration form to register on subscription website.</t>
@@ -1870,16 +1933,16 @@
     <t>Debit from revenue account in case of cancelation of Subscription</t>
   </si>
   <si>
-    <t>Credit delivery expense to subscription specific operating expense on successful delivery. </t>
-  </si>
-  <si>
-    <t>Debit delivery expense from provisional subscription specific operating expense on successful delivery. </t>
-  </si>
-  <si>
-    <t>Credit Fixed expenses to Fixed operating expense when received from site. </t>
-  </si>
-  <si>
-    <t>Debit Fixed expenses from Fixed operating expense when received from site. </t>
+    <t>Credit delivery expense to subscription specific operating expense on successful delivery.</t>
+  </si>
+  <si>
+    <t>Debit delivery expense from provisional subscription specific operating expense on successful delivery.</t>
+  </si>
+  <si>
+    <t>Credit Fixed expenses to Fixed operating expense when received from site.</t>
+  </si>
+  <si>
+    <t>Debit Fixed expenses from Fixed operating expense when received from site.</t>
   </si>
   <si>
     <t>Debit from provision of basket level benefit when subscriber get basket level benefits.</t>
@@ -1889,6 +1952,9 @@
   </si>
   <si>
     <t>Credit to benefit's provisions when subscriber cancels the subscription.</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>Provision for losses would be used as a last resort (i.e. losses occurred and no money for provision)</t>
@@ -1901,7 +1967,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1973,6 +2039,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1996,7 +2069,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -2054,7 +2127,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2235,6 +2308,18 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2266,7 +2351,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -2438,61 +2523,61 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
-        <v>524</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>526</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>527</v>
+      <c r="A1" s="48" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2632,7 @@
       <c r="E2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="46"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="28" t="s">
         <v>20</v>
       </c>
@@ -2574,664 +2659,666 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
-        <v>536</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46" t="s">
-        <v>537</v>
-      </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="A3" s="49" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46" t="s">
-        <v>538</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46" t="s">
-        <v>539</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49" t="s">
+        <v>560</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46" t="s">
-        <v>540</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46" t="s">
-        <v>541</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49" t="s">
+        <v>562</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46" t="s">
-        <v>542</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46" t="s">
-        <v>543</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49" t="s">
+        <v>564</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46" t="s">
-        <v>544</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46" t="s">
-        <v>545</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49" t="s">
+        <v>566</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46" t="s">
-        <v>546</v>
-      </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
     </row>
     <row r="18" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46" t="s">
-        <v>547</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49" t="s">
+        <v>568</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
     </row>
     <row r="19" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46" t="s">
-        <v>549</v>
-      </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49" t="s">
+        <v>570</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
     </row>
     <row r="22" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46" t="s">
-        <v>550</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
     </row>
     <row r="24" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46" t="s">
-        <v>551</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49" t="s">
+        <v>572</v>
+      </c>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="25" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46" t="s">
-        <v>552</v>
-      </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
     </row>
-    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46" t="s">
-        <v>553</v>
-      </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
+    <row r="26" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3264,7 +3351,7 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -33273,10 +33360,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33473,502 +33560,643 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="55.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="40"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>445</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="40" t="s">
+        <v>447</v>
+      </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="40"/>
-      <c r="B12" s="44"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="40"/>
-      <c r="B13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="D13" s="40"/>
+        <v>449</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>450</v>
+      </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="40" t="s">
-        <v>449</v>
-      </c>
-      <c r="D14" s="40"/>
+        <v>451</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>452</v>
+      </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
     </row>
-    <row r="15" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="40" t="s">
-        <v>450</v>
-      </c>
-      <c r="D15" s="40"/>
+        <v>453</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>452</v>
+      </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40"/>
-      <c r="B16" s="44"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="D16" s="40"/>
+        <v>454</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>452</v>
+      </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="40"/>
-      <c r="B17" s="44"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="40"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="D18" s="40"/>
+        <v>456</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>457</v>
+      </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="40"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="D19" s="40"/>
+        <v>458</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>450</v>
+      </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
     </row>
     <row r="20" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="40"/>
-      <c r="B20" s="44"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="40" t="s">
-        <v>455</v>
-      </c>
-      <c r="D20" s="40"/>
+        <v>459</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>460</v>
+      </c>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="40"/>
-      <c r="B21" s="44"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="D21" s="40"/>
+        <v>461</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>462</v>
+      </c>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
     </row>
     <row r="22" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="D22" s="40"/>
+        <v>463</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>462</v>
+      </c>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="40"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="D23" s="40"/>
+        <v>464</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>465</v>
+      </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="40"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="D24" s="40"/>
+        <v>466</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>465</v>
+      </c>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
     </row>
     <row r="25" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="40" t="s">
-        <v>460</v>
-      </c>
-      <c r="D25" s="40"/>
+        <v>467</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>468</v>
+      </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
     </row>
     <row r="26" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="D26" s="40"/>
+        <v>469</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>468</v>
+      </c>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
     </row>
     <row r="27" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="40"/>
-      <c r="B27" s="44"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="D27" s="40"/>
+        <v>470</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>471</v>
+      </c>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
     </row>
     <row r="28" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="40" t="s">
-        <v>463</v>
-      </c>
-      <c r="D28" s="40"/>
+        <v>472</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>468</v>
+      </c>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
     </row>
     <row r="29" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="40"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="40" t="s">
-        <v>464</v>
-      </c>
-      <c r="D29" s="40"/>
+        <v>473</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>465</v>
+      </c>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
     </row>
-    <row r="30" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="40"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="D30" s="40"/>
+        <v>474</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>475</v>
+      </c>
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
     </row>
-    <row r="31" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="40"/>
-      <c r="B31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="D31" s="40"/>
+        <v>476</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>447</v>
+      </c>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
     </row>
-    <row r="32" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="40"/>
-      <c r="B32" s="44"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="D32" s="40"/>
+        <v>477</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>478</v>
+      </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="40"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>478</v>
+      </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="40"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>481</v>
+      </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="40"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>483</v>
+      </c>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>485</v>
+      </c>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="40"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>478</v>
+      </c>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
     </row>
     <row r="38" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="A38" s="40"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="40" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>469</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>471</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
       <c r="G38" s="40"/>
     </row>
-    <row r="39" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="40"/>
-      <c r="B39" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>475</v>
-      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
     </row>
-    <row r="40" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40" t="s">
-        <v>476</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>477</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>478</v>
-      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
     </row>
-    <row r="41" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>480</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>481</v>
-      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
     </row>
-    <row r="42" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40" t="s">
-        <v>482</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>484</v>
-      </c>
+      <c r="B42" s="44"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
     </row>
-    <row r="43" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>487</v>
-      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
     </row>
-    <row r="44" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>489</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>490</v>
-      </c>
+      <c r="B44" s="44"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
     </row>
-    <row r="45" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>492</v>
-      </c>
+      <c r="B45" s="44"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
     </row>
-    <row r="46" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40"/>
+    <row r="46" customFormat="false" ht="42.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="40" t="n">
+        <v>2</v>
+      </c>
       <c r="B46" s="40" t="s">
-        <v>493</v>
+        <v>44</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>496</v>
-      </c>
-      <c r="F46" s="40"/>
+        <v>491</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>492</v>
+      </c>
       <c r="G46" s="40"/>
     </row>
-    <row r="47" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="40"/>
       <c r="B47" s="40" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
     </row>
-    <row r="48" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="40"/>
-      <c r="B48" s="40" t="s">
-        <v>501</v>
-      </c>
+      <c r="B48" s="40"/>
       <c r="C48" s="40" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
     </row>
-    <row r="49" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="40"/>
       <c r="B49" s="40"/>
       <c r="C49" s="40" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
     </row>
-    <row r="50" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="40"/>
-      <c r="B50" s="40" t="s">
-        <v>508</v>
-      </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>505</v>
+      </c>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
     </row>
+    <row r="51" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>508</v>
+      </c>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+    </row>
+    <row r="52" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40" t="s">
+        <v>509</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>510</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+    </row>
+    <row r="53" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>512</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+    </row>
+    <row r="54" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+    </row>
+    <row r="55" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>520</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+    </row>
+    <row r="56" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+    </row>
+    <row r="57" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+    </row>
+    <row r="58" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40" t="s">
+        <v>529</v>
+      </c>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
@@ -33976,8 +34204,9 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B11:B38"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B56:B57"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -34017,7 +34246,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34025,7 +34254,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34033,7 +34262,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34041,7 +34270,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34049,7 +34278,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34057,7 +34286,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34065,7 +34294,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34073,7 +34302,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34081,7 +34310,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34089,7 +34318,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34097,7 +34326,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34105,7 +34334,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34113,7 +34342,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34121,7 +34350,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34129,7 +34358,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="584">
   <si>
     <t xml:space="preserve">Term</t>
   </si>
@@ -1916,7 +1916,28 @@
     <t xml:space="preserve">Admin is able to see specific product(s) which are pending to complete the reconfiguration (e.g. forecast and expense distribution needs to be changed/reconfigured etc.)</t>
   </si>
   <si>
+    <t xml:space="preserve">Domain</t>
+  </si>
+  <si>
     <t xml:space="preserve">BDGT_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiving inventory details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductStatusReceivedEvent is received at business domain (from integration domain). The event contains inventory details (total purchase cost).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total purchase cost is debited under ‘purchase cost’ and provision account for the same (i.e. purchase cost).</t>
   </si>
   <si>
     <t xml:space="preserve">Merchant make provision for initial investment</t>
@@ -2092,7 +2113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2111,6 +2132,13 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -2140,7 +2168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2337,12 +2365,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2431,8 +2471,8 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="103.368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="105.19028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -2528,10 +2568,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -2609,19 +2649,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:N41"/>
+  <dimension ref="A2:N44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.7368421052632"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
@@ -2629,7 +2671,7 @@
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
@@ -2645,7 +2687,9 @@
       <c r="E2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="49"/>
+      <c r="F2" s="49" t="s">
+        <v>558</v>
+      </c>
       <c r="G2" s="28" t="s">
         <v>20</v>
       </c>
@@ -2671,16 +2715,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="49" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="28" t="s">
+        <v>447</v>
+      </c>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
@@ -2691,14 +2737,16 @@
       <c r="M3" s="50"/>
       <c r="N3" s="50"/>
     </row>
-    <row r="4" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="28" t="s">
+        <v>447</v>
+      </c>
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
@@ -2709,14 +2757,16 @@
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
     </row>
-    <row r="5" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="28" t="s">
+        <v>450</v>
+      </c>
       <c r="F5" s="49"/>
       <c r="G5" s="49"/>
       <c r="H5" s="49"/>
@@ -2727,14 +2777,16 @@
       <c r="M5" s="50"/>
       <c r="N5" s="50"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="49"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="28" t="s">
+        <v>452</v>
+      </c>
       <c r="F6" s="49"/>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
@@ -2745,14 +2797,16 @@
       <c r="M6" s="50"/>
       <c r="N6" s="50"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="E7" s="49"/>
+      <c r="E7" s="28" t="s">
+        <v>452</v>
+      </c>
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
@@ -2763,14 +2817,16 @@
       <c r="M7" s="50"/>
       <c r="N7" s="50"/>
     </row>
-    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="49"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="28" t="s">
+        <v>452</v>
+      </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
@@ -2781,14 +2837,16 @@
       <c r="M8" s="50"/>
       <c r="N8" s="50"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="49"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="28" t="s">
+        <v>452</v>
+      </c>
       <c r="F9" s="49"/>
       <c r="G9" s="49"/>
       <c r="H9" s="49"/>
@@ -2799,14 +2857,16 @@
       <c r="M9" s="50"/>
       <c r="N9" s="50"/>
     </row>
-    <row r="10" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="E10" s="49"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
@@ -2817,14 +2877,14 @@
       <c r="M10" s="50"/>
       <c r="N10" s="50"/>
     </row>
-    <row r="11" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="E11" s="49"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="51" t="s">
+        <v>457</v>
+      </c>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
@@ -2835,50 +2895,62 @@
       <c r="M11" s="50"/>
       <c r="N11" s="50"/>
     </row>
-    <row r="12" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="52" t="s">
+        <v>561</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>562</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>563</v>
+      </c>
       <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
+      <c r="I12" s="50" t="s">
+        <v>564</v>
+      </c>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
       <c r="L12" s="50"/>
       <c r="M12" s="50"/>
       <c r="N12" s="50"/>
     </row>
-    <row r="13" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="E13" s="49"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="52" t="s">
+        <v>565</v>
+      </c>
       <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="G13" s="49" t="s">
+        <v>563</v>
+      </c>
       <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="50" t="s">
+        <v>564</v>
+      </c>
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
       <c r="L13" s="50"/>
       <c r="M13" s="50"/>
       <c r="N13" s="50"/>
     </row>
-    <row r="14" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="40" t="s">
-        <v>463</v>
-      </c>
-      <c r="E14" s="49"/>
+      <c r="D14" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>450</v>
+      </c>
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
       <c r="H14" s="49"/>
@@ -2889,14 +2961,16 @@
       <c r="M14" s="50"/>
       <c r="N14" s="50"/>
     </row>
-    <row r="15" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
-      <c r="D15" s="40" t="s">
-        <v>464</v>
-      </c>
-      <c r="E15" s="49"/>
+      <c r="D15" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>460</v>
+      </c>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
       <c r="H15" s="49"/>
@@ -2907,14 +2981,16 @@
       <c r="M15" s="50"/>
       <c r="N15" s="50"/>
     </row>
-    <row r="16" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
-      <c r="D16" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="E16" s="49"/>
+      <c r="D16" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>462</v>
+      </c>
       <c r="F16" s="49"/>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
@@ -2925,14 +3001,16 @@
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
-    <row r="17" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="49"/>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
-      <c r="D17" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="E17" s="49"/>
+      <c r="D17" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>462</v>
+      </c>
       <c r="F17" s="49"/>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
@@ -2943,14 +3021,16 @@
       <c r="M17" s="50"/>
       <c r="N17" s="50"/>
     </row>
-    <row r="18" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="E18" s="49"/>
+      <c r="D18" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>465</v>
+      </c>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
@@ -2961,14 +3041,16 @@
       <c r="M18" s="50"/>
       <c r="N18" s="50"/>
     </row>
-    <row r="19" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
-      <c r="D19" s="40" t="s">
-        <v>471</v>
-      </c>
-      <c r="E19" s="49"/>
+      <c r="D19" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>467</v>
+      </c>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
@@ -2979,14 +3061,16 @@
       <c r="M19" s="50"/>
       <c r="N19" s="50"/>
     </row>
-    <row r="20" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
-      <c r="D20" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="E20" s="49"/>
+      <c r="D20" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>469</v>
+      </c>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
       <c r="H20" s="49"/>
@@ -2997,14 +3081,16 @@
       <c r="M20" s="50"/>
       <c r="N20" s="50"/>
     </row>
-    <row r="21" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
-      <c r="D21" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="E21" s="49"/>
+      <c r="D21" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>469</v>
+      </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
       <c r="H21" s="49"/>
@@ -3015,14 +3101,16 @@
       <c r="M21" s="50"/>
       <c r="N21" s="50"/>
     </row>
-    <row r="22" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="49"/>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
-      <c r="D22" s="40" t="s">
-        <v>475</v>
-      </c>
-      <c r="E22" s="49"/>
+      <c r="D22" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>472</v>
+      </c>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
       <c r="H22" s="49"/>
@@ -3033,14 +3121,16 @@
       <c r="M22" s="50"/>
       <c r="N22" s="50"/>
     </row>
-    <row r="23" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="49"/>
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
-      <c r="D23" s="40" t="s">
-        <v>477</v>
-      </c>
-      <c r="E23" s="49"/>
+      <c r="D23" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>469</v>
+      </c>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
       <c r="H23" s="49"/>
@@ -3051,14 +3141,16 @@
       <c r="M23" s="50"/>
       <c r="N23" s="50"/>
     </row>
-    <row r="24" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="49"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
-      <c r="D24" s="40" t="s">
-        <v>478</v>
-      </c>
-      <c r="E24" s="49"/>
+      <c r="D24" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>465</v>
+      </c>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
       <c r="H24" s="49"/>
@@ -3069,14 +3161,16 @@
       <c r="M24" s="50"/>
       <c r="N24" s="50"/>
     </row>
-    <row r="25" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="49"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
-      <c r="D25" s="40" t="s">
-        <v>480</v>
-      </c>
-      <c r="E25" s="49"/>
+      <c r="D25" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>476</v>
+      </c>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
       <c r="H25" s="49"/>
@@ -3087,14 +3181,16 @@
       <c r="M25" s="50"/>
       <c r="N25" s="50"/>
     </row>
-    <row r="26" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
-      <c r="D26" s="40" t="s">
-        <v>481</v>
-      </c>
-      <c r="E26" s="49"/>
+      <c r="D26" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>447</v>
+      </c>
       <c r="F26" s="49"/>
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
@@ -3105,14 +3201,16 @@
       <c r="M26" s="50"/>
       <c r="N26" s="50"/>
     </row>
-    <row r="27" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="49"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
-      <c r="D27" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="E27" s="49"/>
+      <c r="D27" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>479</v>
+      </c>
       <c r="F27" s="49"/>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
@@ -3123,14 +3221,16 @@
       <c r="M27" s="50"/>
       <c r="N27" s="50"/>
     </row>
-    <row r="28" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="49"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
-      <c r="D28" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="E28" s="49"/>
+      <c r="D28" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>479</v>
+      </c>
       <c r="F28" s="49"/>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
@@ -3141,14 +3241,16 @@
       <c r="M28" s="50"/>
       <c r="N28" s="50"/>
     </row>
-    <row r="29" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="49"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
-      <c r="D29" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="E29" s="49"/>
+      <c r="D29" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>482</v>
+      </c>
       <c r="F29" s="49"/>
       <c r="G29" s="49"/>
       <c r="H29" s="49"/>
@@ -3159,14 +3261,16 @@
       <c r="M29" s="50"/>
       <c r="N29" s="50"/>
     </row>
-    <row r="30" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="49"/>
-      <c r="D30" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="E30" s="49"/>
+      <c r="D30" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>484</v>
+      </c>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
@@ -3177,12 +3281,16 @@
       <c r="M30" s="50"/>
       <c r="N30" s="50"/>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
+      <c r="D31" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>486</v>
+      </c>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
@@ -3193,12 +3301,16 @@
       <c r="M31" s="50"/>
       <c r="N31" s="50"/>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
+      <c r="D32" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>479</v>
+      </c>
       <c r="F32" s="49"/>
       <c r="G32" s="49"/>
       <c r="H32" s="49"/>
@@ -3209,12 +3321,16 @@
       <c r="M32" s="50"/>
       <c r="N32" s="50"/>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
+      <c r="D33" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>489</v>
+      </c>
       <c r="F33" s="49"/>
       <c r="G33" s="49"/>
       <c r="H33" s="49"/>
@@ -3338,14 +3454,14 @@
       <c r="N40" s="50"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
       <c r="I41" s="50"/>
       <c r="J41" s="50"/>
       <c r="K41" s="50"/>
@@ -3353,7 +3469,58 @@
       <c r="M41" s="50"/>
       <c r="N41" s="50"/>
     </row>
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D10:D13"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3378,10 +3545,10 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.7368421052632"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
@@ -3433,12 +3600,12 @@
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="49" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
@@ -3472,7 +3639,7 @@
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="E5" s="49"/>
       <c r="F5" s="49"/>
@@ -3522,7 +3689,7 @@
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
       <c r="D8" s="49" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -3540,7 +3707,7 @@
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -3558,7 +3725,7 @@
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
       <c r="D10" s="49" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -3576,7 +3743,7 @@
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
       <c r="D11" s="49" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -3610,7 +3777,7 @@
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
       <c r="D13" s="49" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
@@ -3628,7 +3795,7 @@
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
@@ -3646,7 +3813,7 @@
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
       <c r="D15" s="49" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -3664,7 +3831,7 @@
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
@@ -3698,7 +3865,7 @@
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
@@ -3716,7 +3883,7 @@
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
@@ -3750,7 +3917,7 @@
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
       <c r="D21" s="49" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
@@ -3768,7 +3935,7 @@
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
       <c r="D22" s="49" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="49"/>
@@ -3802,7 +3969,7 @@
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="49"/>
@@ -3820,7 +3987,7 @@
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="49"/>
@@ -3838,7 +4005,7 @@
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
       <c r="D26" s="49" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="49"/>
@@ -4115,13 +4282,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -4150,15 +4317,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="75.8421052631579"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="4" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="4" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="4" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="77.2307692307692"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="4" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="4" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="4" width="16.3886639676113"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32735,17 +32902,17 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -32801,7 +32968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="26" t="s">
         <v>192</v>
       </c>
@@ -32810,29 +32977,29 @@
       </c>
       <c r="E3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="26"/>
       <c r="D4" s="26" t="s">
         <v>194</v>
       </c>
       <c r="E4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="26"/>
       <c r="D5" s="26" t="s">
         <v>195</v>
       </c>
       <c r="E5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0"/>
+    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="26"/>
       <c r="D6" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0"/>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="26"/>
       <c r="D7" s="4" t="s">
         <v>197</v>
       </c>
@@ -32885,8 +33052,8 @@
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="4" t="s">
+    <row r="15" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C15" s="25" t="s">
         <v>204</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -32896,37 +33063,47 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="25"/>
       <c r="D16" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="25"/>
       <c r="D17" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="25"/>
       <c r="D18" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="25"/>
       <c r="D19" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="25"/>
       <c r="D20" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="25"/>
       <c r="D21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C15:C21"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -32954,18 +33131,18 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="27" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="27" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="73.8056680161943"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="75.0890688259109"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="27" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="27" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="27" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="27" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="27" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="27" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="27" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="27" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="27" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="27" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="27" width="27.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="27" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -33707,9 +33884,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="98.6558704453441"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="100.477732793522"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -33854,10 +34031,10 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="79.8016194331984"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="81.1943319838057"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -34021,10 +34198,10 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -34132,20 +34309,20 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="87.9433198380567"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="89.4453441295547"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -35001,7 +35178,7 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.1943319838057"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="965" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Terminologies used" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,705 +23,700 @@
     <sheet name="notes" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="584">
-  <si>
-    <t xml:space="preserve">Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A process for registerig for an item by  a customer by which a long term periodic receipt of that item by him/her is possible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriptionable Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A product wich is registered by  seller for being eligible for subscriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscription basket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A virtual package of subscriptionable items which has name and defined subscription cycle,so that all items in it are delivered at the same subscription cycle to the customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscription Cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A repititive period chosen by a customer after which the subscriptionable items are delivered to that customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscription Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A total time span chosen by a customer for which subscriptionable items are deivered at every subscription cycle to that customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscription Portfolio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A virtual container of all subscription baskets created by a single customer identified by subscriber Id of that customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A customer who registers for one or more subcriptionable items for them to be received as a periodic delivery.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detailed User Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exception Handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CommandHandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggregate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Handler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Listeners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure rules for subscription basket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an administrator I will add a new rule for the subscription basket "maximum permissible amount of the basket", as value and unit(rupees,dollor,euro etc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasketRulesController -&gt;addBasketRules, updateBasketRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddBasketRulesCommand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddBasketRulesCommandHandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasketRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasketRuleAddedEventListener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an administrator I will add a new rule "minimum threshold amount of basket for discount eligiibiity", value and unit for which the basket may be elligible for basket level discount/offer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an administrator I will add a new rule "maximum permissible discount", unit and value so that any subscriber cannot get discount more than the one defined here .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register as a subscriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I display registration form with allows subscriber to fill details  (address, contact details like email address, mobile number, alternative contact number).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubscriberController-&gt;createSubscriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CreateSubscriberCommand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CreateSubscriberCommandHandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubscriberCreatedEventListener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Subscriber I fill registration form with required details to register on subscription website.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affiance creates subscriber and subscriber account with user name as mobile number/email address and allow subscriber to set password.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubscriberController-&gt;createPassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SetSubscriberPasswordCommand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SetSubscriberPasswordCommandHandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubscriberPasswordSetEventListener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber sets password.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit subscriber details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Subscriber I edit my profile as to keep system updated with my currect contact details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubscriberController-&gt;updateSubscriberContactDetails
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="595">
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>A process for registerig for an item by  a customer by which a long term periodic receipt of that item by him/her is possible.</t>
+  </si>
+  <si>
+    <t>Subscriptionable Item</t>
+  </si>
+  <si>
+    <t>A product wich is registered by  seller for being eligible for subscriptions</t>
+  </si>
+  <si>
+    <t>Subscription basket</t>
+  </si>
+  <si>
+    <t>A virtual package of subscriptionable items which has name and defined subscription cycle,so that all items in it are delivered at the same subscription cycle to the customer</t>
+  </si>
+  <si>
+    <t>Subscription Cycle</t>
+  </si>
+  <si>
+    <t>A repititive period chosen by a customer after which the subscriptionable items are delivered to that customer</t>
+  </si>
+  <si>
+    <t>Subscription Period</t>
+  </si>
+  <si>
+    <t>A total time span chosen by a customer for which subscriptionable items are deivered at every subscription cycle to that customer</t>
+  </si>
+  <si>
+    <t>Subscription Portfolio</t>
+  </si>
+  <si>
+    <t>A virtual container of all subscription baskets created by a single customer identified by subscriber Id of that customer</t>
+  </si>
+  <si>
+    <t>Subscriber</t>
+  </si>
+  <si>
+    <t>A customer who registers for one or more subcriptionable items for them to be received as a periodic delivery.</t>
+  </si>
+  <si>
+    <t>USNo</t>
+  </si>
+  <si>
+    <t>Dependancy</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>Detailed User Stories</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>CommandHandler</t>
+  </si>
+  <si>
+    <t>Aggregate</t>
+  </si>
+  <si>
+    <t>Event Handler</t>
+  </si>
+  <si>
+    <t>Event Listeners</t>
+  </si>
+  <si>
+    <t>BASSUB_01</t>
+  </si>
+  <si>
+    <t>Configure rules for subscription basket</t>
+  </si>
+  <si>
+    <t>As an administrator I will add a new rule for the subscription basket "maximum permissible amount of the basket", as value and unit(rupees,dollor,euro etc)</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>BasketRulesController -&gt;addBasketRules, updateBasketRules</t>
+  </si>
+  <si>
+    <t>AddBasketRulesCommand</t>
+  </si>
+  <si>
+    <t>AddBasketRulesCommandHandler</t>
+  </si>
+  <si>
+    <t>BasketRule</t>
+  </si>
+  <si>
+    <t>BasketRuleAddedEventListener</t>
+  </si>
+  <si>
+    <t>BASSUB_02</t>
+  </si>
+  <si>
+    <t>As an administrator I will add a new rule "minimum threshold amount of basket for discount eligiibiity", value and unit for which the basket may be elligible for basket level discount/offer.</t>
+  </si>
+  <si>
+    <t>BASSUB_03</t>
+  </si>
+  <si>
+    <t>As an administrator I will add a new rule "maximum permissible discount", unit and value so that any subscriber cannot get discount more than the one defined here .</t>
+  </si>
+  <si>
+    <t>Register as a subscriber</t>
+  </si>
+  <si>
+    <t>As a System I display registration form with allows subscriber to fill details  (address, contact details like email address, mobile number, alternative contact number).</t>
+  </si>
+  <si>
+    <t>Subscriber registration</t>
+  </si>
+  <si>
+    <t>SubscriberController-&gt;createSubscriber</t>
+  </si>
+  <si>
+    <t>CreateSubscriberCommand</t>
+  </si>
+  <si>
+    <t>CreateSubscriberCommandHandler</t>
+  </si>
+  <si>
+    <t>SubscriberCreatedEventListener</t>
+  </si>
+  <si>
+    <t>As a Subscriber I fill registration form with required details to register on subscription website.</t>
+  </si>
+  <si>
+    <t>Affiance creates subscriber and subscriber account with user name as mobile number/email address and allow subscriber to set password.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>SubscriberController-&gt;createPassword</t>
+  </si>
+  <si>
+    <t>SetSubscriberPasswordCommand</t>
+  </si>
+  <si>
+    <t>SetSubscriberPasswordCommandHandler</t>
+  </si>
+  <si>
+    <t>SubscriberPasswordSetEventListener</t>
+  </si>
+  <si>
+    <t>Subscriber sets password.</t>
+  </si>
+  <si>
+    <t>Edit subscriber details</t>
+  </si>
+  <si>
+    <t>As a Subscriber I edit my profile as to keep system updated with my currect contact details.</t>
+  </si>
+  <si>
+    <t>SubscriberController-&gt;updateSubscriberContactDetails
 SubscriberController-&gt;updateSubscriberAddress</t>
   </si>
   <si>
-    <t xml:space="preserve">UpdateSubscriberContactDetailsCommand
+    <t>UpdateSubscriberContactDetailsCommand
 UpdateSubscriberAddressCommand</t>
   </si>
   <si>
-    <t xml:space="preserve">UpdateSubscriberContactDetailsCommandHandler
+    <t>UpdateSubscriberContactDetailsCommandHandler
 UpdateSubscriberAddressCommandHandler</t>
   </si>
   <si>
-    <t xml:space="preserve">SubscriberContactDetailsUpdatedEventListener
+    <t>SubscriberContactDetailsUpdatedEventListener
 SubscriberAddressUpdatedEventListener</t>
   </si>
   <si>
-    <t xml:space="preserve">BASSUB_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A subscriber subscribing to a subscriptionable item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a User  I add a subscription item to his subscription by providing subscription cycle (weekly, monthly, twice a month, alternate months, quaterly), quantity per cycle and number of cycles, so as to subscribe for that item.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item subcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubscriptionController-&gt;addItemToConsumerBasket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddItemToSubscriptionCommand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddItemToSubscriptionCommandHandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ItemAddedToSubscriptionEventListener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item prices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When system activates subscription after receiving payment, as a System I will assign price bucket to each items in the Subscriber Account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCT-&gt;PRICING domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will update total subscription count by adding one to the count when subscription is confirmed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will update total subscription count by reducing one from the count when subscription is cancelled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will update total subscription  value by adding the latest subscription amount for the total subscription period as a booked subscription revenue as well as actual revenue in case subscriber has made the full advanced payment for full subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will update total subscription  value by adding the latest subscription amount for the total subscription period as a booked subscription revenue as well as actual payment made in actual revenue in case subscriber has made the partial advanced payment for full subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will update total subscription  value by adding the latest subscription amount for the total subscription period as a booked subscription revenue but no update to actual revenue in case subscriber has chosen cash on delivery option.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will  reduce the subscription count  when an existing subscriber has cancelled his total subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will update total subscription profit when a new subscription is confirmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will update total subscription profit when existing subscription is changed by replacing,adding,modifying subscription content.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will update total subscription profit when existing subscription is cancelled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When subscriber increase quantity of perticular item, As a System I will assign new price bucket to newly added quantity and add it in the list against that productID in subscriber account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product -PR22 To PR-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System receiving price quote for the subscibed item on the day of subscription from Pricing domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I receive current price quote for a the subscription item from products domain  and show it as today's offered price,MRP, perentage gain so that user can agree to it and confirm his/her subscription to that product.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a User I keep on adding subscription items to basket by entering subscryption cycle (weekly, monthly, twice a month, alternate months, quaterly), quantity per cycle and number of cycles so as to build my subscription basket and finally checkout the basket after finalizing subscription items so as to get the total price to be paid as well as total gain( as compared to total MRP).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will run subscription item level validations and display error message in case of any validation fails.
+    <t>BASSUB_04</t>
+  </si>
+  <si>
+    <t>A subscriber subscribing to a subscriptionable item</t>
+  </si>
+  <si>
+    <t>As a User  I add a subscription item to his subscription by providing subscription cycle (weekly, monthly, twice a month, alternate months, quaterly), quantity per cycle and number of cycles, so as to subscribe for that item.</t>
+  </si>
+  <si>
+    <t>Item subcription</t>
+  </si>
+  <si>
+    <t>SubscriptionController-&gt;addItemToConsumerBasket</t>
+  </si>
+  <si>
+    <t>AddItemToSubscriptionCommand</t>
+  </si>
+  <si>
+    <t>AddItemToSubscriptionCommandHandler</t>
+  </si>
+  <si>
+    <t>ItemAddedToSubscriptionEventListener</t>
+  </si>
+  <si>
+    <t>Item prices</t>
+  </si>
+  <si>
+    <t>When system activates subscription after receiving payment, as a System I will assign price bucket to each items in the Subscriber Account.</t>
+  </si>
+  <si>
+    <t>Item Subscription</t>
+  </si>
+  <si>
+    <t>PRODUCT-&gt;PRICING domain</t>
+  </si>
+  <si>
+    <t>As a system I will update total subscription count by adding one to the count when subscription is confirmed.</t>
+  </si>
+  <si>
+    <t>As a system I will update total subscription count by reducing one from the count when subscription is cancelled.</t>
+  </si>
+  <si>
+    <t>As a system I will update total subscription  value by adding the latest subscription amount for the total subscription period as a booked subscription revenue as well as actual revenue in case subscriber has made the full advanced payment for full subscription.</t>
+  </si>
+  <si>
+    <t>As a system I will update total subscription  value by adding the latest subscription amount for the total subscription period as a booked subscription revenue as well as actual payment made in actual revenue in case subscriber has made the partial advanced payment for full subscription.</t>
+  </si>
+  <si>
+    <t>As a system I will update total subscription  value by adding the latest subscription amount for the total subscription period as a booked subscription revenue but no update to actual revenue in case subscriber has chosen cash on delivery option.</t>
+  </si>
+  <si>
+    <t>As a system I will  reduce the subscription count  when an existing subscriber has cancelled his total subscription.</t>
+  </si>
+  <si>
+    <t>As a system I will update total subscription profit when a new subscription is confirmed</t>
+  </si>
+  <si>
+    <t>As a system I will update total subscription profit when existing subscription is changed by replacing,adding,modifying subscription content.</t>
+  </si>
+  <si>
+    <t>As a system I will update total subscription profit when existing subscription is cancelled.</t>
+  </si>
+  <si>
+    <t>When subscriber increase quantity of perticular item, As a System I will assign new price bucket to newly added quantity and add it in the list against that productID in subscriber account.</t>
+  </si>
+  <si>
+    <t>BASSUB_05</t>
+  </si>
+  <si>
+    <t>Product -PR22 To PR-29</t>
+  </si>
+  <si>
+    <t>System receiving price quote for the subscibed item on the day of subscription from Pricing domain</t>
+  </si>
+  <si>
+    <t>As a system I receive current price quote for a the subscription item from products domain  and show it as today's offered price,MRP, perentage gain so that user can agree to it and confirm his/her subscription to that product.</t>
+  </si>
+  <si>
+    <t>BASSUB_06</t>
+  </si>
+  <si>
+    <t>As a User I keep on adding subscription items to basket by entering subscryption cycle (weekly, monthly, twice a month, alternate months, quaterly), quantity per cycle and number of cycles so as to build my subscription basket and finally checkout the basket after finalizing subscription items so as to get the total price to be paid as well as total gain( as compared to total MRP).</t>
+  </si>
+  <si>
+    <t>BASSUB_07</t>
+  </si>
+  <si>
+    <t>As a System I will run subscription item level validations and display error message in case of any validation fails.
 LIST OF VALIDATIONS ???</t>
   </si>
   <si>
-    <t xml:space="preserve">BASSUB_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUPLICATE OF BASSUB_05??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will recalculate and show the revised price quotes for each subscription item based on the basket size/amount of basket,supply vs demand statistics of items selected etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASUB_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basket level benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will calculate basket level discount (only if the minimum threshold amount for the basket is overcome) based on credit point of basket items, total basket amount, Duration of the subscription, Payment mode, Stability of the basket (no content is changed in the basket after subscription will attract full benefits) when subscriber confirms subscription. Discount can be redemption point, cashback or diect deduction from total amount.
+    <t>BASSUB_08</t>
+  </si>
+  <si>
+    <t>DUPLICATE OF BASSUB_05??</t>
+  </si>
+  <si>
+    <t>As a system I will recalculate and show the revised price quotes for each subscription item based on the basket size/amount of basket,supply vs demand statistics of items selected etc.</t>
+  </si>
+  <si>
+    <t>BASUB_09</t>
+  </si>
+  <si>
+    <t>Basket level benefits</t>
+  </si>
+  <si>
+    <t>As a System I will calculate basket level discount (only if the minimum threshold amount for the basket is overcome) based on credit point of basket items, total basket amount, Duration of the subscription, Payment mode, Stability of the basket (no content is changed in the basket after subscription will attract full benefits) when subscriber confirms subscription. Discount can be redemption point, cashback or diect deduction from total amount.
 NEED TO DESCRIBE EACH STEP AS SEPERATE USER SOTRY.</t>
   </si>
   <si>
-    <t xml:space="preserve">Subscription Confirmed event or Subscription update accepted event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOW DUPLICATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will calculate the additional discount per basket if any, only if the minimum threshold amount for the basket is overcome.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will run basket level validations and display error message in case of any validation fails.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I display subscription basket containing list of intended subscription items'  payable price per item, total MRP per item,  percentage gain per item,total amout to be paid for the basket ,total MRP for the basket  and total savings in percentage  and in amount per basket per cycle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user I can add a new subcrptionable item to my subcription basket from the subcription basket screen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will recalculate and display the revised prices of the items in the user's basket so as to accommodate the incorporation of additional item as well as added basket price.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user  can modify the quantity of one or more subscriptionable items from subscription basket screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will recalculate and display the revised prices of the items in the user's basket so as to accommodate the change of quantity of few items .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user I  can modify subcription period of subscription basket from subscription basket screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will recalculate and display the revised prices of the items in the user's basket so as to accommodate the change of subscription period.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user I can delete an already subscribed subscriptionable item from subscription basket screen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will recalculate and display the revised prices of the items in the user's basket so as to accommodate the removal of subscriptionable items from the basket.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a User I enter billing address,delivery address,so as to receive  package and bill.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System retrieves other user information like e-mail address and phone number from main application and attach to subscription basket.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber makes payment for the periodic subscription of subscriptionable items(different payment schemes?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will send all list of subscriptions to shopping site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activate Subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shopping site will send payment confirmation for all successful payment in end of the day process.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will activate all subscriptions for which successful payment confirmation received.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create deliverable basket from subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will trigger batch/component to create deliverable basket from subscription so that it can be sent to shopping site for delivery.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overdue Subscripton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System suspends subscription order due to absence of payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add items into active subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a User  I add a subscription item to a active subscription basket by providing subscryption cycle (weekly, monthly, twice a month, alternate months, quaterly), quantity per cycle and number of cycles, so as to subscribe for that item.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will run subscription item level validations and display error message in case of any validation fails.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will recalculate and show the revised price quotes for newly added subscription items based on the basket size/amount of basket,supply vs demand statistics of items selected etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I display updated subscription basket containing list of intended subscription items'  payable price per item, total MRP per item,  percentage gain per item,total amout to be paid for the basket ,total MRP for the basket  and total savings in percentage  and in amount per basket per cycle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System routes user to payment system. Payment system send event (success or failure) back to subscription system. Subscription system register revised subscription accordingly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsubscribe items from active subscription basket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user I can modify the quantity or number of cycle of one or more subscriptionable items from subscription basket screen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user I can unsubscribe an already subscribed subscriptionable item from subscription basket screen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will calculate refund amount and charges (Same as additional discount on delivered items provided to subscriber) and display on screen with 'Accept' and 'Cancel' buttons to take approval of user.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user I will accept calcellation in order to revise my subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I display updated subscription basket.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will trigger refund event so that refund domain can consume it to initiate refund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User cancel subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user I will cancel subscription as to unsubscribe all items from subscription basket.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASSUB_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASKET_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initiatie dispatch request event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will initiate an event on a daily basis containing the subscriberId,list of products selected by him/her(category id,subcategory Id,item id,quoted price of each item subscribed under his basket) and intended delivery date  so as to make the dispatch department enable the actual dispatch of these items as well as consolidate if the required dispatch were made on that day or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASKET_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update status of targeted dispatches on every day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System will receive the status(DISPATCH,DEIVERED,DELIVERY FAILED) with reason code  of raised dispatch requests,from dispatch/delivery departments in the form of an event(per each dispatch) so as to update the same in the repository .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register refund event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I listen to refund event generated by BasketSubscription as to start refund process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send refund details to shopping site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will communicate refund details to shopping site with details like basketId, subscriberId, refund amount, refund process start date, refund process end date and mark refund process status as 'sent for deposit'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoipping site will send comfirmation of refund proccess completed in end of the cycle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark refund process as complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will mark  refund process as completed in system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber receives collective subscription renewal order mentioning subscription deetails and payment made</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber gets notified on the dispatch/successful delivery of subscribed items. This should also contain details of discounts and total savings (maybe different for each delivery).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber receives payment reminder for the registered subscription order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber receives subscription extension reminder when subscription period is about to expire (e.g. 1 month before expiry)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber gets notified for special offers (e.g. extra discounts for loyal subscribers only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber receives notification when he/she is registered in system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber receives notification when he/she cancells subscription from system. Similar notification will be received by subscriber after expiry of subscription period.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addition of new product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant receives notification once new product is configured in system (with relevant details like discount, eligibilit etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant receives notification whenever a specific product is doing very good or very bad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To check what should be time frame for this</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant receives notification whenever business is doing very good or very bad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant receives notification once price of a product is changed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant receives notification once new benefit is added or existing benefit is modified (extremely unlikely)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant receives notification regarding forecast and relevant proposed order for future (based on historical data)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant receives notification whenever a specific product is incurring losses due to its fixed price based discount (e.g. subscriber will receive product for Rs. 60 as fixed price for 1 year, but price of product changes to – say Rs. 65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant receives notification once pricing engine modifies the price of a product (based on demand, historical data etc.). Final change will be made only after merchant confirms price offered by engine (or, overrides it)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exception handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEMREG_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register shopping item as subscriptionable items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an administrator I will select an item to be register as a subscriptionable item and register it with system so that only these items will be available for periodic subscriptions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductController -&gt; setProductConfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SetProductConfigurationCommand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SetProductConfigurationCommandHandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductConfigurationSetEventListener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PostConfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create product account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will create a product account for every product that administrator has registered with affaince as a subscriptionable product so as to maintain all product related transactions data in it. It will have following provisions
+    <t>Subscription Confirmed event or Subscription update accepted event</t>
+  </si>
+  <si>
+    <t>BASSUB_09</t>
+  </si>
+  <si>
+    <t>NOW DUPLICATE</t>
+  </si>
+  <si>
+    <t>As a System I will calculate the additional discount per basket if any, only if the minimum threshold amount for the basket is overcome.</t>
+  </si>
+  <si>
+    <t>BASSUB_10</t>
+  </si>
+  <si>
+    <t>As a System I will run basket level validations and display error message in case of any validation fails.</t>
+  </si>
+  <si>
+    <t>BASSUB_11</t>
+  </si>
+  <si>
+    <t>As a System I display subscription basket containing list of intended subscription items'  payable price per item, total MRP per item,  percentage gain per item,total amout to be paid for the basket ,total MRP for the basket  and total savings in percentage  and in amount per basket per cycle.</t>
+  </si>
+  <si>
+    <t>BASSUB_12</t>
+  </si>
+  <si>
+    <t>As a user I can add a new subcrptionable item to my subcription basket from the subcription basket screen.</t>
+  </si>
+  <si>
+    <t>BASSUB_13</t>
+  </si>
+  <si>
+    <t>As a system I will recalculate and display the revised prices of the items in the user's basket so as to accommodate the incorporation of additional item as well as added basket price.</t>
+  </si>
+  <si>
+    <t>BASSUB_14</t>
+  </si>
+  <si>
+    <t>As a user  can modify the quantity of one or more subscriptionable items from subscription basket screen</t>
+  </si>
+  <si>
+    <t>BASSUB_15</t>
+  </si>
+  <si>
+    <t>As a system I will recalculate and display the revised prices of the items in the user's basket so as to accommodate the change of quantity of few items .</t>
+  </si>
+  <si>
+    <t>BASSUB_16</t>
+  </si>
+  <si>
+    <t>As a user I  can modify subcription period of subscription basket from subscription basket screen</t>
+  </si>
+  <si>
+    <t>BASSUB_17</t>
+  </si>
+  <si>
+    <t>As a system I will recalculate and display the revised prices of the items in the user's basket so as to accommodate the change of subscription period.</t>
+  </si>
+  <si>
+    <t>BASSUB_18</t>
+  </si>
+  <si>
+    <t>As a user I can delete an already subscribed subscriptionable item from subscription basket screen.</t>
+  </si>
+  <si>
+    <t>BASSUB_19</t>
+  </si>
+  <si>
+    <t>As a system I will recalculate and display the revised prices of the items in the user's basket so as to accommodate the removal of subscriptionable items from the basket.</t>
+  </si>
+  <si>
+    <t>BASSUB_20</t>
+  </si>
+  <si>
+    <t>As a User I enter billing address,delivery address,so as to receive  package and bill.</t>
+  </si>
+  <si>
+    <t>BASSUB_21</t>
+  </si>
+  <si>
+    <t>System retrieves other user information like e-mail address and phone number from main application and attach to subscription basket.</t>
+  </si>
+  <si>
+    <t>BASSUB_22</t>
+  </si>
+  <si>
+    <t>Subscriber makes payment for the periodic subscription of subscriptionable items(different payment schemes?)</t>
+  </si>
+  <si>
+    <t>As a system I will send all list of subscriptions to shopping site.</t>
+  </si>
+  <si>
+    <t>BASSUB_23</t>
+  </si>
+  <si>
+    <t>Activate Subscription</t>
+  </si>
+  <si>
+    <t>Shopping site will send payment confirmation for all successful payment in end of the day process.</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>BASSUB_24</t>
+  </si>
+  <si>
+    <t>As a System I will activate all subscriptions for which successful payment confirmation received.</t>
+  </si>
+  <si>
+    <t>BASSUB_25</t>
+  </si>
+  <si>
+    <t>Create deliverable basket from subscription</t>
+  </si>
+  <si>
+    <t>As a System I will trigger batch/component to create deliverable basket from subscription so that it can be sent to shopping site for delivery.</t>
+  </si>
+  <si>
+    <t>BASSUB_26</t>
+  </si>
+  <si>
+    <t>Overdue Subscripton</t>
+  </si>
+  <si>
+    <t>System suspends subscription order due to absence of payment</t>
+  </si>
+  <si>
+    <t>BASSUB_27</t>
+  </si>
+  <si>
+    <t>Add items into active subscription</t>
+  </si>
+  <si>
+    <t>As a User  I add a subscription item to a active subscription basket by providing subscryption cycle (weekly, monthly, twice a month, alternate months, quaterly), quantity per cycle and number of cycles, so as to subscribe for that item.</t>
+  </si>
+  <si>
+    <t>BASSUB_28</t>
+  </si>
+  <si>
+    <t>As a System I will run subscription item level validations and display error message in case of any validation fails.</t>
+  </si>
+  <si>
+    <t>BASSUB_29</t>
+  </si>
+  <si>
+    <t>As a system I will recalculate and show the revised price quotes for newly added subscription items based on the basket size/amount of basket,supply vs demand statistics of items selected etc.</t>
+  </si>
+  <si>
+    <t>BASSUB_30</t>
+  </si>
+  <si>
+    <t>BASSUB_31</t>
+  </si>
+  <si>
+    <t>BASSUB_32</t>
+  </si>
+  <si>
+    <t>As a System I display updated subscription basket containing list of intended subscription items'  payable price per item, total MRP per item,  percentage gain per item,total amout to be paid for the basket ,total MRP for the basket  and total savings in percentage  and in amount per basket per cycle.</t>
+  </si>
+  <si>
+    <t>BASSUB_33</t>
+  </si>
+  <si>
+    <t>System routes user to payment system. Payment system send event (success or failure) back to subscription system. Subscription system register revised subscription accordingly.</t>
+  </si>
+  <si>
+    <t>BASSUB_34</t>
+  </si>
+  <si>
+    <t>Unsubscribe items from active subscription basket</t>
+  </si>
+  <si>
+    <t>As a user I can modify the quantity or number of cycle of one or more subscriptionable items from subscription basket screen.</t>
+  </si>
+  <si>
+    <t>BASSUB_35</t>
+  </si>
+  <si>
+    <t>As a user I can unsubscribe an already subscribed subscriptionable item from subscription basket screen.</t>
+  </si>
+  <si>
+    <t>BASSUB_36</t>
+  </si>
+  <si>
+    <t>As a system I will calculate refund amount and charges (Same as additional discount on delivered items provided to subscriber) and display on screen with 'Accept' and 'Cancel' buttons to take approval of user.</t>
+  </si>
+  <si>
+    <t>BASSUB_37</t>
+  </si>
+  <si>
+    <t>As a user I will accept calcellation in order to revise my subscription.</t>
+  </si>
+  <si>
+    <t>BASSUB_38</t>
+  </si>
+  <si>
+    <t>As a System I display updated subscription basket.</t>
+  </si>
+  <si>
+    <t>BASSUB_39</t>
+  </si>
+  <si>
+    <t>As a System I will trigger refund event so that refund domain can consume it to initiate refund</t>
+  </si>
+  <si>
+    <t>BASSUB_40</t>
+  </si>
+  <si>
+    <t>User cancel subscription</t>
+  </si>
+  <si>
+    <t>As a user I will cancel subscription as to unsubscribe all items from subscription basket.</t>
+  </si>
+  <si>
+    <t>BASSUB_41</t>
+  </si>
+  <si>
+    <t>BASSUB_42</t>
+  </si>
+  <si>
+    <t>BASSUB_43</t>
+  </si>
+  <si>
+    <t>BASKET_01</t>
+  </si>
+  <si>
+    <t>Initiatie dispatch request event</t>
+  </si>
+  <si>
+    <t>As a system I will initiate an event on a daily basis containing the subscriberId,list of products selected by him/her(category id,subcategory Id,item id,quoted price of each item subscribed under his basket) and intended delivery date  so as to make the dispatch department enable the actual dispatch of these items as well as consolidate if the required dispatch were made on that day or not.</t>
+  </si>
+  <si>
+    <t>BASKET_02</t>
+  </si>
+  <si>
+    <t>INT_05</t>
+  </si>
+  <si>
+    <t>Update status of targeted dispatches on every day</t>
+  </si>
+  <si>
+    <t>System will receive the status(DISPATCH,DEIVERED,DELIVERY FAILED) with reason code  of raised dispatch requests,from dispatch/delivery departments in the form of an event(per each dispatch) so as to update the same in the repository .</t>
+  </si>
+  <si>
+    <t>REF_01</t>
+  </si>
+  <si>
+    <t>Register refund event</t>
+  </si>
+  <si>
+    <t>As a System I listen to refund event generated by BasketSubscription as to start refund process</t>
+  </si>
+  <si>
+    <t>REF_02</t>
+  </si>
+  <si>
+    <t>Send refund details to shopping site</t>
+  </si>
+  <si>
+    <t>As a System I will communicate refund details to shopping site with details like basketId, subscriberId, refund amount, refund process start date, refund process end date and mark refund process status as 'sent for deposit'.</t>
+  </si>
+  <si>
+    <t>REF_03</t>
+  </si>
+  <si>
+    <t>Shoipping site will send comfirmation of refund proccess completed in end of the cycle.</t>
+  </si>
+  <si>
+    <t>REF_04</t>
+  </si>
+  <si>
+    <t>Mark refund process as complete</t>
+  </si>
+  <si>
+    <t>As a System I will mark  refund process as completed in system.</t>
+  </si>
+  <si>
+    <t>Active subscription</t>
+  </si>
+  <si>
+    <t>Subscriber receives collective subscription renewal order mentioning subscription deetails and payment made</t>
+  </si>
+  <si>
+    <t>Subscriber gets notified on the dispatch/successful delivery of subscribed items. This should also contain details of discounts and total savings (maybe different for each delivery).</t>
+  </si>
+  <si>
+    <t>Subscriber receives payment reminder for the registered subscription order</t>
+  </si>
+  <si>
+    <t>Subscriber receives subscription extension reminder when subscription period is about to expire (e.g. 1 month before expiry)</t>
+  </si>
+  <si>
+    <t>Subscriber gets notified for special offers (e.g. extra discounts for loyal subscribers only)</t>
+  </si>
+  <si>
+    <t>New subscription</t>
+  </si>
+  <si>
+    <t>Subscriber receives notification when he/she is registered in system</t>
+  </si>
+  <si>
+    <t>Cancel subscription</t>
+  </si>
+  <si>
+    <t>Subscriber receives notification when he/she cancells subscription from system. Similar notification will be received by subscriber after expiry of subscription period.</t>
+  </si>
+  <si>
+    <t>Addition of new product</t>
+  </si>
+  <si>
+    <t>Merchant receives notification once new product is configured in system (with relevant details like discount, eligibilit etc.)</t>
+  </si>
+  <si>
+    <t>Product added</t>
+  </si>
+  <si>
+    <t>Merchant receives notification whenever a specific product is doing very good or very bad</t>
+  </si>
+  <si>
+    <t>To check what should be time frame for this</t>
+  </si>
+  <si>
+    <t>Merchant receives notification whenever business is doing very good or very bad</t>
+  </si>
+  <si>
+    <t>Merchant receives notification once price of a product is changed</t>
+  </si>
+  <si>
+    <t>Merchant receives notification once new benefit is added or existing benefit is modified (extremely unlikely)</t>
+  </si>
+  <si>
+    <t>Merchant receives notification regarding forecast and relevant proposed order for future (based on historical data)</t>
+  </si>
+  <si>
+    <t>Merchant receives notification whenever a specific product is incurring losses due to its fixed price based discount (e.g. subscriber will receive product for Rs. 60 as fixed price for 1 year, but price of product changes to – say Rs. 65)</t>
+  </si>
+  <si>
+    <t>Merchant receives notification once pricing engine modifies the price of a product (based on demand, historical data etc.). Final change will be made only after merchant confirms price offered by engine (or, overrides it)</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Exception handling</t>
+  </si>
+  <si>
+    <t>ITEMREG_01</t>
+  </si>
+  <si>
+    <t>INT_01</t>
+  </si>
+  <si>
+    <t>Register shopping item as subscriptionable items</t>
+  </si>
+  <si>
+    <t>As an administrator I will select an item to be register as a subscriptionable item and register it with system so that only these items will be available for periodic subscriptions.</t>
+  </si>
+  <si>
+    <t>ProductController -&gt; setProductConfiguration</t>
+  </si>
+  <si>
+    <t>SetProductConfigurationCommand</t>
+  </si>
+  <si>
+    <t>SetProductConfigurationCommandHandler</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>ProductConfigurationSetEventListener</t>
+  </si>
+  <si>
+    <t>PR_01</t>
+  </si>
+  <si>
+    <t>PostConfiguration</t>
+  </si>
+  <si>
+    <t>Create product account</t>
+  </si>
+  <si>
+    <t>As a system I will create a product account for every product that administrator has registered with affaince as a subscriptionable product so as to maintain all product related transactions data in it. It will have following provisions
 1. Forecast
 2. Actuals
 3. Credit points
@@ -730,28 +725,28 @@
 6.Contingencies</t>
   </si>
   <si>
-    <t xml:space="preserve">product account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductController -&gt; registerProduct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegisterProductCommand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegisterProductCommandHandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductRegisteredEventListener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Define product pricing paramters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an Adminstrator I will define which Parameters shuld be used for detemining the product price so as to decide which data should be captured in product forecast
+    <t>product account</t>
+  </si>
+  <si>
+    <t>ProductController -&gt; registerProduct</t>
+  </si>
+  <si>
+    <t>RegisterProductCommand</t>
+  </si>
+  <si>
+    <t>RegisterProductCommandHandler</t>
+  </si>
+  <si>
+    <t>ProductRegisteredEventListener</t>
+  </si>
+  <si>
+    <t>PR_02</t>
+  </si>
+  <si>
+    <t>Define product pricing paramters</t>
+  </si>
+  <si>
+    <t>As an Adminstrator I will define which Parameters shuld be used for detemining the product price so as to decide which data should be captured in product forecast
 1. Demand per price(quantity demanded per unit work period against offered prices) - Manadatory
    1.1 Demand curve period : 1 month,3 months,6 months, 1year
     1.2 Price change on X% revenue change/profit change
@@ -759,22 +754,22 @@
 3. Advertising expenses(optional)</t>
   </si>
   <si>
-    <t xml:space="preserve">Configuration,product account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capture forecast for a product(for first time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an administrator I create forecast for a subscriptionable product so as to compare the actual performance of that product against predictions. The structure(for every product) will have following attributes.
+    <t>Configuration,product account</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
+  </si>
+  <si>
+    <t>PR_03</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>Capture forecast for a product(for first time)</t>
+  </si>
+  <si>
+    <t>As an administrator I create forecast for a subscriptionable product so as to compare the actual performance of that product against predictions. The structure(for every product) will have following attributes.
 1. Price buckets containing prediction about changing offering prices/purchase prices
 2. Weight
 3. Profit margin
@@ -788,10 +783,10 @@
 11. To Date of Forecast</t>
   </si>
   <si>
-    <t xml:space="preserve">Capture operating expenses forecast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an administrator I will add following paramters so as to calculate forecasted/actual operating expenses
+    <t>Capture operating expenses forecast</t>
+  </si>
+  <si>
+    <t>As an administrator I will add following paramters so as to calculate forecasted/actual operating expenses
 1. Common expenses
      -New- Software maintenance and enhancement cost = X Rs per Year
      -New - Expenses on communication charges(telephoe bill/internet) = Y Rs per month/year
@@ -811,71 +806,71 @@
                  -New - deivery cost from 3 kg to 5 kg = A Rs</t>
   </si>
   <si>
-    <t xml:space="preserve">Partially Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. OperatingExpenseController -&gt; setOperatingExpenses
+    <t>Partially Completed</t>
+  </si>
+  <si>
+    <t>1. OperatingExpenseController -&gt; setOperatingExpenses
 2. OperatingExpenseController -&gt; setDeliveryChargesRules</t>
   </si>
   <si>
-    <t xml:space="preserve">1. AddCommonOperatingExpenseCommand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. AddCommonOperatingExpenseCommandHandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. CommonOperatingExpense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. CommonExpenseAddedEventListener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed daily values for the attributes from main application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will receive following attributes of every product and feed it in actuals of respective product account so as to calculate the offered price of a product.
+    <t>1. AddCommonOperatingExpenseCommand</t>
+  </si>
+  <si>
+    <t>1. AddCommonOperatingExpenseCommandHandler</t>
+  </si>
+  <si>
+    <t>1. CommonOperatingExpense</t>
+  </si>
+  <si>
+    <t>1. CommonExpenseAddedEventListener</t>
+  </si>
+  <si>
+    <t>PR_04</t>
+  </si>
+  <si>
+    <t>INT_02</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Feed daily values for the attributes from main application</t>
+  </si>
+  <si>
+    <t>As a system I will receive following attributes of every product and feed it in actuals of respective product account so as to calculate the offered price of a product.
 1 Purchase price of the product on a day
 2. MRP of a product on a day
 3.Current Stock</t>
   </si>
   <si>
-    <t xml:space="preserve">Integration,Product account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replicate actuals of last year as forecast of current year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will replicate actuals of last year in the forecast of current year in an yearly batch job so as to provide default values for the forecast for current year which administrator can modify wherever required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yearly/half yearly batch,product account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate foreasted values of defined metrics for a product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will calculate the following metrics when subscriber enters forecast details for a product
+    <t>Integration,Product account</t>
+  </si>
+  <si>
+    <t>PR_06</t>
+  </si>
+  <si>
+    <t>Auto configuration</t>
+  </si>
+  <si>
+    <t>Replicate actuals of last year as forecast of current year</t>
+  </si>
+  <si>
+    <t>As a System I will replicate actuals of last year in the forecast of current year in an yearly batch job so as to provide default values for the forecast for current year which administrator can modify wherever required.</t>
+  </si>
+  <si>
+    <t>Yearly/half yearly batch,product account</t>
+  </si>
+  <si>
+    <t>PR_07</t>
+  </si>
+  <si>
+    <t>post configuration</t>
+  </si>
+  <si>
+    <t>Calculate foreasted values of defined metrics for a product</t>
+  </si>
+  <si>
+    <t>As a System I will calculate the following metrics when subscriber enters forecast details for a product
 1. Monthly operating expenses per product( sum of commong expenses and subscription specific expenses)
 2. Monthly sales and marketing expenses per product??
 3. Net new subscribers per period(month)
@@ -900,109 +895,109 @@
 22. Months to recover CAS</t>
   </si>
   <si>
-    <t xml:space="preserve">PR_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pricing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capture Actual values for new customers for a product of type "price committed"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will add  one(1) in the following attributes in product account for a product of type "price committed" when a new subscriber has confirmed subscription,for every product that he/she has subscribed to.
+    <t>PR_09</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Capture Actual values for new customers for a product of type "price committed"</t>
+  </si>
+  <si>
+    <t>As a System I will add  one(1) in the following attributes in product account for a product of type "price committed" when a new subscriber has confirmed subscription,for every product that he/she has subscribed to.
 1. New subscribers associated with current price bucket</t>
   </si>
   <si>
-    <t xml:space="preserve">New subscription, product account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capture Actual values for additonal quantity by existing customers for a product of type "price committed"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will add one(1) in the following attributes in product account for a product  of type "price committed" when an existing subscriber has added additional quantity,for that product 
+    <t>New subscription, product account</t>
+  </si>
+  <si>
+    <t>PR_10</t>
+  </si>
+  <si>
+    <t>Capture Actual values for additonal quantity by existing customers for a product of type "price committed"</t>
+  </si>
+  <si>
+    <t>As a System I will add one(1) in the following attributes in product account for a product  of type "price committed" when an existing subscriber has added additional quantity,for that product 
 1. New subscribers associated with current price bucket(not the earlier price bucket where his earlier quantity was registered)</t>
   </si>
   <si>
-    <t xml:space="preserve">Added subscripton,product account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capture Actual values for churned customers metrics for a product of type "price committed"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will add one(1) in the following attributes in product account for a product of type "price committed" when an existing subscriber(associated with a specific price bucket) has cancelled subscription for that product.
+    <t>Added subscripton,product account</t>
+  </si>
+  <si>
+    <t>PR_11</t>
+  </si>
+  <si>
+    <t>Capture Actual values for churned customers metrics for a product of type "price committed"</t>
+  </si>
+  <si>
+    <t>As a System I will add one(1) in the following attributes in product account for a product of type "price committed" when an existing subscriber(associated with a specific price bucket) has cancelled subscription for that product.
 1. Churned subscribers associated with specific price bucket(s)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancelled subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keep same price bucket for the product quantity reduced by subscriber for all product types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will reduce the product quantity associated with an existing price bucket in case a subscriber reduces the quantity of a product but recalculate his basket level discount so that merchant should get benfitted due to breach of subscription contract by the subscriber.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduced subscripton quantity,product account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capture Actual values for new price bucket metrics for a product of type "price committed"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will create a new price bucket when offered price of that product of type "price committed" (calculated by the system through daily job) changes so that any new subscribers subscribing to that product henceforth can be associated with this new/latest price bucket.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pricing batch,product account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capture Actual values for changed COGS for a product of all types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a System I will add a new version of a purchase price(COGS) in all available price buckets in the product account of a product of all types when its purchase price undergoes changes (informed by daily feed coming from the main application to subscription platform),so that it can precisely calculate the profits and losses incurred by that product.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration,product account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute derived paramteres for actual values for a product of any type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will calculate the computed actual parameters on a daily basis by means of a batch job so as to determine the impact of new subscriptions,additions and churning on the performance of the product. This batch should run before the pricing determination batch job.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daily batch,product account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operating expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate operating expenses per product and update in respective product account of product of any type.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A system will calculate operating expenses to be incurred by a product per unit as a monthly job when I receive the mothly feed on operating expenses from main application,so that they can be accounted in determining the breakeven price of product.
+    <t>Cancelled subscription</t>
+  </si>
+  <si>
+    <t>PR_12</t>
+  </si>
+  <si>
+    <t>Keep same price bucket for the product quantity reduced by subscriber for all product types</t>
+  </si>
+  <si>
+    <t>As a system I will reduce the product quantity associated with an existing price bucket in case a subscriber reduces the quantity of a product but recalculate his basket level discount so that merchant should get benfitted due to breach of subscription contract by the subscriber.</t>
+  </si>
+  <si>
+    <t>Reduced subscripton quantity,product account</t>
+  </si>
+  <si>
+    <t>PR_13</t>
+  </si>
+  <si>
+    <t>Capture Actual values for new price bucket metrics for a product of type "price committed"</t>
+  </si>
+  <si>
+    <t>As a System I will create a new price bucket when offered price of that product of type "price committed" (calculated by the system through daily job) changes so that any new subscribers subscribing to that product henceforth can be associated with this new/latest price bucket.</t>
+  </si>
+  <si>
+    <t>Daily pricing batch,product account</t>
+  </si>
+  <si>
+    <t>PR_14</t>
+  </si>
+  <si>
+    <t>Capture Actual values for changed COGS for a product of all types</t>
+  </si>
+  <si>
+    <t>As a System I will add a new version of a purchase price(COGS) in all available price buckets in the product account of a product of all types when its purchase price undergoes changes (informed by daily feed coming from the main application to subscription platform),so that it can precisely calculate the profits and losses incurred by that product.</t>
+  </si>
+  <si>
+    <t>Integration,product account</t>
+  </si>
+  <si>
+    <t>PR_15</t>
+  </si>
+  <si>
+    <t>Compute derived paramteres for actual values for a product of any type</t>
+  </si>
+  <si>
+    <t>As a system I will calculate the computed actual parameters on a daily basis by means of a batch job so as to determine the impact of new subscriptions,additions and churning on the performance of the product. This batch should run before the pricing determination batch job.</t>
+  </si>
+  <si>
+    <t>daily batch,product account</t>
+  </si>
+  <si>
+    <t>PR_16</t>
+  </si>
+  <si>
+    <t>INT_07</t>
+  </si>
+  <si>
+    <t>operating expenses</t>
+  </si>
+  <si>
+    <t>Calculate operating expenses per product and update in respective product account of product of any type.</t>
+  </si>
+  <si>
+    <t>A system will calculate operating expenses to be incurred by a product per unit as a monthly job when I receive the mothly feed on operating expenses from main application,so that they can be accounted in determining the breakeven price of product.
 1. All expneses listed under common expenses will be interpolated at monthly level ,summed up to form total common expenses and equally distributed among all items subscribed so far from all subscriptionable product. From this every product's share of total common expenses is seprated out(based on total items subscribed for that product), and per unit commong expenses for a product are calculated.
 2.  All expenses listed under subscripton specific expenses(currently only delivery expenses are calculated in the followiing way.
 2.1. Get the list of all delivery rates for every weight range (20 Rs. up to 1s kg, 25 Rs for goods from 1 to 2 kg etc.).
@@ -1016,61 +1011,61 @@
 2.9. Total sum of monthly delivery cost for each product should match the cost found at basket level in step 2.3.</t>
   </si>
   <si>
-    <t xml:space="preserve">PR_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update actual Expense in respective product account of product of any type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will update the calculated actual operating expenses per product per item per month  in respective product's product account of product of any type ( actual expenses attribute) when platform receives monthly feed on operating expenses from main application so that the actual expenses can contribute to the price determination.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute actual revenue per product and update in respective product account of product of any type per day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will compute the actual revenue  per day as a batch job and update(add) it in the operating profit attribute of product account for that day so that at the end of day I can compare it with forecasted revenue in order to impact pricing of that product as well as contribute/borrow to/from nodal account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update actual operating expenses credit balance in Operating expenses account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will calculate operating expenses per product per month for the number of months for which subscriber has made payment, and add it in the credit expenses attribute  of Operating expenses account (by referring to the latest actual expense per product from respective product accounts,which he has added to his basket) when customer makes payment for his subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update actual operating expenses debit balance in Operating expenses account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">????</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate product price- step1 - Compare revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will compare current revenue against the forecasted revenue by means of a daily batch job in order to check if current revenue deviates(increases or decreases) from forecasted one by threshold percent(configurable. Say 10%) so that price of the product can be recalculated on this deviation reaching the threshold.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pricing Batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate product price- step2- Determine demand function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will form a demand function of the product based on the pricing paramters selected by administrator for that product.
+    <t>PR_17</t>
+  </si>
+  <si>
+    <t>Update actual Expense in respective product account of product of any type</t>
+  </si>
+  <si>
+    <t>As a system I will update the calculated actual operating expenses per product per item per month  in respective product's product account of product of any type ( actual expenses attribute) when platform receives monthly feed on operating expenses from main application so that the actual expenses can contribute to the price determination.</t>
+  </si>
+  <si>
+    <t>PR_18</t>
+  </si>
+  <si>
+    <t>Compute actual revenue per product and update in respective product account of product of any type per day</t>
+  </si>
+  <si>
+    <t>As a system I will compute the actual revenue  per day as a batch job and update(add) it in the operating profit attribute of product account for that day so that at the end of day I can compare it with forecasted revenue in order to impact pricing of that product as well as contribute/borrow to/from nodal account.</t>
+  </si>
+  <si>
+    <t>PR_20</t>
+  </si>
+  <si>
+    <t>Update actual operating expenses credit balance in Operating expenses account</t>
+  </si>
+  <si>
+    <t>As a system I will calculate operating expenses per product per month for the number of months for which subscriber has made payment, and add it in the credit expenses attribute  of Operating expenses account (by referring to the latest actual expense per product from respective product accounts,which he has added to his basket) when customer makes payment for his subscription.</t>
+  </si>
+  <si>
+    <t>PR_21</t>
+  </si>
+  <si>
+    <t>Update actual operating expenses debit balance in Operating expenses account.</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>PR_22</t>
+  </si>
+  <si>
+    <t>Calculate product price- step1 - Compare revenue</t>
+  </si>
+  <si>
+    <t>As a system I will compare current revenue against the forecasted revenue by means of a daily batch job in order to check if current revenue deviates(increases or decreases) from forecasted one by threshold percent(configurable. Say 10%) so that price of the product can be recalculated on this deviation reaching the threshold.</t>
+  </si>
+  <si>
+    <t>Pricing Batch</t>
+  </si>
+  <si>
+    <t>PR_23</t>
+  </si>
+  <si>
+    <t>Calculate product price- step2- Determine demand function</t>
+  </si>
+  <si>
+    <t>As a system I will form a demand function of the product based on the pricing paramters selected by administrator for that product.
 Example: If admin has only selected price as demand paramter then demand function should get created as 
 Q=a-b*Price
 If admin has selected  cross price elasticity then demand function wil become
@@ -1079,136 +1074,136 @@
 Q=a-b*Price+c*CompPrice-d*SubstPrice+e*AdvExp</t>
   </si>
   <si>
-    <t xml:space="preserve">PR_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate product price -step3- Compute demand function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will compute demand function of a product and determine the values for demand function paramters  using last period( month,3 months etc) demand vs price data so that I can choose  next price( to be change) for which the expected demand will be more than existing  demand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pricing batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate product price-step4- Compute price elasticity of demand .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will compute price elasticity of demand for a product for latest period( 1 month,3 months etc.) so as to check if that product's demand is elastic to variations in price.
+    <t>PR_24</t>
+  </si>
+  <si>
+    <t>Calculate product price -step3- Compute demand function</t>
+  </si>
+  <si>
+    <t>As a system I will compute demand function of a product and determine the values for demand function paramters  using last period( month,3 months etc) demand vs price data so that I can choose  next price( to be change) for which the expected demand will be more than existing  demand.</t>
+  </si>
+  <si>
+    <t>Pricing batch</t>
+  </si>
+  <si>
+    <t>PR_25</t>
+  </si>
+  <si>
+    <t>Calculate product price-step4- Compute price elasticity of demand .</t>
+  </si>
+  <si>
+    <t>As a system I will compute price elasticity of demand for a product for latest period( 1 month,3 months etc.) so as to check if that product's demand is elastic to variations in price.
 In case of elasitc products price reduction increases overall revenue but in case of inelastic products it will result in ultimate reduction of revenue.
 price elasticity of demand(n) = (P/Q)(dQ/dP)
 For price to be reduced price elasticity &lt;-1.( demand is price elastic)
 For price to be increased price elasticity &gt;-1 ( demand is price inelastic)</t>
   </si>
   <si>
-    <t xml:space="preserve">PR_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate product price-step5- Compute effect of price elasticity of demand  on revenue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will compute  impact of price elasticity of demand on its revenue so as to determine if change in price will increase or decrease revenue.
+    <t>PR_26</t>
+  </si>
+  <si>
+    <t>Calculate product price-step5- Compute effect of price elasticity of demand  on revenue.</t>
+  </si>
+  <si>
+    <t>As a system I will compute  impact of price elasticity of demand on its revenue so as to determine if change in price will increase or decrease revenue.
 (dTR/dP)/Q=1+ n
 for elastic case where n&lt;-1  (dTR/dP)/Q&lt;0. It means dTR/dP&lt;0(increase in price will reduce TR)
 for inelastic case where n&gt;-1  (dTR/dP)/Q&gt;0. It means dTR/dP&gt;0(increase in price will increase TR) 
 In case of elasitc products price reduction increases overall revenue but in case of inelastic products it will result in ultimate reduction of revenue.</t>
   </si>
   <si>
-    <t xml:space="preserve">pricing batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate product price - step 6- Calculate break even price of a product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I wil calculate break even price of a product( function of product's purchase prices and all expenses) so that I can validate if the changed price does not become less that break even price.
+    <t>pricing batch</t>
+  </si>
+  <si>
+    <t>PR_28</t>
+  </si>
+  <si>
+    <t>Calculate product price - step 6- Calculate break even price of a product</t>
+  </si>
+  <si>
+    <t>As a system I wil calculate break even price of a product( function of product's purchase prices and all expenses) so that I can validate if the changed price does not become less that break even price.
 IS IT REQUIRED.. WHAT IS FORMULA??</t>
   </si>
   <si>
-    <t xml:space="preserve">PR_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate product price - step 7 Determine revised price of product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will change price of the product based on outcomes of step 1 to 3  and identify the lowest price in current demand curve which is more than break even price as well as satisfy price elasticy rule and revenue effect rule  in case the product demand is elasitc for the given price range.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will  update the subscribed product count for each product in a confirmed subscription by their count in subscription when a new subscription is confirmed by a subscriber.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will  update the subscribed product count for a product in a confirmed subscription by their count in subscription when an existing subscriber has made any changes to the subscription of that product.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will  update the subscribed product count for each product in a confirmed subscription by their count in subscription when an existing subscriber has cancelled his total subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will  update the subscribed product amount and profit for each product in a confirmed subscription by their total amount and total profit in subscription when a new subscription is confirmed by a subscriber.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will  update the subscribed product amount and profit for each product in a confirmed subscription by their total amount and total profit in subscription when an existing subscriber has made any changes to the subscription of that product.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will  update the subscribed product amount and profit for each product in a confirmed subscription by their total amount and profit in subscription when an existing subscriber has cancelled his total subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dependancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEN_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create offer based on Subscription basket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a administrator I will create new offer strategy  "Discount on Subscription basket" and add one or more crierias using. 
+    <t>PR_29</t>
+  </si>
+  <si>
+    <t>Calculate product price - step 7 Determine revised price of product</t>
+  </si>
+  <si>
+    <t>As a system I will change price of the product based on outcomes of step 1 to 3  and identify the lowest price in current demand curve which is more than break even price as well as satisfy price elasticy rule and revenue effect rule  in case the product demand is elasitc for the given price range.</t>
+  </si>
+  <si>
+    <t>PR_30</t>
+  </si>
+  <si>
+    <t>As a system I will  update the subscribed product count for each product in a confirmed subscription by their count in subscription when a new subscription is confirmed by a subscriber.</t>
+  </si>
+  <si>
+    <t>PR_31</t>
+  </si>
+  <si>
+    <t>As a system I will  update the subscribed product count for a product in a confirmed subscription by their count in subscription when an existing subscriber has made any changes to the subscription of that product.</t>
+  </si>
+  <si>
+    <t>PR_32</t>
+  </si>
+  <si>
+    <t>As a system I will  update the subscribed product count for each product in a confirmed subscription by their count in subscription when an existing subscriber has cancelled his total subscription.</t>
+  </si>
+  <si>
+    <t>PR_33</t>
+  </si>
+  <si>
+    <t>As a system I will  update the subscribed product amount and profit for each product in a confirmed subscription by their total amount and total profit in subscription when a new subscription is confirmed by a subscriber.</t>
+  </si>
+  <si>
+    <t>PR_34</t>
+  </si>
+  <si>
+    <t>As a system I will  update the subscribed product amount and profit for each product in a confirmed subscription by their total amount and total profit in subscription when an existing subscriber has made any changes to the subscription of that product.</t>
+  </si>
+  <si>
+    <t>PR_35</t>
+  </si>
+  <si>
+    <t>As a system I will  update the subscribed product amount and profit for each product in a confirmed subscription by their total amount and profit in subscription when an existing subscriber has cancelled his total subscription.</t>
+  </si>
+  <si>
+    <t>PR_36</t>
+  </si>
+  <si>
+    <t>PR_37</t>
+  </si>
+  <si>
+    <t>PR_38</t>
+  </si>
+  <si>
+    <t>PR_39</t>
+  </si>
+  <si>
+    <t>PR_40</t>
+  </si>
+  <si>
+    <t>PR_41</t>
+  </si>
+  <si>
+    <t>PR_42</t>
+  </si>
+  <si>
+    <t>PR_43</t>
+  </si>
+  <si>
+    <t>dependancy</t>
+  </si>
+  <si>
+    <t>BEN_01</t>
+  </si>
+  <si>
+    <t>Create offer based on Subscription basket</t>
+  </si>
+  <si>
+    <t>As a administrator I will create new offer strategy  "Discount on Subscription basket" and add one or more crierias using. 
 1. Eligibility  criteria Parameter
      a. Total Amount
      b. Subscription period
@@ -1218,26 +1213,26 @@
 So that I can set the thresholds which are applicable for being eiigible for basket level discount.</t>
   </si>
   <si>
-    <t xml:space="preserve">BEN_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a administrator I will configure "Benefit" after becoming eligible as per the above criteria, by entering following parameters
+    <t>BEN_02</t>
+  </si>
+  <si>
+    <t>As a administrator I will configure "Benefit" after becoming eligible as per the above criteria, by entering following parameters
 1. Benefit Type (Amount , coupons,redeempton points) 
 2. Benefit Value
 3. Unit (unit,currency or percentage)
 4. Benefit after (Only applicable in case of 'cashback' benefit type) days</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO: In case of benefit type 'material', parameters need to finalize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEN_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create offer based on Brand Loyalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a administrator I will create new offer strategy where I will choose offer type as "Brand Loyalty Program" and selects the following
+    <t>TODO: In case of benefit type 'material', parameters need to finalize</t>
+  </si>
+  <si>
+    <t>BEN_03</t>
+  </si>
+  <si>
+    <t>Create offer based on Brand Loyalty</t>
+  </si>
+  <si>
+    <t>As a administrator I will create new offer strategy where I will choose offer type as "Brand Loyalty Program" and selects the following
 1. Brand (Select from dropdown)
 2. Eligibility  criteria Parameter
      a. Total Amount
@@ -1248,16 +1243,16 @@
 So that I can set the thresholds which are applicable for being eiigible for basket level discount.</t>
   </si>
   <si>
-    <t xml:space="preserve">BEN_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEN_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create offer based on Customer Loyalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a administrator I will create new offer strategy where I will choose offer type as "Customer Loyalty" and selects the following
+    <t>BEN_04</t>
+  </si>
+  <si>
+    <t>BEN_05</t>
+  </si>
+  <si>
+    <t>Create offer based on Customer Loyalty</t>
+  </si>
+  <si>
+    <t>As a administrator I will create new offer strategy where I will choose offer type as "Customer Loyalty" and selects the following
 1. Eligibility  criteria Parameter
      a. Total Amount
      b. Subscription period
@@ -1267,13 +1262,13 @@
 So that I can set the thresholds which are applicable for being eiigible for basket level discount.</t>
   </si>
   <si>
-    <t xml:space="preserve">BEN_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create surprise offer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a administrator I will create new offer strategy where I will choose Start Date, End Date and Offer Type as "Surprise Offer" and selects the following
+    <t>BEN_06</t>
+  </si>
+  <si>
+    <t>Create surprise offer</t>
+  </si>
+  <si>
+    <t>As a administrator I will create new offer strategy where I will choose Start Date, End Date and Offer Type as "Surprise Offer" and selects the following
 1. Eligibility  criteria Parameter
      a. Total Amount
      b. Subscription period
@@ -1283,93 +1278,93 @@
 So that I can set the thresholds which are applicable for being eiigible for basket level discount.</t>
   </si>
   <si>
-    <t xml:space="preserve">As a administrator I will configure "Benefit" after becoming eligible as per the above criteria, by entering following parameters
+    <t>As a administrator I will configure "Benefit" after becoming eligible as per the above criteria, by entering following parameters
 1. Benefit Type (Amount , coupons,redeempton points) 
 2. Benefit Value
 3. Unit (unit,currency or percentage)
 4. Benefit after (Only applicable in case of 'cashback' benefit type) days.</t>
   </si>
   <si>
-    <t xml:space="preserve">Retrieve shopping items for registration as subscriptionable items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an Administrator I will retrieve the list of available shopping items from current inventory of shopping application,so as to register them to be subcriptionable item.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily retrival of subscriptionable items datails from main store.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will retrieve the BatchID,Category(CategoryId,Category Name), subcategory(subcategory id and subcategory name),Item under each category/subcategory only those which are registered as subscriptionable item,its latest purchase price,its current stock,its current MRP and its current quoted price(for instantanious sale) on a daily basis so as to maintain/update the inventory proxy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During transition of one batch of product to new batch the purchase price may change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate stock of subscriptions on a day with quotes per item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will generate a flat file containing category,subcategory, subscriptionable item id and its current stock requirement (as of the day) and increment in the stock as compared to earlier day which can be considered as a forecast of next three months for the inventory department.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should I forecast for the probable increase of demand in the remaining days of month.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">which domain will initiatie this request?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate dispatch requests for the next day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will generate a file on a daily basis containing the subscriberId,list of products selected by him/her(category id,subcategory Id,item id,quoted price of each item subscribed under his basket) and intended delivery date  so as to make the dispatch department enable the actual dispatch of these items as well as consolidate if the required dispatch were made on that day or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System will receive the status(DISPATCH,DEIVERED,DELIVERY FAILED) with reason code  of raised dispatch requests,from dispatch/delivery departments in the form of a flat file so as to send an event(per dispatch) to BasketSubscription domain .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRI_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generate daily offered price quotes for every product for the main application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will generate a file on a daily basis containing the itemId, productId, currentOfferedPrice as to provide daily offered price to shopping application.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receive monthly feed on operating expenses from main application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a system I will receive a file containing details on operating expenses(sbscription dependent expenses ,common expenses) so that the same can be fed to product domain for calculating the price of every product.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAYMOD_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create new payment mode for advanced payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an Administrator I will create a new payment mode where I will  enter mode name as "Full advanced payment" and selects the following
+    <t>Retrieve shopping items for registration as subscriptionable items</t>
+  </si>
+  <si>
+    <t>As an Administrator I will retrieve the list of available shopping items from current inventory of shopping application,so as to register them to be subcriptionable item.</t>
+  </si>
+  <si>
+    <t>Daily retrival of subscriptionable items datails from main store.</t>
+  </si>
+  <si>
+    <t>As a system I will retrieve the BatchID,Category(CategoryId,Category Name), subcategory(subcategory id and subcategory name),Item under each category/subcategory only those which are registered as subscriptionable item,its latest purchase price,its current stock,its current MRP and its current quoted price(for instantanious sale) on a daily basis so as to maintain/update the inventory proxy.</t>
+  </si>
+  <si>
+    <t>During transition of one batch of product to new batch the purchase price may change.</t>
+  </si>
+  <si>
+    <t>INT_03</t>
+  </si>
+  <si>
+    <t>Generate stock of subscriptions on a day with quotes per item</t>
+  </si>
+  <si>
+    <t>As a system I will generate a flat file containing category,subcategory, subscriptionable item id and its current stock requirement (as of the day) and increment in the stock as compared to earlier day which can be considered as a forecast of next three months for the inventory department.</t>
+  </si>
+  <si>
+    <t>Should I forecast for the probable increase of demand in the remaining days of month.</t>
+  </si>
+  <si>
+    <t>which domain will initiatie this request?</t>
+  </si>
+  <si>
+    <t>INT_04</t>
+  </si>
+  <si>
+    <t>Generate dispatch requests for the next day</t>
+  </si>
+  <si>
+    <t>As a system I will generate a file on a daily basis containing the subscriberId,list of products selected by him/her(category id,subcategory Id,item id,quoted price of each item subscribed under his basket) and intended delivery date  so as to make the dispatch department enable the actual dispatch of these items as well as consolidate if the required dispatch were made on that day or not.</t>
+  </si>
+  <si>
+    <t>System will receive the status(DISPATCH,DEIVERED,DELIVERY FAILED) with reason code  of raised dispatch requests,from dispatch/delivery departments in the form of a flat file so as to send an event(per dispatch) to BasketSubscription domain .</t>
+  </si>
+  <si>
+    <t>INT_06</t>
+  </si>
+  <si>
+    <t>PRI_01</t>
+  </si>
+  <si>
+    <t>generate daily offered price quotes for every product for the main application</t>
+  </si>
+  <si>
+    <t>As a system I will generate a file on a daily basis containing the itemId, productId, currentOfferedPrice as to provide daily offered price to shopping application.</t>
+  </si>
+  <si>
+    <t>Receive monthly feed on operating expenses from main application</t>
+  </si>
+  <si>
+    <t>As a system I will receive a file containing details on operating expenses(sbscription dependent expenses ,common expenses) so that the same can be fed to product domain for calculating the price of every product.</t>
+  </si>
+  <si>
+    <t>PAYMOD_01</t>
+  </si>
+  <si>
+    <t>Create new payment mode for advanced payment</t>
+  </si>
+  <si>
+    <t>As an Administrator I will create a new payment mode where I will  enter mode name as "Full advanced payment" and selects the following
 1. Payment Span(subscription period or subscription cycle)- Subscription period 
 2. Receipt of Payment( before start of Payment span,During payment span)- Before start of payment span
 2A.Payment percentage: 100%
 This is how he is configuring the payment to be made for the whole subscripton period and before start of period(advanced)</t>
   </si>
   <si>
-    <t xml:space="preserve">PAYMOD_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create new payment mode for partially advanced payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an Administrator I will create a new payment mode where I will  enter mode name as "Partial advanced payment" and selects the following
+    <t>PAYMOD_02</t>
+  </si>
+  <si>
+    <t>Create new payment mode for partially advanced payment</t>
+  </si>
+  <si>
+    <t>As an Administrator I will create a new payment mode where I will  enter mode name as "Partial advanced payment" and selects the following
 1. Payment Span(subscription period or subscription cycle)- Subscription period 
 2. Receipt of Payment( before start of Payment span,During payment span)- Before start of span
 2A. Payment percentage: 30%
@@ -1379,150 +1374,142 @@
 THis is how he is configuring the payment to be made for the whole subscripton period where some of it to be made before start of period(advanced) and the remaining is to be made after 30% of span.</t>
   </si>
   <si>
-    <t xml:space="preserve">Create new payment mode for "Payment on delivery"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an Administrator I will create a new payment mode where I will  enter mode name as "Payment on delivery " and selects the following
+    <t>Create new payment mode for "Payment on delivery"</t>
+  </si>
+  <si>
+    <t>As an Administrator I will create a new payment mode where I will  enter mode name as "Payment on delivery " and selects the following
 1. Payment Span(subscription period or subscription cycle)- Subscription cycle
 2. Receipt of Payment( before start of Payment span,During payment span,after end of span)- after end ofspan
 2A. Payment percentage: 100%
 THis is how he is configuring the payment to be made for every subscripton cycle where all of it to be made after end of cycle .</t>
   </si>
   <si>
-    <t xml:space="preserve">PAYMOD_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create new payment mode for advanced payment per cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an Administrator I will create a new payment mode where I will  enter mode name as "Advanced payment pe cycle" and selects the following
+    <t>PAYMOD_04</t>
+  </si>
+  <si>
+    <t>Create new payment mode for advanced payment per cycle</t>
+  </si>
+  <si>
+    <t>As an Administrator I will create a new payment mode where I will  enter mode name as "Advanced payment pe cycle" and selects the following
 1. Payment Span(subscription period or subscription cycle)- Subscription cycle 
 2. Receipt of Payment( before start of Payment span,During payment span)- Before start of span
 2A. Payment percentage: 100%
 THis is how he is configuring the payment to be made for every subscripton cycle in advance.</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsbile domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Registration &amp; Product configuration &amp; Forecasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Admin registers product manually from adminConsole Web UI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product domain-ProductController-regsiterProduct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product aggregate creation and update in ProductView read repo with status as “REGISTERED”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A New "ProductRegisteredEvent" gets fired from write side to update same info on read side.
+    <t>No</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Responsbile domain</t>
+  </si>
+  <si>
+    <t>Result 1</t>
+  </si>
+  <si>
+    <t>Result 2</t>
+  </si>
+  <si>
+    <t>Result 3</t>
+  </si>
+  <si>
+    <t>Action Item</t>
+  </si>
+  <si>
+    <t>Item Registration &amp; Product configuration &amp; Forecasting</t>
+  </si>
+  <si>
+    <t>1. Admin registers product manually from adminConsole Web UI</t>
+  </si>
+  <si>
+    <t>Product domain-ProductController-regsiterProduct</t>
+  </si>
+  <si>
+    <t>Product aggregate creation and update in ProductView read repo with status as “REGISTERED”.</t>
+  </si>
+  <si>
+    <t>A New "ProductRegisteredEvent" gets fired from write side to update same info on read side.
 The event updates ProductView on read side with status as "REGISTERED" as remaning configuration of the registered product is yet to be made.
 The same event also notifies admin that remaining configuration of these fresh uploaded products need to be manually done.</t>
   </si>
   <si>
-    <t xml:space="preserve">Anayonkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Platform periodically receives list of new product details  for registering them as subscriptioable Items from shopping site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration domain-ProductRegistrationEvent (Camel Bindy) mapped to Product domain event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator sets/modifies inputs required for Forecast results calculation for each subscriptionable product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product domain - ProductController-addProjectionParamters.It will find out product from ProductView,create AddForecastParametersCommand and send it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product aggregate receives the command and fires ForecastParametersAddedEvent.It will update the Aggregate Product account-&gt;ProductPerformanceTracker for forecast,ForecastedPerformanceView  through ForecastedPerformanceViewRepository with given inputs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductConfigurationValidator is invoked which checks if the complete configuration  inputs for correct product configuration are entered (currently this is done by ProductStatusView itself),when the flow succeeds (i.e. no exception is thrown) then fire event "ProductConfigurationSetEvent".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator sets Configuration parameters for product level item.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product domain - ProductController-setProductConfiguration.It will find out product from ProductView,receive config params such as demand curve period,percentage revenue change for which price should be recalculated, is cross price elasticity to be considered, demand wise profit sharing percentage. It will send SetProductConfigurationCommand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product aggregate receives command and in turn fires ProductConfigurationSetEvent which updates ProductConfigurationView.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator sets configuration rules for Basket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber domain-BasketRulesController-addBasketRules.Following configuration rules are set at asket level
+    <t>Anayonkar</t>
+  </si>
+  <si>
+    <t>2. Platform periodically receives list of new product details  for registering them as subscriptioable Items from shopping site.</t>
+  </si>
+  <si>
+    <t>Integration domain-ProductRegistrationEvent (Camel Bindy) mapped to Product domain event</t>
+  </si>
+  <si>
+    <t>Administrator sets/modifies inputs required for Forecast results calculation for each subscriptionable product</t>
+  </si>
+  <si>
+    <t>Product domain - ProductController-addProjectionParamters.It will find out product from ProductView,create AddForecastParametersCommand and send it.</t>
+  </si>
+  <si>
+    <t>Product aggregate receives the command and fires ForecastParametersAddedEvent.It will update the Aggregate Product account-&gt;ProductPerformanceTracker for forecast,ForecastedPerformanceView  through ForecastedPerformanceViewRepository with given inputs.</t>
+  </si>
+  <si>
+    <t>ProductConfigurationValidator is invoked which checks if the complete configuration  inputs for correct product configuration are entered (currently this is done by ProductStatusView itself),when the flow succeeds (i.e. no exception is thrown) then fire event "ProductConfigurationSetEvent".</t>
+  </si>
+  <si>
+    <t>Administrator sets Configuration parameters for product level item.</t>
+  </si>
+  <si>
+    <t>Product domain - ProductController-setProductConfiguration.It will find out product from ProductView,receive config params such as demand curve period,percentage revenue change for which price should be recalculated, is cross price elasticity to be considered, demand wise profit sharing percentage. It will send SetProductConfigurationCommand.</t>
+  </si>
+  <si>
+    <t>Product aggregate receives command and in turn fires ProductConfigurationSetEvent which updates ProductConfigurationView.</t>
+  </si>
+  <si>
+    <t>Administrator sets configuration rules for Basket</t>
+  </si>
+  <si>
+    <t>Subscriber domain-BasketRulesController-addBasketRules.Following configuration rules are set at asket level
 1. Maximum permissible Basket amount
 2. Maximum permissible discount(percentage)
 3. Minimum amount for which basket is eligible for free shipping.
 4.Maximum Permissible subcription period</t>
   </si>
   <si>
-    <t xml:space="preserve">AddBasketRulesCommand if fired which sets configuration paramters in BasketRulesView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forecasting common operating expense: Admininstrator  creates new operating expense uder category "common operating expense",gives header/name to it and provides weekly/monthly/yearly expense forecast for that expense header.He will also provide if that expense is sensitive to either of electricity consumption or space consumption. The expense amount is normalized by the controller into monthly expense amount.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business domain - Operating Expense Controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A CommonOperatingExpense aggregate instance is newly created from AddCommonOperatingExpenseCommand and all parameters( exp header,amount per month,sensitiveTo) are set in it.
+    <t>AddBasketRulesCommand if fired which sets configuration paramters in BasketRulesView</t>
+  </si>
+  <si>
+    <t>Forecasting common operating expense: Admininstrator  creates new operating expense uder category "common operating expense",gives header/name to it and provides weekly/monthly/yearly expense forecast for that expense header.He will also provide if that expense is sensitive to either of electricity consumption or space consumption. The expense amount is normalized by the controller into monthly expense amount.</t>
+  </si>
+  <si>
+    <t>Business domain - Operating Expense Controller</t>
+  </si>
+  <si>
+    <t>A CommonOperatingExpense aggregate instance is newly created from AddCommonOperatingExpenseCommand and all parameters( exp header,amount per month,sensitiveTo) are set in it.
 CommonExpenseCreatedEvent is fired which sets the aggregate in memory.</t>
   </si>
   <si>
-    <t xml:space="preserve">CommonOperatingExpenseAddedEventListener updates the CommonOperatingExpense in the 
+    <t>CommonOperatingExpenseAddedEventListener updates the CommonOperatingExpense in the 
 CommonOperatingExpenseView.</t>
   </si>
   <si>
-    <t xml:space="preserve">Setting Delivery charges for Delivery specific expense: Administrator creates the rules for delivery charges( shipping cost for baskets weighing in different weight ranges).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubscriptionSpecifcOperatingExpenseaggregateis created with these rules set in it.It will file DeiveryChargesRuleSetEvent.
+    <t>Setting Delivery charges for Delivery specific expense: Administrator creates the rules for delivery charges( shipping cost for baskets weighing in different weight ranges).</t>
+  </si>
+  <si>
+    <t>SubscriptionSpecifcOperatingExpenseaggregateis created with these rules set in it.It will file DeiveryChargesRuleSetEvent.
 In the listener, DeliveryChargesRuleViewRepository is instantiated from controller,For each delivery charge rule a DeliveryChargesRuleView is created and stored in the repository.</t>
   </si>
   <si>
-    <t xml:space="preserve">A ExpenseDistributionBatch is instantiated initially and invokes CommonExpenseDistributionProcessor and SubscriptionSpecificExpenseDistributionProcessor for distribution of respective exepnses across all the subscribed as well as forecasted subscribed units for registered products.</t>
+    <t>A ExpenseDistributionBatch is instantiated initially and invokes CommonExpenseDistributionProcessor and SubscriptionSpecificExpenseDistributionProcessor for distribution of respective exepnses across all the subscribed as well as forecasted subscribed units for registered products.</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>CommonExpenseDistributionProcessor will
+      <t xml:space="preserve">CommonExpenseDistributionProcessor will
 1. Obtain the list of actual subscribed products  as well as forecasted products for that month.
 2. Distribute each common expense as per the sensitivity mapping to each unit subscribed/forecasted for a month.
-SubscriptionSpecificOperatingExpenseDistributionProcessor
-</t>
+SubscriptionSpecificOperatingExpenseDistributionProcessor</t>
     </r>
     <r>
       <rPr>
@@ -1532,293 +1519,293 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>SubscriptionSpecificOperatingExpenseDistributionProcessor will find u the total weight to be delivered and multiply it with delivery charges per kg so as arrive at forecast.Then the forecasted amount is 
+      <t xml:space="preserve">SubscriptionSpecificOperatingExpenseDistributionProcessor will find u the total weight to be delivered and multiply it with delivery charges per kg so as arrive at forecast.Then the forecasted amount is 
 1.Saved in the SubscriptionSpecificOperatingExpenseView
 2.Distrbuted in proportion to its weight to every item subscribed as well as forecasted.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Each Product aggregate will get updated with OperatingExpensesPerUnit(which is sum of common expenses er unit and delivery charges per unit).The OperatingExpenseUpdatedEvent will get triggered which will update ProductView on read side.
+    <t>Each Product aggregate will get updated with OperatingExpensesPerUnit(which is sum of common expenses er unit and delivery charges per unit).The OperatingExpenseUpdatedEvent will get triggered which will update ProductView on read side.
 Status of product in product view will be marked as "COMPLETE"</t>
   </si>
   <si>
-    <t xml:space="preserve">Rahul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ProductPricingBatch is instantiated which will use the configuration rules and calculated expenses to derive price of each product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Domain-&gt;ProductPricingBatch will calculate price for each product and fire ProductPriceCalculatedEvent for each product. It will update the state of product aggregate as well as product view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the status of the product in ProductView is "COMPLETE" then it will change to "ACTIVE" thereby making that product actively available for subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductPriceCalculatedEvent triggers CalculateMetricsCommand (in case new forecast is being set for the first time).The MetricsCalculationProcessor calculates the resultant metrics for next 12 months for each product using the available input paramters for each.The completion of Forecast metrics calculation will trigger "ForecastMetricscalculatedEvent".It will update ForecastPerformanceView.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budgeting and Target Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System will calculate provision for total purcahse cost for specific period (default is 12 months). Merchant can override it for value (i.e. total provision – e.g. 5 lakh instead of 3 lakhs recommended by system), or period (e.g. 6 montsh instead of 12 months recommended by system).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be done (new batch will be written)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System will calculate provision for fixed operating expenses (i.e. common operarting expenses) for specific period (default is 12 months). Merchant can override it for value (i.e. total provision – e.g. 5 lakh instead of 3 lakhs recommended by system), or period (e.g. 6 montsh instead of 12 months recommended by system).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System will calculate provision for variable operating expenses (i.e. subscription specific operarting expenses) for specific period (default is 12 months). Merchant can override it for value (i.e. total provision – e.g. 5 lakh instead of 3 lakhs recommended by system), or period (e.g. 6 montsh instead of 12 months recommended by system).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will be provided by integration domain (OperatingExpenseReceivedEvent)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant will make provision for losses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be done (from admin console – will come via REST controller)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant will make provision for benefits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant will make provision for taxes (e.g. sales tax).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant will make provision for others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When system receives incoming inventory details from main application, their total purchase cost is debited under 'purchase cost' and respective provision account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductStatusReceivedEvent from integration domain (to be revisit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When system receives incoming operating expenses details from main application, they are debited under respective expense categories and respective provision account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When system receives common taxes paid from main application, their total taxes paid is debited under 'taxes cost' and respective provision account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will be provided by integration domain (to be done)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When a product exceeds its revenue beyond its forecast by x% then additional amount will be credited to nodal account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will be calculated in business account domain for each event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When a product's revenue falls behind its forecast by x% then difference  amount will be debited from nodal account and respective provision account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When a subscriber does subscription, but has not yet made payment, his total subscription value is credited to provisional revenue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubscriptionActivatedEvent from subscriber domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When a subscriber does subscription and has made partial/full advanced payment, then the payment amount is credited to booking amount.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaymentProcessedEvent from subscriber domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When a delivery is made to subscriber(s),  the delivery amount should be debited from provisional revenue and respective provision account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasketDeliveryStatusEvent from subscriber domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When a delivery is made to subscriber(s), its revenue is credited under “revenue” subject to receipt of payment. In case some of advanced payment made by subscriber still exists under booking amount, the delivery amount should be debited from booking amount and respective provision account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When interest is gained on booking amount, it will be credited to “interests”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be done (via integration domain)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit delivery expense from subscription specific expenses upon successful delivery. Also debit from respective provision account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit benefits when subscriber(s) get specific benefit. Also debit from respective provision account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upon every debit, if balance in respective provision account is approaching to zero, then notification should be sent to merchant to make additional provisions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output will be ProvisionNotSufficientNotificationEvent (to be done)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the subscription forecast as well as expense forecast is adjusted by the forecast correction job, it should also correct the provisions required under each category and send it to merchant for approval. Once it is approved by merchant, the provisions elements will be credited under respective provisions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When an item is cancelled or replaced from subscription, appropriate item cancellation event should be fired from subscriber domain and they should debit provisional revenue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasketDeletedEvent and DeliveryCreatedEvent in subscriber domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When an item is replaced or added to current subscription, appropriate item addition event should be fired from subscriber domain and they should credit provisional revenue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When subscriber cancells subscription, appropriate subscription cancelled event should be fired from subscriber domain and they should debit the total sum amount of remaining subscription amount from provisional revenue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple instances of BasketDeletedEvent from subscriber domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When a refund is made to a subscriber subject to cancellation of subscription, appropriate amount is debited from booking amount.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be done (from subscriber domain)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When an new subscription is made, any benefits other than product level discount made to the customer are debited from provision for benefits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubscriptionActivatedEvent from subscriber domain (to be done)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When an item is cancelled from subscription, the difference of previous benefit offered and newly calculated benefit will be credited to provision for benefits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When a subscription is cancelled from subscription, the difference of previous benefit offered and newly calculated benefit will be credited to provision for benefits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasketDeletedEvent in subscriber domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber fills registration form to register on subscription website.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber domain- web Controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform create subscriber account with user name as mobile number/email address and allow subscriber to set password.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubscriberRegisteredEvent gets fired which will be received by Notifications domain and an sms/mail will be sent to subscriber regarding his registration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susbcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber log in to subscription website. He can see all list of subscriptionable items.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product domain- Web controller serving "view all products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Products whih are markd with status "ACTIVE" are displayed with their MRP/offered price and category(price commited,% discount committed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber can search items based on category, sub category, item name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product domain-Search products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searched products are displayed with their MRP/offered price and category(price commited,% discount committed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber subscribe for item by providing details like 1 cycle duration, no of cycles, quantity per cycle and start adding them in his basket.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subscriber domain-Web controller "add Item to basket"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A New subscription aggregate is created for the addition of first item.subscription is having subscriber identity as well as added products identities with their delivery frequency details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once subscriber added all items, he will checkout from basket.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subscriber domain -web controller
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>A ProductPricingBatch is instantiated which will use the configuration rules and calculated expenses to derive price of each product</t>
+  </si>
+  <si>
+    <t>Product Domain-&gt;ProductPricingBatch will calculate price for each product and fire ProductPriceCalculatedEvent for each product. It will update the state of product aggregate as well as product view</t>
+  </si>
+  <si>
+    <t>If the status of the product in ProductView is "COMPLETE" then it will change to "ACTIVE" thereby making that product actively available for subscription.</t>
+  </si>
+  <si>
+    <t>ProductPriceCalculatedEvent triggers CalculateMetricsCommand (in case new forecast is being set for the first time).The MetricsCalculationProcessor calculates the resultant metrics for next 12 months for each product using the available input paramters for each.The completion of Forecast metrics calculation will trigger "ForecastMetricscalculatedEvent".It will update ForecastPerformanceView.</t>
+  </si>
+  <si>
+    <t>Mandar</t>
+  </si>
+  <si>
+    <t>Budgeting and Target Settings</t>
+  </si>
+  <si>
+    <t>System will calculate provision for total purcahse cost for specific period (default is 12 months). Merchant can override it for value (i.e. total provision – e.g. 5 lakh instead of 3 lakhs recommended by system), or period (e.g. 6 montsh instead of 12 months recommended by system).</t>
+  </si>
+  <si>
+    <t>To be done (new batch will be written)</t>
+  </si>
+  <si>
+    <t>System will calculate provision for fixed operating expenses (i.e. common operarting expenses) for specific period (default is 12 months). Merchant can override it for value (i.e. total provision – e.g. 5 lakh instead of 3 lakhs recommended by system), or period (e.g. 6 montsh instead of 12 months recommended by system).</t>
+  </si>
+  <si>
+    <t>System will calculate provision for variable operating expenses (i.e. subscription specific operarting expenses) for specific period (default is 12 months). Merchant can override it for value (i.e. total provision – e.g. 5 lakh instead of 3 lakhs recommended by system), or period (e.g. 6 montsh instead of 12 months recommended by system).</t>
+  </si>
+  <si>
+    <t>Will be provided by integration domain (OperatingExpenseReceivedEvent)</t>
+  </si>
+  <si>
+    <t>Merchant will make provision for losses.</t>
+  </si>
+  <si>
+    <t>To be done (from admin console – will come via REST controller)</t>
+  </si>
+  <si>
+    <t>Merchant will make provision for benefits.</t>
+  </si>
+  <si>
+    <t>Merchant will make provision for taxes (e.g. sales tax).</t>
+  </si>
+  <si>
+    <t>Merchant will make provision for others.</t>
+  </si>
+  <si>
+    <t>When system receives incoming inventory details from main application, their total purchase cost is debited under 'purchase cost' and respective provision account.</t>
+  </si>
+  <si>
+    <t>ProductStatusReceivedEvent from integration domain (to be revisit)</t>
+  </si>
+  <si>
+    <t>When system receives incoming operating expenses details from main application, they are debited under respective expense categories and respective provision account.</t>
+  </si>
+  <si>
+    <t>When system receives common taxes paid from main application, their total taxes paid is debited under 'taxes cost' and respective provision account.</t>
+  </si>
+  <si>
+    <t>Will be provided by integration domain (to be done)</t>
+  </si>
+  <si>
+    <t>When a product exceeds its revenue beyond its forecast by x% then additional amount will be credited to nodal account.</t>
+  </si>
+  <si>
+    <t>Will be calculated in business account domain for each event</t>
+  </si>
+  <si>
+    <t>When a product's revenue falls behind its forecast by x% then difference  amount will be debited from nodal account and respective provision account.</t>
+  </si>
+  <si>
+    <t>When a subscriber does subscription, but has not yet made payment, his total subscription value is credited to provisional revenue.</t>
+  </si>
+  <si>
+    <t>SubscriptionActivatedEvent from subscriber domain</t>
+  </si>
+  <si>
+    <t>When a subscriber does subscription and has made partial/full advanced payment, then the payment amount is credited to booking amount.</t>
+  </si>
+  <si>
+    <t>PaymentProcessedEvent from subscriber domain</t>
+  </si>
+  <si>
+    <t>When a delivery is made to subscriber(s),  the delivery amount should be debited from provisional revenue and respective provision account.</t>
+  </si>
+  <si>
+    <t>BasketDeliveryStatusEvent from subscriber domain</t>
+  </si>
+  <si>
+    <t>When a delivery is made to subscriber(s), its revenue is credited under “revenue” subject to receipt of payment. In case some of advanced payment made by subscriber still exists under booking amount, the delivery amount should be debited from booking amount and respective provision account.</t>
+  </si>
+  <si>
+    <t>When interest is gained on booking amount, it will be credited to “interests”.</t>
+  </si>
+  <si>
+    <t>To be done (via integration domain)</t>
+  </si>
+  <si>
+    <t>Debit delivery expense from subscription specific expenses upon successful delivery. Also debit from respective provision account.</t>
+  </si>
+  <si>
+    <t>Debit benefits when subscriber(s) get specific benefit. Also debit from respective provision account.</t>
+  </si>
+  <si>
+    <t>Upon every debit, if balance in respective provision account is approaching to zero, then notification should be sent to merchant to make additional provisions.</t>
+  </si>
+  <si>
+    <t>Output will be ProvisionNotSufficientNotificationEvent (to be done)</t>
+  </si>
+  <si>
+    <t>When the subscription forecast as well as expense forecast is adjusted by the forecast correction job, it should also correct the provisions required under each category and send it to merchant for approval. Once it is approved by merchant, the provisions elements will be credited under respective provisions.</t>
+  </si>
+  <si>
+    <t>When an item is cancelled or replaced from subscription, appropriate item cancellation event should be fired from subscriber domain and they should debit provisional revenue.</t>
+  </si>
+  <si>
+    <t>BasketDeletedEvent and DeliveryCreatedEvent in subscriber domain</t>
+  </si>
+  <si>
+    <t>When an item is replaced or added to current subscription, appropriate item addition event should be fired from subscriber domain and they should credit provisional revenue.</t>
+  </si>
+  <si>
+    <t>When subscriber cancells subscription, appropriate subscription cancelled event should be fired from subscriber domain and they should debit the total sum amount of remaining subscription amount from provisional revenue.</t>
+  </si>
+  <si>
+    <t>Multiple instances of BasketDeletedEvent from subscriber domain</t>
+  </si>
+  <si>
+    <t>When a refund is made to a subscriber subject to cancellation of subscription, appropriate amount is debited from booking amount.</t>
+  </si>
+  <si>
+    <t>To be done (from subscriber domain)</t>
+  </si>
+  <si>
+    <t>When an new subscription is made, any benefits other than product level discount made to the customer are debited from provision for benefits.</t>
+  </si>
+  <si>
+    <t>SubscriptionActivatedEvent from subscriber domain (to be done)</t>
+  </si>
+  <si>
+    <t>When an item is cancelled from subscription, the difference of previous benefit offered and newly calculated benefit will be credited to provision for benefits.</t>
+  </si>
+  <si>
+    <t>When a subscription is cancelled from subscription, the difference of previous benefit offered and newly calculated benefit will be credited to provision for benefits.</t>
+  </si>
+  <si>
+    <t>BasketDeletedEvent in subscriber domain</t>
+  </si>
+  <si>
+    <t>Subscriber fills registration form to register on subscription website.</t>
+  </si>
+  <si>
+    <t>Subscriber domain- web Controller</t>
+  </si>
+  <si>
+    <t>platform create subscriber account with user name as mobile number/email address and allow subscriber to set password.</t>
+  </si>
+  <si>
+    <t>SubscriberRegisteredEvent gets fired which will be received by Notifications domain and an sms/mail will be sent to subscriber regarding his registration.</t>
+  </si>
+  <si>
+    <t>Susbcription</t>
+  </si>
+  <si>
+    <t>Subscriber log in to subscription website. He can see all list of subscriptionable items.</t>
+  </si>
+  <si>
+    <t>product domain- Web controller serving "view all products</t>
+  </si>
+  <si>
+    <t>Products whih are markd with status "ACTIVE" are displayed with their MRP/offered price and category(price commited,% discount committed)</t>
+  </si>
+  <si>
+    <t>Subscriber can search items based on category, sub category, item name.</t>
+  </si>
+  <si>
+    <t>product domain-Search products</t>
+  </si>
+  <si>
+    <t>Searched products are displayed with their MRP/offered price and category(price commited,% discount committed)</t>
+  </si>
+  <si>
+    <t>Subscriber subscribe for item by providing details like 1 cycle duration, no of cycles, quantity per cycle and start adding them in his basket.</t>
+  </si>
+  <si>
+    <t>subscriber domain-Web controller "add Item to basket"</t>
+  </si>
+  <si>
+    <t>A New subscription aggregate is created for the addition of first item.subscription is having subscriber identity as well as added products identities with their delivery frequency details.</t>
+  </si>
+  <si>
+    <t>Once subscriber added all items, he will checkout from basket.</t>
+  </si>
+  <si>
+    <t>subscriber domain -web controller
 "confirm subscription"</t>
   </si>
   <si>
-    <t xml:space="preserve">SusbcriptionConfirmationEvent is fired which should trigger calculation of total basket level discounts as well as any other benefits ( whichever are applicable) and the calculated benefits (different discounts/rewars etc) are registered with the subscription.
+    <t>SusbcriptionConfirmationEvent is fired which should trigger calculation of total basket level discounts as well as any other benefits ( whichever are applicable) and the calculated benefits (different discounts/rewars etc) are registered with the subscription.
 The same event should also update the  read side "SubscriptionView" so that the same will be available when subscriber wants to see summary.</t>
   </si>
   <si>
-    <t xml:space="preserve">Subscriber is given "payment" button to proceed with payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subscriber domain -web controller
+    <t>Subscriber is given "payment" button to proceed with payment</t>
+  </si>
+  <si>
+    <t>subscriber domain -web controller
 "Show subscription summary"</t>
   </si>
   <si>
-    <t xml:space="preserve">System shows summary of final subscription with list of items subscribed,their MRPs as well as offered prices,total subscription amount,basket level and other discounts, final amount to be paid.
+    <t>System shows summary of final subscription with list of items subscribed,their MRPs as well as offered prices,total subscription amount,basket level and other discounts, final amount to be paid.
 Also available payment options"full payment"/"partial payment etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Subscriber chooses "Full Payment" option and  enters"submit"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subscriber domain -web controller
+    <t>Subscriber chooses "Full Payment" option and  enters"submit"</t>
+  </si>
+  <si>
+    <t>subscriber domain -web controller
 "Payment Gateway Router"</t>
   </si>
   <si>
-    <t xml:space="preserve">The subscriber is routed to payment gateway where he has to select appropriate payment option and make payment.The gateway should revert with successful payment status.
+    <t>The subscriber is routed to payment gateway where he has to select appropriate payment option and make payment.The gateway should revert with successful payment status.
 Susbcriber will be shown intermediate page for thinking him for payment.</t>
   </si>
   <si>
-    <t xml:space="preserve">Integration -PaymentConfirmedEvent
+    <t>Integration -PaymentConfirmedEvent
 Mapped to same event in Subscriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Susbcription status will change to "ACTIVE",deliveries for the whole subscription period are preemptively created /appropriately consolidated and maintained inside subscription ??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deliveries to subscribers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every day a batch will pick up the deliveries to be made on next day and send it to main applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring batch in subscriber domain and camel bindy in integration domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list of customer id, shipping address,items to be delivered with quantity each will be created as a csv file for main application to consume it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receive delivery status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every end of day a file will be sent from  main application to platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration-DeliveryStatusreceivedEvent will be fired
+    <t>Susbcription status will change to "ACTIVE",deliveries for the whole subscription period are preemptively created /appropriately consolidated and maintained inside subscription ??</t>
+  </si>
+  <si>
+    <t>Deliveries to subscribers</t>
+  </si>
+  <si>
+    <t>Every day a batch will pick up the deliveries to be made on next day and send it to main applications</t>
+  </si>
+  <si>
+    <t>Spring batch in subscriber domain and camel bindy in integration domain</t>
+  </si>
+  <si>
+    <t>list of customer id, shipping address,items to be delivered with quantity each will be created as a csv file for main application to consume it.</t>
+  </si>
+  <si>
+    <t>Receive delivery status</t>
+  </si>
+  <si>
+    <t>Every end of day a file will be sent from  main application to platform</t>
+  </si>
+  <si>
+    <t>Integration-DeliveryStatusreceivedEvent will be fired
 Subscriber domain</t>
   </si>
   <si>
-    <t xml:space="preserve">DeliveryStatusReceivedEvent will get replicated in Susbcriber domain which will change status of the appropriate delivery inside Subscription aggregate(and read side also)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receipt and distribution of operating expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every week/month a file containing operating expense detailsis receied from main application.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration-OperatingExpenseReceivedEvent is fired after converting each file record.It will be received by the Business domain as OperatingExpenseUpdatedEvent . The same is listened by OperatingExpenseUpdatedEventListener.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the Expenses are CommonOperatingExpense then the respective expense header is retrieved for the current month and updated with received value.Also the values for coming 11 months are also set with the latest mount received. 
+    <t>DeliveryStatusReceivedEvent will get replicated in Susbcriber domain which will change status of the appropriate delivery inside Subscription aggregate(and read side also)</t>
+  </si>
+  <si>
+    <t>Receipt and distribution of operating expenses</t>
+  </si>
+  <si>
+    <t>Every week/month a file containing operating expense detailsis receied from main application.</t>
+  </si>
+  <si>
+    <t>Integration-OperatingExpenseReceivedEvent is fired after converting each file record.It will be received by the Business domain as OperatingExpenseUpdatedEvent . The same is listened by OperatingExpenseUpdatedEventListener.</t>
+  </si>
+  <si>
+    <t>If the Expenses are CommonOperatingExpense then the respective expense header is retrieved for the current month and updated with received value.Also the values for coming 11 months are also set with the latest mount received. 
 If the expense tye is SubscriptionSpecificOperatingExpense then it is updated in SubscriptionSpecificOperatingExpenseView.</t>
   </si>
   <si>
-    <t xml:space="preserve">A ExpenseDistributionBatch is instantiated On receipt of OperatingExpenseReceivedEvent and invokes CommonExpenseDistributionProcessor and SubscriptionSpecificExpenseDistributionProcessor for distribution of respective exepnses across all the subscribed as well as forecasted subscribed units for registered products.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CommonExpenseDistributionProcessor will
+    <t>A ExpenseDistributionBatch is instantiated On receipt of OperatingExpenseReceivedEvent and invokes CommonExpenseDistributionProcessor and SubscriptionSpecificExpenseDistributionProcessor for distribution of respective exepnses across all the subscribed as well as forecasted subscribed units for registered products.</t>
+  </si>
+  <si>
+    <t>CommonExpenseDistributionProcessor will
 1. Obtain the list of actual subscribed products  as well as forecasted products for that month.
 2. Distribute each common expense as per the sensitivity mapping to each unit subscribed/forecasted for a month.
 SubscriptionSpecificOperatingExpenseDistributionProcessor will 
@@ -1829,169 +1816,202 @@
 5.Save in the SubscriptionSpecificOperatingExpenseView.</t>
   </si>
   <si>
-    <t xml:space="preserve">Each Product aggregate will get updated with OperatingExpensesPerUnit(which is sum of common expenses er unit and delivery charges per unit).The OperatingExpenseUpdatedEvent will get triggered which will update ProductView on read side.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">periodic update of forecast with past actual figures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When will the initial product price( based on demand density) get calculated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How long the demand density based product prices are in use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When should system switch from initially calculated prices to demand function based prices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For calculating the offered price,operating expenses are already clculated. And for calculating common operating expenses revenue( needing offerd price ) should already be in place. Should we derive revenue using MRP,for operating expense calculation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some structure is required to keep /calculate delivery cost.Because as deliveries will increase,delivery cost will increase and breakeven price of each product may get periodically impacted due to this.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initially when we do not have any forecast at basket/deliveries level how to calculate delivery charges?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What will happen when some product is withdrawn from market(example: maggy) whereas number of subscribers have subscribed for this.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A new domain is created "Business" having BusinessAccount aggregate,how to update this aggregate,who will update,when?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When price of a product is commited,and after few months purchase price may get changed rsulting into loss/loss of profit.How to account for it?How to compensate for it?can it be distributed across spectrum of new subscriptions after price change?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How will the actual integration with payment gateway happen?when payment is made how to show payment successful/failed status to customer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What will be the payment options? What are rules associated with each option?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should the opertaing expenses be calculated based on confirmed revenue(registered subscriptions) only or also anticipated revenue(monthly forecasted subscriptions) also?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to maintain data consistency across domains as lot of data is getting duplicated. Should we write some Domainrefresher?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should the operating expenses calculation be daily batch OR should it be monthly batch?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many aggregates are keeping big collections of forecasts/actuals as axon does not provide any API for maintaining versions(future/past) is there any way around it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category (Business/ Customer/ Product)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments/Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impacted by user story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High performing product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin is able to see specific product(s) which are performing better than forecast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low performing product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin is able to see specific product(s) which are performing worse than forecast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product pending configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin is able to see specific product(s) which are pending to complete the configuration (e.g. forecast not added etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product pending reconfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin is able to see specific product(s) which are pending to complete the reconfiguration (e.g. forecast and expense distribution needs to be changed/reconfigured etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDGT_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receiving inventory details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductStatusReceivedEvent is received at business domain (from integration domain). The event contains inventory details (total purchase cost).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total purchase cost is debited under ‘purchase cost’ and provision account for the same (i.e. purchase cost).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant make provision for initial investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribute initial provision to Purchase, Operating expensies and profit accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit provisional profit when subscriber does subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit actual profit when received payment from subscriber.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit additional profit which we will make from advance payment for book keeping.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit from profit account in case of cancelation of Subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit provisional revenue when subscriber does subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit actual revenue when received payment from subscriber.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit additional revenue which we will make from advance payment for book keeping..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit from revenue account in case of cancelation of Subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit delivery expense to subscription specific operating expense on successful delivery.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit delivery expense from provisional subscription specific operating expense on successful delivery.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit Fixed expenses to Fixed operating expense when received from site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit Fixed expenses from Fixed operating expense when received from site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit from provision of basket level benefit when subscriber get basket level benefits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit from provision of customer loyaltly program when subscriber get loyalty benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit to benefit's provisions when subscriber cancels the subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provision for losses would be used as a last resort (i.e. losses occurred and no money for provision)</t>
+    <t>Each Product aggregate will get updated with OperatingExpensesPerUnit(which is sum of common expenses er unit and delivery charges per unit).The OperatingExpenseUpdatedEvent will get triggered which will update ProductView on read side.</t>
+  </si>
+  <si>
+    <t>periodic update of forecast with past actual figures</t>
+  </si>
+  <si>
+    <t>When will the initial product price( based on demand density) get calculated.</t>
+  </si>
+  <si>
+    <t>How long the demand density based product prices are in use</t>
+  </si>
+  <si>
+    <t>When should system switch from initially calculated prices to demand function based prices</t>
+  </si>
+  <si>
+    <t>For calculating the offered price,operating expenses are already clculated. And for calculating common operating expenses revenue( needing offerd price ) should already be in place. Should we derive revenue using MRP,for operating expense calculation?</t>
+  </si>
+  <si>
+    <t>Some structure is required to keep /calculate delivery cost.Because as deliveries will increase,delivery cost will increase and breakeven price of each product may get periodically impacted due to this.</t>
+  </si>
+  <si>
+    <t>Initially when we do not have any forecast at basket/deliveries level how to calculate delivery charges?</t>
+  </si>
+  <si>
+    <t>What will happen when some product is withdrawn from market(example: maggy) whereas number of subscribers have subscribed for this.</t>
+  </si>
+  <si>
+    <t>A new domain is created "Business" having BusinessAccount aggregate,how to update this aggregate,who will update,when?</t>
+  </si>
+  <si>
+    <t>When price of a product is commited,and after few months purchase price may get changed rsulting into loss/loss of profit.How to account for it?How to compensate for it?can it be distributed across spectrum of new subscriptions after price change?</t>
+  </si>
+  <si>
+    <t>How will the actual integration with payment gateway happen?when payment is made how to show payment successful/failed status to customer?</t>
+  </si>
+  <si>
+    <t>What will be the payment options? What are rules associated with each option?</t>
+  </si>
+  <si>
+    <t>Should the opertaing expenses be calculated based on confirmed revenue(registered subscriptions) only or also anticipated revenue(monthly forecasted subscriptions) also?</t>
+  </si>
+  <si>
+    <t>How to maintain data consistency across domains as lot of data is getting duplicated. Should we write some Domainrefresher?</t>
+  </si>
+  <si>
+    <t>Should the operating expenses calculation be daily batch OR should it be monthly batch?</t>
+  </si>
+  <si>
+    <t>Many aggregates are keeping big collections of forecasts/actuals as axon does not provide any API for maintaining versions(future/past) is there any way around it?</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Category (Business/ Customer/ Product)</t>
+  </si>
+  <si>
+    <t>Comments/Details</t>
+  </si>
+  <si>
+    <t>Impacted by user story</t>
+  </si>
+  <si>
+    <t>High performing product</t>
+  </si>
+  <si>
+    <t>Admin is able to see specific product(s) which are performing better than forecast</t>
+  </si>
+  <si>
+    <t>Low performing product</t>
+  </si>
+  <si>
+    <t>Admin is able to see specific product(s) which are performing worse than forecast</t>
+  </si>
+  <si>
+    <t>Product pending configuration</t>
+  </si>
+  <si>
+    <t>Admin is able to see specific product(s) which are pending to complete the configuration (e.g. forecast not added etc.)</t>
+  </si>
+  <si>
+    <t>Product pending reconfiguration</t>
+  </si>
+  <si>
+    <t>Admin is able to see specific product(s) which are pending to complete the reconfiguration (e.g. forecast and expense distribution needs to be changed/reconfigured etc.)</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>BDGT_01</t>
+  </si>
+  <si>
+    <t>Merchant will make provision for purchase cost.</t>
+  </si>
+  <si>
+    <t>Value of provision for purchase cost and provision date are received via REST controller</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>BusinessAccountProvisionController</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommand</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler</t>
+  </si>
+  <si>
+    <t>BusinessAccount</t>
+  </si>
+  <si>
+    <t>CreateProvisionEvent</t>
+  </si>
+  <si>
+    <t>CreateProvisionEventListener</t>
+  </si>
+  <si>
+    <t>REST controller fires command CreateProvisionForPurchaseCostCommand</t>
+  </si>
+  <si>
+    <t>CreateProvisionForPurchaseCostCommandHandler fires CreateProvisionForPurchaseCostEvent which will update provision for purchase cost and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
+  </si>
+  <si>
+    <t>Receiving inventory details</t>
+  </si>
+  <si>
+    <t>ProductStatusReceivedEvent is received at business domain (from integration domain). The event contains inventory details (total purchase cost).</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Total purchase cost is debited under ‘purchase cost’ and provision account for the same (i.e. purchase cost).</t>
+  </si>
+  <si>
+    <t>Merchant make provision for initial investment</t>
+  </si>
+  <si>
+    <t>Distribute initial provision to Purchase, Operating expensies and profit accounts</t>
+  </si>
+  <si>
+    <t>Credit provisional profit when subscriber does subscription.</t>
+  </si>
+  <si>
+    <t>Credit actual profit when received payment from subscriber.</t>
+  </si>
+  <si>
+    <t>Credit additional profit which we will make from advance payment for book keeping.</t>
+  </si>
+  <si>
+    <t>Debit from profit account in case of cancelation of Subscription</t>
+  </si>
+  <si>
+    <t>Credit provisional revenue when subscriber does subscription.</t>
+  </si>
+  <si>
+    <t>Credit actual revenue when received payment from subscriber.</t>
+  </si>
+  <si>
+    <t>Credit additional revenue which we will make from advance payment for book keeping..</t>
+  </si>
+  <si>
+    <t>Debit from revenue account in case of cancelation of Subscription</t>
+  </si>
+  <si>
+    <t>Credit delivery expense to subscription specific operating expense on successful delivery.</t>
+  </si>
+  <si>
+    <t>Debit delivery expense from provisional subscription specific operating expense on successful delivery.</t>
+  </si>
+  <si>
+    <t>Credit Fixed expenses to Fixed operating expense when received from site.</t>
+  </si>
+  <si>
+    <t>Debit Fixed expenses from Fixed operating expense when received from site.</t>
+  </si>
+  <si>
+    <t>Debit from provision of basket level benefit when subscriber get basket level benefits.</t>
+  </si>
+  <si>
+    <t>Debit from provision of customer loyaltly program when subscriber get loyalty benefits</t>
+  </si>
+  <si>
+    <t>Credit to benefit's provisions when subscriber cancels the subscription.</t>
+  </si>
+  <si>
+    <t>Provision for losses would be used as a last resort (i.e. losses occurred and no money for provision)</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2019,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2113,7 +2133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2133,6 +2153,13 @@
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2168,7 +2195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2273,8 +2300,16 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2373,15 +2408,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2576,16 +2615,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>546</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>548</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="50" t="s">
         <v>549</v>
       </c>
     </row>
@@ -2649,11 +2688,11 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:N44"/>
+  <dimension ref="A2:N65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2666,34 +2705,38 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.7368421052632"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6234817813765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.4858299595142"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.5384615384615"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.5101214574899"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.8461538461538"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="51" t="s">
         <v>558</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="30" t="s">
         <v>214</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -2716,810 +2759,884 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="28" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="28" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="28" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
     </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="28" t="s">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="28" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="30" t="s">
         <v>454</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="28" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
     </row>
-    <row r="10" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="28" t="s">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
+      <c r="E10" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>568</v>
+      </c>
+      <c r="N10" s="53" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="51" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+    </row>
+    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+    </row>
+    <row r="13" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="54" t="s">
         <v>457</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
     </row>
-    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="52" t="s">
-        <v>561</v>
-      </c>
-      <c r="F12" s="49" t="s">
+    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="55" t="s">
+        <v>573</v>
+      </c>
+      <c r="F15" s="51" t="s">
         <v>562</v>
       </c>
-      <c r="G12" s="49" t="s">
-        <v>563</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
+      <c r="G15" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
     </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49" t="s">
-        <v>563</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-    </row>
-    <row r="14" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>450</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-    </row>
-    <row r="15" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-    </row>
-    <row r="16" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="55" t="s">
+        <v>576</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>450</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
     </row>
     <row r="18" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>465</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
     </row>
-    <row r="19" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>467</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
+    <row r="19" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>469</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
     </row>
-    <row r="21" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>469</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
+    <row r="21" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
     </row>
-    <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
+    <row r="22" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="28" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+    </row>
+    <row r="24" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+    </row>
+    <row r="25" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+    </row>
+    <row r="26" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E26" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
     </row>
-    <row r="24" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="28" t="s">
+    <row r="27" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E27" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
     </row>
-    <row r="25" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="28" t="s">
+    <row r="28" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="30" t="s">
         <v>475</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E28" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
     </row>
-    <row r="26" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="28" t="s">
+    <row r="29" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E29" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
     </row>
-    <row r="27" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="28" t="s">
+    <row r="30" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E30" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
     </row>
-    <row r="28" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="28" t="s">
+    <row r="31" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E31" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
     </row>
-    <row r="29" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="28" t="s">
+    <row r="32" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E32" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-    </row>
-    <row r="30" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-    </row>
-    <row r="31" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-    </row>
-    <row r="32" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>479</v>
-      </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
     </row>
     <row r="33" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="28" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+    </row>
+    <row r="34" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+    </row>
+    <row r="35" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+    </row>
+    <row r="36" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E36" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
     </row>
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D10:D13"/>
+  <mergeCells count="2">
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D16"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3557,26 +3674,26 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="30" t="s">
         <v>214</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -3599,664 +3716,664 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49" t="s">
-        <v>566</v>
-      </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49" t="s">
-        <v>567</v>
-      </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49" t="s">
-        <v>568</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
     </row>
     <row r="9" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49" t="s">
-        <v>569</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49" t="s">
-        <v>570</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49" t="s">
-        <v>571</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
-        <v>572</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49" t="s">
-        <v>573</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51" t="s">
+        <v>584</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49" t="s">
-        <v>574</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
     </row>
     <row r="16" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49" t="s">
-        <v>575</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51" t="s">
+        <v>586</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
     </row>
     <row r="18" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49" t="s">
-        <v>576</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51" t="s">
+        <v>587</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
     </row>
     <row r="19" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51" t="s">
+        <v>588</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51" t="s">
+        <v>589</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49" t="s">
-        <v>579</v>
-      </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51" t="s">
+        <v>590</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49" t="s">
-        <v>580</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51" t="s">
+        <v>591</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49" t="s">
-        <v>581</v>
-      </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="26" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49" t="s">
-        <v>582</v>
-      </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51" t="s">
+        <v>593</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4288,7 +4405,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -32972,21 +33089,21 @@
       <c r="C3" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>193</v>
       </c>
       <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>194</v>
       </c>
       <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="26"/>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>195</v>
       </c>
       <c r="E5" s="0"/>
@@ -33053,7 +33170,7 @@
       <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="28" t="s">
         <v>204</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -33064,37 +33181,37 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="25"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="25"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="25"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="25"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="25"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="25"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="1" t="s">
         <v>212</v>
       </c>
@@ -33129,21 +33246,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="75.0890688259109"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="27" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="27" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="27" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="27" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="27" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="27" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="29" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="75.0890688259109"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="29" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="29" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="29" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="29" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="29" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="29" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="29" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="29" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="29" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="29" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33163,26 +33280,26 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="32" t="s">
         <v>214</v>
       </c>
       <c r="I2" s="25" t="s">
@@ -33231,14 +33348,14 @@
       <c r="D4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="32" t="s">
         <v>218</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="32" t="s">
         <v>219</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -33247,7 +33364,7 @@
       <c r="K4" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="32" t="s">
         <v>222</v>
       </c>
       <c r="N4" s="4" t="s">
@@ -33255,26 +33372,26 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>224</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="32" t="s">
         <v>229</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -33283,7 +33400,7 @@
       <c r="K5" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="32" t="s">
         <v>222</v>
       </c>
       <c r="N5" s="4" t="s">
@@ -33291,26 +33408,26 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>233</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="32" t="s">
         <v>229</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -33319,7 +33436,7 @@
       <c r="K6" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="32" t="s">
         <v>222</v>
       </c>
       <c r="N6" s="4" t="s">
@@ -33327,23 +33444,23 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="246.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>238</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="32" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="0"/>
@@ -33353,425 +33470,425 @@
       <c r="N7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="290" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="32" t="s">
         <v>243</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="32" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="34" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>256</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="32" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="377" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
         <v>261</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="32" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="33" t="s">
         <v>265</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="32" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="33" t="s">
         <v>270</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="32" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="33" t="s">
         <v>274</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="32" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="33" t="s">
         <v>278</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="32" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="33" t="s">
         <v>282</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="32" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>286</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="32" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="33" t="s">
         <v>290</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="32" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="32" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="32" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="32" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="33" t="s">
         <v>307</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="32" t="s">
         <v>310</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="32" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="32" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="32" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="32" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="32" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="32" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="32" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="33" t="s">
         <v>335</v>
       </c>
       <c r="E31" s="21" t="s">
@@ -33779,7 +33896,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="33" t="s">
         <v>337</v>
       </c>
       <c r="E32" s="21" t="s">
@@ -33787,7 +33904,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="33" t="s">
         <v>339</v>
       </c>
       <c r="E33" s="21" t="s">
@@ -33795,7 +33912,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="33" t="s">
         <v>341</v>
       </c>
       <c r="E34" s="21" t="s">
@@ -33803,7 +33920,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="33" t="s">
         <v>343</v>
       </c>
       <c r="E35" s="21" t="s">
@@ -33811,7 +33928,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="33" t="s">
         <v>345</v>
       </c>
       <c r="E36" s="21" t="s">
@@ -33819,42 +33936,42 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="33" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="33" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="33" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="33" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="33" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="33" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="33" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="33" t="s">
         <v>354</v>
       </c>
     </row>
@@ -33897,28 +34014,28 @@
       <c r="B1" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="36" t="s">
         <v>27</v>
       </c>
     </row>
@@ -33926,19 +34043,19 @@
       <c r="A2" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>357</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="1" t="s">
         <v>360</v>
       </c>
@@ -33950,61 +34067,61 @@
       <c r="A4" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="36" t="s">
         <v>363</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="36" t="s">
         <v>367</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="36" t="s">
         <v>370</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="34"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="36"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -34078,7 +34195,7 @@
       <c r="C4" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="32" t="s">
         <v>374</v>
       </c>
       <c r="E4" s="0"/>
@@ -34092,7 +34209,7 @@
       <c r="C5" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="32" t="s">
         <v>376</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -34105,13 +34222,13 @@
         <v>378</v>
       </c>
       <c r="B6" s="0"/>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="36" t="s">
         <v>381</v>
       </c>
       <c r="F6" s="25" t="s">
@@ -34122,13 +34239,13 @@
       <c r="A7" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="32" t="s">
         <v>385</v>
       </c>
     </row>
@@ -34137,10 +34254,10 @@
         <v>178</v>
       </c>
       <c r="B8" s="0"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="32" t="s">
         <v>386</v>
       </c>
     </row>
@@ -34154,7 +34271,7 @@
       <c r="C9" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="32" t="s">
         <v>390</v>
       </c>
     </row>
@@ -34165,7 +34282,7 @@
       <c r="B10" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="32" t="s">
         <v>391</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -34206,82 +34323,82 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="174" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="25" t="s">
         <v>394</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="25" t="s">
         <v>397</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="25" t="s">
         <v>399</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>401</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="25" t="s">
         <v>402</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="39" t="s">
         <v>32</v>
       </c>
     </row>
@@ -34309,7 +34426,7 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -34327,819 +34444,819 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>405</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="41" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="43" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="66.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="n">
+      <c r="A3" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="42" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="44" t="s">
         <v>426</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="42" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="40" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="42" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="42" t="s">
         <v>435</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="40"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42" t="s">
         <v>436</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="42" t="s">
         <v>438</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="34" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="36" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="40" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="42" t="s">
         <v>440</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="42" t="s">
         <v>442</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="42" t="s">
         <v>443</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="0" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="42" t="s">
         <v>446</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="40" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="42" t="s">
         <v>449</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="40" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="42" t="s">
         <v>451</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="40" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="40" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="42" t="s">
         <v>454</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="40" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="40" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="48" t="s">
         <v>457</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="40" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="40" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="42" t="s">
         <v>460</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="40" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="42" t="s">
         <v>462</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="40" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="42" t="s">
         <v>462</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="40" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="40" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="42" t="s">
         <v>466</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="40" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="40" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="42" t="s">
         <v>470</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="40" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="42" t="s">
         <v>471</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="42" t="s">
         <v>472</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="40" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="42" t="s">
         <v>473</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="40" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="40" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="42" t="s">
         <v>475</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="42" t="s">
         <v>476</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="40" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="42" t="s">
         <v>477</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="40" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="40" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="42" t="s">
         <v>480</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="40" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="40" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="42" t="s">
         <v>484</v>
       </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
     </row>
     <row r="36" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="40"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="40" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="42" t="s">
         <v>485</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="40"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="40" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
     </row>
     <row r="38" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="40"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="40" t="s">
+      <c r="A38" s="42"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="42" t="s">
         <v>488</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="40"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="40"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="40"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="40"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="40"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="40"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
     </row>
     <row r="46" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40" t="n">
+      <c r="A46" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="G46" s="40"/>
+      <c r="G46" s="42"/>
     </row>
     <row r="47" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
     </row>
     <row r="48" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42" t="s">
         <v>498</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
     </row>
     <row r="49" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="42" t="s">
         <v>503</v>
       </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
     </row>
     <row r="50" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="42" t="s">
         <v>505</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="42" t="s">
         <v>506</v>
       </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
     </row>
     <row r="51" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="42" t="s">
         <v>508</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="43" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
     </row>
     <row r="54" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40" t="s">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="42" t="s">
         <v>516</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
     </row>
     <row r="55" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40" t="s">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42" t="s">
         <v>519</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="42" t="s">
         <v>520</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="42" t="s">
         <v>521</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="42" t="s">
         <v>522</v>
       </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
     </row>
     <row r="56" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40" t="s">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="42" t="s">
         <v>524</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="42" t="s">
         <v>526</v>
       </c>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
     </row>
     <row r="57" customFormat="false" ht="234" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40" t="s">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42" t="s">
         <v>527</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="42" t="s">
         <v>528</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="42" t="s">
         <v>529</v>
       </c>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
     </row>
     <row r="58" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42" t="s">
         <v>530</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="596">
   <si>
     <t>Term</t>
   </si>
@@ -1909,52 +1909,55 @@
     <t>BDGT_01</t>
   </si>
   <si>
+    <t>Value of provision for purchase cost and provision date are received via REST controller</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>BusinessAccountProvisionController</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommand</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler</t>
+  </si>
+  <si>
+    <t>BusinessAccount</t>
+  </si>
+  <si>
+    <t>CreateProvisionEvent</t>
+  </si>
+  <si>
+    <t>CreateProvisionEventListener</t>
+  </si>
+  <si>
+    <t>REST controller fires command CreateProvisionCommand</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for purchase cost and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
+  </si>
+  <si>
     <t>Merchant will make provision for purchase cost.</t>
   </si>
   <si>
-    <t>Value of provision for purchase cost and provision date are received via REST controller</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>BusinessAccountProvisionController</t>
-  </si>
-  <si>
-    <t>CreateProvisionCommand</t>
-  </si>
-  <si>
-    <t>CreateProvisionCommandHandler</t>
-  </si>
-  <si>
-    <t>BusinessAccount</t>
-  </si>
-  <si>
-    <t>CreateProvisionEvent</t>
-  </si>
-  <si>
-    <t>CreateProvisionEventListener</t>
-  </si>
-  <si>
-    <t>REST controller fires command CreateProvisionForPurchaseCostCommand</t>
-  </si>
-  <si>
-    <t>CreateProvisionForPurchaseCostCommandHandler fires CreateProvisionForPurchaseCostEvent which will update provision for purchase cost and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
-  </si>
-  <si>
     <t>Receiving inventory details</t>
   </si>
   <si>
     <t>ProductStatusReceivedEvent is received at business domain (from integration domain). The event contains inventory details (total purchase cost).</t>
   </si>
   <si>
-    <t>Not started</t>
-  </si>
-  <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>ProductStatusReceivedEvent</t>
+  </si>
+  <si>
+    <t>ProductStatusReceivedEventListener</t>
   </si>
   <si>
     <t>Total purchase cost is debited under ‘purchase cost’ and provision account for the same (i.e. purchase cost).</t>
@@ -2690,10 +2693,10 @@
   </sheetPr>
   <dimension ref="A2:N65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2820,7 +2823,7 @@
       <c r="M5" s="52"/>
       <c r="N5" s="52"/>
     </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -2828,27 +2831,41 @@
         <v>451</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+        <v>560</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
+      <c r="I6" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
-      <c r="D7" s="30" t="s">
-        <v>453</v>
-      </c>
+      <c r="D7" s="30"/>
       <c r="E7" s="30" t="s">
-        <v>452</v>
+        <v>569</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -2860,15 +2877,13 @@
       <c r="M7" s="52"/>
       <c r="N7" s="52"/>
     </row>
-    <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
-      <c r="D8" s="30" t="s">
-        <v>454</v>
-      </c>
+      <c r="D8" s="30"/>
       <c r="E8" s="30" t="s">
-        <v>452</v>
+        <v>570</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -2880,12 +2895,12 @@
       <c r="M8" s="52"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>452</v>
@@ -2900,49 +2915,35 @@
       <c r="M9" s="52"/>
       <c r="N9" s="52"/>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="30" t="s">
-        <v>560</v>
+        <v>454</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>562</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>563</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>566</v>
-      </c>
-      <c r="L10" s="53" t="s">
-        <v>567</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>568</v>
-      </c>
-      <c r="N10" s="53" t="s">
-        <v>569</v>
-      </c>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
-      <c r="D11" s="30"/>
+      <c r="D11" s="30" t="s">
+        <v>455</v>
+      </c>
       <c r="E11" s="30" t="s">
-        <v>570</v>
+        <v>452</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -2954,33 +2955,49 @@
       <c r="M11" s="52"/>
       <c r="N11" s="52"/>
     </row>
-    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30" t="s">
+        <v>571</v>
+      </c>
       <c r="E12" s="30" t="s">
-        <v>571</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+        <v>560</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
+      <c r="I12" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="N12" s="53" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
-      <c r="D13" s="30" t="s">
-        <v>572</v>
-      </c>
+      <c r="D13" s="30"/>
       <c r="E13" s="30" t="s">
-        <v>456</v>
+        <v>569</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -2992,13 +3009,13 @@
       <c r="M13" s="52"/>
       <c r="N13" s="52"/>
     </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="30"/>
-      <c r="E14" s="54" t="s">
-        <v>457</v>
+      <c r="E14" s="30" t="s">
+        <v>570</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -3010,24 +3027,20 @@
       <c r="M14" s="52"/>
       <c r="N14" s="52"/>
     </row>
-    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="55" t="s">
-        <v>573</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>562</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>574</v>
-      </c>
+      <c r="D15" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="52" t="s">
-        <v>575</v>
-      </c>
+      <c r="I15" s="52"/>
       <c r="J15" s="52"/>
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
@@ -3039,72 +3052,96 @@
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="30"/>
-      <c r="E16" s="55" t="s">
-        <v>576</v>
+      <c r="E16" s="54" t="s">
+        <v>457</v>
       </c>
       <c r="F16" s="51"/>
-      <c r="G16" s="51" t="s">
-        <v>574</v>
-      </c>
+      <c r="G16" s="51"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="52" t="s">
-        <v>575</v>
-      </c>
+      <c r="I16" s="52"/>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
       <c r="L16" s="52"/>
       <c r="M16" s="52"/>
       <c r="N16" s="52"/>
     </row>
-    <row r="17" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
-      <c r="D17" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>450</v>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="55" t="s">
+        <v>573</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
+      <c r="I17" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="M17" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="N17" s="53" t="s">
+        <v>576</v>
+      </c>
     </row>
-    <row r="18" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
-      <c r="D18" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
+      <c r="I18" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="L18" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="N18" s="53" t="s">
+        <v>576</v>
+      </c>
     </row>
-    <row r="19" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>462</v>
+        <v>458</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>450</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -3116,15 +3153,15 @@
       <c r="M19" s="52"/>
       <c r="N19" s="52"/>
     </row>
-    <row r="20" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="30" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -3136,15 +3173,15 @@
       <c r="M20" s="52"/>
       <c r="N20" s="52"/>
     </row>
-    <row r="21" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>465</v>
+        <v>461</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>462</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -3156,15 +3193,15 @@
       <c r="M21" s="52"/>
       <c r="N21" s="52"/>
     </row>
-    <row r="22" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>467</v>
+        <v>463</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>462</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -3176,15 +3213,15 @@
       <c r="M22" s="52"/>
       <c r="N22" s="52"/>
     </row>
-    <row r="23" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="30" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -3196,15 +3233,15 @@
       <c r="M23" s="52"/>
       <c r="N23" s="52"/>
     </row>
-    <row r="24" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="30" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -3216,15 +3253,15 @@
       <c r="M24" s="52"/>
       <c r="N24" s="52"/>
     </row>
-    <row r="25" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>472</v>
+        <v>468</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>469</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -3236,12 +3273,12 @@
       <c r="M25" s="52"/>
       <c r="N25" s="52"/>
     </row>
-    <row r="26" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="30" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E26" s="49" t="s">
         <v>469</v>
@@ -3256,15 +3293,15 @@
       <c r="M26" s="52"/>
       <c r="N26" s="52"/>
     </row>
-    <row r="27" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>465</v>
+        <v>471</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>472</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -3276,15 +3313,15 @@
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
     </row>
-    <row r="28" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>476</v>
+        <v>473</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>469</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -3296,15 +3333,15 @@
       <c r="M28" s="52"/>
       <c r="N28" s="52"/>
     </row>
-    <row r="29" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>447</v>
+        <v>474</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>465</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -3316,15 +3353,15 @@
       <c r="M29" s="52"/>
       <c r="N29" s="52"/>
     </row>
-    <row r="30" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="30" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -3336,15 +3373,15 @@
       <c r="M30" s="52"/>
       <c r="N30" s="52"/>
     </row>
-    <row r="31" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="30" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -3356,15 +3393,15 @@
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
     </row>
-    <row r="32" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
       <c r="D32" s="30" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -3376,15 +3413,15 @@
       <c r="M32" s="52"/>
       <c r="N32" s="52"/>
     </row>
-    <row r="33" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="30" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -3396,15 +3433,15 @@
       <c r="M33" s="52"/>
       <c r="N33" s="52"/>
     </row>
-    <row r="34" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>482</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -3416,15 +3453,15 @@
       <c r="M34" s="52"/>
       <c r="N34" s="52"/>
     </row>
-    <row r="35" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="30" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -3436,15 +3473,15 @@
       <c r="M35" s="52"/>
       <c r="N35" s="52"/>
     </row>
-    <row r="36" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>489</v>
+        <v>485</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>486</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -3456,12 +3493,16 @@
       <c r="M36" s="52"/>
       <c r="N36" s="52"/>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
+      <c r="D37" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>479</v>
+      </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
@@ -3472,12 +3513,16 @@
       <c r="M37" s="52"/>
       <c r="N37" s="52"/>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
+      <c r="D38" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>489</v>
+      </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
       <c r="H38" s="51"/>
@@ -3488,7 +3533,7 @@
       <c r="M38" s="52"/>
       <c r="N38" s="52"/>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -3504,7 +3549,7 @@
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -3520,7 +3565,7 @@
       <c r="M40" s="52"/>
       <c r="N40" s="52"/>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -3536,7 +3581,7 @@
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -3552,7 +3597,7 @@
       <c r="M42" s="52"/>
       <c r="N42" s="52"/>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -3568,7 +3613,7 @@
       <c r="M43" s="52"/>
       <c r="N43" s="52"/>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -3584,7 +3629,7 @@
       <c r="M44" s="52"/>
       <c r="N44" s="52"/>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -3600,7 +3645,7 @@
       <c r="M45" s="52"/>
       <c r="N45" s="52"/>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -3616,15 +3661,15 @@
       <c r="M46" s="52"/>
       <c r="N46" s="52"/>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52"/>
       <c r="K47" s="52"/>
@@ -3632,11 +3677,44 @@
       <c r="M47" s="52"/>
       <c r="N47" s="52"/>
     </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D16"/>
+  <mergeCells count="3">
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3722,7 +3800,7 @@
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
@@ -3756,7 +3834,7 @@
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
@@ -3806,7 +3884,7 @@
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
@@ -3824,7 +3902,7 @@
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
@@ -3842,7 +3920,7 @@
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -3860,7 +3938,7 @@
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
@@ -3894,7 +3972,7 @@
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -3912,7 +3990,7 @@
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -3930,7 +4008,7 @@
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -3948,7 +4026,7 @@
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
@@ -3982,7 +4060,7 @@
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -4000,7 +4078,7 @@
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -4034,7 +4112,7 @@
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -4052,7 +4130,7 @@
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -4086,7 +4164,7 @@
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
@@ -4104,7 +4182,7 @@
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -4122,7 +4200,7 @@
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
@@ -4405,7 +4483,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="596">
   <si>
     <t>Term</t>
   </si>
@@ -2691,12 +2691,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:N65536"/>
+  <dimension ref="A2:N51"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2895,7 +2895,7 @@
       <c r="M8" s="52"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -2903,27 +2903,41 @@
         <v>453</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+        <v>560</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
+      <c r="I9" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="N9" s="53" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
-      <c r="D10" s="30" t="s">
-        <v>454</v>
-      </c>
+      <c r="D10" s="30"/>
       <c r="E10" s="30" t="s">
-        <v>452</v>
+        <v>569</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -2935,15 +2949,13 @@
       <c r="M10" s="52"/>
       <c r="N10" s="52"/>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
-      <c r="D11" s="30" t="s">
-        <v>455</v>
-      </c>
+      <c r="D11" s="30"/>
       <c r="E11" s="30" t="s">
-        <v>452</v>
+        <v>570</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -2955,49 +2967,35 @@
       <c r="M11" s="52"/>
       <c r="N11" s="52"/>
     </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="30" t="s">
-        <v>571</v>
+        <v>454</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>562</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="L12" s="53" t="s">
-        <v>566</v>
-      </c>
-      <c r="M12" s="53" t="s">
-        <v>567</v>
-      </c>
-      <c r="N12" s="53" t="s">
-        <v>568</v>
-      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30" t="s">
+        <v>455</v>
+      </c>
       <c r="E13" s="30" t="s">
-        <v>569</v>
+        <v>452</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -3009,33 +3007,49 @@
       <c r="M13" s="52"/>
       <c r="N13" s="52"/>
     </row>
-    <row r="14" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>571</v>
+      </c>
       <c r="E14" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+        <v>560</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
+      <c r="I14" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="N14" s="53" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
-      <c r="D15" s="30" t="s">
-        <v>572</v>
-      </c>
+      <c r="D15" s="30"/>
       <c r="E15" s="30" t="s">
-        <v>456</v>
+        <v>569</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -3047,13 +3061,13 @@
       <c r="M15" s="52"/>
       <c r="N15" s="52"/>
     </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="30"/>
-      <c r="E16" s="54" t="s">
-        <v>457</v>
+      <c r="E16" s="30" t="s">
+        <v>570</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -3065,123 +3079,121 @@
       <c r="M16" s="52"/>
       <c r="N16" s="52"/>
     </row>
-    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="55" t="s">
-        <v>573</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>562</v>
-      </c>
+      <c r="D17" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="J17" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="K17" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="L17" s="52" t="s">
-        <v>566</v>
-      </c>
-      <c r="M17" s="53" t="s">
-        <v>575</v>
-      </c>
-      <c r="N17" s="53" t="s">
-        <v>576</v>
-      </c>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="30"/>
-      <c r="E18" s="55" t="s">
-        <v>577</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>562</v>
-      </c>
+      <c r="E18" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="J18" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="K18" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="L18" s="52" t="s">
-        <v>566</v>
-      </c>
-      <c r="M18" s="53" t="s">
-        <v>575</v>
-      </c>
-      <c r="N18" s="53" t="s">
-        <v>576</v>
-      </c>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
     </row>
-    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>450</v>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="55" t="s">
+        <v>573</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
+      <c r="I19" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="L19" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="M19" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="N19" s="53" t="s">
+        <v>576</v>
+      </c>
     </row>
-    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
-      <c r="D20" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
+      <c r="I20" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="M20" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="N20" s="53" t="s">
+        <v>576</v>
+      </c>
     </row>
-    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>462</v>
+        <v>458</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>450</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -3198,10 +3210,10 @@
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="30" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -3213,15 +3225,15 @@
       <c r="M22" s="52"/>
       <c r="N22" s="52"/>
     </row>
-    <row r="23" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>465</v>
+        <v>461</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>462</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -3238,10 +3250,10 @@
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>467</v>
+        <v>463</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>462</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -3258,10 +3270,10 @@
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="30" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -3273,15 +3285,15 @@
       <c r="M25" s="52"/>
       <c r="N25" s="52"/>
     </row>
-    <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="30" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -3293,15 +3305,15 @@
       <c r="M26" s="52"/>
       <c r="N26" s="52"/>
     </row>
-    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>472</v>
+        <v>468</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>469</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -3313,12 +3325,12 @@
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
     </row>
-    <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="30" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E28" s="49" t="s">
         <v>469</v>
@@ -3333,15 +3345,15 @@
       <c r="M28" s="52"/>
       <c r="N28" s="52"/>
     </row>
-    <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>465</v>
+        <v>471</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>472</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -3358,10 +3370,10 @@
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>476</v>
+        <v>473</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>469</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -3373,15 +3385,15 @@
       <c r="M30" s="52"/>
       <c r="N30" s="52"/>
     </row>
-    <row r="31" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>447</v>
+        <v>474</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>465</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -3393,15 +3405,15 @@
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
     </row>
-    <row r="32" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
       <c r="D32" s="30" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -3413,15 +3425,15 @@
       <c r="M32" s="52"/>
       <c r="N32" s="52"/>
     </row>
-    <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="30" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -3433,15 +3445,15 @@
       <c r="M33" s="52"/>
       <c r="N33" s="52"/>
     </row>
-    <row r="34" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="30" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -3453,15 +3465,15 @@
       <c r="M34" s="52"/>
       <c r="N34" s="52"/>
     </row>
-    <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="30" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -3473,15 +3485,15 @@
       <c r="M35" s="52"/>
       <c r="N35" s="52"/>
     </row>
-    <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>482</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -3498,10 +3510,10 @@
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="30" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -3518,10 +3530,10 @@
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>489</v>
+        <v>485</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>486</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -3533,12 +3545,16 @@
       <c r="M38" s="52"/>
       <c r="N38" s="52"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
+      <c r="D39" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>479</v>
+      </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
       <c r="H39" s="51"/>
@@ -3549,12 +3565,16 @@
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
+      <c r="D40" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>489</v>
+      </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
       <c r="H40" s="51"/>
@@ -3694,14 +3714,14 @@
       <c r="N48" s="52"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52"/>
       <c r="K49" s="52"/>
@@ -3709,12 +3729,44 @@
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="620">
   <si>
     <t>Term</t>
   </si>
@@ -1909,42 +1909,111 @@
     <t>BDGT_01</t>
   </si>
   <si>
+    <t>Value of provision for losses and provision date are received via REST controller</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>BusinessAccountProvisionController</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommand</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler</t>
+  </si>
+  <si>
+    <t>BusinessAccount</t>
+  </si>
+  <si>
+    <t>CreateProvisionEvent</t>
+  </si>
+  <si>
+    <t>CreateProvisionEventListener</t>
+  </si>
+  <si>
+    <t>REST controller fires command CreateProvisionCommand</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for losses and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
+  </si>
+  <si>
+    <t>Value of provision for benefits and provision date are received via REST controller</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for benefits and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
+  </si>
+  <si>
+    <t>Value of provision for taxes and provision date are received via REST controller</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for taxes and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
+  </si>
+  <si>
+    <t>Value of provision for others and provision date are received via REST controller</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for others and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
+  </si>
+  <si>
+    <t>Merchant will make provision for common expenses.</t>
+  </si>
+  <si>
+    <t>Value of provision for common expenses and provision date are received via REST controller</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for common expenses and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
+  </si>
+  <si>
+    <t>Merchant will make provision for nodal account.</t>
+  </si>
+  <si>
+    <t>Value of provision for nodal account and provision date are received via REST controller</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for nodal account and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
+  </si>
+  <si>
+    <t>Merchant will make provision for revenue.</t>
+  </si>
+  <si>
+    <t>Value of provision for revenue and provision date are received via REST controller</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for revenue and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
+  </si>
+  <si>
+    <t>Merchant will make provision for booking amount.</t>
+  </si>
+  <si>
+    <t>Value of provision for booking amount and provision date are received via REST controller</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for booking amount and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
+  </si>
+  <si>
+    <t>Merchant will make provision for subscription specific expenses.</t>
+  </si>
+  <si>
+    <t>Value of provision for subscription specific expenses and provision date are received via REST controller</t>
+  </si>
+  <si>
+    <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for subscription specific expenses and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
+  </si>
+  <si>
+    <t>Merchant will make provision for purchase cost.</t>
+  </si>
+  <si>
     <t>Value of provision for purchase cost and provision date are received via REST controller</t>
   </si>
   <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>BusinessAccountProvisionController</t>
-  </si>
-  <si>
-    <t>CreateProvisionCommand</t>
-  </si>
-  <si>
-    <t>CreateProvisionCommandHandler</t>
-  </si>
-  <si>
-    <t>BusinessAccount</t>
-  </si>
-  <si>
-    <t>CreateProvisionEvent</t>
-  </si>
-  <si>
-    <t>CreateProvisionEventListener</t>
-  </si>
-  <si>
-    <t>REST controller fires command CreateProvisionCommand</t>
-  </si>
-  <si>
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for purchase cost and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
-    <t>Merchant will make provision for purchase cost.</t>
-  </si>
-  <si>
     <t>Receiving inventory details</t>
   </si>
   <si>
@@ -1961,6 +2030,9 @@
   </si>
   <si>
     <t>Total purchase cost is debited under ‘purchase cost’ and provision account for the same (i.e. purchase cost).</t>
+  </si>
+  <si>
+    <t>When system receives incoming operating expenses details from main application, they are debited under respective operating expense categories and respective provision account.</t>
   </si>
   <si>
     <t>Merchant make provision for initial investment</t>
@@ -2691,12 +2763,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:N51"/>
+  <dimension ref="A2:N70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2877,7 +2949,7 @@
       <c r="M7" s="52"/>
       <c r="N7" s="52"/>
     </row>
-    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -2903,7 +2975,7 @@
         <v>453</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="F9" s="51" t="s">
         <v>561</v>
@@ -2955,7 +3027,7 @@
       <c r="C11" s="51"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -2967,7 +3039,7 @@
       <c r="M11" s="52"/>
       <c r="N11" s="52"/>
     </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -2975,27 +3047,41 @@
         <v>454</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>452</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+        <v>573</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
+      <c r="I12" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="N12" s="53" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
-      <c r="D13" s="30" t="s">
-        <v>455</v>
-      </c>
+      <c r="D13" s="30"/>
       <c r="E13" s="30" t="s">
-        <v>452</v>
+        <v>569</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -3007,67 +3093,67 @@
       <c r="M13" s="52"/>
       <c r="N13" s="52"/>
     </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
-      <c r="D14" s="30" t="s">
-        <v>571</v>
-      </c>
+      <c r="D14" s="30"/>
       <c r="E14" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>562</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="K14" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="L14" s="53" t="s">
-        <v>566</v>
-      </c>
-      <c r="M14" s="53" t="s">
-        <v>567</v>
-      </c>
-      <c r="N14" s="53" t="s">
-        <v>568</v>
-      </c>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="30" t="s">
+        <v>455</v>
+      </c>
       <c r="E15" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+        <v>575</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
+      <c r="I15" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="M15" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="N15" s="53" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -3079,15 +3165,13 @@
       <c r="M16" s="52"/>
       <c r="N16" s="52"/>
     </row>
-    <row r="17" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
-      <c r="D17" s="30" t="s">
-        <v>572</v>
-      </c>
+      <c r="D17" s="30"/>
       <c r="E17" s="30" t="s">
-        <v>456</v>
+        <v>576</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -3099,121 +3183,121 @@
       <c r="M17" s="52"/>
       <c r="N17" s="52"/>
     </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="54" t="s">
-        <v>457</v>
-      </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="D18" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
+      <c r="I18" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="N18" s="53" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="30"/>
-      <c r="E19" s="55" t="s">
-        <v>573</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>562</v>
-      </c>
+      <c r="E19" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="51"/>
-      <c r="I19" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="K19" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="L19" s="52" t="s">
-        <v>566</v>
-      </c>
-      <c r="M19" s="53" t="s">
-        <v>575</v>
-      </c>
-      <c r="N19" s="53" t="s">
-        <v>576</v>
-      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
     </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="30"/>
-      <c r="E20" s="55" t="s">
-        <v>577</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="G20" s="51" t="s">
-        <v>562</v>
-      </c>
+      <c r="E20" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="J20" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="K20" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="L20" s="52" t="s">
-        <v>566</v>
-      </c>
-      <c r="M20" s="53" t="s">
-        <v>575</v>
-      </c>
-      <c r="N20" s="53" t="s">
-        <v>576</v>
-      </c>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
     </row>
-    <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>450</v>
-      </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
+        <v>580</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
+      <c r="I21" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="K21" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="M21" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="N21" s="53" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="22" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
-      <c r="D22" s="30" t="s">
-        <v>459</v>
-      </c>
+      <c r="D22" s="30"/>
       <c r="E22" s="30" t="s">
-        <v>460</v>
+        <v>569</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -3225,15 +3309,13 @@
       <c r="M22" s="52"/>
       <c r="N22" s="52"/>
     </row>
-    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="30" t="s">
-        <v>461</v>
-      </c>
+      <c r="D23" s="30"/>
       <c r="E23" s="30" t="s">
-        <v>462</v>
+        <v>582</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -3245,35 +3327,49 @@
       <c r="M23" s="52"/>
       <c r="N23" s="52"/>
     </row>
-    <row r="24" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="30" t="s">
-        <v>463</v>
+        <v>583</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>462</v>
-      </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
+        <v>584</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
+      <c r="I24" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="K24" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="L24" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="M24" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="N24" s="53" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="25" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
-      <c r="D25" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>465</v>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30" t="s">
+        <v>569</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -3289,11 +3385,9 @@
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
-      <c r="D26" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>467</v>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="s">
+        <v>585</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -3305,35 +3399,49 @@
       <c r="M26" s="52"/>
       <c r="N26" s="52"/>
     </row>
-    <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>469</v>
-      </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
+        <v>586</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
+      <c r="I27" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="K27" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="L27" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="M27" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="N27" s="53" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="28" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
-      <c r="D28" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>469</v>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30" t="s">
+        <v>569</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -3345,15 +3453,13 @@
       <c r="M28" s="52"/>
       <c r="N28" s="52"/>
     </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
-      <c r="D29" s="30" t="s">
-        <v>471</v>
-      </c>
+      <c r="D29" s="30"/>
       <c r="E29" s="30" t="s">
-        <v>472</v>
+        <v>588</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -3365,35 +3471,49 @@
       <c r="M29" s="52"/>
       <c r="N29" s="52"/>
     </row>
-    <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>469</v>
-      </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
+        <v>589</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
+      <c r="I30" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J30" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="K30" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="L30" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="M30" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="N30" s="53" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
-      <c r="D31" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>465</v>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30" t="s">
+        <v>569</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -3409,11 +3529,9 @@
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
-      <c r="D32" s="30" t="s">
-        <v>475</v>
-      </c>
+      <c r="D32" s="30"/>
       <c r="E32" s="30" t="s">
-        <v>476</v>
+        <v>591</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -3425,35 +3543,49 @@
       <c r="M32" s="52"/>
       <c r="N32" s="52"/>
     </row>
-    <row r="33" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="30" t="s">
-        <v>477</v>
+        <v>592</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
+        <v>593</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
+      <c r="I33" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="K33" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="L33" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="M33" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="N33" s="53" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
-      <c r="D34" s="30" t="s">
-        <v>478</v>
-      </c>
+      <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
-        <v>479</v>
+        <v>569</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -3465,15 +3597,13 @@
       <c r="M34" s="52"/>
       <c r="N34" s="52"/>
     </row>
-    <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
-      <c r="D35" s="30" t="s">
-        <v>480</v>
-      </c>
+      <c r="D35" s="30"/>
       <c r="E35" s="30" t="s">
-        <v>479</v>
+        <v>594</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -3485,15 +3615,15 @@
       <c r="M35" s="52"/>
       <c r="N35" s="52"/>
     </row>
-    <row r="36" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="30" t="s">
-        <v>481</v>
+        <v>595</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -3505,15 +3635,13 @@
       <c r="M36" s="52"/>
       <c r="N36" s="52"/>
     </row>
-    <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
-      <c r="D37" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>484</v>
+      <c r="D37" s="30"/>
+      <c r="E37" s="54" t="s">
+        <v>457</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -3525,55 +3653,83 @@
       <c r="M37" s="52"/>
       <c r="N37" s="52"/>
     </row>
-    <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
-      <c r="D38" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="55" t="s">
+        <v>596</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H38" s="51"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
+      <c r="I38" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="J38" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="K38" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="L38" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="M38" s="53" t="s">
+        <v>598</v>
+      </c>
+      <c r="N38" s="53" t="s">
+        <v>599</v>
+      </c>
     </row>
-    <row r="39" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
-      <c r="D39" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="55" t="s">
+        <v>600</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>562</v>
+      </c>
       <c r="H39" s="51"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
+      <c r="I39" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="J39" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="K39" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="L39" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="M39" s="53" t="s">
+        <v>598</v>
+      </c>
+      <c r="N39" s="53" t="s">
+        <v>599</v>
+      </c>
     </row>
-    <row r="40" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>489</v>
+        <v>601</v>
+      </c>
+      <c r="E40" s="56" t="s">
+        <v>450</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -3585,12 +3741,16 @@
       <c r="M40" s="52"/>
       <c r="N40" s="52"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
+      <c r="D41" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>460</v>
+      </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
@@ -3601,12 +3761,16 @@
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
+      <c r="D42" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>462</v>
+      </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
@@ -3617,12 +3781,16 @@
       <c r="M42" s="52"/>
       <c r="N42" s="52"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
+      <c r="D43" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>462</v>
+      </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
       <c r="H43" s="51"/>
@@ -3633,12 +3801,16 @@
       <c r="M43" s="52"/>
       <c r="N43" s="52"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
+      <c r="D44" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>465</v>
+      </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
       <c r="H44" s="51"/>
@@ -3649,12 +3821,16 @@
       <c r="M44" s="52"/>
       <c r="N44" s="52"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
+      <c r="D45" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>467</v>
+      </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
@@ -3665,12 +3841,16 @@
       <c r="M45" s="52"/>
       <c r="N45" s="52"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
+      <c r="D46" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>469</v>
+      </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
       <c r="H46" s="51"/>
@@ -3681,12 +3861,16 @@
       <c r="M46" s="52"/>
       <c r="N46" s="52"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
+      <c r="D47" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>469</v>
+      </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
@@ -3697,12 +3881,16 @@
       <c r="M47" s="52"/>
       <c r="N47" s="52"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
+      <c r="D48" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>472</v>
+      </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
       <c r="H48" s="51"/>
@@ -3713,12 +3901,16 @@
       <c r="M48" s="52"/>
       <c r="N48" s="52"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
+      <c r="D49" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="E49" s="49" t="s">
+        <v>469</v>
+      </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
       <c r="H49" s="51"/>
@@ -3729,12 +3921,16 @@
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
+      <c r="D50" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>465</v>
+      </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
       <c r="H50" s="51"/>
@@ -3745,15 +3941,19 @@
       <c r="M50" s="52"/>
       <c r="N50" s="52"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
+    <row r="51" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
       <c r="I51" s="52"/>
       <c r="J51" s="52"/>
       <c r="K51" s="52"/>
@@ -3761,12 +3961,355 @@
       <c r="M51" s="52"/>
       <c r="N51" s="52"/>
     </row>
+    <row r="52" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+    </row>
+    <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+    </row>
+    <row r="54" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+    </row>
+    <row r="55" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+    </row>
+    <row r="56" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+    </row>
+    <row r="57" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+    </row>
+    <row r="58" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+    </row>
+    <row r="59" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="51"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="51"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D39"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3852,7 +4395,7 @@
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
@@ -3886,7 +4429,7 @@
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
@@ -3936,7 +4479,7 @@
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
@@ -3954,7 +4497,7 @@
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
@@ -3972,7 +4515,7 @@
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -3990,7 +4533,7 @@
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
@@ -4024,7 +4567,7 @@
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -4042,7 +4585,7 @@
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -4060,7 +4603,7 @@
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -4078,7 +4621,7 @@
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
@@ -4112,7 +4655,7 @@
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -4130,7 +4673,7 @@
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -4164,7 +4707,7 @@
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -4182,7 +4725,7 @@
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -4216,7 +4759,7 @@
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
@@ -4234,7 +4777,7 @@
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -4252,7 +4795,7 @@
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
@@ -4535,7 +5078,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="637">
   <si>
     <t>Term</t>
   </si>
@@ -1619,12 +1619,15 @@
     <t>When a delivery is made to subscriber(s),  the delivery amount should be debited from provisional revenue and respective provision account.</t>
   </si>
   <si>
+    <t>BasketDispatchStatusUpdatedEvent from subscriber domain (to revisit for adding basket cost – which will be credited to revenue and debited from booking amount – by business domain)</t>
+  </si>
+  <si>
+    <t>When a delivery is made to subscriber(s), its revenue is credited under “revenue” subject to receipt of payment. In case some of advanced payment made by subscriber still exists under booking amount, the delivery amount should be debited from booking amount and respective provision account.</t>
+  </si>
+  <si>
     <t>BasketDeliveryStatusEvent from subscriber domain</t>
   </si>
   <si>
-    <t>When a delivery is made to subscriber(s), its revenue is credited under “revenue” subject to receipt of payment. In case some of advanced payment made by subscriber still exists under booking amount, the delivery amount should be debited from booking amount and respective provision account.</t>
-  </si>
-  <si>
     <t>When interest is gained on booking amount, it will be credited to “interests”.</t>
   </si>
   <si>
@@ -1680,6 +1683,12 @@
   </si>
   <si>
     <t>BasketDeletedEvent in subscriber domain</t>
+  </si>
+  <si>
+    <t>External replenishment for account (via REST/UI etc.) - i.e. merchant will be able to either define provisions etc. Externally, or flow would handle it internally (i.e. carry forward after year end)</t>
+  </si>
+  <si>
+    <t>To be done</t>
   </si>
   <si>
     <t>Subscriber fills registration form to register on subscription website.</t>
@@ -1969,7 +1978,7 @@
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for common expenses and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
-    <t>Merchant will make provision for nodal account.</t>
+    <t>REMOVE : Merchant will make provision for nodal account.</t>
   </si>
   <si>
     <t>Value of provision for nodal account and provision date are received via REST controller</t>
@@ -1978,7 +1987,7 @@
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for nodal account and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
-    <t>Merchant will make provision for revenue.</t>
+    <t>REMOVE : Merchant will make provision for revenue.</t>
   </si>
   <si>
     <t>Value of provision for revenue and provision date are received via REST controller</t>
@@ -1987,7 +1996,7 @@
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for revenue and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
-    <t>Merchant will make provision for booking amount.</t>
+    <t>REMOVE : Merchant will make provision for booking amount.</t>
   </si>
   <si>
     <t>Value of provision for booking amount and provision date are received via REST controller</t>
@@ -2020,19 +2029,61 @@
     <t>ProductStatusReceivedEvent is received at business domain (from integration domain). The event contains inventory details (total purchase cost).</t>
   </si>
   <si>
+    <t>Total purchase cost is debited under ‘purchase cost’ and provision account for the same (i.e. purchase cost).</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>ProductStatusReceivedEvent</t>
-  </si>
-  <si>
-    <t>ProductStatusReceivedEventListener</t>
-  </si>
-  <si>
-    <t>Total purchase cost is debited under ‘purchase cost’ and provision account for the same (i.e. purchase cost).</t>
+    <t>ProductStatusReceivedCommand</t>
+  </si>
+  <si>
+    <t>ProductStatusReceivedCommandHandler</t>
+  </si>
+  <si>
+    <t>ProductStatusReceivedEvent, PurchaseCostCreditedEvent, PurchaseCostDebitedEvent</t>
+  </si>
+  <si>
+    <t>ProductStatusReceivedEventListener, PurchaseCostCreditedEventListener, PurchaseCostDebitedEventListener</t>
   </si>
   <si>
     <t>When system receives incoming operating expenses details from main application, they are debited under respective operating expense categories and respective provision account.</t>
+  </si>
+  <si>
+    <t>OperatingExpenseReceivedCommand</t>
+  </si>
+  <si>
+    <t>OperatingExpenseReceivedCommandHandler</t>
+  </si>
+  <si>
+    <t>OperatingExpenseReceivedEvent, OperatingExpenseCreditedEvent, OperatingExpenseDebitedEvent</t>
+  </si>
+  <si>
+    <t>OperatingExpenseReceivedEventListener, OperatingExpenseCreditedEventListener, OperatingExpenseDebitedEventListener</t>
+  </si>
+  <si>
+    <t>REMOVE : When a subscriber does subscription, but has not yet made payment, his total subscription value is credited to provisional revenue.</t>
+  </si>
+  <si>
+    <t>SubscriptionActivatedEvent from subscriber domain (to revisit)</t>
+  </si>
+  <si>
+    <t>PaymentProcessedCommand</t>
+  </si>
+  <si>
+    <t>PaymentProcessedCommandHandler</t>
+  </si>
+  <si>
+    <t>PaymentProcessedEvent, BookingAmountCreditedEvent</t>
+  </si>
+  <si>
+    <t>PaymentProcessedEventListener, BookingAmountCreditedEventListener</t>
+  </si>
+  <si>
+    <t>When a delivery is made to subscriber(s),  the delivery amount should be debited from booking amount and credited to revenue.</t>
+  </si>
+  <si>
+    <t>BasketDispatchStatusUpdatedEvent from subscriber domain</t>
   </si>
   <si>
     <t>Merchant make provision for initial investment</t>
@@ -2096,7 +2147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2175,8 +2226,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2204,6 +2261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -2270,7 +2333,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2483,6 +2546,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2495,8 +2562,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2691,60 +2766,60 @@
   <sheetData>
     <row r="1" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="50" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -2765,10 +2840,10 @@
   </sheetPr>
   <dimension ref="A2:N70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2806,7 +2881,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>20</v>
@@ -2835,7 +2910,7 @@
     </row>
     <row r="3" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="51" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -2899,45 +2974,45 @@
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="53" t="s">
         <v>451</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="L6" s="53" t="s">
+      <c r="I6" s="54" t="s">
         <v>566</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="J6" s="54" t="s">
         <v>567</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>568</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="M6" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
-      <c r="D7" s="30"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="30" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -2953,9 +3028,9 @@
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="30" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -2971,45 +3046,45 @@
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="53" t="s">
         <v>453</v>
       </c>
       <c r="E9" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="N9" s="54" t="s">
         <v>571</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>562</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="L9" s="53" t="s">
-        <v>566</v>
-      </c>
-      <c r="M9" s="53" t="s">
-        <v>567</v>
-      </c>
-      <c r="N9" s="53" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="30" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -3025,9 +3100,9 @@
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
-      <c r="D11" s="30"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="30" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -3043,45 +3118,45 @@
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="53" t="s">
         <v>454</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H12" s="51"/>
-      <c r="I12" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="L12" s="53" t="s">
+      <c r="I12" s="54" t="s">
         <v>566</v>
       </c>
-      <c r="M12" s="53" t="s">
+      <c r="J12" s="54" t="s">
         <v>567</v>
       </c>
-      <c r="N12" s="53" t="s">
+      <c r="K12" s="54" t="s">
         <v>568</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
-      <c r="D13" s="30"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="30" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -3097,9 +3172,9 @@
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="30" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -3115,45 +3190,45 @@
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="53" t="s">
         <v>455</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H15" s="51"/>
-      <c r="I15" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J15" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="K15" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="L15" s="53" t="s">
+      <c r="I15" s="54" t="s">
         <v>566</v>
       </c>
-      <c r="M15" s="53" t="s">
+      <c r="J15" s="54" t="s">
         <v>567</v>
       </c>
-      <c r="N15" s="53" t="s">
+      <c r="K15" s="54" t="s">
         <v>568</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="N15" s="54" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="30" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -3169,9 +3244,9 @@
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="30" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -3187,45 +3262,45 @@
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
-      <c r="D18" s="30" t="s">
-        <v>577</v>
+      <c r="D18" s="53" t="s">
+        <v>580</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H18" s="51"/>
-      <c r="I18" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="K18" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="L18" s="53" t="s">
+      <c r="I18" s="54" t="s">
         <v>566</v>
       </c>
-      <c r="M18" s="53" t="s">
+      <c r="J18" s="54" t="s">
         <v>567</v>
       </c>
-      <c r="N18" s="53" t="s">
+      <c r="K18" s="54" t="s">
         <v>568</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="N18" s="54" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="30"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="30" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -3241,9 +3316,9 @@
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="30" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -3259,45 +3334,45 @@
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="30" t="s">
-        <v>580</v>
+      <c r="D21" s="53" t="s">
+        <v>583</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H21" s="51"/>
-      <c r="I21" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="K21" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="L21" s="53" t="s">
+      <c r="I21" s="54" t="s">
         <v>566</v>
       </c>
-      <c r="M21" s="53" t="s">
+      <c r="J21" s="54" t="s">
         <v>567</v>
       </c>
-      <c r="N21" s="53" t="s">
+      <c r="K21" s="54" t="s">
         <v>568</v>
+      </c>
+      <c r="L21" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="M21" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="N21" s="54" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="30" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -3313,9 +3388,9 @@
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="30" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -3331,45 +3406,45 @@
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
-      <c r="D24" s="30" t="s">
-        <v>583</v>
+      <c r="D24" s="53" t="s">
+        <v>586</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H24" s="51"/>
-      <c r="I24" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J24" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="K24" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="L24" s="53" t="s">
+      <c r="I24" s="54" t="s">
         <v>566</v>
       </c>
-      <c r="M24" s="53" t="s">
+      <c r="J24" s="54" t="s">
         <v>567</v>
       </c>
-      <c r="N24" s="53" t="s">
+      <c r="K24" s="54" t="s">
         <v>568</v>
+      </c>
+      <c r="L24" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="M24" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="N24" s="54" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
-      <c r="D25" s="30"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="30" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -3385,9 +3460,9 @@
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="30" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -3403,45 +3478,45 @@
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
-      <c r="D27" s="30" t="s">
-        <v>586</v>
+      <c r="D27" s="53" t="s">
+        <v>589</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H27" s="51"/>
-      <c r="I27" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J27" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="K27" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="L27" s="53" t="s">
+      <c r="I27" s="54" t="s">
         <v>566</v>
       </c>
-      <c r="M27" s="53" t="s">
+      <c r="J27" s="54" t="s">
         <v>567</v>
       </c>
-      <c r="N27" s="53" t="s">
+      <c r="K27" s="54" t="s">
         <v>568</v>
+      </c>
+      <c r="L27" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="M27" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="N27" s="54" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="30" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -3457,9 +3532,9 @@
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
-      <c r="D29" s="30"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="30" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -3475,45 +3550,45 @@
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
-      <c r="D30" s="30" t="s">
-        <v>589</v>
+      <c r="D30" s="53" t="s">
+        <v>592</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H30" s="51"/>
-      <c r="I30" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J30" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="K30" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="L30" s="53" t="s">
+      <c r="I30" s="54" t="s">
         <v>566</v>
       </c>
-      <c r="M30" s="53" t="s">
+      <c r="J30" s="54" t="s">
         <v>567</v>
       </c>
-      <c r="N30" s="53" t="s">
+      <c r="K30" s="54" t="s">
         <v>568</v>
+      </c>
+      <c r="L30" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="M30" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="N30" s="54" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
-      <c r="D31" s="30"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="30" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -3529,9 +3604,9 @@
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
-      <c r="D32" s="30"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="30" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -3547,45 +3622,45 @@
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
-      <c r="D33" s="30" t="s">
-        <v>592</v>
+      <c r="D33" s="53" t="s">
+        <v>595</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G33" s="51" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H33" s="51"/>
-      <c r="I33" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J33" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="K33" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="L33" s="53" t="s">
+      <c r="I33" s="54" t="s">
         <v>566</v>
       </c>
-      <c r="M33" s="53" t="s">
+      <c r="J33" s="54" t="s">
         <v>567</v>
       </c>
-      <c r="N33" s="53" t="s">
+      <c r="K33" s="54" t="s">
         <v>568</v>
+      </c>
+      <c r="L33" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="M33" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="N33" s="54" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="30" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -3601,9 +3676,9 @@
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
-      <c r="D35" s="30"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="30" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -3619,8 +3694,8 @@
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
-      <c r="D36" s="30" t="s">
-        <v>595</v>
+      <c r="D36" s="53" t="s">
+        <v>598</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>456</v>
@@ -3639,8 +3714,8 @@
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="54" t="s">
+      <c r="D37" s="53"/>
+      <c r="E37" s="55" t="s">
         <v>457</v>
       </c>
       <c r="F37" s="51"/>
@@ -3657,89 +3732,89 @@
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="55" t="s">
-        <v>596</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>562</v>
-      </c>
-      <c r="H38" s="51"/>
-      <c r="I38" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="J38" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="K38" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="L38" s="52" t="s">
-        <v>566</v>
-      </c>
-      <c r="M38" s="53" t="s">
-        <v>598</v>
-      </c>
-      <c r="N38" s="53" t="s">
+      <c r="D38" s="53"/>
+      <c r="E38" s="56" t="s">
         <v>599</v>
       </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
     </row>
-    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="55" t="s">
+      <c r="D39" s="53"/>
+      <c r="E39" s="56" t="s">
         <v>600</v>
       </c>
-      <c r="F39" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>562</v>
-      </c>
-      <c r="H39" s="51"/>
-      <c r="I39" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="J39" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="K39" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="L39" s="52" t="s">
-        <v>566</v>
-      </c>
-      <c r="M39" s="53" t="s">
-        <v>598</v>
-      </c>
-      <c r="N39" s="53" t="s">
-        <v>599</v>
+      <c r="F39" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="J39" s="54" t="s">
+        <v>602</v>
+      </c>
+      <c r="K39" s="54" t="s">
+        <v>603</v>
+      </c>
+      <c r="L39" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="M39" s="54" t="s">
+        <v>604</v>
+      </c>
+      <c r="N39" s="54" t="s">
+        <v>605</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="53" t="s">
+        <v>606</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E40" s="56" t="s">
-        <v>450</v>
-      </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
+      <c r="J40" s="54" t="s">
+        <v>607</v>
+      </c>
+      <c r="K40" s="54" t="s">
+        <v>608</v>
+      </c>
+      <c r="L40" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="M40" s="51" t="s">
+        <v>609</v>
+      </c>
+      <c r="N40" s="51" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="51"/>
@@ -3805,11 +3880,11 @@
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
-      <c r="D44" s="30" t="s">
-        <v>464</v>
+      <c r="D44" s="53" t="s">
+        <v>611</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>465</v>
+        <v>612</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -3825,30 +3900,46 @@
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="53" t="s">
         <v>466</v>
       </c>
       <c r="E45" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+      <c r="F45" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>565</v>
+      </c>
       <c r="H45" s="51"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
+      <c r="I45" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="J45" s="51" t="s">
+        <v>613</v>
+      </c>
+      <c r="K45" s="51" t="s">
+        <v>614</v>
+      </c>
+      <c r="L45" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="M45" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="N45" s="59" t="s">
+        <v>616</v>
+      </c>
     </row>
-    <row r="46" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="E46" s="49" t="s">
+        <v>617</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>469</v>
       </c>
       <c r="F46" s="51"/>
@@ -3869,7 +3960,7 @@
         <v>470</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>469</v>
+        <v>618</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -3886,10 +3977,10 @@
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
       <c r="D48" s="30" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -3906,10 +3997,10 @@
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
       <c r="D49" s="30" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>469</v>
+        <v>618</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -3926,7 +4017,7 @@
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
       <c r="D50" s="30" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E50" s="49" t="s">
         <v>465</v>
@@ -3946,10 +4037,10 @@
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
       <c r="D51" s="30" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -3966,7 +4057,7 @@
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
       <c r="D52" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>447</v>
@@ -3986,10 +4077,10 @@
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
       <c r="D53" s="30" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -4006,10 +4097,10 @@
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
       <c r="D54" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="E54" s="30" t="s">
         <v>480</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>479</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -4026,10 +4117,10 @@
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
       <c r="D55" s="30" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -4046,10 +4137,10 @@
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
       <c r="D56" s="30" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -4066,10 +4157,10 @@
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
       <c r="D57" s="30" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -4086,10 +4177,10 @@
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
       <c r="D58" s="30" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -4106,10 +4197,10 @@
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
       <c r="D59" s="30" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -4390,12 +4481,12 @@
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="51" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
@@ -4429,7 +4520,7 @@
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
@@ -4479,7 +4570,7 @@
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
@@ -4497,7 +4588,7 @@
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
@@ -4515,7 +4606,7 @@
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -4533,7 +4624,7 @@
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
@@ -4567,7 +4658,7 @@
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -4585,7 +4676,7 @@
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -4603,7 +4694,7 @@
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -4621,7 +4712,7 @@
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
@@ -4655,7 +4746,7 @@
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -4673,7 +4764,7 @@
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -4707,7 +4798,7 @@
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -4725,7 +4816,7 @@
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -4759,7 +4850,7 @@
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
@@ -4777,7 +4868,7 @@
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -4795,7 +4886,7 @@
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
@@ -5078,7 +5169,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -35099,8 +35190,8 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35312,7 +35403,7 @@
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="42"/>
       <c r="B12" s="47"/>
       <c r="C12" s="42" t="s">
@@ -35325,7 +35416,7 @@
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="42"/>
       <c r="B13" s="47"/>
       <c r="C13" s="42" t="s">
@@ -35338,7 +35429,7 @@
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="42"/>
       <c r="B14" s="47"/>
       <c r="C14" s="42" t="s">
@@ -35351,7 +35442,7 @@
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
-    <row r="15" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="42"/>
       <c r="B15" s="47"/>
       <c r="C15" s="42" t="s">
@@ -35364,7 +35455,7 @@
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
     </row>
-    <row r="16" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="42"/>
       <c r="B16" s="47"/>
       <c r="C16" s="42" t="s">
@@ -35377,7 +35468,7 @@
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="42"/>
       <c r="B17" s="47"/>
       <c r="C17" s="42" t="s">
@@ -35390,7 +35481,7 @@
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="42"/>
       <c r="B18" s="47"/>
       <c r="C18" s="42" t="s">
@@ -35403,7 +35494,7 @@
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="42"/>
       <c r="B19" s="47"/>
       <c r="C19" s="42" t="s">
@@ -35416,7 +35507,7 @@
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="42"/>
       <c r="B20" s="47"/>
       <c r="C20" s="42" t="s">
@@ -35429,7 +35520,7 @@
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
     </row>
-    <row r="21" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="42"/>
       <c r="B21" s="47"/>
       <c r="C21" s="42" t="s">
@@ -35442,7 +35533,7 @@
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
     </row>
-    <row r="22" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="42"/>
       <c r="B22" s="47"/>
       <c r="C22" s="42" t="s">
@@ -35455,7 +35546,7 @@
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="42"/>
       <c r="B23" s="47"/>
       <c r="C23" s="42" t="s">
@@ -35468,7 +35559,7 @@
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="42"/>
       <c r="B24" s="47"/>
       <c r="C24" s="42" t="s">
@@ -35481,63 +35572,63 @@
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
     </row>
-    <row r="25" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="42"/>
       <c r="B25" s="47"/>
       <c r="C25" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="4" t="s">
         <v>469</v>
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
     </row>
-    <row r="26" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="42"/>
       <c r="B26" s="47"/>
       <c r="C26" s="42" t="s">
         <v>470</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
     </row>
-    <row r="27" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="42"/>
       <c r="B27" s="47"/>
       <c r="C27" s="42" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
     </row>
-    <row r="28" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="42"/>
       <c r="B28" s="47"/>
       <c r="C28" s="42" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
     </row>
-    <row r="29" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="42"/>
       <c r="B29" s="47"/>
       <c r="C29" s="42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D29" s="49" t="s">
         <v>465</v>
@@ -35546,24 +35637,24 @@
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
     </row>
-    <row r="30" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="42"/>
       <c r="B30" s="47"/>
       <c r="C30" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
     </row>
-    <row r="31" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="42"/>
       <c r="B31" s="47"/>
       <c r="C31" s="42" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>447</v>
@@ -35572,102 +35663,106 @@
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
     </row>
-    <row r="32" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="42"/>
       <c r="B32" s="47"/>
       <c r="C32" s="42" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="42"/>
       <c r="B33" s="47"/>
       <c r="C33" s="42" t="s">
+        <v>481</v>
+      </c>
+      <c r="D33" s="42" t="s">
         <v>480</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>479</v>
       </c>
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
     </row>
-    <row r="34" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="42"/>
       <c r="B34" s="47"/>
       <c r="C34" s="42" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E34" s="42"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
     </row>
-    <row r="35" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="42"/>
       <c r="B35" s="47"/>
       <c r="C35" s="42" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
     </row>
-    <row r="36" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="42"/>
       <c r="B36" s="47"/>
       <c r="C36" s="42" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
     </row>
-    <row r="37" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="42"/>
       <c r="B37" s="47"/>
       <c r="C37" s="42" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
     </row>
-    <row r="38" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="42"/>
       <c r="B38" s="47"/>
       <c r="C38" s="42" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="42"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>492</v>
+      </c>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -35734,32 +35829,32 @@
         <v>44</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G46" s="42"/>
     </row>
     <row r="47" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="42"/>
       <c r="B47" s="42" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -35768,13 +35863,13 @@
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -35783,13 +35878,13 @@
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -35798,13 +35893,13 @@
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -35813,13 +35908,13 @@
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -35828,13 +35923,13 @@
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
@@ -35846,10 +35941,10 @@
         <v>132</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
@@ -35857,16 +35952,16 @@
     <row r="54" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="42"/>
       <c r="B54" s="42" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
@@ -35874,16 +35969,16 @@
     <row r="55" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="42"/>
       <c r="B55" s="42" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
@@ -35891,16 +35986,16 @@
     <row r="56" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="42"/>
       <c r="B56" s="42" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
@@ -35909,13 +36004,13 @@
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
@@ -35923,7 +36018,7 @@
     <row r="58" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="42"/>
       <c r="B58" s="42" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C58" s="42"/>
       <c r="D58" s="42"/>
@@ -35940,7 +36035,7 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B11:B38"/>
+    <mergeCell ref="B11:B39"/>
     <mergeCell ref="B47:B53"/>
     <mergeCell ref="B56:B57"/>
   </mergeCells>
@@ -35982,7 +36077,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35990,7 +36085,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35998,7 +36093,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36006,7 +36101,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36014,7 +36109,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36022,7 +36117,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36030,7 +36125,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36038,7 +36133,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36046,7 +36141,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36054,7 +36149,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36062,7 +36157,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36070,7 +36165,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36078,7 +36173,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36086,7 +36181,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36094,7 +36189,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="641">
   <si>
     <t>Term</t>
   </si>
@@ -2081,6 +2081,18 @@
   </si>
   <si>
     <t>When a delivery is made to subscriber(s),  the delivery amount should be debited from booking amount and credited to revenue.</t>
+  </si>
+  <si>
+    <t>BasketDispatchStatusUpdatedCommand</t>
+  </si>
+  <si>
+    <t>BasketDispatchStatusUpdatedCommandHandler</t>
+  </si>
+  <si>
+    <t>BasketDispatchStatusUpdatedEvent, BookingAmountDebitedEvent, RevenueCreditEvent</t>
+  </si>
+  <si>
+    <t>BasketDispatchStatusUpdatedEventListener, BookingAmountDebitedEventListener, RevenueCreditEventListener</t>
   </si>
   <si>
     <t>BasketDispatchStatusUpdatedEvent from subscriber domain</t>
@@ -3928,29 +3940,45 @@
       <c r="M45" s="51" t="s">
         <v>615</v>
       </c>
-      <c r="N45" s="59" t="s">
+      <c r="N45" s="51" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="53" t="s">
         <v>617</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
+      <c r="F46" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>565</v>
+      </c>
       <c r="H46" s="51"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
+      <c r="I46" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="J46" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="K46" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="L46" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="M46" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="N46" s="59" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="51"/>
@@ -3960,7 +3988,7 @@
         <v>470</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -4000,7 +4028,7 @@
         <v>474</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -4486,7 +4514,7 @@
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
@@ -4520,7 +4548,7 @@
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
@@ -4570,7 +4598,7 @@
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
@@ -4588,7 +4616,7 @@
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
@@ -4606,7 +4634,7 @@
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -4624,7 +4652,7 @@
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
@@ -4658,7 +4686,7 @@
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -4676,7 +4704,7 @@
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -4694,7 +4722,7 @@
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -4712,7 +4740,7 @@
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
@@ -4746,7 +4774,7 @@
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -4764,7 +4792,7 @@
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -4798,7 +4826,7 @@
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -4816,7 +4844,7 @@
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -4850,7 +4878,7 @@
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
@@ -4868,7 +4896,7 @@
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -4886,7 +4914,7 @@
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
@@ -5169,7 +5197,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="647">
   <si>
     <t>Term</t>
   </si>
@@ -2096,6 +2096,24 @@
   </si>
   <si>
     <t>BasketDispatchStatusUpdatedEvent from subscriber domain</t>
+  </si>
+  <si>
+    <t>BasketDispatchStatusUpdatedEvent from subscriber domain (to revisit – whether expense should be part of BasketDispachStatusUpdatedEvent – or should subscriber domain fire another OperatingExpenseReceivedEvent?)</t>
+  </si>
+  <si>
+    <t>NA/</t>
+  </si>
+  <si>
+    <t>SubscriptionActivatedCommand</t>
+  </si>
+  <si>
+    <t>SubscriptionActivatedCommandHandler</t>
+  </si>
+  <si>
+    <t>SubscriptionActivatedEvent, BenefitDebitedEvent, BenefitCreditedEvent</t>
+  </si>
+  <si>
+    <t>SubscriptionActivatedEventListener, BenefitDebitedEventListener, BenefitCreditedEventListener</t>
   </si>
   <si>
     <t>Merchant make provision for initial investment</t>
@@ -2852,10 +2870,10 @@
   </sheetPr>
   <dimension ref="A2:N70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3976,7 +3994,7 @@
       <c r="M46" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="N46" s="59" t="s">
+      <c r="N46" s="51" t="s">
         <v>621</v>
       </c>
     </row>
@@ -3984,21 +4002,37 @@
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="53" t="s">
         <v>470</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>622</v>
       </c>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
+      <c r="F47" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="G47" s="51" t="s">
+        <v>565</v>
+      </c>
       <c r="H47" s="51"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
+      <c r="I47" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="J47" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="K47" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="L47" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="M47" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="N47" s="51" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="51"/>
@@ -4027,8 +4061,8 @@
       <c r="D49" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="E49" s="49" t="s">
-        <v>622</v>
+      <c r="E49" s="4" t="s">
+        <v>623</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -4040,25 +4074,41 @@
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
     </row>
-    <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="53" t="s">
         <v>475</v>
       </c>
       <c r="E50" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
+      <c r="F50" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="G50" s="51" t="s">
+        <v>565</v>
+      </c>
       <c r="H50" s="51"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
+      <c r="I50" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="J50" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="K50" s="51" t="s">
+        <v>626</v>
+      </c>
+      <c r="L50" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="M50" s="51" t="s">
+        <v>627</v>
+      </c>
+      <c r="N50" s="59" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="51"/>
@@ -4514,7 +4564,7 @@
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
@@ -4548,7 +4598,7 @@
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
@@ -4598,7 +4648,7 @@
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
@@ -4616,7 +4666,7 @@
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
@@ -4634,7 +4684,7 @@
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -4652,7 +4702,7 @@
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
@@ -4686,7 +4736,7 @@
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -4704,7 +4754,7 @@
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -4722,7 +4772,7 @@
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -4740,7 +4790,7 @@
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
@@ -4774,7 +4824,7 @@
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -4792,7 +4842,7 @@
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -4826,7 +4876,7 @@
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -4844,7 +4894,7 @@
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -4878,7 +4928,7 @@
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
@@ -4896,7 +4946,7 @@
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -4914,7 +4964,7 @@
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
@@ -5197,7 +5247,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="681">
   <si>
     <t>Term</t>
   </si>
@@ -1918,6 +1918,15 @@
     <t>BDGT_01</t>
   </si>
   <si>
+    <t>BDGT_02</t>
+  </si>
+  <si>
+    <t>BDGT_03</t>
+  </si>
+  <si>
+    <t>BDGT_04</t>
+  </si>
+  <si>
     <t>Value of provision for losses and provision date are received via REST controller</t>
   </si>
   <si>
@@ -1951,24 +1960,36 @@
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for losses and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
+    <t>BDGT_05</t>
+  </si>
+  <si>
     <t>Value of provision for benefits and provision date are received via REST controller</t>
   </si>
   <si>
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for benefits and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
+    <t>BDGT_06</t>
+  </si>
+  <si>
     <t>Value of provision for taxes and provision date are received via REST controller</t>
   </si>
   <si>
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for taxes and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
+    <t>BDGT_07</t>
+  </si>
+  <si>
     <t>Value of provision for others and provision date are received via REST controller</t>
   </si>
   <si>
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for others and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
+    <t>BDGT_08</t>
+  </si>
+  <si>
     <t>Merchant will make provision for common expenses.</t>
   </si>
   <si>
@@ -1978,6 +1999,9 @@
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for common expenses and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
+    <t>BDGT_09</t>
+  </si>
+  <si>
     <t>REMOVE : Merchant will make provision for nodal account.</t>
   </si>
   <si>
@@ -1987,6 +2011,9 @@
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for nodal account and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
+    <t>BDGT_10</t>
+  </si>
+  <si>
     <t>REMOVE : Merchant will make provision for revenue.</t>
   </si>
   <si>
@@ -1996,6 +2023,9 @@
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for revenue and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
+    <t>BDGT_11</t>
+  </si>
+  <si>
     <t>REMOVE : Merchant will make provision for booking amount.</t>
   </si>
   <si>
@@ -2005,6 +2035,9 @@
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for booking amount and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
+    <t>BDGT_12</t>
+  </si>
+  <si>
     <t>Merchant will make provision for subscription specific expenses.</t>
   </si>
   <si>
@@ -2014,6 +2047,9 @@
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for subscription specific expenses and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
+    <t>BDGT_13</t>
+  </si>
+  <si>
     <t>Merchant will make provision for purchase cost.</t>
   </si>
   <si>
@@ -2023,6 +2059,9 @@
     <t>CreateProvisionCommandHandler fires CreateProvisionEvent which will update provision for purchase cost and provision date to both – aggregate (BusinessAccount) and view (BusinessAccountView)</t>
   </si>
   <si>
+    <t>BDGT_14</t>
+  </si>
+  <si>
     <t>Receiving inventory details</t>
   </si>
   <si>
@@ -2047,6 +2086,9 @@
     <t>ProductStatusReceivedEventListener, PurchaseCostCreditedEventListener, PurchaseCostDebitedEventListener</t>
   </si>
   <si>
+    <t>BDGT_15</t>
+  </si>
+  <si>
     <t>When system receives incoming operating expenses details from main application, they are debited under respective operating expense categories and respective provision account.</t>
   </si>
   <si>
@@ -2062,12 +2104,27 @@
     <t>OperatingExpenseReceivedEventListener, OperatingExpenseCreditedEventListener, OperatingExpenseDebitedEventListener</t>
   </si>
   <si>
+    <t>BDGT_16</t>
+  </si>
+  <si>
+    <t>BDGT_17</t>
+  </si>
+  <si>
+    <t>BDGT_18</t>
+  </si>
+  <si>
+    <t>BDGT_19</t>
+  </si>
+  <si>
     <t>REMOVE : When a subscriber does subscription, but has not yet made payment, his total subscription value is credited to provisional revenue.</t>
   </si>
   <si>
     <t>SubscriptionActivatedEvent from subscriber domain (to revisit)</t>
   </si>
   <si>
+    <t>BDGT_20</t>
+  </si>
+  <si>
     <t>PaymentProcessedCommand</t>
   </si>
   <si>
@@ -2080,6 +2137,9 @@
     <t>PaymentProcessedEventListener, BookingAmountCreditedEventListener</t>
   </si>
   <si>
+    <t>BDGT_21</t>
+  </si>
+  <si>
     <t>When a delivery is made to subscriber(s),  the delivery amount should be debited from booking amount and credited to revenue.</t>
   </si>
   <si>
@@ -2095,12 +2155,24 @@
     <t>BasketDispatchStatusUpdatedEventListener, BookingAmountDebitedEventListener, RevenueCreditEventListener</t>
   </si>
   <si>
+    <t>BDGT_22</t>
+  </si>
+  <si>
     <t>BasketDispatchStatusUpdatedEvent from subscriber domain</t>
   </si>
   <si>
+    <t>BDGT_23</t>
+  </si>
+  <si>
+    <t>BDGT_24</t>
+  </si>
+  <si>
     <t>BasketDispatchStatusUpdatedEvent from subscriber domain (to revisit – whether expense should be part of BasketDispachStatusUpdatedEvent – or should subscriber domain fire another OperatingExpenseReceivedEvent?)</t>
   </si>
   <si>
+    <t>BDGT_25</t>
+  </si>
+  <si>
     <t>NA/</t>
   </si>
   <si>
@@ -2114,6 +2186,36 @@
   </si>
   <si>
     <t>SubscriptionActivatedEventListener, BenefitDebitedEventListener, BenefitCreditedEventListener</t>
+  </si>
+  <si>
+    <t>BDGT_26</t>
+  </si>
+  <si>
+    <t>BDGT_27</t>
+  </si>
+  <si>
+    <t>BDGT_28</t>
+  </si>
+  <si>
+    <t>BDGT_29</t>
+  </si>
+  <si>
+    <t>BDGT_30</t>
+  </si>
+  <si>
+    <t>BDGT_31</t>
+  </si>
+  <si>
+    <t>BDGT_32</t>
+  </si>
+  <si>
+    <t>SubscriptionActivatedEvent from subscriber domain (to be done) – check if duplicate of BDGT_25</t>
+  </si>
+  <si>
+    <t>BDGT_33</t>
+  </si>
+  <si>
+    <t>BDGT_34</t>
   </si>
   <si>
     <t>Merchant make provision for initial investment</t>
@@ -2177,7 +2279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2255,12 +2357,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2363,7 +2459,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2600,10 +2696,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2684,7 +2776,7 @@
   <dimension ref="C1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+      <selection pane="topLeft" activeCell="D47" activeCellId="1" sqref="F57:N57 D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2782,7 +2874,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F57:N57 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2870,10 +2962,10 @@
   </sheetPr>
   <dimension ref="A2:N70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F57" activeCellId="0" sqref="F57:N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2960,8 +3052,10 @@
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
     </row>
-    <row r="4" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51"/>
+    <row r="4" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="51" t="s">
+        <v>563</v>
+      </c>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
       <c r="D4" s="30" t="s">
@@ -2980,8 +3074,10 @@
       <c r="M4" s="52"/>
       <c r="N4" s="52"/>
     </row>
-    <row r="5" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51"/>
+    <row r="5" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="51" t="s">
+        <v>564</v>
+      </c>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="30" t="s">
@@ -3001,39 +3097,41 @@
       <c r="N5" s="52"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51"/>
+      <c r="A6" s="51" t="s">
+        <v>565</v>
+      </c>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="53" t="s">
         <v>451</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="54" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N6" s="54" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,7 +3140,7 @@
       <c r="C7" s="51"/>
       <c r="D7" s="53"/>
       <c r="E7" s="30" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -3060,7 +3158,7 @@
       <c r="C8" s="51"/>
       <c r="D8" s="53"/>
       <c r="E8" s="30" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -3073,39 +3171,41 @@
       <c r="N8" s="52"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51"/>
+      <c r="A9" s="51" t="s">
+        <v>577</v>
+      </c>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="53" t="s">
         <v>453</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H9" s="51"/>
       <c r="I9" s="54" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L9" s="54" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M9" s="54" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N9" s="54" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,7 +3214,7 @@
       <c r="C10" s="51"/>
       <c r="D10" s="53"/>
       <c r="E10" s="30" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -3132,7 +3232,7 @@
       <c r="C11" s="51"/>
       <c r="D11" s="53"/>
       <c r="E11" s="30" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -3145,39 +3245,41 @@
       <c r="N11" s="52"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="51"/>
+      <c r="A12" s="51" t="s">
+        <v>580</v>
+      </c>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="53" t="s">
         <v>454</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="54" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L12" s="54" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M12" s="54" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N12" s="54" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,7 +3288,7 @@
       <c r="C13" s="51"/>
       <c r="D13" s="53"/>
       <c r="E13" s="30" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -3204,7 +3306,7 @@
       <c r="C14" s="51"/>
       <c r="D14" s="53"/>
       <c r="E14" s="30" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -3217,39 +3319,41 @@
       <c r="N14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51"/>
+      <c r="A15" s="51" t="s">
+        <v>583</v>
+      </c>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="53" t="s">
         <v>455</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H15" s="51"/>
       <c r="I15" s="54" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L15" s="54" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M15" s="54" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N15" s="54" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,7 +3362,7 @@
       <c r="C16" s="51"/>
       <c r="D16" s="53"/>
       <c r="E16" s="30" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -3276,7 +3380,7 @@
       <c r="C17" s="51"/>
       <c r="D17" s="53"/>
       <c r="E17" s="30" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -3289,39 +3393,41 @@
       <c r="N17" s="52"/>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="51"/>
+      <c r="A18" s="51" t="s">
+        <v>586</v>
+      </c>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="53" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="54" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J18" s="54" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L18" s="54" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M18" s="54" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N18" s="54" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,7 +3436,7 @@
       <c r="C19" s="51"/>
       <c r="D19" s="53"/>
       <c r="E19" s="30" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -3348,7 +3454,7 @@
       <c r="C20" s="51"/>
       <c r="D20" s="53"/>
       <c r="E20" s="30" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -3361,39 +3467,41 @@
       <c r="N20" s="52"/>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="51"/>
+      <c r="A21" s="51" t="s">
+        <v>590</v>
+      </c>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="53" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H21" s="51"/>
       <c r="I21" s="54" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J21" s="54" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L21" s="54" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M21" s="54" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N21" s="54" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,7 +3510,7 @@
       <c r="C22" s="51"/>
       <c r="D22" s="53"/>
       <c r="E22" s="30" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -3420,7 +3528,7 @@
       <c r="C23" s="51"/>
       <c r="D23" s="53"/>
       <c r="E23" s="30" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -3433,39 +3541,41 @@
       <c r="N23" s="52"/>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="51"/>
+      <c r="A24" s="51" t="s">
+        <v>594</v>
+      </c>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="53" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="54" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J24" s="54" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L24" s="54" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M24" s="54" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N24" s="54" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,7 +3584,7 @@
       <c r="C25" s="51"/>
       <c r="D25" s="53"/>
       <c r="E25" s="30" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -3492,7 +3602,7 @@
       <c r="C26" s="51"/>
       <c r="D26" s="53"/>
       <c r="E26" s="30" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -3505,39 +3615,41 @@
       <c r="N26" s="52"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="51"/>
+      <c r="A27" s="51" t="s">
+        <v>598</v>
+      </c>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="53" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H27" s="51"/>
       <c r="I27" s="54" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J27" s="54" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L27" s="54" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M27" s="54" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N27" s="54" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,7 +3658,7 @@
       <c r="C28" s="51"/>
       <c r="D28" s="53"/>
       <c r="E28" s="30" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -3564,7 +3676,7 @@
       <c r="C29" s="51"/>
       <c r="D29" s="53"/>
       <c r="E29" s="30" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -3577,39 +3689,41 @@
       <c r="N29" s="52"/>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="51"/>
+      <c r="A30" s="51" t="s">
+        <v>602</v>
+      </c>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="53" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="54" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J30" s="54" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K30" s="54" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L30" s="54" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M30" s="54" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N30" s="54" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,7 +3732,7 @@
       <c r="C31" s="51"/>
       <c r="D31" s="53"/>
       <c r="E31" s="30" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -3636,7 +3750,7 @@
       <c r="C32" s="51"/>
       <c r="D32" s="53"/>
       <c r="E32" s="30" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -3649,39 +3763,41 @@
       <c r="N32" s="52"/>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="51"/>
+      <c r="A33" s="51" t="s">
+        <v>606</v>
+      </c>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="53" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G33" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H33" s="51"/>
       <c r="I33" s="54" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J33" s="54" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K33" s="54" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L33" s="54" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M33" s="54" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N33" s="54" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,7 +3806,7 @@
       <c r="C34" s="51"/>
       <c r="D34" s="53"/>
       <c r="E34" s="30" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -3708,7 +3824,7 @@
       <c r="C35" s="51"/>
       <c r="D35" s="53"/>
       <c r="E35" s="30" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -3721,11 +3837,13 @@
       <c r="N35" s="52"/>
     </row>
     <row r="36" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="51"/>
+      <c r="A36" s="51" t="s">
+        <v>610</v>
+      </c>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="53" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>456</v>
@@ -3764,7 +3882,7 @@
       <c r="C38" s="51"/>
       <c r="D38" s="53"/>
       <c r="E38" s="56" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
@@ -3782,72 +3900,76 @@
       <c r="C39" s="51"/>
       <c r="D39" s="53"/>
       <c r="E39" s="56" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="F39" s="54" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H39" s="54"/>
       <c r="I39" s="54" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="J39" s="54" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="L39" s="54" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M39" s="54" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="N39" s="54" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="51"/>
+      <c r="A40" s="51" t="s">
+        <v>619</v>
+      </c>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="53" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="E40" s="58" t="s">
         <v>450</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H40" s="51"/>
       <c r="I40" s="51" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="J40" s="54" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="K40" s="54" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="L40" s="51" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M40" s="51" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="N40" s="51" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="51"/>
+      <c r="A41" s="51" t="s">
+        <v>625</v>
+      </c>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="30" t="s">
@@ -3867,7 +3989,9 @@
       <c r="N41" s="52"/>
     </row>
     <row r="42" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="51"/>
+      <c r="A42" s="51" t="s">
+        <v>626</v>
+      </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="30" t="s">
@@ -3887,7 +4011,9 @@
       <c r="N42" s="52"/>
     </row>
     <row r="43" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="51"/>
+      <c r="A43" s="51" t="s">
+        <v>627</v>
+      </c>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="30" t="s">
@@ -3907,14 +4033,16 @@
       <c r="N43" s="52"/>
     </row>
     <row r="44" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="51"/>
+      <c r="A44" s="51" t="s">
+        <v>628</v>
+      </c>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="53" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -3927,7 +4055,9 @@
       <c r="N44" s="52"/>
     </row>
     <row r="45" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="51"/>
+      <c r="A45" s="51" t="s">
+        <v>631</v>
+      </c>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="53" t="s">
@@ -3937,105 +4067,111 @@
         <v>467</v>
       </c>
       <c r="F45" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G45" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H45" s="51"/>
       <c r="I45" s="51" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="J45" s="51" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="K45" s="51" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="L45" s="51" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M45" s="51" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="N45" s="51" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="51"/>
+      <c r="A46" s="51" t="s">
+        <v>636</v>
+      </c>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="53" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>469</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G46" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="J46" s="51" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="K46" s="51" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="L46" s="51" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M46" s="51" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="N46" s="51" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="51"/>
+      <c r="A47" s="51" t="s">
+        <v>642</v>
+      </c>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
       <c r="D47" s="53" t="s">
         <v>470</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="F47" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G47" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H47" s="51"/>
       <c r="I47" s="51" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="J47" s="51" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="K47" s="51" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="L47" s="51" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M47" s="51" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="N47" s="51" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="51"/>
+      <c r="A48" s="51" t="s">
+        <v>644</v>
+      </c>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
       <c r="D48" s="30" t="s">
@@ -4055,14 +4191,16 @@
       <c r="N48" s="52"/>
     </row>
     <row r="49" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="51"/>
+      <c r="A49" s="51" t="s">
+        <v>645</v>
+      </c>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
       <c r="D49" s="30" t="s">
         <v>474</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -4075,7 +4213,9 @@
       <c r="N49" s="52"/>
     </row>
     <row r="50" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="51"/>
+      <c r="A50" s="51" t="s">
+        <v>647</v>
+      </c>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
       <c r="D50" s="53" t="s">
@@ -4085,33 +4225,35 @@
         <v>465</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="J50" s="51" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="K50" s="51" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="L50" s="51" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M50" s="51" t="s">
-        <v>627</v>
-      </c>
-      <c r="N50" s="59" t="s">
-        <v>628</v>
+        <v>651</v>
+      </c>
+      <c r="N50" s="51" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="51"/>
+      <c r="A51" s="51" t="s">
+        <v>653</v>
+      </c>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
       <c r="D51" s="30" t="s">
@@ -4131,7 +4273,9 @@
       <c r="N51" s="52"/>
     </row>
     <row r="52" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="51"/>
+      <c r="A52" s="51" t="s">
+        <v>654</v>
+      </c>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
       <c r="D52" s="30" t="s">
@@ -4151,7 +4295,9 @@
       <c r="N52" s="52"/>
     </row>
     <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="51"/>
+      <c r="A53" s="51" t="s">
+        <v>655</v>
+      </c>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
       <c r="D53" s="30" t="s">
@@ -4171,7 +4317,9 @@
       <c r="N53" s="52"/>
     </row>
     <row r="54" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="51"/>
+      <c r="A54" s="51" t="s">
+        <v>656</v>
+      </c>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
       <c r="D54" s="30" t="s">
@@ -4191,7 +4339,9 @@
       <c r="N54" s="52"/>
     </row>
     <row r="55" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="51"/>
+      <c r="A55" s="51" t="s">
+        <v>657</v>
+      </c>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
       <c r="D55" s="30" t="s">
@@ -4211,7 +4361,9 @@
       <c r="N55" s="52"/>
     </row>
     <row r="56" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="51"/>
+      <c r="A56" s="51" t="s">
+        <v>658</v>
+      </c>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
       <c r="D56" s="30" t="s">
@@ -4230,28 +4382,48 @@
       <c r="M56" s="52"/>
       <c r="N56" s="52"/>
     </row>
-    <row r="57" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="51"/>
+    <row r="57" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="51" t="s">
+        <v>659</v>
+      </c>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="53" t="s">
         <v>486</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
+        <v>660</v>
+      </c>
+      <c r="F57" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="G57" s="51" t="s">
+        <v>568</v>
+      </c>
       <c r="H57" s="51"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
+      <c r="I57" s="51" t="s">
+        <v>648</v>
+      </c>
+      <c r="J57" s="51" t="s">
+        <v>649</v>
+      </c>
+      <c r="K57" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="L57" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="M57" s="51" t="s">
+        <v>651</v>
+      </c>
+      <c r="N57" s="51" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="51"/>
+      <c r="A58" s="51" t="s">
+        <v>661</v>
+      </c>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
       <c r="D58" s="30" t="s">
@@ -4271,7 +4443,9 @@
       <c r="N58" s="52"/>
     </row>
     <row r="59" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="51"/>
+      <c r="A59" s="51" t="s">
+        <v>662</v>
+      </c>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
       <c r="D59" s="30" t="s">
@@ -4467,17 +4641,28 @@
       <c r="N70" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="22">
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A36:A39"/>
     <mergeCell ref="D36:D39"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4498,7 +4683,7 @@
   <dimension ref="A2:N41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="1" sqref="F57:N57 E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4564,7 +4749,7 @@
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
@@ -4598,7 +4783,7 @@
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
@@ -4648,7 +4833,7 @@
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51" t="s">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
@@ -4666,7 +4851,7 @@
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
@@ -4684,7 +4869,7 @@
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51" t="s">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -4702,7 +4887,7 @@
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
@@ -4736,7 +4921,7 @@
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51" t="s">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -4754,7 +4939,7 @@
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51" t="s">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -4772,7 +4957,7 @@
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51" t="s">
-        <v>637</v>
+        <v>671</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -4790,7 +4975,7 @@
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51" t="s">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
@@ -4824,7 +5009,7 @@
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51" t="s">
-        <v>639</v>
+        <v>673</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -4842,7 +5027,7 @@
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -4876,7 +5061,7 @@
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -4894,7 +5079,7 @@
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -4928,7 +5113,7 @@
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
@@ -4946,7 +5131,7 @@
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -4964,7 +5149,7 @@
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
@@ -5236,7 +5421,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F57:N57 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5247,7 +5432,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -5271,7 +5456,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topRight" activeCell="D6" activeCellId="1" sqref="F57:N57 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -33861,7 +34046,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="F57:N57 C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34083,7 +34268,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E7" activeCellId="1" sqref="F57:N57 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34836,7 +35021,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="F57:N57 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34984,7 +35169,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F57:N57 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35150,7 +35335,7 @@
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="F57:N57 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35269,7 +35454,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="1" sqref="F57:N57 D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -36135,7 +36320,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F57:N57 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="682">
   <si>
     <t>Term</t>
   </si>
@@ -2195,6 +2195,9 @@
   </si>
   <si>
     <t>BDGT_28</t>
+  </si>
+  <si>
+    <t>When an item is cancelled or replaced from subscription, appropriate item cancellation event should be fired from subscriber domain and they should debit booking amount.</t>
   </si>
   <si>
     <t>BDGT_29</t>
@@ -2776,7 +2779,7 @@
   <dimension ref="C1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D47" activeCellId="1" sqref="F57:N57 D47"/>
+      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2874,7 +2877,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F57:N57 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2962,10 +2965,10 @@
   </sheetPr>
   <dimension ref="A2:N70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F57" activeCellId="0" sqref="F57:N57"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4301,7 +4304,7 @@
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
       <c r="D53" s="30" t="s">
-        <v>479</v>
+        <v>656</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>480</v>
@@ -4318,7 +4321,7 @@
     </row>
     <row r="54" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="51" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -4340,7 +4343,7 @@
     </row>
     <row r="55" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="51" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -4362,7 +4365,7 @@
     </row>
     <row r="56" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="51" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="57" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="51" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
@@ -4392,7 +4395,7 @@
         <v>486</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F57" s="51" t="s">
         <v>567</v>
@@ -4422,7 +4425,7 @@
     </row>
     <row r="58" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="51" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -4444,7 +4447,7 @@
     </row>
     <row r="59" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="51" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -4683,7 +4686,7 @@
   <dimension ref="A2:N41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="1" sqref="F57:N57 E26"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4749,7 +4752,7 @@
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
@@ -4783,7 +4786,7 @@
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
@@ -4833,7 +4836,7 @@
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
@@ -4851,7 +4854,7 @@
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
@@ -4869,7 +4872,7 @@
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -4887,7 +4890,7 @@
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
@@ -4921,7 +4924,7 @@
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -4939,7 +4942,7 @@
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -4957,7 +4960,7 @@
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -4975,7 +4978,7 @@
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
@@ -5009,7 +5012,7 @@
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -5027,7 +5030,7 @@
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -5061,7 +5064,7 @@
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -5079,7 +5082,7 @@
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -5113,7 +5116,7 @@
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
@@ -5131,7 +5134,7 @@
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -5149,7 +5152,7 @@
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
@@ -5421,7 +5424,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F57:N57 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5432,7 +5435,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -5456,7 +5459,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D6" activeCellId="1" sqref="F57:N57 D6"/>
+      <selection pane="topRight" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34046,7 +34049,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="F57:N57 C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34268,7 +34271,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E7" activeCellId="1" sqref="F57:N57 E7"/>
+      <selection pane="bottomLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35021,7 +35024,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="F57:N57 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35169,7 +35172,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F57:N57 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35335,7 +35338,7 @@
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="F57:N57 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35454,7 +35457,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="1" sqref="F57:N57 D25"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -36320,7 +36323,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F57:N57 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="725">
   <si>
     <t>Term</t>
   </si>
@@ -2279,12 +2279,141 @@
   <si>
     <t>Provision for losses would be used as a last resort (i.e. losses occurred and no money for provision)</t>
   </si>
+  <si>
+    <t>Sr. No</t>
+  </si>
+  <si>
+    <t>Money to point conversion</t>
+  </si>
+  <si>
+    <t>Period to point conversion</t>
+  </si>
+  <si>
+    <t>Total point calculation equation</t>
+  </si>
+  <si>
+    <t>Eligibility criteria</t>
+  </si>
+  <si>
+    <t>Applicability criteria</t>
+  </si>
+  <si>
+    <t>period_convert is 1 month = 1 point</t>
+  </si>
+  <si>
+    <t>money_convert is 1000 currency = 1 point</t>
+  </si>
+  <si>
+    <t>total_revenue/money_convert + total_period/period_convert</t>
+  </si>
+  <si>
+    <t>given</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>configure as</t>
+  </si>
+  <si>
+    <t>eligible when</t>
+  </si>
+  <si>
+    <t>apply when</t>
+  </si>
+  <si>
+    <t>money_convert is 2000 currency = 1 point</t>
+  </si>
+  <si>
+    <t>money_convert is 3000 currency = 10 point</t>
+  </si>
+  <si>
+    <t>money_convert is 1000 currency = 3 point</t>
+  </si>
+  <si>
+    <t>money_convert is 1500 currency = 4 point</t>
+  </si>
+  <si>
+    <t>period_convert is 2 month = 1 point</t>
+  </si>
+  <si>
+    <t>period_convert is 3 month = 4 point</t>
+  </si>
+  <si>
+    <t>period_convert is 12 month = 50 point</t>
+  </si>
+  <si>
+    <t>period_convert is 5 month = 30 point</t>
+  </si>
+  <si>
+    <t>total_revenue/money_convert</t>
+  </si>
+  <si>
+    <t>total_period/period_convert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_subscription_amount &gt;= 10000 </t>
+  </si>
+  <si>
+    <t>total_subscription_amount &gt;= 10000 and (total_subscription_amount &lt;= 20000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_subscription_amount &gt;= 10000  or total_period &gt; 36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_subscription_amount &gt;= 10000 and total_period &gt; 36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_period &gt; 36 </t>
+  </si>
+  <si>
+    <t>payment_mode &gt;= 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_subscription_amount &gt;= 10000 and payment_mode &gt; 50 and total_period &gt; 36 </t>
+  </si>
+  <si>
+    <t>(total_subscription_amount = 10000 or total_period &gt; 36) and payment_mode &gt; 50</t>
+  </si>
+  <si>
+    <t>payment mode = 100 percent advance payment deposit with first payment</t>
+  </si>
+  <si>
+    <t>payment mode = 30 percent advance payment deposit with each payment</t>
+  </si>
+  <si>
+    <t>payment mode = 0 percent advance payment deposit with last payment</t>
+  </si>
+  <si>
+    <t>payment mode = 100 percent advance payment pay with first payment</t>
+  </si>
+  <si>
+    <t>payment mode = 30 percent advance payment pay with each payment</t>
+  </si>
+  <si>
+    <t>payment mode = 0 percent advance payment pay with last payment</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Applicability criteria is right now only based on payment modes.</t>
+  </si>
+  <si>
+    <t>This equation only supports benefit payments during customer's payments or deposit to his wallet.</t>
+  </si>
+  <si>
+    <t>We have to fix parameters for eligibility criteria.</t>
+  </si>
+  <si>
+    <t>Brand loyalty and Seasonal benefits cannot be achieved by above equations.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2348,6 +2477,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2387,7 +2523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2449,39 +2585,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2633,6 +2768,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2990,10 +3165,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="10"/>
-    <col min="3" max="3" width="17.88671875" style="10"/>
-    <col min="4" max="4" width="105.21875" style="10"/>
-    <col min="5" max="1025" width="9.21875" style="10"/>
+    <col min="1" max="2" width="9.21875" style="1"/>
+    <col min="3" max="3" width="17.88671875" style="1"/>
+    <col min="4" max="4" width="105.21875" style="1"/>
+    <col min="5" max="1025" width="9.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4" x14ac:dyDescent="0.3">
@@ -3001,66 +3176,66 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3080,68 +3255,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="10"/>
-    <col min="2" max="2" width="17.5546875" style="10"/>
-    <col min="3" max="3" width="31.88671875" style="10"/>
-    <col min="4" max="4" width="24.88671875" style="10"/>
-    <col min="5" max="1025" width="9.21875" style="10"/>
+    <col min="1" max="1" width="24.109375" style="1"/>
+    <col min="2" max="2" width="17.5546875" style="1"/>
+    <col min="3" max="3" width="31.88671875" style="1"/>
+    <col min="4" max="4" width="24.88671875" style="1"/>
+    <col min="5" max="1025" width="9.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="46" t="s">
         <v>550</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="46" t="s">
         <v>551</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="46" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="1" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="1" t="s">
         <v>560</v>
       </c>
     </row>
@@ -3183,1661 +3358,1673 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="47" t="s">
         <v>562</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="37" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="47" t="s">
         <v>563</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="37" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="47" t="s">
         <v>564</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="62" t="s">
         <v>565</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="59" t="s">
+      <c r="H6" s="47"/>
+      <c r="I6" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="50" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="37" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="37" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="62" t="s">
         <v>577</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="1" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="63" t="s">
         <v>453</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="59" t="s">
+      <c r="H9" s="47"/>
+      <c r="I9" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="N9" s="59" t="s">
+      <c r="N9" s="50" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="37" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="37" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="62" t="s">
         <v>580</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="63" t="s">
         <v>454</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="59" t="s">
+      <c r="H12" s="47"/>
+      <c r="I12" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="N12" s="59" t="s">
+      <c r="N12" s="50" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="37" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
     </row>
     <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="37" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="62" t="s">
         <v>583</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="63" t="s">
         <v>455</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="59" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="J15" s="59" t="s">
+      <c r="J15" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="L15" s="59" t="s">
+      <c r="L15" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="M15" s="59" t="s">
+      <c r="M15" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="N15" s="59" t="s">
+      <c r="N15" s="50" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="37" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="37" t="s">
+      <c r="A17" s="62"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="62" t="s">
         <v>586</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="1" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="63" t="s">
         <v>587</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="59" t="s">
+      <c r="H18" s="47"/>
+      <c r="I18" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="L18" s="59" t="s">
+      <c r="L18" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="M18" s="59" t="s">
+      <c r="M18" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="N18" s="59" t="s">
+      <c r="N18" s="50" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="37" t="s">
+      <c r="A19" s="62"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
     </row>
     <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="37" t="s">
+      <c r="A20" s="62"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
     </row>
     <row r="21" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="62" t="s">
         <v>590</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="59" t="s">
+      <c r="H21" s="47"/>
+      <c r="I21" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="K21" s="59" t="s">
+      <c r="K21" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="M21" s="59" t="s">
+      <c r="M21" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="N21" s="59" t="s">
+      <c r="N21" s="50" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="37" t="s">
+      <c r="A22" s="62"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
     </row>
     <row r="23" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="37" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
     </row>
     <row r="24" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="62" t="s">
         <v>594</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="1" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="63" t="s">
         <v>595</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="59" t="s">
+      <c r="H24" s="47"/>
+      <c r="I24" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="M24" s="59" t="s">
+      <c r="M24" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="N24" s="59" t="s">
+      <c r="N24" s="50" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="37" t="s">
+      <c r="A25" s="62"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
     </row>
     <row r="26" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="37" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
     </row>
     <row r="27" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="62" t="s">
         <v>598</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="1" t="s">
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="63" t="s">
         <v>599</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="59" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="J27" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="K27" s="59" t="s">
+      <c r="K27" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="L27" s="59" t="s">
+      <c r="L27" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="M27" s="59" t="s">
+      <c r="M27" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="N27" s="59" t="s">
+      <c r="N27" s="50" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="37" t="s">
+      <c r="A28" s="62"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
     </row>
     <row r="29" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="37" t="s">
+      <c r="A29" s="62"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="28" t="s">
         <v>601</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
     </row>
     <row r="30" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="62" t="s">
         <v>602</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="1" t="s">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="63" t="s">
         <v>603</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="28" t="s">
         <v>604</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="59" t="s">
+      <c r="H30" s="47"/>
+      <c r="I30" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="J30" s="59" t="s">
+      <c r="J30" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="K30" s="59" t="s">
+      <c r="K30" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="L30" s="59" t="s">
+      <c r="L30" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="M30" s="59" t="s">
+      <c r="M30" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="N30" s="59" t="s">
+      <c r="N30" s="50" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="37" t="s">
+      <c r="A31" s="62"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
     </row>
     <row r="32" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="37" t="s">
+      <c r="A32" s="62"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
     </row>
     <row r="33" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="62" t="s">
         <v>606</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="1" t="s">
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="63" t="s">
         <v>607</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="59" t="s">
+      <c r="H33" s="47"/>
+      <c r="I33" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="J33" s="59" t="s">
+      <c r="J33" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="K33" s="59" t="s">
+      <c r="K33" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="L33" s="59" t="s">
+      <c r="L33" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="M33" s="59" t="s">
+      <c r="M33" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="N33" s="59" t="s">
+      <c r="N33" s="50" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="37" t="s">
+      <c r="A34" s="62"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
     </row>
     <row r="35" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="37" t="s">
+      <c r="A35" s="62"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="28" t="s">
         <v>609</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
     </row>
     <row r="36" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="62" t="s">
         <v>610</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="1" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="63" t="s">
         <v>611</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
     </row>
     <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="60" t="s">
+      <c r="A37" s="62"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
     </row>
     <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="61" t="s">
+      <c r="A38" s="62"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="52" t="s">
         <v>612</v>
       </c>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
     </row>
     <row r="39" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="61" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="52" t="s">
         <v>613</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="50" t="s">
         <v>567</v>
       </c>
-      <c r="G39" s="59" t="s">
+      <c r="G39" s="50" t="s">
         <v>568</v>
       </c>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59" t="s">
+      <c r="H39" s="50"/>
+      <c r="I39" s="50" t="s">
         <v>614</v>
       </c>
-      <c r="J39" s="59" t="s">
+      <c r="J39" s="50" t="s">
         <v>615</v>
       </c>
-      <c r="K39" s="59" t="s">
+      <c r="K39" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="L39" s="59" t="s">
+      <c r="L39" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="M39" s="59" t="s">
+      <c r="M39" s="50" t="s">
         <v>617</v>
       </c>
-      <c r="N39" s="59" t="s">
+      <c r="N39" s="50" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="47" t="s">
         <v>619</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="58" t="s">
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="49" t="s">
         <v>620</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="E40" s="54" t="s">
         <v>450</v>
       </c>
-      <c r="F40" s="56" t="s">
+      <c r="F40" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56" t="s">
+      <c r="H40" s="47"/>
+      <c r="I40" s="47" t="s">
         <v>614</v>
       </c>
-      <c r="J40" s="59" t="s">
+      <c r="J40" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="K40" s="59" t="s">
+      <c r="K40" s="50" t="s">
         <v>622</v>
       </c>
-      <c r="L40" s="56" t="s">
+      <c r="L40" s="47" t="s">
         <v>572</v>
       </c>
-      <c r="M40" s="56" t="s">
+      <c r="M40" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="N40" s="56" t="s">
+      <c r="N40" s="47" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="47" t="s">
         <v>625</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="37" t="s">
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
     </row>
     <row r="42" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="47" t="s">
         <v>626</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="37" t="s">
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
     </row>
     <row r="43" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="47" t="s">
         <v>627</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="37" t="s">
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
     </row>
     <row r="44" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="47" t="s">
         <v>628</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="58" t="s">
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="49" t="s">
         <v>629</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="45" t="s">
         <v>630</v>
       </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
     </row>
     <row r="45" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="47" t="s">
         <v>631</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="58" t="s">
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="45" t="s">
         <v>467</v>
       </c>
-      <c r="F45" s="56" t="s">
+      <c r="F45" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56" t="s">
+      <c r="H45" s="47"/>
+      <c r="I45" s="47" t="s">
         <v>614</v>
       </c>
-      <c r="J45" s="56" t="s">
+      <c r="J45" s="47" t="s">
         <v>632</v>
       </c>
-      <c r="K45" s="56" t="s">
+      <c r="K45" s="47" t="s">
         <v>633</v>
       </c>
-      <c r="L45" s="56" t="s">
+      <c r="L45" s="47" t="s">
         <v>572</v>
       </c>
-      <c r="M45" s="56" t="s">
+      <c r="M45" s="47" t="s">
         <v>634</v>
       </c>
-      <c r="N45" s="56" t="s">
+      <c r="N45" s="47" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="47" t="s">
         <v>636</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="58" t="s">
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="49" t="s">
         <v>637</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F46" s="56" t="s">
+      <c r="F46" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G46" s="56" t="s">
+      <c r="G46" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56" t="s">
+      <c r="H46" s="47"/>
+      <c r="I46" s="47" t="s">
         <v>614</v>
       </c>
-      <c r="J46" s="56" t="s">
+      <c r="J46" s="47" t="s">
         <v>638</v>
       </c>
-      <c r="K46" s="56" t="s">
+      <c r="K46" s="47" t="s">
         <v>639</v>
       </c>
-      <c r="L46" s="56" t="s">
+      <c r="L46" s="47" t="s">
         <v>572</v>
       </c>
-      <c r="M46" s="56" t="s">
+      <c r="M46" s="47" t="s">
         <v>640</v>
       </c>
-      <c r="N46" s="56" t="s">
+      <c r="N46" s="47" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="47" t="s">
         <v>642</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="58" t="s">
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="49" t="s">
         <v>470</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="45" t="s">
         <v>643</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56" t="s">
+      <c r="H47" s="47"/>
+      <c r="I47" s="47" t="s">
         <v>614</v>
       </c>
-      <c r="J47" s="56" t="s">
+      <c r="J47" s="47" t="s">
         <v>638</v>
       </c>
-      <c r="K47" s="56" t="s">
+      <c r="K47" s="47" t="s">
         <v>639</v>
       </c>
-      <c r="L47" s="56" t="s">
+      <c r="L47" s="47" t="s">
         <v>572</v>
       </c>
-      <c r="M47" s="56" t="s">
+      <c r="M47" s="47" t="s">
         <v>640</v>
       </c>
-      <c r="N47" s="56" t="s">
+      <c r="N47" s="47" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="47" t="s">
         <v>644</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="37" t="s">
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
     </row>
     <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="47" t="s">
         <v>645</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="37" t="s">
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
     </row>
     <row r="50" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="47" t="s">
         <v>647</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="58" t="s">
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="45" t="s">
         <v>465</v>
       </c>
-      <c r="F50" s="56" t="s">
+      <c r="F50" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G50" s="56" t="s">
+      <c r="G50" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56" t="s">
+      <c r="H50" s="47"/>
+      <c r="I50" s="47" t="s">
         <v>648</v>
       </c>
-      <c r="J50" s="56" t="s">
+      <c r="J50" s="47" t="s">
         <v>649</v>
       </c>
-      <c r="K50" s="56" t="s">
+      <c r="K50" s="47" t="s">
         <v>650</v>
       </c>
-      <c r="L50" s="56" t="s">
+      <c r="L50" s="47" t="s">
         <v>572</v>
       </c>
-      <c r="M50" s="56" t="s">
+      <c r="M50" s="47" t="s">
         <v>651</v>
       </c>
-      <c r="N50" s="56" t="s">
+      <c r="N50" s="47" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="47" t="s">
         <v>653</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="37" t="s">
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
     </row>
     <row r="52" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="47" t="s">
         <v>654</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="37" t="s">
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
     </row>
     <row r="53" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="47" t="s">
         <v>655</v>
       </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="37" t="s">
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
     </row>
     <row r="54" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="47" t="s">
         <v>657</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="37" t="s">
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
     </row>
     <row r="55" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="47" t="s">
         <v>658</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="37" t="s">
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
     </row>
     <row r="56" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="47" t="s">
         <v>659</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="37" t="s">
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="28" t="s">
         <v>485</v>
       </c>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
     </row>
     <row r="57" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="47" t="s">
         <v>660</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="58" t="s">
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="G57" s="56" t="s">
+      <c r="G57" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56" t="s">
+      <c r="H57" s="47"/>
+      <c r="I57" s="47" t="s">
         <v>648</v>
       </c>
-      <c r="J57" s="56" t="s">
+      <c r="J57" s="47" t="s">
         <v>649</v>
       </c>
-      <c r="K57" s="56" t="s">
+      <c r="K57" s="47" t="s">
         <v>650</v>
       </c>
-      <c r="L57" s="56" t="s">
+      <c r="L57" s="47" t="s">
         <v>572</v>
       </c>
-      <c r="M57" s="56" t="s">
+      <c r="M57" s="47" t="s">
         <v>651</v>
       </c>
-      <c r="N57" s="56" t="s">
+      <c r="N57" s="47" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="47" t="s">
         <v>662</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="37" t="s">
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
     </row>
     <row r="59" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="47" t="s">
         <v>663</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="37" t="s">
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="56"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="56"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="56"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="57"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="56"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="56"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="56"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="57"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="56"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="56"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="57"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="56"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="57"/>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="57"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="56"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="57"/>
-      <c r="M69" s="57"/>
-      <c r="N69" s="57"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="57"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D21:D23"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="A36:A39"/>
@@ -4848,18 +5035,6 @@
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4889,706 +5064,706 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="47" t="s">
         <v>562</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47" t="s">
         <v>664</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
         <v>665</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47" t="s">
         <v>666</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47" t="s">
         <v>667</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47" t="s">
         <v>668</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47" t="s">
         <v>669</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
     </row>
     <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47" t="s">
         <v>670</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
     </row>
     <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47" t="s">
         <v>671</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47" t="s">
         <v>672</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47" t="s">
         <v>673</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47" t="s">
         <v>674</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
     </row>
     <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47" t="s">
         <v>675</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
     </row>
     <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47" t="s">
         <v>676</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
     </row>
     <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
     </row>
     <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47" t="s">
         <v>678</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
     </row>
     <row r="25" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
     </row>
     <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47" t="s">
         <v>680</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5611,7 +5786,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>681</v>
       </c>
     </row>
@@ -5627,15 +5802,335 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>683</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>684</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>685</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>686</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="48">
+        <v>1</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>691</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>692</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>693</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>694</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="48">
+        <v>1</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>689</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>688</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>690</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>706</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="48">
+        <v>2</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>696</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>700</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>704</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>707</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="48">
+        <v>3</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>697</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>701</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>705</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>708</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="48">
+        <v>4</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>698</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>702</v>
+      </c>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65" t="s">
+        <v>709</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="48">
+        <v>5</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>699</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>703</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65" t="s">
+        <v>710</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="48">
+        <v>6</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65" t="s">
+        <v>711</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="48">
+        <v>7</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="F10" s="65"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="48">
+        <v>8</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65" t="s">
+        <v>713</v>
+      </c>
+      <c r="F11" s="65"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="48"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="48"/>
+      <c r="B16" s="66" t="s">
+        <v>720</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="48"/>
+      <c r="B17" s="67" t="s">
+        <v>724</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="67" t="s">
+        <v>723</v>
+      </c>
+      <c r="C18" s="68"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+    </row>
+    <row r="19" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="67" t="s">
+        <v>722</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="48"/>
+      <c r="B20" s="67" t="s">
+        <v>721</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="48"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="48"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="48"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="48"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="48"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5650,88 +6145,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="13"/>
-    <col min="2" max="2" width="14.88671875" style="13"/>
-    <col min="3" max="3" width="16.33203125" style="13"/>
-    <col min="4" max="4" width="77.21875" style="13"/>
-    <col min="5" max="7" width="16.33203125" style="13"/>
-    <col min="8" max="8" width="19.77734375" style="13"/>
-    <col min="9" max="12" width="16.33203125" style="13"/>
-    <col min="13" max="13" width="17.5546875" style="13"/>
-    <col min="14" max="1025" width="16.33203125" style="13"/>
+    <col min="1" max="1" width="10.109375" style="4"/>
+    <col min="2" max="2" width="14.88671875" style="4"/>
+    <col min="3" max="3" width="16.33203125" style="4"/>
+    <col min="4" max="4" width="77.21875" style="4"/>
+    <col min="5" max="7" width="16.33203125" style="4"/>
+    <col min="8" max="8" width="19.77734375" style="4"/>
+    <col min="9" max="12" width="16.33203125" style="4"/>
+    <col min="13" max="13" width="17.5546875" style="4"/>
+    <col min="14" max="1025" width="16.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G3"/>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>37</v>
       </c>
       <c r="N3"/>
@@ -6747,35 +7242,35 @@
       <c r="AMJ3"/>
     </row>
     <row r="4" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G4"/>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
         <v>37</v>
       </c>
       <c r="N4"/>
@@ -7791,35 +8286,35 @@
       <c r="AMJ4"/>
     </row>
     <row r="5" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="N5"/>
@@ -8837,33 +9332,33 @@
     <row r="6" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G6"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19" t="s">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N6"/>
@@ -9881,23 +10376,23 @@
     <row r="7" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
@@ -10913,31 +11408,31 @@
     <row r="8" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="17" t="s">
         <v>51</v>
       </c>
       <c r="G8"/>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
         <v>55</v>
       </c>
       <c r="N8"/>
@@ -11955,21 +12450,21 @@
     <row r="9" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="17" t="s">
         <v>51</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
@@ -12985,31 +13480,31 @@
     <row r="10" spans="1:1024" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G10"/>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19" t="s">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10" t="s">
         <v>62</v>
       </c>
       <c r="N10"/>
@@ -14025,37 +14520,37 @@
       <c r="AMJ10"/>
     </row>
     <row r="11" spans="1:1024" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G11"/>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19" t="s">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="s">
         <v>70</v>
       </c>
       <c r="N11"/>
@@ -15073,16 +15568,16 @@
     <row r="12" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="19" t="s">
         <v>74</v>
       </c>
       <c r="G12"/>
@@ -16107,12 +16602,12 @@
     <row r="13" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -17135,12 +17630,12 @@
     <row r="14" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -18163,10 +18658,10 @@
     <row r="15" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -19189,12 +19684,12 @@
     <row r="16" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -20217,12 +20712,12 @@
     <row r="17" spans="1:1024" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -21245,12 +21740,12 @@
     <row r="18" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -22273,12 +22768,12 @@
     <row r="19" spans="1:1024" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -23301,12 +23796,12 @@
     <row r="20" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -24329,12 +24824,12 @@
     <row r="21" spans="1:1024" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
@@ -25357,12 +25852,12 @@
     <row r="22" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
@@ -26385,14 +26880,14 @@
     <row r="23" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="19" t="s">
         <v>74</v>
       </c>
       <c r="G23"/>
@@ -27417,10 +27912,10 @@
     <row r="24" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
@@ -28441,20 +28936,20 @@
       <c r="AMJ24"/>
     </row>
     <row r="25" spans="1:1024" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G25"/>
@@ -29477,16 +29972,16 @@
       <c r="AMJ25"/>
     </row>
     <row r="26" spans="1:1024" ht="69" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B26"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G26"/>
@@ -30509,16 +31004,16 @@
       <c r="AMJ26"/>
     </row>
     <row r="27" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B27"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G27"/>
@@ -31541,18 +32036,18 @@
       <c r="AMJ27"/>
     </row>
     <row r="28" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="26" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G28"/>
@@ -32575,20 +33070,20 @@
       <c r="AMJ28"/>
     </row>
     <row r="29" spans="1:1024" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="28" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="19" t="s">
         <v>99</v>
       </c>
       <c r="G29"/>
@@ -33610,605 +34105,605 @@
       <c r="AMI29"/>
       <c r="AMJ29"/>
     </row>
-    <row r="30" spans="1:1024" s="31" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+    <row r="30" spans="1:1024" s="22" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:1024" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="17" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18" t="s">
+      <c r="E33" s="8"/>
+      <c r="F33" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="23" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="26" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="17" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="23" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="26" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="17" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="23" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="26" t="s">
+      <c r="E38" s="14"/>
+      <c r="F38" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="17" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18" t="s">
+      <c r="E39" s="8"/>
+      <c r="F39" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="23" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="26" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18" t="s">
+      <c r="E41" s="8"/>
+      <c r="F41" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="17" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18" t="s">
+      <c r="E42" s="8"/>
+      <c r="F42" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="17" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18" t="s">
+      <c r="E43" s="8"/>
+      <c r="F43" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="16" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="18" t="s">
+      <c r="E44" s="10"/>
+      <c r="F44" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="16" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="18" t="s">
+      <c r="E45" s="1"/>
+      <c r="F45" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="16" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="18" t="s">
+      <c r="E46" s="1"/>
+      <c r="F46" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="16" t="s">
+      <c r="E47" s="8"/>
+      <c r="F47" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="17" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="16" t="s">
+      <c r="E48" s="8"/>
+      <c r="F48" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="16" t="s">
+      <c r="E49" s="8"/>
+      <c r="F49" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="16" t="s">
+      <c r="E50" s="8"/>
+      <c r="F50" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="16" t="s">
+      <c r="E51" s="8"/>
+      <c r="F51" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="16" t="s">
+      <c r="E52" s="8"/>
+      <c r="F52" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="16" t="s">
+      <c r="E53" s="8"/>
+      <c r="F53" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32" t="s">
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E54" s="32"/>
-      <c r="F54" s="31" t="s">
+      <c r="E54" s="23"/>
+      <c r="F54" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="17" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="16" t="s">
+      <c r="E55" s="8"/>
+      <c r="F55" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17" t="s">
+      <c r="B56" s="1"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="16" t="s">
+      <c r="E56" s="8"/>
+      <c r="F56" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="16" t="s">
+      <c r="B57" s="1"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="16" t="s">
+      <c r="E57" s="1"/>
+      <c r="F57" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="16" t="s">
+      <c r="E58" s="8"/>
+      <c r="F58" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="16" t="s">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="16" t="s">
+      <c r="E59" s="1"/>
+      <c r="F59" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="16" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="16" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="16" t="s">
+      <c r="E61" s="1"/>
+      <c r="F61" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="16" t="s">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="16" t="s">
+      <c r="E62" s="1"/>
+      <c r="F62" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="17" t="s">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="16" t="s">
+      <c r="E63" s="8"/>
+      <c r="F63" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="16" t="s">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="16" t="s">
+      <c r="E64" s="1"/>
+      <c r="F64" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="16" t="s">
+      <c r="B65" s="1"/>
+      <c r="C65" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="18" t="s">
+      <c r="E65" s="1"/>
+      <c r="F65" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="18" t="s">
+      <c r="E66" s="1"/>
+      <c r="F66" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="19"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F68" s="19"/>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F69" s="19"/>
+      <c r="F69" s="10"/>
     </row>
     <row r="70" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19" t="s">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F70" s="19"/>
+      <c r="F70" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -34232,13 +34727,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="10"/>
-    <col min="2" max="2" width="11.21875" style="10"/>
-    <col min="3" max="3" width="37.21875" style="10"/>
-    <col min="4" max="4" width="54.109375" style="10"/>
-    <col min="5" max="5" width="27.88671875" style="10"/>
-    <col min="6" max="6" width="17.33203125" style="10"/>
-    <col min="7" max="1025" width="8.5546875" style="10"/>
+    <col min="1" max="1" width="8.5546875" style="1"/>
+    <col min="2" max="2" width="11.21875" style="1"/>
+    <col min="3" max="3" width="37.21875" style="1"/>
+    <col min="4" max="4" width="54.109375" style="1"/>
+    <col min="5" max="5" width="27.88671875" style="1"/>
+    <col min="6" max="6" width="17.33203125" style="1"/>
+    <col min="7" max="1025" width="8.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -34256,76 +34751,76 @@
       <c r="L1"/>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="26" t="s">
         <v>193</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C4" s="9"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="26" t="s">
         <v>194</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="9"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="26" t="s">
         <v>195</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C6" s="9"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="9"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E7"/>
@@ -34336,10 +34831,10 @@
       <c r="E8"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="4" t="s">
         <v>199</v>
       </c>
       <c r="E9"/>
@@ -34350,10 +34845,10 @@
       <c r="E10"/>
     </row>
     <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="4" t="s">
         <v>201</v>
       </c>
       <c r="E11"/>
@@ -34364,10 +34859,10 @@
       <c r="E12"/>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E13"/>
@@ -34378,49 +34873,49 @@
       <c r="E14"/>
     </row>
     <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C17" s="8"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C18" s="8"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="8"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="8"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="8"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="56"/>
+      <c r="D21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -34445,88 +34940,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="36"/>
-    <col min="2" max="2" width="16.44140625" style="36"/>
-    <col min="3" max="3" width="17.44140625" style="36"/>
-    <col min="4" max="4" width="45.21875" style="36"/>
-    <col min="5" max="5" width="75.109375" style="36"/>
-    <col min="6" max="6" width="12.77734375" style="36"/>
-    <col min="7" max="7" width="11.21875" style="36"/>
-    <col min="8" max="8" width="8.77734375" style="36"/>
-    <col min="9" max="9" width="25.33203125" style="36"/>
-    <col min="10" max="10" width="23.109375" style="36"/>
-    <col min="11" max="11" width="29.109375" style="36"/>
-    <col min="12" max="12" width="18.33203125" style="36"/>
-    <col min="13" max="13" width="8.77734375" style="36"/>
-    <col min="14" max="14" width="27.109375" style="36"/>
-    <col min="15" max="1025" width="8.77734375" style="36"/>
+    <col min="1" max="1" width="11.44140625" style="27"/>
+    <col min="2" max="2" width="16.44140625" style="27"/>
+    <col min="3" max="3" width="17.44140625" style="27"/>
+    <col min="4" max="4" width="45.21875" style="27"/>
+    <col min="5" max="5" width="75.109375" style="27"/>
+    <col min="6" max="6" width="12.77734375" style="27"/>
+    <col min="7" max="7" width="11.21875" style="27"/>
+    <col min="8" max="8" width="8.77734375" style="27"/>
+    <col min="9" max="9" width="25.33203125" style="27"/>
+    <col min="10" max="10" width="23.109375" style="27"/>
+    <col min="11" max="11" width="29.109375" style="27"/>
+    <col min="12" max="12" width="18.33203125" style="27"/>
+    <col min="13" max="13" width="8.77734375" style="27"/>
+    <col min="14" max="14" width="27.109375" style="27"/>
+    <col min="15" max="1025" width="8.77734375" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -34535,131 +35030,131 @@
       <c r="N3"/>
     </row>
     <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="39" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="30" t="s">
         <v>51</v>
       </c>
       <c r="I7"/>
@@ -34669,508 +35164,508 @@
       <c r="N7"/>
     </row>
     <row r="8" spans="1:14" ht="288" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="39" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="39" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="32" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="30" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="360" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="30" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="30" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="30" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="30" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="30" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="30" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="30" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="30" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="30" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="30" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="30" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="30" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="30" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="30" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="30" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="30" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="30" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="21" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="21" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="21" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="21" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="21" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="21" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="31" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="31" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="31" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="31" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="31" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="31" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="31" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="31" t="s">
         <v>354</v>
       </c>
     </row>
@@ -35205,28 +35700,28 @@
       <c r="B1" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="34" t="s">
         <v>27</v>
       </c>
     </row>
@@ -35234,23 +35729,23 @@
       <c r="A2" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="25" t="s">
         <v>361</v>
       </c>
     </row>
@@ -35258,61 +35753,61 @@
       <c r="A4" t="s">
         <v>362</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>366</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C9" s="43"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -35330,12 +35825,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="10"/>
-    <col min="2" max="2" width="16.109375" style="10"/>
-    <col min="3" max="3" width="49.109375" style="10"/>
-    <col min="4" max="4" width="38.6640625" style="10"/>
-    <col min="5" max="5" width="81.21875" style="10"/>
-    <col min="6" max="1025" width="9.21875" style="10"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="16.109375" style="1"/>
+    <col min="3" max="3" width="49.109375" style="1"/>
+    <col min="4" max="4" width="38.6640625" style="1"/>
+    <col min="5" max="5" width="81.21875" style="1"/>
+    <col min="6" max="1025" width="9.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -35347,19 +35842,19 @@
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -35371,104 +35866,104 @@
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="25" t="s">
         <v>216</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="30" t="s">
         <v>374</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="25" t="s">
         <v>251</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="25" t="s">
         <v>377</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="25" t="s">
         <v>378</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="25" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="30" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="25" t="s">
         <v>178</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="30" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="30" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="25" t="s">
         <v>392</v>
       </c>
     </row>
@@ -35498,82 +35993,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="216" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="37" t="s">
         <v>32</v>
       </c>
     </row>
@@ -35611,836 +36106,836 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="39" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="40" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="58" t="s">
         <v>416</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="59" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="40" t="s">
         <v>418</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="40" t="s">
         <v>419</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="50" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="60" t="s">
         <v>423</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="50" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="49" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="40" t="s">
         <v>432</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="49" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="40" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="49" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="49"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:8" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="49" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="43" t="s">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="34" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="40" t="s">
         <v>440</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="G10" s="49"/>
+      <c r="G10" s="40"/>
       <c r="H10" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="57" t="s">
         <v>445</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="49" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="49" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="49" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="49" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="49" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="49" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="49" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="40" t="s">
         <v>456</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="49" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="49" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="40" t="s">
         <v>460</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="49" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="40" t="s">
         <v>463</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="45" t="s">
         <v>465</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="49" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="40" t="s">
         <v>466</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="45" t="s">
         <v>467</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="49" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="49" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="49" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="49" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="40" t="s">
         <v>475</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="45" t="s">
         <v>465</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="49" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="40" t="s">
         <v>476</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="40" t="s">
         <v>477</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="49" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="49" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="40" t="s">
         <v>481</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="49" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="40" t="s">
         <v>482</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="40" t="s">
         <v>483</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="49" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="40" t="s">
         <v>484</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="40" t="s">
         <v>485</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="49" t="s">
+      <c r="A36" s="40"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="40" t="s">
         <v>486</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="49" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="49" t="s">
+      <c r="A38" s="40"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="40" t="s">
         <v>489</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
     </row>
     <row r="39" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="49" t="s">
+      <c r="A39" s="40"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="40" t="s">
         <v>492</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="49"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="49"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
     </row>
     <row r="46" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="49">
+      <c r="A46" s="40">
         <v>2</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="40" t="s">
         <v>493</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="40" t="s">
         <v>494</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="40" t="s">
         <v>495</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="F46" s="40" t="s">
         <v>496</v>
       </c>
-      <c r="G46" s="49"/>
+      <c r="G46" s="40"/>
     </row>
     <row r="47" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="40"/>
+      <c r="B47" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="40" t="s">
         <v>498</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="40" t="s">
         <v>499</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="40" t="s">
         <v>500</v>
       </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
     </row>
     <row r="48" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="49"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="49" t="s">
+      <c r="A48" s="40"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="40" t="s">
         <v>503</v>
       </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
     </row>
     <row r="49" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="49"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="49" t="s">
+      <c r="A49" s="40"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="40" t="s">
         <v>504</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="40" t="s">
         <v>505</v>
       </c>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="40" t="s">
         <v>506</v>
       </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
     </row>
     <row r="50" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="49" t="s">
+      <c r="A50" s="40"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E50" s="40" t="s">
         <v>509</v>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
     </row>
     <row r="51" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A51" s="49"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="49" t="s">
+      <c r="A51" s="40"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
     </row>
     <row r="52" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A52" s="49"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="49" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E52" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
     </row>
     <row r="53" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="49"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="51" t="s">
+      <c r="A53" s="40"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
     </row>
     <row r="54" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49" t="s">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40" t="s">
         <v>518</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="40" t="s">
         <v>521</v>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
     </row>
     <row r="55" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49" t="s">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="40" t="s">
         <v>523</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
     </row>
     <row r="56" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="49"/>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="40"/>
+      <c r="B56" s="58" t="s">
         <v>526</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="40" t="s">
         <v>527</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="40" t="s">
         <v>528</v>
       </c>
-      <c r="E56" s="49" t="s">
+      <c r="E56" s="40" t="s">
         <v>529</v>
       </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
     </row>
     <row r="57" spans="1:7" ht="248.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="49"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="49" t="s">
+      <c r="A57" s="40"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="40" t="s">
         <v>530</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="40" t="s">
         <v>532</v>
       </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
     </row>
     <row r="58" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49" t="s">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="B11:B39"/>
     <mergeCell ref="B47:B53"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -36493,7 +36988,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>537</v>
       </c>
     </row>
@@ -36501,7 +36996,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>538</v>
       </c>
     </row>
@@ -36517,7 +37012,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>540</v>
       </c>
     </row>
@@ -36525,7 +37020,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="1" t="s">
         <v>541</v>
       </c>
     </row>
@@ -36533,7 +37028,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="1" t="s">
         <v>542</v>
       </c>
     </row>
@@ -36541,7 +37036,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="1" t="s">
         <v>543</v>
       </c>
     </row>
@@ -36549,7 +37044,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="1" t="s">
         <v>544</v>
       </c>
     </row>
@@ -36557,7 +37052,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="1" t="s">
         <v>545</v>
       </c>
     </row>
@@ -36565,7 +37060,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="1" t="s">
         <v>546</v>
       </c>
     </row>
@@ -36573,7 +37068,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="1" t="s">
         <v>547</v>
       </c>
     </row>
@@ -36581,7 +37076,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="1" t="s">
         <v>548</v>
       </c>
     </row>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Applications\affaince\documentation\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\apps\affaince\documentation\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Terminologies used" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,20 @@
     <sheet name="Benefits (2)" sheetId="15" r:id="rId6"/>
     <sheet name="Integration" sheetId="6" r:id="rId7"/>
     <sheet name="Payment" sheetId="7" r:id="rId8"/>
-    <sheet name="workflows" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId10"/>
-    <sheet name="BAM" sheetId="10" r:id="rId11"/>
-    <sheet name="Business" sheetId="11" r:id="rId12"/>
-    <sheet name="Business_bkp" sheetId="12" r:id="rId13"/>
-    <sheet name="notes" sheetId="13" r:id="rId14"/>
-    <sheet name="Benefit Equations" sheetId="14" r:id="rId15"/>
+    <sheet name="BAM" sheetId="10" r:id="rId9"/>
+    <sheet name="Business" sheetId="11" r:id="rId10"/>
+    <sheet name="Business_bkp" sheetId="12" r:id="rId11"/>
+    <sheet name="notes" sheetId="13" r:id="rId12"/>
+    <sheet name="Benefit Equations" sheetId="14" r:id="rId13"/>
+    <sheet name="workflows" sheetId="8" r:id="rId14"/>
+    <sheet name="PendingQuestions" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="786">
   <si>
     <t>Term</t>
   </si>
@@ -542,9 +542,6 @@
   </si>
   <si>
     <t>PR_01</t>
-  </si>
-  <si>
-    <t>PostConfiguration</t>
   </si>
   <si>
     <t>Create product account</t>
@@ -580,14 +577,6 @@
     <t>Define product pricing paramters</t>
   </si>
   <si>
-    <t>As an Adminstrator I will define which Parameters shuld be used for detemining the product price so as to decide which data should be captured in product forecast
-1. Demand per price(quantity demanded per unit work period against offered prices) - Manadatory
-   1.1 Demand curve period : 1 month,3 months,6 months, 1year
-    1.2 Price change on X% revenue change/profit change
-2. Cross price Elasticity(optional)
-3. Advertising expenses(optional)</t>
-  </si>
-  <si>
     <t>Configuration,product account</t>
   </si>
   <si>
@@ -598,23 +587,6 @@
   </si>
   <si>
     <t>configuration</t>
-  </si>
-  <si>
-    <t>Capture forecast for a product(for first time)</t>
-  </si>
-  <si>
-    <t>As an administrator I create forecast for a subscriptionable product so as to compare the actual performance of that product against predictions. The structure(for every product) will have following attributes.
-1. Price buckets containing prediction about changing offering prices/purchase prices
-2. Weight
-3. Profit margin
-4. Categorization
-5. New subscribers per period(week/month)
-6. Churned subscribers per period(week/month) affiliated to each price bucket
-7. List of substitute products ( in case admin has selected "Cross Price Elasitcity" option) 
-8. List of complementory products (in case admin has selected "Cross Price Elasitcity" option)
-9. Advertising expenses per product(in case admin has selected "Advertising expenses" option)
-10. From date of forecast
-11. To Date of Forecast</t>
   </si>
   <si>
     <t>Capture operating expenses forecast</t>
@@ -683,9 +655,6 @@
     <t>PR_06</t>
   </si>
   <si>
-    <t>Auto configuration</t>
-  </si>
-  <si>
     <t>Replicate actuals of last year as forecast of current year</t>
   </si>
   <si>
@@ -696,9 +665,6 @@
   </si>
   <si>
     <t>PR_07</t>
-  </si>
-  <si>
-    <t>post configuration</t>
   </si>
   <si>
     <t>Calculate foreasted values of defined metrics for a product</t>
@@ -735,72 +701,36 @@
     <t>pricing</t>
   </si>
   <si>
-    <t>Capture Actual values for new customers for a product of type "price committed"</t>
-  </si>
-  <si>
-    <t>As a System I will add  one(1) in the following attributes in product account for a product of type "price committed" when a new subscriber has confirmed subscription,for every product that he/she has subscribed to.
-1. New subscribers associated with current price bucket</t>
-  </si>
-  <si>
     <t>New subscription, product account</t>
   </si>
   <si>
     <t>PR_10</t>
   </si>
   <si>
-    <t>Capture Actual values for additonal quantity by existing customers for a product of type "price committed"</t>
-  </si>
-  <si>
-    <t>As a System I will add one(1) in the following attributes in product account for a product  of type "price committed" when an existing subscriber has added additional quantity,for that product 
-1. New subscribers associated with current price bucket(not the earlier price bucket where his earlier quantity was registered)</t>
-  </si>
-  <si>
     <t>Added subscripton,product account</t>
   </si>
   <si>
     <t>PR_11</t>
   </si>
   <si>
-    <t>Capture Actual values for churned customers metrics for a product of type "price committed"</t>
-  </si>
-  <si>
-    <t>As a System I will add one(1) in the following attributes in product account for a product of type "price committed" when an existing subscriber(associated with a specific price bucket) has cancelled subscription for that product.
-1. Churned subscribers associated with specific price bucket(s)</t>
-  </si>
-  <si>
     <t>Cancelled subscription</t>
   </si>
   <si>
     <t>PR_12</t>
   </si>
   <si>
-    <t>Keep same price bucket for the product quantity reduced by subscriber for all product types</t>
-  </si>
-  <si>
-    <t>As a system I will reduce the product quantity associated with an existing price bucket in case a subscriber reduces the quantity of a product but recalculate his basket level discount so that merchant should get benfitted due to breach of subscription contract by the subscriber.</t>
-  </si>
-  <si>
     <t>Reduced subscripton quantity,product account</t>
   </si>
   <si>
     <t>PR_13</t>
   </si>
   <si>
-    <t>Capture Actual values for new price bucket metrics for a product of type "price committed"</t>
-  </si>
-  <si>
-    <t>As a System I will create a new price bucket when offered price of that product of type "price committed" (calculated by the system through daily job) changes so that any new subscribers subscribing to that product henceforth can be associated with this new/latest price bucket.</t>
-  </si>
-  <si>
     <t>Daily pricing batch,product account</t>
   </si>
   <si>
     <t>PR_14</t>
   </si>
   <si>
-    <t>Capture Actual values for changed COGS for a product of all types</t>
-  </si>
-  <si>
     <t>As a System I will add a new version of a purchase price(COGS) in all available price buckets in the product account of a product of all types when its purchase price undergoes changes (informed by daily feed coming from the main application to subscription platform),so that it can precisely calculate the profits and losses incurred by that product.</t>
   </si>
   <si>
@@ -808,12 +738,6 @@
   </si>
   <si>
     <t>PR_15</t>
-  </si>
-  <si>
-    <t>Compute derived paramteres for actual values for a product of any type</t>
-  </si>
-  <si>
-    <t>As a system I will calculate the computed actual parameters on a daily basis by means of a batch job so as to determine the impact of new subscriptions,additions and churning on the performance of the product. This batch should run before the pricing determination batch job.</t>
   </si>
   <si>
     <t>daily batch,product account</t>
@@ -2308,9 +2232,6 @@
     <t>Receive payment confirmation from main application</t>
   </si>
   <si>
-    <t>As a system I will receive payment confirmation for the payments  made on earlier day ,on each day through integration layer as an event for each payment received, in order to process it for reconciliation purpose at business account</t>
-  </si>
-  <si>
     <t>PAYMNT_15</t>
   </si>
   <si>
@@ -2383,9 +2304,6 @@
   </si>
   <si>
     <t>Inform subscriber regarding processing of  refund on cancellation of subscription - - cash payment</t>
-  </si>
-  <si>
-    <t>As a system I will send message( mail/sms) regarding refund amount deposited with me  and URL regarding refund request form asking for details of instrument( bank transfer,cheque) through which subscriber wants his/her refund gets processed, in case current payment mode is "cash payment mode"</t>
   </si>
   <si>
     <t>As a administrator I will create new benefit strategy  "Discount on Subscription basket" and add one or more crierias using. 
@@ -2575,6 +2493,97 @@
   </si>
   <si>
     <t>Receive refund details from shopping site</t>
+  </si>
+  <si>
+    <t>As an Adminstrator I will define which Parameters shuld be used for detemining the product price so as to decide which data should be captured in product forecast
+1. Product Pricing Policy
+ 1.1 Recent History based pricing
+ 1.2 Historical data based(Regression based) pricing
+2. Threshold percentage difference between target and actual revenue to triggering price
+3. Include Cross price Elasticity(optional) in pricing calculation: true/false
+4. Advertising expenses(optional) in pricing calculation : true/false</t>
+  </si>
+  <si>
+    <t>Capture demand and churn forecast for a product(for first time)</t>
+  </si>
+  <si>
+    <t>As an administrator I create demand and churn forecast for a subscriptionable product so as to compare the actual performance of that product against predictions. The structure(for every product) will have following attributes.
+1. New subscribers per period(week/month)
+2. Churned subscribers per period(week/month) affiliated to each price bucket
+3. From date of forecast
+4. To Date of Forecast</t>
+  </si>
+  <si>
+    <t>As a System I will add  new subscription count for each subscribed product in the associated price bucket, in product account for a product of type "price committed" when a new subscriber has confirmed subscription,for every product that he/she has subscribed to.</t>
+  </si>
+  <si>
+    <t>As a System I will add cancelled subscription count of a product in "churned subscription count" in associated price buckets in product account for a product of type "price committed" when an existing subscriber has cancelled subscription for that product.</t>
+  </si>
+  <si>
+    <t>As a system I will add reduced subscription count of a product in "churned subscription count" in associated price buckets in case a subscriber reduces the quantity of a product .</t>
+  </si>
+  <si>
+    <t>Capture reduction of subscription count to a product</t>
+  </si>
+  <si>
+    <t>COnfiguration</t>
+  </si>
+  <si>
+    <t>Capture new subscriptions( all three types of price buckets)</t>
+  </si>
+  <si>
+    <t>As a System I will add additional subscription count in the latest price bucket (at the time of subscription) in product account for a product  of type "price committed" when an existing subscriber has added additional quantity,for that product. -- is the latest price bucket or is it the higher priced between older and newer price bucket???????</t>
+  </si>
+  <si>
+    <t>Capture addition in subscription count of a product</t>
+  </si>
+  <si>
+    <t>manage subscriptions</t>
+  </si>
+  <si>
+    <t>Capture chruning of subscription count of a product</t>
+  </si>
+  <si>
+    <t>Manage price buckets</t>
+  </si>
+  <si>
+    <t>Manage Price buckets</t>
+  </si>
+  <si>
+    <t>Create new price bucket on price change- price committed products</t>
+  </si>
+  <si>
+    <t>Create new price bucket on price change- percent discount committed products</t>
+  </si>
+  <si>
+    <t>Modify existing(single) price bucket on price change- none committed products</t>
+  </si>
+  <si>
+    <t>As a System I will create a new price bucket for a product offering a new offer price when offered price of that product of type "price committed" (calculated by the system through daily job) changes so that any new subscribers subscribing to that product henceforth can be associated with this new/latest price bucket.</t>
+  </si>
+  <si>
+    <t>As a system I will update the offer price of the single available price bucket of a non committed product when offered price of that product of type " none committed" changes so that all subscribers subscribed to that product will have to pay a new offer price from that point onwards.</t>
+  </si>
+  <si>
+    <t>As a System I will create a new price bucket for a product offering a new percent discount when offered price of that product of type "percent discount committed" (calculated by the system through daily job) changes so that any new subscribers subscribing to that product henceforth can be associated with this new/latest price bucket.</t>
+  </si>
+  <si>
+    <t>Capture changed COGS for a product of all types</t>
+  </si>
+  <si>
+    <t>Compute performance metrics for a product of any type</t>
+  </si>
+  <si>
+    <t>As a system I will calculate the preformance metrics of all products on a daily basis by means of a batch job so as to determine the impact of new subscriptions,additions and churning on the performance of the product. This batch should run before the pricing determination batch job.</t>
+  </si>
+  <si>
+    <t>Measure performance</t>
+  </si>
+  <si>
+    <t>As a system I will send message( mail/sms) regarding refund amount deposited with me  and URL regarding refund request form asking for details of instrument( bank transfer,cheque) through which subscriber wants his/her refund gets processed, in case current payment mode is "cash payment mode".</t>
+  </si>
+  <si>
+    <t>As a system I will receive payment confirmation for the payments  made on earlier day ,on each day through integration layer as an event for each payment received, in order to process it for reconciliation purpose at business account.</t>
   </si>
 </sst>
 </file>
@@ -2646,7 +2655,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2675,6 +2684,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2744,7 +2759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2883,36 +2898,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2937,6 +2922,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3292,19 +3316,19 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="1"/>
-    <col min="3" max="3" width="17.88671875" style="1"/>
-    <col min="4" max="4" width="105.21875" style="1"/>
-    <col min="5" max="1025" width="9.21875" style="1"/>
+    <col min="1" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="17.90625" style="1"/>
+    <col min="4" max="4" width="105.1796875" style="1"/>
+    <col min="5" max="1025" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C1"/>
       <c r="D1"/>
     </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3312,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3320,7 +3344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3328,7 +3352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3336,7 +3360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
@@ -3344,7 +3368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3352,7 +3376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
@@ -3360,7 +3384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
@@ -3375,235 +3399,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="87.21875"/>
-    <col min="3" max="1025" width="8.5546875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.109375" style="1"/>
-    <col min="2" max="2" width="17.5546875" style="1"/>
-    <col min="3" max="3" width="31.88671875" style="1"/>
-    <col min="4" max="4" width="24.88671875" style="1"/>
-    <col min="5" max="1025" width="9.21875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N70"/>
   <sheetViews>
@@ -3613,25 +3408,25 @@
       <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="12.77734375"/>
-    <col min="3" max="3" width="19.21875"/>
-    <col min="4" max="4" width="37.5546875"/>
-    <col min="5" max="5" width="54.77734375"/>
-    <col min="6" max="7" width="8.5546875"/>
-    <col min="8" max="8" width="11.21875"/>
-    <col min="9" max="9" width="19.6640625"/>
-    <col min="10" max="10" width="22.44140625"/>
-    <col min="11" max="11" width="21.33203125"/>
-    <col min="12" max="12" width="15.5546875"/>
-    <col min="13" max="13" width="21.109375"/>
-    <col min="14" max="14" width="19.88671875"/>
-    <col min="15" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="8.54296875"/>
+    <col min="2" max="2" width="12.81640625"/>
+    <col min="3" max="3" width="19.1796875"/>
+    <col min="4" max="4" width="37.54296875"/>
+    <col min="5" max="5" width="54.81640625"/>
+    <col min="6" max="7" width="8.54296875"/>
+    <col min="8" max="8" width="11.1796875"/>
+    <col min="9" max="9" width="19.6328125"/>
+    <col min="10" max="10" width="22.453125"/>
+    <col min="11" max="11" width="21.36328125"/>
+    <col min="12" max="12" width="15.54296875"/>
+    <col min="13" max="13" width="21.08984375"/>
+    <col min="14" max="14" width="19.90625"/>
+    <col min="15" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
@@ -3648,7 +3443,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>20</v>
@@ -3675,17 +3470,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="20" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -3697,17 +3492,17 @@
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
     </row>
-    <row r="4" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="20" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
@@ -3719,17 +3514,17 @@
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
     </row>
-    <row r="5" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="20" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
@@ -3741,51 +3536,51 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
     </row>
-    <row r="6" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
-        <v>489</v>
+    <row r="6" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="66" t="s">
+        <v>470</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="58" t="s">
-        <v>375</v>
+      <c r="D6" s="67" t="s">
+        <v>356</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="40" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="N6" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="66"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="58"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="20" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -3797,13 +3592,13 @@
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
     </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
+    <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="66"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="58"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="20" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
@@ -3815,51 +3610,51 @@
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
     </row>
-    <row r="9" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
-        <v>501</v>
+    <row r="9" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="66" t="s">
+        <v>482</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="58" t="s">
-        <v>377</v>
+      <c r="D9" s="67" t="s">
+        <v>358</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="40" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="57"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="66"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="58"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="20" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
@@ -3871,13 +3666,13 @@
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
     </row>
-    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="57"/>
+    <row r="11" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="66"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
-      <c r="D11" s="58"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="20" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -3889,51 +3684,51 @@
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
     </row>
-    <row r="12" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
-        <v>504</v>
+    <row r="12" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="66" t="s">
+        <v>485</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="58" t="s">
-        <v>378</v>
+      <c r="D12" s="67" t="s">
+        <v>359</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="40" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M12" s="40" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="66"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="58"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="20" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -3945,13 +3740,13 @@
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
     </row>
-    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="57"/>
+    <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="66"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="58"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="20" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -3963,51 +3758,51 @@
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
     </row>
-    <row r="15" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
-        <v>507</v>
+    <row r="15" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="66" t="s">
+        <v>488</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="58" t="s">
-        <v>379</v>
+      <c r="D15" s="67" t="s">
+        <v>360</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="40" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="66"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="58"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="20" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -4019,13 +3814,13 @@
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
     </row>
-    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
+    <row r="17" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="66"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="58"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="20" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -4037,51 +3832,51 @@
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
     </row>
-    <row r="18" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
-        <v>510</v>
+    <row r="18" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="66" t="s">
+        <v>491</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
-      <c r="D18" s="58" t="s">
-        <v>511</v>
+      <c r="D18" s="67" t="s">
+        <v>492</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="40" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J18" s="40" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="K18" s="40" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M18" s="40" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="N18" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="66"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="58"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="20" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -4093,13 +3888,13 @@
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
     </row>
-    <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
+    <row r="20" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="66"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="58"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="20" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -4111,51 +3906,51 @@
       <c r="M20" s="38"/>
       <c r="N20" s="38"/>
     </row>
-    <row r="21" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
-        <v>514</v>
+    <row r="21" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="66" t="s">
+        <v>495</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="58" t="s">
-        <v>515</v>
+      <c r="D21" s="67" t="s">
+        <v>496</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="40" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M21" s="40" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="N21" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="66"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
-      <c r="D22" s="58"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="20" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -4167,13 +3962,13 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
     </row>
-    <row r="23" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="57"/>
+    <row r="23" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="66"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="58"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="20" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -4185,51 +3980,51 @@
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
     </row>
-    <row r="24" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
-        <v>518</v>
+    <row r="24" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="66" t="s">
+        <v>499</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="58" t="s">
-        <v>519</v>
+      <c r="D24" s="67" t="s">
+        <v>500</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="40" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="K24" s="40" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M24" s="40" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="N24" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="66"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
-      <c r="D25" s="58"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="20" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4241,13 +4036,13 @@
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
     </row>
-    <row r="26" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
+    <row r="26" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="66"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="58"/>
+      <c r="D26" s="67"/>
       <c r="E26" s="20" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4259,51 +4054,51 @@
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
     </row>
-    <row r="27" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
-        <v>522</v>
+    <row r="27" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="66" t="s">
+        <v>503</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
-      <c r="D27" s="58" t="s">
-        <v>523</v>
+      <c r="D27" s="67" t="s">
+        <v>504</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="40" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="N27" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="66"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
-      <c r="D28" s="58"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="20" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4315,13 +4110,13 @@
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
     </row>
-    <row r="29" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
+    <row r="29" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="66"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
-      <c r="D29" s="58"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="20" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -4333,51 +4128,51 @@
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
     </row>
-    <row r="30" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
-        <v>526</v>
+    <row r="30" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="66" t="s">
+        <v>507</v>
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
-      <c r="D30" s="58" t="s">
-        <v>527</v>
+      <c r="D30" s="67" t="s">
+        <v>508</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H30" s="37"/>
       <c r="I30" s="40" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J30" s="40" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="K30" s="40" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="N30" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="57"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="66"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
-      <c r="D31" s="58"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="20" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -4389,13 +4184,13 @@
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
     </row>
-    <row r="32" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="57"/>
+    <row r="32" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="66"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
-      <c r="D32" s="58"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="20" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -4407,51 +4202,51 @@
       <c r="M32" s="38"/>
       <c r="N32" s="38"/>
     </row>
-    <row r="33" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57" t="s">
-        <v>530</v>
+    <row r="33" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="66" t="s">
+        <v>511</v>
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
-      <c r="D33" s="58" t="s">
-        <v>531</v>
+      <c r="D33" s="67" t="s">
+        <v>512</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H33" s="37"/>
       <c r="I33" s="40" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J33" s="40" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="K33" s="40" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="L33" s="40" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="N33" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="57"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="66"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
-      <c r="D34" s="58"/>
+      <c r="D34" s="67"/>
       <c r="E34" s="20" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -4463,13 +4258,13 @@
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
     </row>
-    <row r="35" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="57"/>
+    <row r="35" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="66"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
-      <c r="D35" s="58"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="20" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -4481,17 +4276,17 @@
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
     </row>
-    <row r="36" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
-        <v>534</v>
+    <row r="36" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="66" t="s">
+        <v>515</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
-      <c r="D36" s="58" t="s">
-        <v>535</v>
+      <c r="D36" s="67" t="s">
+        <v>516</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -4503,13 +4298,13 @@
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
     </row>
-    <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="57"/>
+    <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="66"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
-      <c r="D37" s="58"/>
+      <c r="D37" s="67"/>
       <c r="E37" s="41" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -4521,13 +4316,13 @@
       <c r="M37" s="38"/>
       <c r="N37" s="38"/>
     </row>
-    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="57"/>
+    <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="66"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="58"/>
+      <c r="D38" s="67"/>
       <c r="E38" s="42" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
@@ -4539,89 +4334,89 @@
       <c r="M38" s="43"/>
       <c r="N38" s="43"/>
     </row>
-    <row r="39" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="57"/>
+    <row r="39" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A39" s="66"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="58"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="42" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="40" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="K39" s="40" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="L39" s="40" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="N39" s="40" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A40" s="37" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
       <c r="D40" s="39" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H40" s="37"/>
       <c r="I40" s="37" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="J40" s="40" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="K40" s="40" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="L40" s="37" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="37" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
       <c r="D41" s="20" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -4633,17 +4428,17 @@
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
     </row>
-    <row r="42" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="37" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
       <c r="D42" s="20" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -4655,17 +4450,17 @@
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
     </row>
-    <row r="43" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="37" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
       <c r="D43" s="20" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -4677,17 +4472,17 @@
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
     </row>
-    <row r="44" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="37" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
       <c r="D44" s="39" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -4699,131 +4494,131 @@
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
     </row>
-    <row r="45" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="37" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
       <c r="D45" s="39" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="J45" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="K45" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="J45" s="37" t="s">
-        <v>556</v>
-      </c>
-      <c r="K45" s="37" t="s">
-        <v>557</v>
-      </c>
       <c r="L45" s="37" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M45" s="37" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="N45" s="37" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="37" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
       <c r="D46" s="39" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="37" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="J46" s="37" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="K46" s="37" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="L46" s="37" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M46" s="37" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="N46" s="37" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A47" s="37" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
       <c r="D47" s="39" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H47" s="37"/>
       <c r="I47" s="37" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="J47" s="37" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="K47" s="37" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="L47" s="37" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M47" s="37" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="N47" s="37" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="37" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
       <c r="D48" s="20" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -4835,93 +4630,93 @@
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
     </row>
-    <row r="49" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A49" s="37" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
       <c r="D49" s="39" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="J49" s="37" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="K49" s="37" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="L49" s="37" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M49" s="37" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="N49" s="37" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="37" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
       <c r="D50" s="39" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="37" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="J50" s="37" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="K50" s="37" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="N50" s="37" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="37" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
       <c r="D51" s="20" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -4933,17 +4728,17 @@
       <c r="M51" s="38"/>
       <c r="N51" s="38"/>
     </row>
-    <row r="52" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A52" s="37" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
       <c r="D52" s="20" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -4955,17 +4750,17 @@
       <c r="M52" s="38"/>
       <c r="N52" s="38"/>
     </row>
-    <row r="53" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="37" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="20" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -4977,17 +4772,17 @@
       <c r="M53" s="38"/>
       <c r="N53" s="38"/>
     </row>
-    <row r="54" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" s="37" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
       <c r="D54" s="20" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -4999,17 +4794,17 @@
       <c r="M54" s="38"/>
       <c r="N54" s="38"/>
     </row>
-    <row r="55" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="37" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
       <c r="D55" s="20" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -5021,17 +4816,17 @@
       <c r="M55" s="38"/>
       <c r="N55" s="38"/>
     </row>
-    <row r="56" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="37" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
       <c r="D56" s="20" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -5043,55 +4838,55 @@
       <c r="M56" s="38"/>
       <c r="N56" s="38"/>
     </row>
-    <row r="57" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A57" s="37" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
       <c r="D57" s="39" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H57" s="37"/>
       <c r="I57" s="37" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="J57" s="37" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="K57" s="37" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="L57" s="37" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M57" s="37" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="N57" s="37" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="37" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
       <c r="D58" s="20" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -5103,17 +4898,17 @@
       <c r="M58" s="38"/>
       <c r="N58" s="38"/>
     </row>
-    <row r="59" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" s="37" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
       <c r="D59" s="20" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -5125,7 +4920,7 @@
       <c r="M59" s="38"/>
       <c r="N59" s="38"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="37"/>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
@@ -5141,7 +4936,7 @@
       <c r="M60" s="38"/>
       <c r="N60" s="38"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="37"/>
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
@@ -5157,7 +4952,7 @@
       <c r="M61" s="38"/>
       <c r="N61" s="38"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="37"/>
       <c r="B62" s="37"/>
       <c r="C62" s="37"/>
@@ -5173,7 +4968,7 @@
       <c r="M62" s="38"/>
       <c r="N62" s="38"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="37"/>
       <c r="B63" s="37"/>
       <c r="C63" s="37"/>
@@ -5189,7 +4984,7 @@
       <c r="M63" s="38"/>
       <c r="N63" s="38"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="37"/>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
@@ -5205,7 +5000,7 @@
       <c r="M64" s="38"/>
       <c r="N64" s="38"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="37"/>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
@@ -5221,7 +5016,7 @@
       <c r="M65" s="38"/>
       <c r="N65" s="38"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="37"/>
       <c r="B66" s="37"/>
       <c r="C66" s="37"/>
@@ -5237,7 +5032,7 @@
       <c r="M66" s="38"/>
       <c r="N66" s="38"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
@@ -5253,7 +5048,7 @@
       <c r="M67" s="38"/>
       <c r="N67" s="38"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="37"/>
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
@@ -5269,7 +5064,7 @@
       <c r="M68" s="38"/>
       <c r="N68" s="38"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="37"/>
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
@@ -5285,7 +5080,7 @@
       <c r="M69" s="38"/>
       <c r="N69" s="38"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="38"/>
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
@@ -5303,18 +5098,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D21:D23"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="A36:A39"/>
@@ -5325,13 +5108,25 @@
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N41"/>
   <sheetViews>
@@ -5339,20 +5134,20 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="12.77734375"/>
-    <col min="3" max="3" width="19.21875"/>
-    <col min="4" max="4" width="37.5546875"/>
-    <col min="5" max="5" width="54.77734375"/>
-    <col min="6" max="7" width="8.5546875"/>
-    <col min="8" max="8" width="11.21875"/>
-    <col min="9" max="9" width="8.5546875"/>
-    <col min="11" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="8.54296875"/>
+    <col min="2" max="2" width="12.81640625"/>
+    <col min="3" max="3" width="19.1796875"/>
+    <col min="4" max="4" width="37.54296875"/>
+    <col min="5" max="5" width="54.81640625"/>
+    <col min="6" max="7" width="8.54296875"/>
+    <col min="8" max="8" width="11.1796875"/>
+    <col min="9" max="9" width="8.54296875"/>
+    <col min="11" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
@@ -5394,14 +5189,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -5414,7 +5209,7 @@
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -5430,12 +5225,12 @@
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -5448,7 +5243,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -5464,7 +5259,7 @@
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -5480,12 +5275,12 @@
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
       <c r="D8" s="37" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
@@ -5498,12 +5293,12 @@
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
@@ -5516,12 +5311,12 @@
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
@@ -5534,12 +5329,12 @@
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
@@ -5552,7 +5347,7 @@
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -5568,12 +5363,12 @@
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -5586,12 +5381,12 @@
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
     </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
@@ -5604,12 +5399,12 @@
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
     </row>
-    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -5622,12 +5417,12 @@
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
     </row>
-    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
@@ -5640,7 +5435,7 @@
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -5656,12 +5451,12 @@
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
     </row>
-    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -5674,12 +5469,12 @@
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
     </row>
-    <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -5692,7 +5487,7 @@
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -5708,12 +5503,12 @@
       <c r="M20" s="38"/>
       <c r="N20" s="38"/>
     </row>
-    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -5726,12 +5521,12 @@
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
     </row>
-    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -5744,7 +5539,7 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -5760,12 +5555,12 @@
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
     </row>
-    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -5778,12 +5573,12 @@
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
     </row>
-    <row r="25" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
@@ -5796,12 +5591,12 @@
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
     </row>
-    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
@@ -5814,7 +5609,7 @@
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -5830,7 +5625,7 @@
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -5846,7 +5641,7 @@
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -5862,7 +5657,7 @@
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -5878,7 +5673,7 @@
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -5894,7 +5689,7 @@
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -5910,7 +5705,7 @@
       <c r="M32" s="38"/>
       <c r="N32" s="38"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -5926,7 +5721,7 @@
       <c r="M33" s="38"/>
       <c r="N33" s="38"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -5942,7 +5737,7 @@
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -5958,7 +5753,7 @@
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -5974,7 +5769,7 @@
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -5990,7 +5785,7 @@
       <c r="M37" s="38"/>
       <c r="N37" s="38"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -6006,7 +5801,7 @@
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -6022,7 +5817,7 @@
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -6038,7 +5833,7 @@
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
@@ -6060,7 +5855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
@@ -6068,15 +5863,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.77734375"/>
-    <col min="2" max="1025" width="9.21875"/>
+    <col min="1" max="1" width="44.81640625"/>
+    <col min="2" max="1025" width="9.1796875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -6089,7 +5884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F26"/>
   <sheetViews>
@@ -6097,154 +5892,154 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="35.5546875"/>
-    <col min="3" max="3" width="29.77734375"/>
+    <col min="1" max="1" width="8.54296875"/>
+    <col min="2" max="2" width="35.54296875"/>
+    <col min="3" max="3" width="29.81640625"/>
     <col min="4" max="4" width="41"/>
-    <col min="5" max="5" width="35.5546875"/>
-    <col min="6" max="6" width="42.33203125"/>
-    <col min="7" max="1025" width="8.5546875"/>
+    <col min="5" max="5" width="35.54296875"/>
+    <col min="6" max="6" width="42.36328125"/>
+    <col min="7" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="38">
         <v>1</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="38">
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="38">
         <v>2</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>3</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>4</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <v>6</v>
       </c>
@@ -6252,13 +6047,13 @@
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <v>7</v>
       </c>
@@ -6266,11 +6061,11 @@
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="F10" s="37"/>
     </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="38">
         <v>8</v>
       </c>
@@ -6278,11 +6073,11 @@
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="38"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -6290,7 +6085,7 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="38"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -6298,7 +6093,7 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="38"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -6306,7 +6101,7 @@
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="38"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -6314,65 +6109,65 @@
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="38"/>
       <c r="B16" s="46" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
     </row>
-    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="38"/>
-      <c r="B17" s="59" t="s">
-        <v>648</v>
-      </c>
-      <c r="C17" s="59"/>
+      <c r="B17" s="68" t="s">
+        <v>629</v>
+      </c>
+      <c r="C17" s="68"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
     </row>
-    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38"/>
-      <c r="B18" s="59" t="s">
-        <v>649</v>
-      </c>
-      <c r="C18" s="59"/>
+      <c r="B18" s="68" t="s">
+        <v>630</v>
+      </c>
+      <c r="C18" s="68"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="38"/>
-      <c r="B19" s="59" t="s">
-        <v>650</v>
-      </c>
-      <c r="C19" s="59"/>
+      <c r="B19" s="68" t="s">
+        <v>631</v>
+      </c>
+      <c r="C19" s="68"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
     </row>
-    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38"/>
-      <c r="B20" s="59" t="s">
-        <v>651</v>
-      </c>
-      <c r="C20" s="59"/>
+      <c r="B20" s="68" t="s">
+        <v>632</v>
+      </c>
+      <c r="C20" s="68"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="38"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="38"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -6380,7 +6175,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="38"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -6388,7 +6183,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="38"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -6396,7 +6191,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="38"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -6404,7 +6199,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -6420,6 +6215,1008 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.54296875"/>
+    <col min="2" max="2" width="18.90625"/>
+    <col min="3" max="3" width="54.54296875"/>
+    <col min="4" max="4" width="46.90625"/>
+    <col min="5" max="5" width="53.453125"/>
+    <col min="6" max="6" width="54.81640625"/>
+    <col min="7" max="7" width="89.453125"/>
+    <col min="8" max="8" width="24.453125"/>
+    <col min="9" max="1025" width="8.54296875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30">
+        <v>1</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+    </row>
+    <row r="4" spans="1:8" ht="64.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="64"/>
+    </row>
+    <row r="5" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+    </row>
+    <row r="6" spans="1:8" ht="104" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="F7" s="63"/>
+      <c r="G7" s="30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="63"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:8" ht="169" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="26" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
+      <c r="B11" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A15" s="30"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A20" s="30"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A22" s="30"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A24" s="30"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+      <c r="A26" s="30"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A27" s="30"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A30" s="30"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+      <c r="A31" s="30"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A32" s="30"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A33" s="30"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A34" s="30"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A35" s="30"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A36" s="30"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A37" s="30"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A38" s="30"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A39" s="30"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="30"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="30"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="30"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="30"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="30"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="30"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+    </row>
+    <row r="46" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A46" s="30">
+        <v>2</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="G46" s="30"/>
+    </row>
+    <row r="47" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="30"/>
+      <c r="B47" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+    </row>
+    <row r="48" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A48" s="30"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+    </row>
+    <row r="49" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A49" s="30"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+    </row>
+    <row r="50" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A50" s="30"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+    </row>
+    <row r="51" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+      <c r="A51" s="30"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+    </row>
+    <row r="52" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+      <c r="A52" s="30"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+    </row>
+    <row r="53" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A53" s="30"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+    </row>
+    <row r="54" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+    </row>
+    <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+    </row>
+    <row r="56" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="30"/>
+      <c r="B56" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+    </row>
+    <row r="57" spans="1:7" ht="234" x14ac:dyDescent="0.35">
+      <c r="A57" s="30"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+    </row>
+    <row r="58" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B11:B39"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.54296875"/>
+    <col min="2" max="2" width="87.1796875"/>
+    <col min="3" max="1025" width="8.54296875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -6434,20 +7231,20 @@
       <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="4"/>
-    <col min="2" max="2" width="14.88671875" style="4"/>
-    <col min="3" max="3" width="16.33203125" style="4"/>
-    <col min="4" max="4" width="77.21875" style="4"/>
-    <col min="5" max="7" width="16.33203125" style="4"/>
-    <col min="8" max="8" width="19.77734375" style="4"/>
-    <col min="9" max="12" width="16.33203125" style="4"/>
-    <col min="13" max="13" width="17.5546875" style="4"/>
-    <col min="14" max="1025" width="16.33203125" style="4"/>
+    <col min="1" max="1" width="10.08984375" style="4"/>
+    <col min="2" max="2" width="14.90625" style="4"/>
+    <col min="3" max="3" width="16.36328125" style="4"/>
+    <col min="4" max="4" width="77.1796875" style="4"/>
+    <col min="5" max="7" width="16.36328125" style="4"/>
+    <col min="8" max="8" width="19.81640625" style="4"/>
+    <col min="9" max="12" width="16.36328125" style="4"/>
+    <col min="13" max="13" width="17.54296875" style="4"/>
+    <col min="14" max="1025" width="16.36328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -6486,16 +7283,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1024" ht="39" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="B3"/>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>29</v>
@@ -7532,14 +8329,14 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1024" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+        <v>712</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="11" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>29</v>
@@ -8576,9 +9373,9 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1024" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -9620,21 +10417,21 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1024" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>745</v>
-      </c>
-      <c r="E6" s="63" t="s">
+      <c r="D6" s="52" t="s">
+        <v>724</v>
+      </c>
+      <c r="E6" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="54" t="s">
         <v>30</v>
       </c>
       <c r="G6"/>
@@ -10666,19 +11463,19 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1024" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62" t="s">
-        <v>748</v>
-      </c>
-      <c r="E7" s="63" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="52" t="s">
+        <v>727</v>
+      </c>
+      <c r="E7" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="54" t="s">
         <v>30</v>
       </c>
       <c r="G7"/>
@@ -11700,19 +12497,19 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1024" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="54" t="s">
         <v>44</v>
       </c>
       <c r="G8"/>
@@ -12744,17 +13541,17 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62" t="s">
-        <v>749</v>
-      </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
+        <v>728</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54" t="s">
         <v>44</v>
       </c>
       <c r="G9"/>
@@ -13776,19 +14573,19 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1024" ht="78.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="61" t="s">
-        <v>750</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64" t="s">
+      <c r="D10" s="51" t="s">
+        <v>729</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54" t="s">
         <v>30</v>
       </c>
       <c r="G10"/>
@@ -14820,21 +15617,21 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1024" ht="52" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="61" t="s">
-        <v>751</v>
-      </c>
-      <c r="E11" s="61" t="s">
+      <c r="D11" s="51" t="s">
+        <v>730</v>
+      </c>
+      <c r="E11" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="54" t="s">
         <v>30</v>
       </c>
       <c r="G11"/>
@@ -15866,21 +16663,21 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1024" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="55" t="s">
         <v>63</v>
       </c>
       <c r="G12"/>
@@ -16902,17 +17699,17 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1024" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65" t="s">
-        <v>752</v>
-      </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55" t="s">
+        <v>731</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -17932,7 +18729,7 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1024" ht="78" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
@@ -17943,7 +18740,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="9" t="s">
@@ -18968,14 +19765,14 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" ht="69" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1024" ht="65" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B15"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="9" t="s">
@@ -20000,7 +20797,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1024" ht="39" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>75</v>
       </c>
@@ -21032,21 +21829,21 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" ht="69" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1024" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="65" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="65" t="s">
-        <v>755</v>
-      </c>
-      <c r="E17" s="65" t="s">
+      <c r="D17" s="55" t="s">
+        <v>734</v>
+      </c>
+      <c r="E17" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="55" t="s">
         <v>69</v>
       </c>
       <c r="G17"/>
@@ -22068,147 +22865,147 @@
       <c r="AMI17"/>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1024" ht="39" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61" t="s">
-        <v>756</v>
-      </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="64" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1024" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="61" t="s">
-        <v>757</v>
-      </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="64" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="51" t="s">
+        <v>736</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1024" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="61" t="s">
-        <v>721</v>
-      </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="64" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="51" t="s">
+        <v>700</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1024" ht="26" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="61" t="s">
-        <v>758</v>
-      </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="51" t="s">
+        <v>737</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1024" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="61" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="64" t="s">
+      <c r="E22" s="51"/>
+      <c r="F22" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="61" t="s">
-        <v>759</v>
-      </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="64" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="51" t="s">
+        <v>738</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1024" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="61" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="64" t="s">
+      <c r="E24" s="51"/>
+      <c r="F24" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1024" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="61" t="s">
-        <v>760</v>
-      </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="64" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="51" t="s">
+        <v>739</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1024" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="61" t="s">
-        <v>761</v>
-      </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="64" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1024" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1024" ht="39" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1024" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>95</v>
       </c>
@@ -22222,21 +23019,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1024" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1024" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1024" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>101</v>
       </c>
@@ -22252,7 +23049,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:1024" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>103</v>
       </c>
@@ -22266,7 +23063,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:1024" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1024" ht="91" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>104</v>
       </c>
@@ -22275,14 +23072,14 @@
         <v>94</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>105</v>
       </c>
@@ -22298,7 +23095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>106</v>
       </c>
@@ -22314,7 +23111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>107</v>
       </c>
@@ -22328,7 +23125,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>108</v>
       </c>
@@ -22340,47 +23137,47 @@
       <c r="E36" s="8"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>113</v>
       </c>
@@ -22389,82 +23186,82 @@
         <v>109</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="8"/>
       <c r="D43" s="7" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="7" t="s">
@@ -22478,45 +23275,45 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="8" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="8" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="8" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -22524,7 +23321,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="65" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>121</v>
       </c>
@@ -22533,14 +23330,14 @@
         <v>122</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>123</v>
       </c>
@@ -22551,71 +23348,71 @@
         <v>125</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="67" t="s">
+    <row r="53" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67" t="s">
+      <c r="B53" s="57"/>
+      <c r="C53" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="67" t="s">
-        <v>766</v>
-      </c>
-      <c r="E53" s="68"/>
+      <c r="D53" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="E53" s="58"/>
       <c r="F53" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="67" t="s">
+    <row r="54" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67" t="s">
+      <c r="B54" s="57"/>
+      <c r="C54" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="67" t="s">
+      <c r="D54" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E54" s="68"/>
+      <c r="E54" s="58"/>
       <c r="F54" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="67" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67" t="s">
-        <v>767</v>
-      </c>
-      <c r="E55" s="68"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57" t="s">
+        <v>746</v>
+      </c>
+      <c r="E55" s="58"/>
       <c r="F55" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+    <row r="56" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67" t="s">
+      <c r="B56" s="57"/>
+      <c r="C56" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="67" t="s">
+      <c r="D56" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="68"/>
+      <c r="E56" s="58"/>
       <c r="F56" s="12" t="s">
         <v>44</v>
       </c>
@@ -22640,18 +23437,18 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1"/>
-    <col min="2" max="2" width="11.21875" style="1"/>
-    <col min="3" max="3" width="37.21875" style="1"/>
-    <col min="4" max="4" width="54.109375" style="1"/>
-    <col min="5" max="5" width="27.88671875" style="1"/>
-    <col min="6" max="6" width="17.33203125" style="1"/>
-    <col min="7" max="1025" width="8.5546875" style="1"/>
+    <col min="1" max="1" width="8.54296875" style="1"/>
+    <col min="2" max="2" width="11.1796875" style="1"/>
+    <col min="3" max="3" width="37.1796875" style="1"/>
+    <col min="4" max="4" width="54.08984375" style="1"/>
+    <col min="5" max="5" width="27.90625" style="1"/>
+    <col min="6" max="6" width="17.36328125" style="1"/>
+    <col min="7" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -22665,7 +23462,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -22703,8 +23500,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="50" t="s">
+    <row r="3" spans="1:12" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="59" t="s">
         <v>135</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -22712,40 +23509,40 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C4" s="50"/>
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="59"/>
       <c r="D4" s="17" t="s">
         <v>137</v>
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="50"/>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="C5" s="59"/>
       <c r="D5" s="17" t="s">
         <v>138</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C6" s="50"/>
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="59"/>
       <c r="D6" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="50"/>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="C7" s="59"/>
       <c r="D7" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="C9" s="4" t="s">
         <v>141</v>
       </c>
@@ -22754,12 +23551,12 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="s">
         <v>143</v>
       </c>
@@ -22768,12 +23565,12 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="C13" s="4" t="s">
         <v>145</v>
       </c>
@@ -22782,13 +23579,13 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="51" t="s">
+    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="60" t="s">
         <v>147</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -22798,38 +23595,38 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="51"/>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="C16" s="60"/>
       <c r="D16" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C17" s="51"/>
+    <row r="17" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C17" s="60"/>
       <c r="D17" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C18" s="51"/>
+    <row r="18" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C18" s="60"/>
       <c r="D18" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="51"/>
+    <row r="19" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C19" s="60"/>
       <c r="D19" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="51"/>
+    <row r="20" spans="3:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="C20" s="60"/>
       <c r="D20" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="3:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="51"/>
+    <row r="21" spans="3:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="C21" s="60"/>
       <c r="D21" s="1" t="s">
         <v>155</v>
       </c>
@@ -22846,33 +23643,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK44"/>
+  <dimension ref="A1:AMK46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="19"/>
-    <col min="2" max="2" width="16.44140625" style="19"/>
-    <col min="3" max="3" width="17.44140625" style="19"/>
-    <col min="4" max="4" width="45.21875" style="19"/>
-    <col min="5" max="5" width="75.109375" style="19"/>
-    <col min="6" max="6" width="12.77734375" style="19"/>
-    <col min="7" max="7" width="11.21875" style="19"/>
-    <col min="8" max="8" width="8.77734375" style="19"/>
-    <col min="9" max="9" width="25.33203125" style="19"/>
-    <col min="10" max="10" width="23.109375" style="19"/>
-    <col min="11" max="11" width="29.109375" style="19"/>
-    <col min="12" max="12" width="18.33203125" style="19"/>
-    <col min="13" max="13" width="8.77734375" style="19"/>
-    <col min="14" max="14" width="27.109375" style="19"/>
-    <col min="15" max="1025" width="8.77734375" style="19"/>
+    <col min="1" max="1" width="11.453125" style="19"/>
+    <col min="2" max="2" width="16.453125" style="19"/>
+    <col min="3" max="3" width="17.453125" style="19"/>
+    <col min="4" max="4" width="45.1796875" style="19"/>
+    <col min="5" max="5" width="187.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="19"/>
+    <col min="8" max="8" width="8.81640625" style="19"/>
+    <col min="9" max="9" width="25.36328125" style="19"/>
+    <col min="10" max="10" width="23.08984375" style="19"/>
+    <col min="11" max="11" width="29.08984375" style="19"/>
+    <col min="12" max="12" width="18.36328125" style="19"/>
+    <col min="13" max="13" width="8.81640625" style="19"/>
+    <col min="14" max="14" width="27.08984375" style="19"/>
+    <col min="15" max="1025" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -22888,7 +23685,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
@@ -22930,7 +23727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -22944,7 +23741,7 @@
       <c r="L3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>158</v>
       </c>
@@ -22980,94 +23777,94 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>167</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="F5" s="22" t="s">
         <v>170</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>171</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="L5" s="22" t="s">
         <v>165</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>176</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="22" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="I6" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="L6" s="22" t="s">
         <v>165</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="230.4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>183</v>
+        <v>760</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>184</v>
+        <v>761</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>44</v>
@@ -23078,510 +23875,540 @@
       <c r="L7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14" ht="288" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>199</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
         <v>202</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="360" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>204</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
         <v>205</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>208</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="22" t="s">
-        <v>209</v>
+        <v>770</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>210</v>
+        <v>769</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>211</v>
+        <v>768</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
         <v>209</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>217</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="22" t="s">
-        <v>209</v>
+        <v>770</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>218</v>
+        <v>765</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>219</v>
+        <v>764</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="22" t="s">
-        <v>209</v>
+        <v>772</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>222</v>
+        <v>774</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>223</v>
+        <v>777</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>225</v>
-      </c>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
       <c r="B16" s="1"/>
       <c r="C16" s="22" t="s">
-        <v>209</v>
+        <v>773</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>226</v>
+        <v>775</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>229</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
       <c r="B17" s="1"/>
       <c r="C17" s="22" t="s">
-        <v>209</v>
+        <v>773</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>230</v>
+        <v>776</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="22" t="s">
-        <v>209</v>
+        <v>772</v>
       </c>
       <c r="D18" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="290" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="70"/>
+      <c r="G20" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="71"/>
+      <c r="I20" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" s="71"/>
+      <c r="N20" s="69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="232" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="C26" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="E26" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="F26" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C19" s="24" t="s">
+    </row>
+    <row r="27" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="C27" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E27" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="F27" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" s="24" t="s">
+      <c r="C28" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E28" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="F28" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="22" t="s">
+    </row>
+    <row r="29" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="C29" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="E29" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D22" s="23" t="s">
+      <c r="F29" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="145" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="C30" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="F30" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="E23" s="22" t="s">
+    </row>
+    <row r="31" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="C31" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="E31" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="F31" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="C32" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="E32" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="22" t="s">
+      <c r="F32" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E33" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" s="22" t="s">
+      <c r="E34" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="E26" s="22" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="E35" s="15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="E36" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E27" s="22" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="E37" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" s="22" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E38" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="22" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="22" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E29" s="22" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D30" s="22" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E30" s="22" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="23" t="s">
         <v>278</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -23594,26 +24421,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="11.77734375"/>
-    <col min="3" max="3" width="49.109375"/>
-    <col min="4" max="4" width="100.44140625"/>
-    <col min="5" max="5" width="30.21875"/>
-    <col min="6" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="8.54296875"/>
+    <col min="2" max="2" width="11.81640625"/>
+    <col min="3" max="3" width="49.08984375"/>
+    <col min="4" max="4" width="100.453125"/>
+    <col min="5" max="5" width="30.1796875"/>
+    <col min="6" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>18</v>
@@ -23640,87 +24467,87 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C8" s="26" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="C9" s="26"/>
       <c r="D9" s="1" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="E9" s="26"/>
     </row>
@@ -23734,23 +24561,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="56.21875" customWidth="1"/>
-    <col min="5" max="7" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" customWidth="1"/>
+    <col min="4" max="4" width="56.1796875" customWidth="1"/>
+    <col min="5" max="7" width="38.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>18</v>
@@ -23777,94 +24604,94 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="16"/>
       <c r="D5" s="1" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="16" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="16"/>
       <c r="D7" s="1" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="174" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="16" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="16"/>
       <c r="D9" s="1" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="E9" s="26"/>
     </row>
@@ -23878,21 +24705,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="16.109375" style="1"/>
-    <col min="3" max="3" width="49.109375" style="1"/>
-    <col min="4" max="4" width="38.6640625" style="1"/>
-    <col min="5" max="5" width="81.21875" style="1"/>
-    <col min="6" max="1025" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="16.08984375" style="1"/>
+    <col min="3" max="3" width="49.08984375" style="1"/>
+    <col min="4" max="4" width="38.6328125" style="1"/>
+    <col min="5" max="5" width="81.1796875" style="1"/>
+    <col min="6" max="1025" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -23900,12 +24727,12 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -23916,7 +24743,7 @@
       <c r="E2" s="2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -23924,69 +24751,69 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>159</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="16" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="16" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="22" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>124</v>
       </c>
@@ -23995,40 +24822,40 @@
         <v>125</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
@@ -24041,24 +24868,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
@@ -24087,23 +24914,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="47"/>
-    <col min="4" max="4" width="57.44140625" style="47" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="47"/>
+    <col min="1" max="2" width="9.1796875" style="47"/>
+    <col min="3" max="3" width="49.54296875" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.90625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="47"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -24118,7 +24946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="48"/>
@@ -24126,262 +24954,262 @@
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
     </row>
-    <row r="4" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>660</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>663</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>669</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>672</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>675</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="C18" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="D18" s="47" t="s">
         <v>678</v>
       </c>
-      <c r="C12" s="47" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="C19" s="47" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="D19" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="C13" s="47" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="C20" s="47" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="D20" s="47" t="s">
         <v>684</v>
       </c>
-      <c r="C14" s="47" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="C21" s="47" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="D21" s="47" t="s">
         <v>687</v>
       </c>
-      <c r="C15" s="47" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="C22" s="47" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="D22" s="47" t="s">
         <v>690</v>
       </c>
-      <c r="C16" s="47" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="C23" s="47" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="D23" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="C17" s="47" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>694</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="C24" s="47" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="D24" s="47" t="s">
         <v>696</v>
       </c>
-      <c r="C18" s="47" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="C25" s="47" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>700</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>702</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>703</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>705</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>706</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>708</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>709</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>711</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>712</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>714</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>715</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>718</v>
-      </c>
       <c r="D25" s="47" t="s">
-        <v>719</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -24398,858 +25226,85 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="18.88671875"/>
-    <col min="3" max="3" width="54.5546875"/>
-    <col min="4" max="4" width="46.88671875"/>
-    <col min="5" max="5" width="53.44140625"/>
-    <col min="6" max="6" width="54.77734375"/>
-    <col min="7" max="7" width="89.44140625"/>
-    <col min="8" max="8" width="24.44140625"/>
-    <col min="9" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="24.08984375" style="1"/>
+    <col min="2" max="2" width="17.54296875" style="1"/>
+    <col min="3" max="3" width="31.90625" style="1"/>
+    <col min="4" max="4" width="24.90625" style="1"/>
+    <col min="5" max="1025" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
-        <v>1</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-    </row>
-    <row r="4" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="31" t="s">
-        <v>348</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-    </row>
-    <row r="6" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="30" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:8" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="26" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-    </row>
-    <row r="35" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-    </row>
-    <row r="36" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-    </row>
-    <row r="37" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-    </row>
-    <row r="38" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-    </row>
-    <row r="39" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-    </row>
-    <row r="46" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="30">
-        <v>2</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="G46" s="30"/>
-    </row>
-    <row r="47" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
-      <c r="B47" s="53" t="s">
-        <v>421</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-    </row>
-    <row r="48" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>426</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>427</v>
-      </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-    </row>
-    <row r="49" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="30" t="s">
-        <v>428</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-    </row>
-    <row r="50" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="30"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-    </row>
-    <row r="51" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-    </row>
-    <row r="52" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-    </row>
-    <row r="53" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-    </row>
-    <row r="54" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-    </row>
-    <row r="55" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-    </row>
-    <row r="56" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
-      <c r="B56" s="53" t="s">
-        <v>450</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>451</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>452</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-    </row>
-    <row r="57" spans="1:7" ht="248.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="30" t="s">
+    <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="C1" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-    </row>
-    <row r="58" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30" t="s">
+      <c r="D1" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B11:B39"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="E2:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="773" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Terminologies used" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="780">
   <si>
     <t>Term</t>
   </si>
@@ -587,9 +587,6 @@
   </si>
   <si>
     <t>configuration</t>
-  </si>
-  <si>
-    <t>Capture operating expenses forecast</t>
   </si>
   <si>
     <t>As an administrator I will add following paramters so as to calculate forecasted/actual operating expenses
@@ -784,27 +781,6 @@
     <t>Compute actual revenue per product and update in respective product account of product of any type per day</t>
   </si>
   <si>
-    <t>As a system I will compute the actual revenue  per day as a batch job and update(add) it in the operating profit attribute of product account for that day so that at the end of day I can compare it with forecasted revenue in order to impact pricing of that product as well as contribute/borrow to/from nodal account.</t>
-  </si>
-  <si>
-    <t>PR_20</t>
-  </si>
-  <si>
-    <t>Update actual operating expenses credit balance in Operating expenses account</t>
-  </si>
-  <si>
-    <t>As a system I will calculate operating expenses per product per month for the number of months for which subscriber has made payment, and add it in the credit expenses attribute  of Operating expenses account (by referring to the latest actual expense per product from respective product accounts,which he has added to his basket) when customer makes payment for his subscription.</t>
-  </si>
-  <si>
-    <t>PR_21</t>
-  </si>
-  <si>
-    <t>Update actual operating expenses debit balance in Operating expenses account.</t>
-  </si>
-  <si>
-    <t>????</t>
-  </si>
-  <si>
     <t>PR_22</t>
   </si>
   <si>
@@ -2584,6 +2560,12 @@
   </si>
   <si>
     <t>As a system I will receive payment confirmation for the payments  made on earlier day ,on each day through integration layer as an event for each payment received, in order to process it for reconciliation purpose at business account.</t>
+  </si>
+  <si>
+    <t>As a system I will compute the actual revenue  per day as a batch job and update(add) it in the operating profit attribute of product account for that day so that at the end of day I can compare it with forecasted revenue in order to impact pricing of that product as well as contribute/borrow to/from nodal account. ??????</t>
+  </si>
+  <si>
+    <t>Capture operating expenses forecast?????</t>
   </si>
 </sst>
 </file>
@@ -2655,7 +2637,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2690,6 +2672,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2759,7 +2747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2923,11 +2911,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2940,27 +2952,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3443,7 +3434,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>20</v>
@@ -3472,15 +3463,15 @@
     </row>
     <row r="3" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="20" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -3494,15 +3485,15 @@
     </row>
     <row r="4" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="20" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
@@ -3516,15 +3507,15 @@
     </row>
     <row r="5" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
@@ -3537,50 +3528,50 @@
       <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="66" t="s">
-        <v>470</v>
+      <c r="A6" s="65" t="s">
+        <v>462</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="67" t="s">
-        <v>356</v>
+      <c r="D6" s="66" t="s">
+        <v>348</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="40" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N6" s="40" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="67"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -3593,12 +3584,12 @@
       <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="67"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="20" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
@@ -3611,50 +3602,50 @@
       <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="66" t="s">
-        <v>482</v>
+      <c r="A9" s="65" t="s">
+        <v>474</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="67" t="s">
-        <v>358</v>
+      <c r="D9" s="66" t="s">
+        <v>350</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="40" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="66"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="67"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
@@ -3667,12 +3658,12 @@
       <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="66"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
-      <c r="D11" s="67"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="20" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -3685,50 +3676,50 @@
       <c r="N11" s="38"/>
     </row>
     <row r="12" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="66" t="s">
-        <v>485</v>
+      <c r="A12" s="65" t="s">
+        <v>477</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="67" t="s">
-        <v>359</v>
+      <c r="D12" s="66" t="s">
+        <v>351</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="40" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M12" s="40" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="66"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="67"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -3741,12 +3732,12 @@
       <c r="N13" s="38"/>
     </row>
     <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="66"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="67"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="20" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -3759,50 +3750,50 @@
       <c r="N14" s="38"/>
     </row>
     <row r="15" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66" t="s">
-        <v>488</v>
+      <c r="A15" s="65" t="s">
+        <v>480</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="67" t="s">
-        <v>360</v>
+      <c r="D15" s="66" t="s">
+        <v>352</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="40" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="66"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="67"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -3815,12 +3806,12 @@
       <c r="N16" s="38"/>
     </row>
     <row r="17" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="66"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="67"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="20" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -3833,50 +3824,50 @@
       <c r="N17" s="38"/>
     </row>
     <row r="18" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="66" t="s">
-        <v>491</v>
+      <c r="A18" s="65" t="s">
+        <v>483</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
-      <c r="D18" s="67" t="s">
-        <v>492</v>
+      <c r="D18" s="66" t="s">
+        <v>484</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="40" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J18" s="40" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K18" s="40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M18" s="40" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N18" s="40" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="66"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="67"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -3889,12 +3880,12 @@
       <c r="N19" s="38"/>
     </row>
     <row r="20" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="66"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="67"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="20" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -3907,50 +3898,50 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="66" t="s">
-        <v>495</v>
+      <c r="A21" s="65" t="s">
+        <v>487</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="67" t="s">
-        <v>496</v>
+      <c r="D21" s="66" t="s">
+        <v>488</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="40" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M21" s="40" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N21" s="40" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="66"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
-      <c r="D22" s="67"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -3963,12 +3954,12 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="66"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="67"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="20" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -3981,50 +3972,50 @@
       <c r="N23" s="38"/>
     </row>
     <row r="24" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="66" t="s">
-        <v>499</v>
+      <c r="A24" s="65" t="s">
+        <v>491</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="67" t="s">
-        <v>500</v>
+      <c r="D24" s="66" t="s">
+        <v>492</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="40" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K24" s="40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M24" s="40" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N24" s="40" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="66"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
-      <c r="D25" s="67"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4037,12 +4028,12 @@
       <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A26" s="66"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="67"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="20" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4055,50 +4046,50 @@
       <c r="N26" s="38"/>
     </row>
     <row r="27" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="66" t="s">
-        <v>503</v>
+      <c r="A27" s="65" t="s">
+        <v>495</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
-      <c r="D27" s="67" t="s">
-        <v>504</v>
+      <c r="D27" s="66" t="s">
+        <v>496</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="40" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N27" s="40" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="66"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
-      <c r="D28" s="67"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4111,12 +4102,12 @@
       <c r="N28" s="38"/>
     </row>
     <row r="29" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A29" s="66"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
-      <c r="D29" s="67"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="20" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -4129,50 +4120,50 @@
       <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="66" t="s">
-        <v>507</v>
+      <c r="A30" s="65" t="s">
+        <v>499</v>
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
-      <c r="D30" s="67" t="s">
-        <v>508</v>
+      <c r="D30" s="66" t="s">
+        <v>500</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H30" s="37"/>
       <c r="I30" s="40" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J30" s="40" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K30" s="40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N30" s="40" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="66"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
-      <c r="D31" s="67"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -4185,12 +4176,12 @@
       <c r="N31" s="38"/>
     </row>
     <row r="32" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A32" s="66"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
-      <c r="D32" s="67"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="20" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -4203,50 +4194,50 @@
       <c r="N32" s="38"/>
     </row>
     <row r="33" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="66" t="s">
-        <v>511</v>
+      <c r="A33" s="65" t="s">
+        <v>503</v>
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
-      <c r="D33" s="67" t="s">
-        <v>512</v>
+      <c r="D33" s="66" t="s">
+        <v>504</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H33" s="37"/>
       <c r="I33" s="40" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J33" s="40" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K33" s="40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L33" s="40" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N33" s="40" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="66"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
-      <c r="D34" s="67"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -4259,12 +4250,12 @@
       <c r="N34" s="38"/>
     </row>
     <row r="35" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="66"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
-      <c r="D35" s="67"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="20" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -4277,16 +4268,16 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="66" t="s">
-        <v>515</v>
+      <c r="A36" s="65" t="s">
+        <v>507</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
-      <c r="D36" s="67" t="s">
-        <v>516</v>
+      <c r="D36" s="66" t="s">
+        <v>508</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -4299,12 +4290,12 @@
       <c r="N36" s="38"/>
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="66"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
-      <c r="D37" s="67"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="41" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -4317,12 +4308,12 @@
       <c r="N37" s="38"/>
     </row>
     <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="66"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="67"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="42" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
@@ -4335,88 +4326,88 @@
       <c r="N38" s="43"/>
     </row>
     <row r="39" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A39" s="66"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="67"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="42" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="40" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="K39" s="40" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="L39" s="40" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="N39" s="40" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A40" s="37" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
       <c r="D40" s="39" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H40" s="37"/>
       <c r="I40" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="K40" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="J40" s="40" t="s">
-        <v>526</v>
-      </c>
-      <c r="K40" s="40" t="s">
-        <v>527</v>
-      </c>
       <c r="L40" s="37" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="37" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
       <c r="D41" s="20" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -4430,15 +4421,15 @@
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="37" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
       <c r="D42" s="20" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -4452,15 +4443,15 @@
     </row>
     <row r="43" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="37" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
       <c r="D43" s="20" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -4474,15 +4465,15 @@
     </row>
     <row r="44" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="37" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
       <c r="D44" s="39" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -4496,129 +4487,129 @@
     </row>
     <row r="45" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="37" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
       <c r="D45" s="39" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="37" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="J45" s="37" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="K45" s="37" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="L45" s="37" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M45" s="37" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="N45" s="37" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="37" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
       <c r="D46" s="39" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="37" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="J46" s="37" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="K46" s="37" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="L46" s="37" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M46" s="37" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="N46" s="37" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A47" s="37" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
       <c r="D47" s="39" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H47" s="37"/>
       <c r="I47" s="37" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="J47" s="37" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="K47" s="37" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="L47" s="37" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M47" s="37" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="N47" s="37" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="37" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
       <c r="D48" s="20" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -4632,91 +4623,91 @@
     </row>
     <row r="49" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A49" s="37" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
       <c r="D49" s="39" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="J49" s="37" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="K49" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="L49" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="M49" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="L49" s="37" t="s">
-        <v>477</v>
-      </c>
-      <c r="M49" s="37" t="s">
-        <v>553</v>
-      </c>
       <c r="N49" s="37" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="37" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
       <c r="D50" s="39" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="37" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="J50" s="37" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="K50" s="37" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="N50" s="37" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="37" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
       <c r="D51" s="20" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -4730,15 +4721,15 @@
     </row>
     <row r="52" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A52" s="37" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
       <c r="D52" s="20" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -4752,15 +4743,15 @@
     </row>
     <row r="53" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="37" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="20" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -4774,15 +4765,15 @@
     </row>
     <row r="54" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" s="37" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
       <c r="D54" s="20" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -4796,15 +4787,15 @@
     </row>
     <row r="55" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="37" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
       <c r="D55" s="20" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -4818,15 +4809,15 @@
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="37" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
       <c r="D56" s="20" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -4840,53 +4831,53 @@
     </row>
     <row r="57" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A57" s="37" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
       <c r="D57" s="39" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H57" s="37"/>
       <c r="I57" s="37" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="J57" s="37" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="K57" s="37" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="L57" s="37" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M57" s="37" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="N57" s="37" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="37" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
       <c r="D58" s="20" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -4900,15 +4891,15 @@
     </row>
     <row r="59" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
       <c r="D59" s="20" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -5098,6 +5089,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D21:D23"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="A36:A39"/>
@@ -5108,18 +5111,6 @@
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5191,12 +5182,12 @@
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -5230,7 +5221,7 @@
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -5280,7 +5271,7 @@
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
       <c r="D8" s="37" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
@@ -5298,7 +5289,7 @@
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
@@ -5316,7 +5307,7 @@
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
@@ -5334,7 +5325,7 @@
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
@@ -5368,7 +5359,7 @@
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -5386,7 +5377,7 @@
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
@@ -5404,7 +5395,7 @@
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -5422,7 +5413,7 @@
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
@@ -5456,7 +5447,7 @@
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -5474,7 +5465,7 @@
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -5508,7 +5499,7 @@
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -5526,7 +5517,7 @@
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -5560,7 +5551,7 @@
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -5578,7 +5569,7 @@
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
@@ -5596,7 +5587,7 @@
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
@@ -5871,7 +5862,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -5905,22 +5896,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -5928,19 +5919,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -5948,19 +5939,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -5968,19 +5959,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -5988,19 +5979,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6008,17 +5999,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6026,17 +6017,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6047,10 +6038,10 @@
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -6061,7 +6052,7 @@
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F10" s="37"/>
     </row>
@@ -6073,7 +6064,7 @@
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F11" s="37"/>
     </row>
@@ -6112,7 +6103,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="38"/>
       <c r="B16" s="46" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -6121,48 +6112,48 @@
     </row>
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="38"/>
-      <c r="B17" s="68" t="s">
-        <v>629</v>
-      </c>
-      <c r="C17" s="68"/>
+      <c r="B17" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C17" s="67"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38"/>
-      <c r="B18" s="68" t="s">
-        <v>630</v>
-      </c>
-      <c r="C18" s="68"/>
+      <c r="B18" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="C18" s="67"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:6" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="38"/>
-      <c r="B19" s="68" t="s">
-        <v>631</v>
-      </c>
-      <c r="C19" s="68"/>
+      <c r="B19" s="67" t="s">
+        <v>623</v>
+      </c>
+      <c r="C19" s="67"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38"/>
-      <c r="B20" s="68" t="s">
-        <v>632</v>
-      </c>
-      <c r="C20" s="68"/>
+      <c r="B20" s="67" t="s">
+        <v>624</v>
+      </c>
+      <c r="C20" s="67"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="38"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -6243,195 +6234,195 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
-      <c r="B2" s="61" t="s">
-        <v>317</v>
+      <c r="B2" s="69" t="s">
+        <v>309</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62" t="s">
-        <v>322</v>
+        <v>311</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="30" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+        <v>316</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="1:8" ht="64.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
-      <c r="B4" s="61"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="31" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="G4" s="64"/>
+        <v>319</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
-      <c r="B5" s="61"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="31" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
+        <v>323</v>
+      </c>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
-      <c r="B6" s="61"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="31" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="F6" s="63"/>
+        <v>326</v>
+      </c>
+      <c r="F6" s="71"/>
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A7" s="30"/>
-      <c r="B7" s="61"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="30" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="F7" s="63"/>
+        <v>329</v>
+      </c>
+      <c r="F7" s="71"/>
       <c r="G7" s="30" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A8" s="30"/>
-      <c r="B8" s="61"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="30" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="F8" s="63"/>
+        <v>332</v>
+      </c>
+      <c r="F8" s="71"/>
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:8" ht="169" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
-      <c r="B9" s="61"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="30" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="26" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
       <c r="B10" s="33"/>
       <c r="C10" s="30" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
-      <c r="B11" s="65" t="s">
-        <v>350</v>
+      <c r="B11" s="68" t="s">
+        <v>342</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -6439,12 +6430,12 @@
     </row>
     <row r="12" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
-      <c r="B12" s="65"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="30" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -6452,12 +6443,12 @@
     </row>
     <row r="13" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A13" s="30"/>
-      <c r="B13" s="65"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="30" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -6465,12 +6456,12 @@
     </row>
     <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
-      <c r="B14" s="65"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="30" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -6478,12 +6469,12 @@
     </row>
     <row r="15" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A15" s="30"/>
-      <c r="B15" s="65"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="30" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -6491,12 +6482,12 @@
     </row>
     <row r="16" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="30"/>
-      <c r="B16" s="65"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="30" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -6504,12 +6495,12 @@
     </row>
     <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="30"/>
-      <c r="B17" s="65"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="30" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -6517,12 +6508,12 @@
     </row>
     <row r="18" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A18" s="30"/>
-      <c r="B18" s="65"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="30" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -6530,12 +6521,12 @@
     </row>
     <row r="19" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A19" s="30"/>
-      <c r="B19" s="65"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="30" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -6543,12 +6534,12 @@
     </row>
     <row r="20" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A20" s="30"/>
-      <c r="B20" s="65"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -6556,12 +6547,12 @@
     </row>
     <row r="21" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A21" s="30"/>
-      <c r="B21" s="65"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="30" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -6569,12 +6560,12 @@
     </row>
     <row r="22" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A22" s="30"/>
-      <c r="B22" s="65"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="30" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -6582,12 +6573,12 @@
     </row>
     <row r="23" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A23" s="30"/>
-      <c r="B23" s="65"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="30" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -6595,12 +6586,12 @@
     </row>
     <row r="24" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A24" s="30"/>
-      <c r="B24" s="65"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="30" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -6608,12 +6599,12 @@
     </row>
     <row r="25" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="30"/>
-      <c r="B25" s="65"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="30" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -6621,12 +6612,12 @@
     </row>
     <row r="26" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A26" s="30"/>
-      <c r="B26" s="65"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="30" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -6634,12 +6625,12 @@
     </row>
     <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="30"/>
-      <c r="B27" s="65"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="30" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -6647,12 +6638,12 @@
     </row>
     <row r="28" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
-      <c r="B28" s="65"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="30" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -6660,12 +6651,12 @@
     </row>
     <row r="29" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="30"/>
-      <c r="B29" s="65"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="30" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -6673,12 +6664,12 @@
     </row>
     <row r="30" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A30" s="30"/>
-      <c r="B30" s="65"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="30" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -6686,12 +6677,12 @@
     </row>
     <row r="31" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
-      <c r="B31" s="65"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="30" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -6699,12 +6690,12 @@
     </row>
     <row r="32" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A32" s="30"/>
-      <c r="B32" s="65"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="30" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -6712,12 +6703,12 @@
     </row>
     <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A33" s="30"/>
-      <c r="B33" s="65"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="30" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -6725,12 +6716,12 @@
     </row>
     <row r="34" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A34" s="30"/>
-      <c r="B34" s="65"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="30" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -6738,12 +6729,12 @@
     </row>
     <row r="35" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A35" s="30"/>
-      <c r="B35" s="65"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="30" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -6751,12 +6742,12 @@
     </row>
     <row r="36" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A36" s="30"/>
-      <c r="B36" s="65"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="30" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -6764,12 +6755,12 @@
     </row>
     <row r="37" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A37" s="30"/>
-      <c r="B37" s="65"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
@@ -6777,12 +6768,12 @@
     </row>
     <row r="38" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A38" s="30"/>
-      <c r="B38" s="65"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="30" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
@@ -6790,12 +6781,12 @@
     </row>
     <row r="39" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A39" s="30"/>
-      <c r="B39" s="65"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="30" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
@@ -6863,122 +6854,122 @@
         <v>38</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="30"/>
-      <c r="B47" s="61" t="s">
-        <v>402</v>
+      <c r="B47" s="69" t="s">
+        <v>394</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A48" s="30"/>
-      <c r="B48" s="61"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="30" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
     </row>
     <row r="49" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A49" s="30"/>
-      <c r="B49" s="61"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="30" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7" ht="104" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
-      <c r="B50" s="61"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="30" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
     </row>
     <row r="51" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A51" s="30"/>
-      <c r="B51" s="61"/>
+      <c r="B51" s="69"/>
       <c r="C51" s="30" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
     </row>
     <row r="52" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A52" s="30"/>
-      <c r="B52" s="61"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="30" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A53" s="30"/>
-      <c r="B53" s="61"/>
+      <c r="B53" s="69"/>
       <c r="C53" s="32" t="s">
         <v>89</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="30"/>
@@ -6986,16 +6977,16 @@
     <row r="54" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A54" s="30"/>
       <c r="B54" s="30" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
@@ -7003,48 +6994,48 @@
     <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A55" s="30"/>
       <c r="B55" s="30" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
     </row>
     <row r="56" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="30"/>
-      <c r="B56" s="61" t="s">
-        <v>431</v>
+      <c r="B56" s="69" t="s">
+        <v>423</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F56" s="30"/>
       <c r="G56" s="30"/>
     </row>
     <row r="57" spans="1:7" ht="234" x14ac:dyDescent="0.35">
       <c r="A57" s="30"/>
-      <c r="B57" s="61"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="30" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
@@ -7052,7 +7043,7 @@
     <row r="58" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A58" s="30"/>
       <c r="B58" s="30" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
@@ -7062,16 +7053,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="B11:B39"/>
     <mergeCell ref="B47:B53"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7093,7 +7084,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -7101,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -7109,7 +7100,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -7117,7 +7108,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -7125,7 +7116,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7133,7 +7124,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -7141,7 +7132,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7149,7 +7140,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7157,7 +7148,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -7165,7 +7156,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7173,7 +7164,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -7181,7 +7172,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7189,7 +7180,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7197,7 +7188,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -7205,7 +7196,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7213,7 +7204,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -7226,7 +7217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
@@ -7285,14 +7276,14 @@
     </row>
     <row r="3" spans="1:1024" ht="39" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B3"/>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>29</v>
@@ -8331,12 +8322,12 @@
     </row>
     <row r="4" spans="1:1024" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
       <c r="D4" s="11" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>29</v>
@@ -9375,7 +9366,7 @@
     </row>
     <row r="5" spans="1:1024" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -10419,14 +10410,14 @@
     </row>
     <row r="6" spans="1:1024" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="51" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>38</v>
@@ -11465,12 +11456,12 @@
     </row>
     <row r="7" spans="1:1024" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="51"/>
       <c r="D7" s="52" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="E7" s="53" t="s">
         <v>38</v>
@@ -12499,7 +12490,7 @@
     </row>
     <row r="8" spans="1:1024" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="51"/>
@@ -13543,12 +13534,12 @@
     </row>
     <row r="9" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B9"/>
       <c r="C9" s="51"/>
       <c r="D9" s="52" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="54" t="s">
@@ -14575,14 +14566,14 @@
     </row>
     <row r="10" spans="1:1024" ht="78.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="B10"/>
       <c r="C10" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="E10" s="53"/>
       <c r="F10" s="54" t="s">
@@ -15619,14 +15610,14 @@
     </row>
     <row r="11" spans="1:1024" ht="52" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B11"/>
       <c r="C11" s="51" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="E11" s="51" t="s">
         <v>55</v>
@@ -17706,7 +17697,7 @@
       <c r="B13"/>
       <c r="C13" s="55"/>
       <c r="D13" s="55" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
@@ -18740,7 +18731,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="9" t="s">
@@ -19772,7 +19763,7 @@
       <c r="B15"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="9" t="s">
@@ -21838,7 +21829,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="E17" s="55" t="s">
         <v>62</v>
@@ -22872,7 +22863,7 @@
       <c r="B18" s="53"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="54" t="s">
@@ -22886,7 +22877,7 @@
       <c r="B19" s="56"/>
       <c r="C19" s="56"/>
       <c r="D19" s="51" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="54" t="s">
@@ -22900,7 +22891,7 @@
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
       <c r="D20" s="51" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="54" t="s">
@@ -22914,7 +22905,7 @@
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
       <c r="D21" s="51" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="54" t="s">
@@ -22942,7 +22933,7 @@
       <c r="B23" s="56"/>
       <c r="C23" s="56"/>
       <c r="D23" s="51" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="E23" s="51"/>
       <c r="F23" s="54" t="s">
@@ -22970,7 +22961,7 @@
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
       <c r="D25" s="51" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="54" t="s">
@@ -22984,7 +22975,7 @@
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
       <c r="D26" s="51" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="54" t="s">
@@ -22998,7 +22989,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
@@ -23026,7 +23017,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="9" t="s">
@@ -23072,7 +23063,7 @@
         <v>94</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="9" t="s">
@@ -23144,7 +23135,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
@@ -23158,7 +23149,7 @@
       <c r="B38" s="1"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="7"/>
@@ -23170,7 +23161,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="7" t="s">
@@ -23186,7 +23177,7 @@
         <v>109</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="7" t="s">
@@ -23200,7 +23191,7 @@
       <c r="B41" s="1"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="7"/>
@@ -23212,7 +23203,7 @@
       <c r="B42" s="1"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="7" t="s">
@@ -23226,7 +23217,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="8"/>
       <c r="D43" s="7" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="7" t="s">
@@ -23240,7 +23231,7 @@
       <c r="B44" s="1"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="7"/>
@@ -23252,7 +23243,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="7" t="s">
@@ -23261,7 +23252,7 @@
     </row>
     <row r="46" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="7" t="s">
@@ -23277,12 +23268,12 @@
     </row>
     <row r="47" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="8" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="7" t="s">
@@ -23291,24 +23282,24 @@
     </row>
     <row r="48" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="8" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="8" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="7"/>
@@ -23330,7 +23321,7 @@
         <v>122</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="9" t="s">
@@ -23348,7 +23339,7 @@
         <v>125</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="9" t="s">
@@ -23364,7 +23355,7 @@
         <v>127</v>
       </c>
       <c r="D53" s="57" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E53" s="58"/>
       <c r="F53" s="12" t="s">
@@ -23394,7 +23385,7 @@
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
       <c r="D55" s="57" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="E55" s="58"/>
       <c r="F55" s="12" t="s">
@@ -23501,7 +23492,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="63" t="s">
         <v>135</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -23510,28 +23501,28 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C4" s="59"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="17" t="s">
         <v>137</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="C5" s="59"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="17" t="s">
         <v>138</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C6" s="59"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="C7" s="59"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="4" t="s">
         <v>140</v>
       </c>
@@ -23585,7 +23576,7 @@
       <c r="E14"/>
     </row>
     <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="64" t="s">
         <v>147</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -23596,37 +23587,37 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="C16" s="60"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C17" s="60"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C18" s="60"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C19" s="60"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="C20" s="60"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="C21" s="60"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="1" t="s">
         <v>155</v>
       </c>
@@ -23643,10 +23634,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK46"/>
+  <dimension ref="A1:AMK44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -23656,7 +23647,7 @@
     <col min="2" max="2" width="16.453125" style="19"/>
     <col min="3" max="3" width="17.453125" style="19"/>
     <col min="4" max="4" width="45.1796875" style="19"/>
-    <col min="5" max="5" width="187.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="112.6328125" style="19" customWidth="1"/>
     <col min="6" max="6" width="28.54296875" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" style="19"/>
     <col min="8" max="8" width="8.81640625" style="19"/>
@@ -23741,7 +23732,7 @@
       <c r="L3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>158</v>
       </c>
@@ -23777,13 +23768,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>167</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="22" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>168</v>
@@ -23813,7 +23804,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>175</v>
       </c>
@@ -23825,7 +23816,7 @@
         <v>176</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>177</v>
@@ -23849,7 +23840,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>179</v>
       </c>
@@ -23858,10 +23849,10 @@
         <v>180</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>177</v>
@@ -23877,538 +23868,524 @@
     </row>
     <row r="8" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="24" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>195</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="22" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="22" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>199</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="22" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>201</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="22" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="F11" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="22" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="22" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="22" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="F14" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
-        <v>211</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="22" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="1"/>
       <c r="C16" s="22" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
       <c r="B17" s="1"/>
       <c r="C17" s="22" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>780</v>
-      </c>
       <c r="E18" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="22" t="s">
+    </row>
+    <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
-        <v>216</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="22" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F19" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="261" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>779</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="61"/>
+      <c r="I21" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" s="61"/>
+      <c r="N21" s="59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="290" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="J20" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="K20" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="L20" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="M20" s="71"/>
-      <c r="N20" s="69" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="232" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="B22" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="C22" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D22" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="E22" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="F22" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+    </row>
+    <row r="23" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="59" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+    </row>
+    <row r="24" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="C24" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E24" s="23" t="s">
+    </row>
+    <row r="25" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="23" t="s">
+      <c r="C25" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" s="22" t="s">
+      <c r="E25" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="F25" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
+      <c r="C26" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="22" t="s">
+      <c r="E26" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="F26" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="F26" s="22" t="s">
+    </row>
+    <row r="27" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
+      <c r="C27" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="E27" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="F27" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
+      <c r="C28" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="22" t="s">
+      <c r="E28" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="F28" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="F28" s="22" t="s">
+    </row>
+    <row r="29" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="116" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
+      <c r="C29" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="22" t="s">
+      <c r="E29" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="F29" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="145" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
+      <c r="C30" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="22" t="s">
+      <c r="E30" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="F30" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="E31" s="15" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
+    <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D31" s="22" t="s">
+      <c r="E32" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="22" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
+      <c r="E33" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" s="22" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E34" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="23" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="23" t="s">
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="23" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="E35" s="15" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="23" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -24440,7 +24417,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>18</v>
@@ -24469,85 +24446,85 @@
     </row>
     <row r="2" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C8" s="26" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="C9" s="26"/>
       <c r="D9" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E9" s="26"/>
     </row>
@@ -24577,7 +24554,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>18</v>
@@ -24606,72 +24583,72 @@
     </row>
     <row r="2" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="16"/>
       <c r="D5" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="16" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="16"/>
       <c r="D7" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E7" s="26"/>
     </row>
@@ -24679,10 +24656,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="16" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E8" s="26"/>
     </row>
@@ -24691,7 +24668,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="16"/>
       <c r="D9" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E9" s="26"/>
     </row>
@@ -24732,7 +24709,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -24757,60 +24734,60 @@
       </c>
       <c r="B4"/>
       <c r="C4" s="16" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="16" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="22" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
@@ -24822,40 +24799,40 @@
         <v>125</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
@@ -24870,14 +24847,14 @@
     </row>
     <row r="12" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>44</v>
@@ -24885,7 +24862,7 @@
     </row>
     <row r="13" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
@@ -24928,10 +24905,10 @@
   <sheetData>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -24956,260 +24933,260 @@
     </row>
     <row r="4" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -25243,60 +25220,60 @@
   <sheetData>
     <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="791">
   <si>
     <t xml:space="preserve">Term</t>
   </si>
@@ -2616,7 +2616,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2681,12 +2681,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2796,7 +2790,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2949,10 +2943,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2973,7 +2963,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3021,7 +3011,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3037,7 +3027,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3127,8 +3117,8 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="107.012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="107.975708502024"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -3227,18 +3217,18 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.1295546558704"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3258,7 +3248,7 @@
       <c r="E2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>479</v>
       </c>
       <c r="G2" s="24" t="s">
@@ -3287,1630 +3277,1630 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="24" t="s">
         <v>481</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>483</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="24" t="s">
         <v>484</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="24" t="s">
         <v>486</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="42" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="41" t="s">
         <v>489</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>490</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="43" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="42" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="42"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="42" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41" t="s">
         <v>502</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="43" t="s">
+      <c r="H9" s="39"/>
+      <c r="I9" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="L9" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="N9" s="43" t="s">
+      <c r="N9" s="42" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="42"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="42"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="42" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="41" t="s">
         <v>506</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="43" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="L12" s="43" t="s">
+      <c r="L12" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="M12" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="N12" s="43" t="s">
+      <c r="N12" s="42" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="42"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="42"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="42" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="41" t="s">
         <v>510</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="43" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="L15" s="43" t="s">
+      <c r="L15" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="M15" s="43" t="s">
+      <c r="M15" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="N15" s="43" t="s">
+      <c r="N15" s="42" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="42"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="42"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="42" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="41" t="s">
         <v>514</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="43" t="s">
+      <c r="H18" s="39"/>
+      <c r="I18" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="L18" s="43" t="s">
+      <c r="L18" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="M18" s="43" t="s">
+      <c r="M18" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="N18" s="43" t="s">
+      <c r="N18" s="42" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="42"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
     </row>
     <row r="20" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="42"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>517</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="42" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="41" t="s">
         <v>518</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="43" t="s">
+      <c r="H21" s="39"/>
+      <c r="I21" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="L21" s="43" t="s">
+      <c r="L21" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="M21" s="43" t="s">
+      <c r="M21" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="N21" s="43" t="s">
+      <c r="N21" s="42" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="42"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="42"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="42" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="41" t="s">
         <v>522</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="43" t="s">
+      <c r="H24" s="39"/>
+      <c r="I24" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="K24" s="43" t="s">
+      <c r="K24" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="L24" s="43" t="s">
+      <c r="L24" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="M24" s="43" t="s">
+      <c r="M24" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="N24" s="43" t="s">
+      <c r="N24" s="42" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="42"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="42"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
     </row>
     <row r="27" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="42" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="41" t="s">
         <v>526</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="39"/>
+      <c r="I27" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="J27" s="43" t="s">
+      <c r="J27" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="K27" s="43" t="s">
+      <c r="K27" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="L27" s="43" t="s">
+      <c r="L27" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="M27" s="43" t="s">
+      <c r="M27" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="N27" s="43" t="s">
+      <c r="N27" s="42" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="42"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
     </row>
     <row r="29" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="42"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
     </row>
     <row r="30" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="42" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="41" t="s">
         <v>530</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="43" t="s">
+      <c r="H30" s="39"/>
+      <c r="I30" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="J30" s="43" t="s">
+      <c r="J30" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="K30" s="43" t="s">
+      <c r="K30" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="L30" s="43" t="s">
+      <c r="L30" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="M30" s="43" t="s">
+      <c r="M30" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="N30" s="43" t="s">
+      <c r="N30" s="42" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="42"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
     </row>
     <row r="32" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="42"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
     </row>
     <row r="33" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="39" t="s">
         <v>533</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="42" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="41" t="s">
         <v>534</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="43" t="s">
+      <c r="H33" s="39"/>
+      <c r="I33" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="J33" s="43" t="s">
+      <c r="J33" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="K33" s="43" t="s">
+      <c r="K33" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="L33" s="43" t="s">
+      <c r="L33" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="M33" s="43" t="s">
+      <c r="M33" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="N33" s="43" t="s">
+      <c r="N33" s="42" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="42"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
     </row>
     <row r="35" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="42"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
     </row>
     <row r="36" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="42" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="41" t="s">
         <v>538</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
     </row>
     <row r="37" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="44" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="43" t="s">
         <v>540</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="45" t="s">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="45" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43" t="s">
+      <c r="H39" s="42"/>
+      <c r="I39" s="42" t="s">
         <v>543</v>
       </c>
-      <c r="J39" s="43" t="s">
+      <c r="J39" s="42" t="s">
         <v>544</v>
       </c>
-      <c r="K39" s="43" t="s">
+      <c r="K39" s="42" t="s">
         <v>545</v>
       </c>
-      <c r="L39" s="43" t="s">
+      <c r="L39" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="M39" s="43" t="s">
+      <c r="M39" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="N39" s="43" t="s">
+      <c r="N39" s="42" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="42" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="41" t="s">
         <v>549</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40" t="s">
+      <c r="H40" s="39"/>
+      <c r="I40" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="J40" s="43" t="s">
+      <c r="J40" s="42" t="s">
         <v>550</v>
       </c>
-      <c r="K40" s="43" t="s">
+      <c r="K40" s="42" t="s">
         <v>551</v>
       </c>
-      <c r="L40" s="40" t="s">
+      <c r="L40" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="M40" s="40" t="s">
+      <c r="M40" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="N40" s="40" t="s">
+      <c r="N40" s="39" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="24" t="s">
         <v>555</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
     <row r="42" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="39" t="s">
         <v>557</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="24" t="s">
         <v>558</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
     </row>
     <row r="43" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>560</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="24" t="s">
         <v>561</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
     </row>
     <row r="44" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="39" t="s">
         <v>562</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="42" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="47" t="s">
         <v>564</v>
       </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
     </row>
     <row r="45" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="39" t="s">
         <v>565</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="42" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G45" s="40" t="s">
+      <c r="G45" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40" t="s">
+      <c r="H45" s="39"/>
+      <c r="I45" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="J45" s="40" t="s">
+      <c r="J45" s="39" t="s">
         <v>568</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="K45" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="L45" s="40" t="s">
+      <c r="L45" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="M45" s="40" t="s">
+      <c r="M45" s="39" t="s">
         <v>570</v>
       </c>
-      <c r="N45" s="40" t="s">
+      <c r="N45" s="39" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="39" t="s">
         <v>572</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="42" t="s">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="41" t="s">
         <v>573</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G46" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40" t="s">
+      <c r="H46" s="39"/>
+      <c r="I46" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="J46" s="40" t="s">
+      <c r="J46" s="39" t="s">
         <v>575</v>
       </c>
-      <c r="K46" s="40" t="s">
+      <c r="K46" s="39" t="s">
         <v>576</v>
       </c>
-      <c r="L46" s="40" t="s">
+      <c r="L46" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="M46" s="40" t="s">
+      <c r="M46" s="39" t="s">
         <v>577</v>
       </c>
-      <c r="N46" s="40" t="s">
+      <c r="N46" s="39" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="39" t="s">
         <v>579</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="42" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="47" t="s">
         <v>581</v>
       </c>
-      <c r="F47" s="40" t="s">
+      <c r="F47" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G47" s="40" t="s">
+      <c r="G47" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40" t="s">
+      <c r="H47" s="39"/>
+      <c r="I47" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="J47" s="40" t="s">
+      <c r="J47" s="39" t="s">
         <v>575</v>
       </c>
-      <c r="K47" s="40" t="s">
+      <c r="K47" s="39" t="s">
         <v>576</v>
       </c>
-      <c r="L47" s="40" t="s">
+      <c r="L47" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="M47" s="40" t="s">
+      <c r="M47" s="39" t="s">
         <v>577</v>
       </c>
-      <c r="N47" s="40" t="s">
+      <c r="N47" s="39" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="24" t="s">
         <v>583</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
     </row>
     <row r="49" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="39" t="s">
         <v>585</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="42" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="41" t="s">
         <v>586</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="F49" s="40" t="s">
+      <c r="F49" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G49" s="40" t="s">
+      <c r="G49" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40" t="s">
+      <c r="H49" s="39"/>
+      <c r="I49" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="J49" s="40" t="s">
+      <c r="J49" s="39" t="s">
         <v>575</v>
       </c>
-      <c r="K49" s="40" t="s">
+      <c r="K49" s="39" t="s">
         <v>576</v>
       </c>
-      <c r="L49" s="40" t="s">
+      <c r="L49" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="M49" s="40" t="s">
+      <c r="M49" s="39" t="s">
         <v>588</v>
       </c>
-      <c r="N49" s="40" t="s">
+      <c r="N49" s="39" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="39" t="s">
         <v>590</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="42" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="47" t="s">
         <v>592</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G50" s="40" t="s">
+      <c r="G50" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40" t="s">
+      <c r="H50" s="39"/>
+      <c r="I50" s="39" t="s">
         <v>593</v>
       </c>
-      <c r="J50" s="40" t="s">
+      <c r="J50" s="39" t="s">
         <v>594</v>
       </c>
-      <c r="K50" s="40" t="s">
+      <c r="K50" s="39" t="s">
         <v>595</v>
       </c>
-      <c r="L50" s="40" t="s">
+      <c r="L50" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="M50" s="40" t="s">
+      <c r="M50" s="39" t="s">
         <v>596</v>
       </c>
-      <c r="N50" s="40" t="s">
+      <c r="N50" s="39" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>598</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="24" t="s">
         <v>599</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
     </row>
     <row r="52" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="39" t="s">
         <v>601</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="24" t="s">
         <v>602</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
     </row>
     <row r="53" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="39" t="s">
         <v>603</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="24" t="s">
         <v>604</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
     </row>
     <row r="54" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="39" t="s">
         <v>606</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="24" t="s">
         <v>607</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
     </row>
     <row r="55" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="39" t="s">
         <v>608</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="24" t="s">
         <v>609</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>610</v>
       </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
     </row>
     <row r="56" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="39" t="s">
         <v>611</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="24" t="s">
         <v>612</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>613</v>
       </c>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
     </row>
     <row r="57" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="39" t="s">
         <v>614</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="42" t="s">
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="41" t="s">
         <v>615</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40" t="s">
+      <c r="H57" s="39"/>
+      <c r="I57" s="39" t="s">
         <v>593</v>
       </c>
-      <c r="J57" s="40" t="s">
+      <c r="J57" s="39" t="s">
         <v>594</v>
       </c>
-      <c r="K57" s="40" t="s">
+      <c r="K57" s="39" t="s">
         <v>595</v>
       </c>
-      <c r="L57" s="40" t="s">
+      <c r="L57" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="M57" s="40" t="s">
+      <c r="M57" s="39" t="s">
         <v>596</v>
       </c>
-      <c r="N57" s="40" t="s">
+      <c r="N57" s="39" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="39" t="s">
         <v>617</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="24" t="s">
         <v>618</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
     </row>
     <row r="59" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="24" t="s">
         <v>620</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -4961,10 +4951,10 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.1295546558704"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
@@ -4986,7 +4976,7 @@
       <c r="E2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="24" t="s">
         <v>20</v>
       </c>
@@ -5013,664 +5003,664 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39" t="s">
         <v>622</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39" t="s">
         <v>623</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39" t="s">
         <v>624</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39" t="s">
         <v>625</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39" t="s">
         <v>626</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39" t="s">
         <v>627</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39" t="s">
         <v>628</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39" t="s">
         <v>629</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39" t="s">
         <v>630</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
     </row>
     <row r="16" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39" t="s">
         <v>631</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39" t="s">
         <v>632</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39" t="s">
         <v>633</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
     </row>
     <row r="22" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39" t="s">
         <v>635</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39" t="s">
         <v>636</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
     </row>
     <row r="25" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39" t="s">
         <v>637</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39" t="s">
         <v>638</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5696,7 +5686,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -5730,317 +5720,317 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>640</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>641</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>642</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>644</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="48" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="n">
+      <c r="A3" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>646</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>647</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>648</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>649</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="n">
+      <c r="A4" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>651</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>652</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>653</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>654</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="n">
+      <c r="A5" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>656</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>657</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>658</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="n">
+      <c r="A6" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>664</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="n">
+      <c r="A7" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>666</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>667</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="39" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="n">
+      <c r="A8" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>670</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>671</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="n">
+      <c r="A9" s="40" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39" t="s">
         <v>674</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="39" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="n">
+      <c r="A10" s="40" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="n">
+      <c r="A11" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41"/>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="49" t="s">
         <v>678</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="50" t="s">
         <v>680</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="50" t="s">
         <v>681</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="50" t="s">
         <v>682</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6074,834 +6064,834 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.3076923076923"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.7004048582996"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="91.0526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="91.8016194331984"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>684</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>685</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>686</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>687</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="51" t="s">
         <v>688</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="51" t="s">
         <v>689</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53" t="s">
         <v>691</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>692</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>693</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>694</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>695</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="66.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="n">
+      <c r="A3" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53" t="s">
         <v>697</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>698</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" customFormat="false" ht="64.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="55" t="s">
         <v>699</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>700</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="55" t="s">
         <v>701</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>702</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="55" t="s">
         <v>703</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>704</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>705</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="56" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="55" t="s">
         <v>706</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>707</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="55" t="s">
         <v>708</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53" t="s">
         <v>709</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>710</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>711</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="53" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53" t="s">
         <v>713</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>710</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>714</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" customFormat="false" ht="169" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53" t="s">
         <v>715</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>716</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="53" t="s">
         <v>717</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="33" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="54" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="53" t="s">
         <v>719</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>720</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>721</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="53" t="s">
         <v>722</v>
       </c>
-      <c r="G10" s="54"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="0" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="58" t="s">
         <v>724</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>482</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="54" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="53" t="s">
         <v>484</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>482</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="54"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="54" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="53" t="s">
         <v>486</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>487</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="54"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="54" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="53" t="s">
         <v>489</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>725</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="54"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="54" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="53" t="s">
         <v>502</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>725</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="54" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>725</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="54"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="54" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="53" t="s">
         <v>510</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="53" t="s">
         <v>725</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="54"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="54" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="53" t="s">
         <v>539</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="59" t="s">
         <v>540</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="54"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="54" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="53" t="s">
         <v>726</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="53" t="s">
         <v>487</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="54"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="54" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="53" t="s">
         <v>555</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="53" t="s">
         <v>556</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="54"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="54" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="53" t="s">
         <v>558</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="53" t="s">
         <v>559</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="54"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="54" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="53" t="s">
         <v>561</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="53" t="s">
         <v>559</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="54"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="54" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="53" t="s">
         <v>727</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="47" t="s">
         <v>592</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="54"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="54" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="53" t="s">
         <v>566</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="54"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="54" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="53" t="s">
         <v>728</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="54"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="54" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="53" t="s">
         <v>580</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="47" t="s">
         <v>730</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="54"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="54" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="53" t="s">
         <v>583</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="53" t="s">
         <v>584</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="54"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="54" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="53" t="s">
         <v>586</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="47" t="s">
         <v>730</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="54"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="54" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="53" t="s">
         <v>591</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="47" t="s">
         <v>592</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="54"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="54" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="53" t="s">
         <v>599</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="54"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="54" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="53" t="s">
         <v>482</v>
       </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="54"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="54" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="53" t="s">
         <v>731</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="53" t="s">
         <v>605</v>
       </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="54"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="54" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="53" t="s">
         <v>607</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="53" t="s">
         <v>605</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="54"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="54" t="s">
+      <c r="A34" s="53"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="53" t="s">
         <v>609</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="53" t="s">
         <v>610</v>
       </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
     </row>
     <row r="35" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="54"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="54" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="53" t="s">
         <v>612</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="53" t="s">
         <v>613</v>
       </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="54"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="54" t="s">
+      <c r="A36" s="53"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="53" t="s">
         <v>615</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="54"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="54" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="53" t="s">
         <v>618</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="53" t="s">
         <v>605</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="54"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="54" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="53" t="s">
         <v>621</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="54"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="54" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="53" t="s">
         <v>733</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="53" t="s">
         <v>734</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="54"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="54"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="54"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="54"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="54"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="54"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="54" t="n">
+      <c r="A46" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="53" t="s">
         <v>735</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="53" t="s">
         <v>736</v>
       </c>
-      <c r="E46" s="54" t="s">
+      <c r="E46" s="53" t="s">
         <v>737</v>
       </c>
-      <c r="F46" s="54" t="s">
+      <c r="F46" s="53" t="s">
         <v>738</v>
       </c>
-      <c r="G46" s="54"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54" t="s">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53" t="s">
         <v>739</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="53" t="s">
         <v>740</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="53" t="s">
         <v>741</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="53" t="s">
         <v>742</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53" t="s">
         <v>743</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="53" t="s">
         <v>744</v>
       </c>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="53" t="s">
         <v>745</v>
       </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53" t="s">
         <v>746</v>
       </c>
-      <c r="D49" s="54" t="s">
+      <c r="D49" s="53" t="s">
         <v>747</v>
       </c>
-      <c r="E49" s="54" t="s">
+      <c r="E49" s="53" t="s">
         <v>748</v>
       </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54" t="s">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53" t="s">
         <v>749</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="53" t="s">
         <v>750</v>
       </c>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="53" t="s">
         <v>751</v>
       </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54" t="s">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53" t="s">
         <v>752</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D51" s="53" t="s">
         <v>753</v>
       </c>
-      <c r="E51" s="54" t="s">
+      <c r="E51" s="53" t="s">
         <v>754</v>
       </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54" t="s">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53" t="s">
         <v>755</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D52" s="53" t="s">
         <v>756</v>
       </c>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="53" t="s">
         <v>757</v>
       </c>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="57" t="s">
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="53" t="s">
         <v>758</v>
       </c>
-      <c r="E53" s="54" t="s">
+      <c r="E53" s="53" t="s">
         <v>759</v>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54" t="s">
+      <c r="A54" s="53"/>
+      <c r="B54" s="53" t="s">
         <v>760</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="53" t="s">
         <v>761</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="53" t="s">
         <v>762</v>
       </c>
-      <c r="E54" s="54" t="s">
+      <c r="E54" s="53" t="s">
         <v>763</v>
       </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
     </row>
     <row r="55" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53" t="s">
         <v>764</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="53" t="s">
         <v>765</v>
       </c>
-      <c r="D55" s="54" t="s">
+      <c r="D55" s="53" t="s">
         <v>766</v>
       </c>
-      <c r="E55" s="54" t="s">
+      <c r="E55" s="53" t="s">
         <v>767</v>
       </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
     </row>
     <row r="56" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54" t="s">
+      <c r="A56" s="53"/>
+      <c r="B56" s="53" t="s">
         <v>768</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="53" t="s">
         <v>769</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" s="53" t="s">
         <v>770</v>
       </c>
-      <c r="E56" s="54" t="s">
+      <c r="E56" s="53" t="s">
         <v>771</v>
       </c>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
     </row>
     <row r="57" customFormat="false" ht="234" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54" t="s">
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53" t="s">
         <v>772</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" s="53" t="s">
         <v>773</v>
       </c>
-      <c r="E57" s="54" t="s">
+      <c r="E57" s="53" t="s">
         <v>774</v>
       </c>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
     </row>
     <row r="58" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54" t="s">
+      <c r="A58" s="53"/>
+      <c r="B58" s="53" t="s">
         <v>775</v>
       </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6940,7 +6930,7 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="89.4453441295547"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7095,14 +7085,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="4" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="78.5182186234818"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="79.2672064777328"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="4" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="4" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="4" width="16.3886639676113"/>
   </cols>
   <sheetData>
@@ -8113,10 +8103,10 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="55.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8335,18 +8325,18 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="23" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="23" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="114.724696356275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="115.793522267207"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="23" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="23" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="23" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="23" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="23" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="23" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="23" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="23" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="23" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="23" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="23" width="27.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="23" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -9219,9 +9209,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="102.19028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="103.153846153846"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9366,9 +9356,9 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.0931174089069"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="39.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9520,10 +9510,10 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="83.3400809716599"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -9732,30 +9722,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="35" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="50.3441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="72.0890688259109"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="35" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="35" width="29.2429149797571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="35" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="35" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="35" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="72.7327935222672"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="35" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="35" width="29.4574898785425"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="35" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="35" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="35" width="26.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="35" width="9.21052631578947"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>389</v>
@@ -9801,6 +9805,11 @@
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="123.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
@@ -9816,6 +9825,8 @@
       <c r="E4" s="22" t="s">
         <v>32</v>
       </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
       <c r="J4" s="35" t="s">
         <v>393</v>
       </c>
@@ -9846,6 +9857,9 @@
       <c r="I5" s="19" t="s">
         <v>400</v>
       </c>
+      <c r="J5" s="35" t="s">
+        <v>393</v>
+      </c>
       <c r="K5" s="19" t="s">
         <v>401</v>
       </c>
@@ -9867,6 +9881,10 @@
       <c r="E6" s="22" t="s">
         <v>54</v>
       </c>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="55.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
@@ -9882,6 +9900,10 @@
       <c r="E7" s="22" t="s">
         <v>54</v>
       </c>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
@@ -9897,6 +9919,10 @@
       <c r="E8" s="22" t="s">
         <v>32</v>
       </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
@@ -9910,6 +9936,10 @@
         <v>414</v>
       </c>
       <c r="E9" s="22"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="55.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
@@ -9923,6 +9953,10 @@
         <v>417</v>
       </c>
       <c r="E10" s="22"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
@@ -9936,6 +9970,10 @@
         <v>420</v>
       </c>
       <c r="E11" s="22"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
@@ -9948,6 +9986,10 @@
         <v>423</v>
       </c>
       <c r="E12" s="22"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="55.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
@@ -9960,6 +10002,10 @@
         <v>426</v>
       </c>
       <c r="E13" s="22"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
@@ -9972,6 +10018,10 @@
         <v>429</v>
       </c>
       <c r="E14" s="22"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
@@ -9984,6 +10034,10 @@
         <v>432</v>
       </c>
       <c r="E15" s="22"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
@@ -9996,6 +10050,10 @@
         <v>435</v>
       </c>
       <c r="E16" s="22"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
@@ -10008,6 +10066,10 @@
         <v>438</v>
       </c>
       <c r="E17" s="22"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="55.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
@@ -10022,6 +10084,10 @@
       <c r="E18" s="22" t="s">
         <v>122</v>
       </c>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
@@ -10034,6 +10100,10 @@
         <v>444</v>
       </c>
       <c r="E19" s="22"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
@@ -10054,10 +10124,13 @@
       <c r="I20" s="35" t="s">
         <v>449</v>
       </c>
+      <c r="J20" s="35" t="s">
+        <v>393</v>
+      </c>
       <c r="K20" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="19" t="s">
         <v>451</v>
       </c>
     </row>
@@ -10151,24 +10224,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.21052631578947"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>470</v>
       </c>
     </row>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Terminologies used" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="794">
   <si>
     <t>Term</t>
   </si>
@@ -665,12 +665,6 @@
     <t>INT_01</t>
   </si>
   <si>
-    <t>Register shopping item as subscriptionable items</t>
-  </si>
-  <si>
-    <t>As an administrator I will select an item to be register as a subscriptionable item and register it with system so that only these items will be available for periodic subscriptions.</t>
-  </si>
-  <si>
     <t>ProductController -&gt; setProductConfiguration</t>
   </si>
   <si>
@@ -689,21 +683,9 @@
     <t>PR_01</t>
   </si>
   <si>
-    <t>COnfiguration</t>
-  </si>
-  <si>
     <t>Create product account</t>
   </si>
   <si>
-    <t>As a system I will create a product account for every product that administrator has registered with affaince as a subscriptionable product so as to maintain all product related transactions data in it. It will have following provisions
-1. Forecast
-2. Actuals
-3. Credit points
-4. Total debit
-5. Total Credit
-6.Contingencies</t>
-  </si>
-  <si>
     <t>product account</t>
   </si>
   <si>
@@ -722,18 +704,6 @@
     <t>PR_02</t>
   </si>
   <si>
-    <t>Define product pricing paramters</t>
-  </si>
-  <si>
-    <t>As an Adminstrator I will define which Parameters shuld be used for detemining the product price so as to decide which data should be captured in product forecast
-1. Product Pricing Policy
- 1.1 Recent History based pricing
- 1.2 Historical data based(Regression based) pricing
-2. Threshold percentage difference between target and actual revenue to triggering price
-3. Include Cross price Elasticity(optional) in pricing calculation: true/false
-4. Advertising expenses(optional) in pricing calculation : true/false</t>
-  </si>
-  <si>
     <t>Configuration,product account</t>
   </si>
   <si>
@@ -747,13 +717,6 @@
   </si>
   <si>
     <t>Capture demand and churn forecast for a product(for first time)</t>
-  </si>
-  <si>
-    <t>As an administrator I create demand and churn forecast for a subscriptionable product so as to compare the actual performance of that product against predictions. The structure(for every product) will have following attributes.
-1. New subscribers per period(week/month)
-2. Churned subscribers per period(week/month) affiliated to each price bucket
-3. From date of forecast
-4. To Date of Forecast</t>
   </si>
   <si>
     <t>PR_04</t>
@@ -2617,6 +2580,71 @@
   </si>
   <si>
     <t>Product domain - ForecastController-addPseuoActuals.It will find out product from ProductView,create AddForecastParametersCommand and send it.</t>
+  </si>
+  <si>
+    <t>Register product so as to make it available for subscription.</t>
+  </si>
+  <si>
+    <t>As an administrator I will register a provided product with system so that only these items will be available for periodic subscriptions. The  product definition is expected to have.
+1. auto generated product ID
+2. Product name
+3. category
+4. subcategory
+5. list of substitue ids
+6. list of complement Ids
+7. net quantity and its unit
+8. If it is sensitive to any additional overheads( requires fridge ,requires cold storage etc)
+7. it activation status ( if ACTIVE or yet in configured/registered/forecasted/step forecasted status).</t>
+  </si>
+  <si>
+    <t>As a system I will create a product account for every product that administrator has registered with affaince as a subscriptionable product so as to maintain all product related transactions data in it. It will have following provisions
+1. List of active tagged prices( purchase price and MRP pair)
+2. list of active fixed expenses
+3. list of active variable expenses
+4. List of recommended price buckets( those calculated by system and recommended to merchant)
+5. List of active in force price buckets( which are actually offered to customers during their subscriptions)
+6. Current stock in units
+7. product pricing catogry( if it is none committed, price committed or percent discount committed product)
+8. Credit points</t>
+  </si>
+  <si>
+    <t>Configure product  with pricing paramters</t>
+  </si>
+  <si>
+    <t>As an Adminstrator I will define which Parameters shuld be used for detemining the product price so as to decide which data should be captured in product forecast
+1. Product Pricing Policy
+ 1.1 Instanteneous pricing
+ 1.2 Historical data based(Regression based) pricing
+2. Threshold percentage difference between target and actual revenue to triggering price
+3. Whether to include cross price elasticity(optional) in pricing calculation: true/false
+4. Whether to include advertising expenses(optional) in pricing calculation : true/false
+5. period for which daily actuals should be aggregated to, in order to compare with target figures( weekly ,monthly,quarterly)
+6. next forecast date ( derived by the prcing logic)
+7. demand curve period( period for which historical data should be used for forecasting( last one year,last two years etc).
+8. Pricing options(if the system generated price shoul dbe automatically accepted as offered price, if system generated price should be ignored and price should be manually overridden by merchant  OR if the system generated price should be prompted to merchant for him to make a decision on its acceptance or overriding)</t>
+  </si>
+  <si>
+    <t>As an administrator I manually create demand and churn forecast for a product so as to compare the actual performance of that product against these predictions. The structure(for every product) will have following attributes.
+1. New subscriptions per period(week/month)
+2. Churned subscriptions per period(week/month) affiliated to each price bucket
+3. Total subscriptions per period
+3. From date of forecast
+4. To Date of Forecast
+5. purchase price per unit
+6. sale price per unit.</t>
+  </si>
+  <si>
+    <t>Capture demand and churn pseuo actuals for next day</t>
+  </si>
+  <si>
+    <t>As an administrator I manually create demand and churn forecast for a product  for next day so as to use it for calculating offer price for that product for the first time. The structure(for every product) will have following attributes.
+1. New subscriptions per period(week/month)
+2. Churned subscriptions per period(week/month) affiliated to each price bucket
+3. Total subscriptions per period
+3. From date of forecast
+4. To Date of Forecast
+5. purchase price per unit
+6. sale price per unit.</t>
   </si>
 </sst>
 </file>
@@ -2956,9 +2984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2969,6 +2994,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3452,7 +3480,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>20</v>
@@ -3481,15 +3509,15 @@
     </row>
     <row r="3" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="23" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -3503,15 +3531,15 @@
     </row>
     <row r="4" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="23" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -3525,15 +3553,15 @@
     </row>
     <row r="5" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="23" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -3547,40 +3575,40 @@
     </row>
     <row r="6" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="59" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="41" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L6" s="41" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -3589,7 +3617,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="59"/>
       <c r="E7" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -3607,7 +3635,7 @@
       <c r="C8" s="38"/>
       <c r="D8" s="59"/>
       <c r="E8" s="23" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -3621,40 +3649,40 @@
     </row>
     <row r="9" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="58" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="59" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="41" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M9" s="41" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N9" s="41" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -3663,7 +3691,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="59"/>
       <c r="E10" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
@@ -3681,7 +3709,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="59"/>
       <c r="E11" s="23" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
@@ -3695,40 +3723,40 @@
     </row>
     <row r="12" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="58" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="59" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="41" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L12" s="41" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M12" s="41" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N12" s="41" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -3737,7 +3765,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="59"/>
       <c r="E13" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -3755,7 +3783,7 @@
       <c r="C14" s="38"/>
       <c r="D14" s="59"/>
       <c r="E14" s="23" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -3769,40 +3797,40 @@
     </row>
     <row r="15" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="58" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="59" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="41" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N15" s="41" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -3811,7 +3839,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="59"/>
       <c r="E16" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -3829,7 +3857,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="59"/>
       <c r="E17" s="23" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
@@ -3843,40 +3871,40 @@
     </row>
     <row r="18" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="58" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="59" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="41" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N18" s="41" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -3885,7 +3913,7 @@
       <c r="C19" s="38"/>
       <c r="D19" s="59"/>
       <c r="E19" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -3903,7 +3931,7 @@
       <c r="C20" s="38"/>
       <c r="D20" s="59"/>
       <c r="E20" s="23" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -3917,40 +3945,40 @@
     </row>
     <row r="21" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="58" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="59" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="41" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L21" s="41" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M21" s="41" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N21" s="41" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -3959,7 +3987,7 @@
       <c r="C22" s="38"/>
       <c r="D22" s="59"/>
       <c r="E22" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -3977,7 +4005,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="59"/>
       <c r="E23" s="23" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -3991,40 +4019,40 @@
     </row>
     <row r="24" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="59" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H24" s="38"/>
       <c r="I24" s="41" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J24" s="41" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M24" s="41" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N24" s="41" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -4033,7 +4061,7 @@
       <c r="C25" s="38"/>
       <c r="D25" s="59"/>
       <c r="E25" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -4051,7 +4079,7 @@
       <c r="C26" s="38"/>
       <c r="D26" s="59"/>
       <c r="E26" s="23" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
@@ -4065,40 +4093,40 @@
     </row>
     <row r="27" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="58" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
       <c r="D27" s="59" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="41" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L27" s="41" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M27" s="41" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N27" s="41" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -4107,7 +4135,7 @@
       <c r="C28" s="38"/>
       <c r="D28" s="59"/>
       <c r="E28" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -4125,7 +4153,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="59"/>
       <c r="E29" s="23" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
@@ -4139,40 +4167,40 @@
     </row>
     <row r="30" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="58" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
       <c r="D30" s="59" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H30" s="38"/>
       <c r="I30" s="41" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J30" s="41" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L30" s="41" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M30" s="41" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N30" s="41" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -4181,7 +4209,7 @@
       <c r="C31" s="38"/>
       <c r="D31" s="59"/>
       <c r="E31" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
@@ -4199,7 +4227,7 @@
       <c r="C32" s="38"/>
       <c r="D32" s="59"/>
       <c r="E32" s="23" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
@@ -4213,40 +4241,40 @@
     </row>
     <row r="33" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="58" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="59" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H33" s="38"/>
       <c r="I33" s="41" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K33" s="41" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L33" s="41" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N33" s="41" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -4255,7 +4283,7 @@
       <c r="C34" s="38"/>
       <c r="D34" s="59"/>
       <c r="E34" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -4273,7 +4301,7 @@
       <c r="C35" s="38"/>
       <c r="D35" s="59"/>
       <c r="E35" s="23" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -4287,15 +4315,15 @@
     </row>
     <row r="36" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="58" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
       <c r="D36" s="59" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -4313,7 +4341,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="59"/>
       <c r="E37" s="42" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -4331,7 +4359,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="59"/>
       <c r="E38" s="43" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
@@ -4349,83 +4377,83 @@
       <c r="C39" s="38"/>
       <c r="D39" s="59"/>
       <c r="E39" s="43" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H39" s="41"/>
       <c r="I39" s="41" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="J39" s="41" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="L39" s="41" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M39" s="41" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="N39" s="41" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A40" s="38" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
       <c r="D40" s="40" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H40" s="38"/>
       <c r="I40" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="J40" s="41" t="s">
         <v>543</v>
       </c>
-      <c r="J40" s="41" t="s">
-        <v>550</v>
-      </c>
       <c r="K40" s="41" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="L40" s="38" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="N40" s="38" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="38" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
       <c r="D41" s="23" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -4439,15 +4467,15 @@
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="38" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
       <c r="D42" s="23" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
@@ -4461,15 +4489,15 @@
     </row>
     <row r="43" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="38" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
       <c r="D43" s="23" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -4483,15 +4511,15 @@
     </row>
     <row r="44" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="38" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
       <c r="D44" s="40" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -4505,129 +4533,129 @@
     </row>
     <row r="45" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="38" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
       <c r="D45" s="40" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H45" s="38"/>
       <c r="I45" s="38" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="J45" s="38" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="N45" s="38" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="38" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
       <c r="D46" s="40" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H46" s="38"/>
       <c r="I46" s="38" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="J46" s="38" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="K46" s="38" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M46" s="38" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="N46" s="38" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
       <c r="D47" s="40" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H47" s="38"/>
       <c r="I47" s="38" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="J47" s="38" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="K47" s="38" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="L47" s="38" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M47" s="38" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="N47" s="38" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="38" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
       <c r="D48" s="23" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
@@ -4641,91 +4669,91 @@
     </row>
     <row r="49" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A49" s="38" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
       <c r="D49" s="40" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H49" s="38"/>
       <c r="I49" s="38" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="N49" s="38" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="38" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
       <c r="D50" s="40" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E50" s="46" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H50" s="38"/>
       <c r="I50" s="38" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="J50" s="38" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="K50" s="38" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="L50" s="38" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M50" s="38" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="N50" s="38" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="38" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
       <c r="D51" s="23" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -4739,15 +4767,15 @@
     </row>
     <row r="52" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A52" s="38" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
       <c r="D52" s="23" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
@@ -4761,15 +4789,15 @@
     </row>
     <row r="53" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="38" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
       <c r="D53" s="23" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -4783,15 +4811,15 @@
     </row>
     <row r="54" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" s="38" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="23" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
@@ -4805,15 +4833,15 @@
     </row>
     <row r="55" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="38" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
       <c r="D55" s="23" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
@@ -4827,15 +4855,15 @@
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="38" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
       <c r="D56" s="23" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
@@ -4849,53 +4877,53 @@
     </row>
     <row r="57" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A57" s="38" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
       <c r="D57" s="40" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H57" s="38"/>
       <c r="I57" s="38" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="J57" s="38" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="K57" s="38" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="L57" s="38" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M57" s="38" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="N57" s="38" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="38" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
       <c r="D58" s="23" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
@@ -4909,15 +4937,15 @@
     </row>
     <row r="59" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="38" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
       <c r="D59" s="23" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -5107,18 +5135,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D21:D23"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="A36:A39"/>
@@ -5129,6 +5145,18 @@
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5199,12 +5227,12 @@
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
@@ -5238,7 +5266,7 @@
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
@@ -5288,7 +5316,7 @@
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
@@ -5306,7 +5334,7 @@
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
@@ -5324,7 +5352,7 @@
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
@@ -5342,7 +5370,7 @@
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
@@ -5376,7 +5404,7 @@
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
@@ -5394,7 +5422,7 @@
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
@@ -5412,7 +5440,7 @@
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
@@ -5430,7 +5458,7 @@
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
@@ -5464,7 +5492,7 @@
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
@@ -5482,7 +5510,7 @@
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
@@ -5516,7 +5544,7 @@
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
@@ -5534,7 +5562,7 @@
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
@@ -5568,7 +5596,7 @@
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
@@ -5586,7 +5614,7 @@
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
@@ -5604,7 +5632,7 @@
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
@@ -5879,7 +5907,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -5913,22 +5941,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -5936,19 +5964,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -5956,19 +5984,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -5976,19 +6004,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -5996,19 +6024,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6016,17 +6044,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6034,17 +6062,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6055,10 +6083,10 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -6069,7 +6097,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="F10" s="38"/>
     </row>
@@ -6081,7 +6109,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F11" s="38"/>
     </row>
@@ -6120,7 +6148,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="39"/>
       <c r="B16" s="48" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -6130,7 +6158,7 @@
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
       <c r="B17" s="60" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="38"/>
@@ -6140,7 +6168,7 @@
     <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39"/>
       <c r="B18" s="60" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="38"/>
@@ -6150,7 +6178,7 @@
     <row r="19" spans="1:6" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39"/>
       <c r="B19" s="60" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" s="38"/>
@@ -6160,7 +6188,7 @@
     <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39"/>
       <c r="B20" s="60" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C20" s="60"/>
       <c r="D20" s="38"/>
@@ -6232,8 +6260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6251,217 +6279,217 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>677</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>679</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>680</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>681</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>682</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>683</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>684</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>685</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>686</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>687</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>688</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>689</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51"/>
-      <c r="B2" s="62" t="s">
-        <v>691</v>
+      <c r="B2" s="61" t="s">
+        <v>684</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>693</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>694</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>695</v>
-      </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63" t="s">
-        <v>696</v>
+        <v>686</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>687</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>688</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="51" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>698</v>
-      </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
+        <v>691</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="64.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
-      <c r="B4" s="62"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="52" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>700</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>701</v>
-      </c>
-      <c r="G4" s="65"/>
+        <v>693</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>694</v>
+      </c>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:8" ht="64.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
-      <c r="B5" s="62"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="52" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="E5" s="52"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
-      <c r="B6" s="62"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="52" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>704</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
+        <v>697</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
-      <c r="F7" s="64"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
-      <c r="B8" s="62"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="52" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>707</v>
-      </c>
-      <c r="F8" s="64"/>
+        <v>700</v>
+      </c>
+      <c r="F8" s="63"/>
       <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
-      <c r="B9" s="62"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="51" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>710</v>
-      </c>
-      <c r="F9" s="64"/>
+        <v>703</v>
+      </c>
+      <c r="F9" s="63"/>
       <c r="G9" s="51" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
-      <c r="B10" s="62"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="51" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>713</v>
-      </c>
-      <c r="F10" s="64"/>
+        <v>706</v>
+      </c>
+      <c r="F10" s="63"/>
       <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:8" ht="169" x14ac:dyDescent="0.35">
       <c r="A11" s="51"/>
-      <c r="B11" s="62"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="51" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="32" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A12" s="51"/>
       <c r="B12" s="54"/>
       <c r="C12" s="51" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
-      <c r="B13" s="61" t="s">
-        <v>723</v>
+      <c r="B13" s="65" t="s">
+        <v>716</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -6469,12 +6497,12 @@
     </row>
     <row r="14" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A14" s="51"/>
-      <c r="B14" s="61"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="51" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -6482,12 +6510,12 @@
     </row>
     <row r="15" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A15" s="51"/>
-      <c r="B15" s="61"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="51" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -6495,12 +6523,12 @@
     </row>
     <row r="16" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="51"/>
-      <c r="B16" s="61"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="51" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
@@ -6508,12 +6536,12 @@
     </row>
     <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
-      <c r="B17" s="61"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="51" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
@@ -6521,12 +6549,12 @@
     </row>
     <row r="18" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A18" s="51"/>
-      <c r="B18" s="61"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="51" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -6534,12 +6562,12 @@
     </row>
     <row r="19" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="51"/>
-      <c r="B19" s="61"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="51" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -6547,12 +6575,12 @@
     </row>
     <row r="20" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A20" s="51"/>
-      <c r="B20" s="61"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="51" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
@@ -6560,12 +6588,12 @@
     </row>
     <row r="21" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A21" s="51"/>
-      <c r="B21" s="61"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="51" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -6573,12 +6601,12 @@
     </row>
     <row r="22" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A22" s="51"/>
-      <c r="B22" s="61"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="51" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -6586,12 +6614,12 @@
     </row>
     <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A23" s="51"/>
-      <c r="B23" s="61"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="51" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
@@ -6599,12 +6627,12 @@
     </row>
     <row r="24" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A24" s="51"/>
-      <c r="B24" s="61"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="51" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
@@ -6612,12 +6640,12 @@
     </row>
     <row r="25" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="51"/>
-      <c r="B25" s="61"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="51" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -6625,12 +6653,12 @@
     </row>
     <row r="26" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A26" s="51"/>
-      <c r="B26" s="61"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="51" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
@@ -6638,12 +6666,12 @@
     </row>
     <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="51"/>
-      <c r="B27" s="61"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="51" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="E27" s="51"/>
       <c r="F27" s="51"/>
@@ -6651,12 +6679,12 @@
     </row>
     <row r="28" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A28" s="51"/>
-      <c r="B28" s="61"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="51" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E28" s="51"/>
       <c r="F28" s="51"/>
@@ -6664,12 +6692,12 @@
     </row>
     <row r="29" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="51"/>
-      <c r="B29" s="61"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="51" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
@@ -6677,12 +6705,12 @@
     </row>
     <row r="30" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A30" s="51"/>
-      <c r="B30" s="61"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="51" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E30" s="51"/>
       <c r="F30" s="51"/>
@@ -6690,12 +6718,12 @@
     </row>
     <row r="31" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A31" s="51"/>
-      <c r="B31" s="61"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="51" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="E31" s="51"/>
       <c r="F31" s="51"/>
@@ -6703,12 +6731,12 @@
     </row>
     <row r="32" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A32" s="51"/>
-      <c r="B32" s="61"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="51" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E32" s="51"/>
       <c r="F32" s="51"/>
@@ -6716,12 +6744,12 @@
     </row>
     <row r="33" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A33" s="51"/>
-      <c r="B33" s="61"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="51" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E33" s="51"/>
       <c r="F33" s="51"/>
@@ -6729,12 +6757,12 @@
     </row>
     <row r="34" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A34" s="51"/>
-      <c r="B34" s="61"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="51" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
@@ -6742,12 +6770,12 @@
     </row>
     <row r="35" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="51"/>
-      <c r="B35" s="61"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="51" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
@@ -6755,12 +6783,12 @@
     </row>
     <row r="36" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A36" s="51"/>
-      <c r="B36" s="61"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="51" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51"/>
@@ -6768,12 +6796,12 @@
     </row>
     <row r="37" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A37" s="51"/>
-      <c r="B37" s="61"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="51" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
@@ -6781,12 +6809,12 @@
     </row>
     <row r="38" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A38" s="51"/>
-      <c r="B38" s="61"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="51" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E38" s="51"/>
       <c r="F38" s="51"/>
@@ -6794,12 +6822,12 @@
     </row>
     <row r="39" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A39" s="51"/>
-      <c r="B39" s="61"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="51" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E39" s="51"/>
       <c r="F39" s="51"/>
@@ -6807,12 +6835,12 @@
     </row>
     <row r="40" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A40" s="51"/>
-      <c r="B40" s="61"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="51" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E40" s="51"/>
       <c r="F40" s="51"/>
@@ -6820,12 +6848,12 @@
     </row>
     <row r="41" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A41" s="51"/>
-      <c r="B41" s="61"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="51" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E41" s="51"/>
       <c r="F41" s="51"/>
@@ -6893,122 +6921,122 @@
         <v>45</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="F48" s="51" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="G48" s="51"/>
     </row>
     <row r="49" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="51"/>
-      <c r="B49" s="62" t="s">
-        <v>738</v>
+      <c r="B49" s="61" t="s">
+        <v>731</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
     </row>
     <row r="50" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A50" s="51"/>
-      <c r="B50" s="62"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="51" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
     </row>
     <row r="51" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A51" s="51"/>
-      <c r="B51" s="62"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="51" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D51" s="51" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
     </row>
     <row r="52" spans="1:7" ht="91" x14ac:dyDescent="0.35">
       <c r="A52" s="51"/>
-      <c r="B52" s="62"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="51" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
     </row>
     <row r="53" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A53" s="51"/>
-      <c r="B53" s="62"/>
+      <c r="B53" s="61"/>
       <c r="C53" s="51" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
     </row>
     <row r="54" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A54" s="51"/>
-      <c r="B54" s="62"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="51" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D54" s="51" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
     </row>
     <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A55" s="51"/>
-      <c r="B55" s="62"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="53" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="51" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="E55" s="51" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -7016,16 +7044,16 @@
     <row r="56" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A56" s="51"/>
       <c r="B56" s="51" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D56" s="51" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -7033,48 +7061,48 @@
     <row r="57" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A57" s="51"/>
       <c r="B57" s="51" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="E57" s="51" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
     </row>
     <row r="58" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="51"/>
-      <c r="B58" s="62" t="s">
-        <v>767</v>
+      <c r="B58" s="61" t="s">
+        <v>760</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="D58" s="51" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
     </row>
     <row r="59" spans="1:7" ht="234" x14ac:dyDescent="0.35">
       <c r="A59" s="51"/>
-      <c r="B59" s="62"/>
+      <c r="B59" s="61"/>
       <c r="C59" s="51" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -7082,7 +7110,7 @@
     <row r="60" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A60" s="51"/>
       <c r="B60" s="51" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C60" s="51"/>
       <c r="D60" s="51"/>
@@ -7092,16 +7120,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B13:B41"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B13:B41"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7123,7 +7151,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -7131,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -7139,7 +7167,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -7147,7 +7175,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -7155,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7163,7 +7191,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -7171,7 +7199,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7179,7 +7207,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7187,7 +7215,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -7195,7 +7223,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7203,7 +7231,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -7211,7 +7239,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7219,7 +7247,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7227,7 +7255,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -7235,7 +7263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7243,7 +7271,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -7679,7 +7707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>91</v>
       </c>
@@ -8121,7 +8149,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>159</v>
       </c>
@@ -8233,7 +8261,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
         <v>178</v>
       </c>
@@ -8475,11 +8503,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK44"/>
+  <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8575,7 +8603,7 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>204</v>
       </c>
@@ -8585,11 +8613,11 @@
       <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>206</v>
+      <c r="D4" s="25" t="s">
+        <v>786</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>207</v>
+        <v>787</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="25" t="s">
@@ -8597,114 +8625,114 @@
       </c>
       <c r="H4"/>
       <c r="I4" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="25" t="s">
         <v>209</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>211</v>
       </c>
       <c r="M4"/>
       <c r="N4" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="25" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>216</v>
+        <v>788</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>32</v>
       </c>
       <c r="H5"/>
       <c r="I5" s="25" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="203" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>223</v>
+        <v>789</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>224</v>
+        <v>790</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H6"/>
       <c r="I6" s="25" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M6"/>
       <c r="N6" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
-        <v>227</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>230</v>
+        <v>791</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>54</v>
@@ -8717,26 +8745,20 @@
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="G8"/>
+    <row r="8" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="26"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -8745,22 +8767,24 @@
       <c r="M8"/>
       <c r="N8"/>
     </row>
-    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>240</v>
+        <v>224</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>229</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -8771,22 +8795,22 @@
       <c r="M9"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -8797,22 +8821,22 @@
       <c r="M10"/>
       <c r="N10"/>
     </row>
-    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="25" t="s">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -8823,22 +8847,22 @@
       <c r="M11"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="25" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -8849,22 +8873,22 @@
       <c r="M12"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>245</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>256</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -8877,20 +8901,20 @@
     </row>
     <row r="14" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="25" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -8901,22 +8925,22 @@
       <c r="M14"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="25" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -8928,18 +8952,22 @@
       <c r="N15"/>
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
+      <c r="A16" s="26" t="s">
+        <v>254</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="25" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="F16" s="25"/>
+        <v>257</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>258</v>
+      </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -8953,13 +8981,13 @@
       <c r="A17" s="26"/>
       <c r="B17" s="1"/>
       <c r="C17" s="25" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17"/>
@@ -8972,22 +9000,18 @@
       <c r="N17"/>
     </row>
     <row r="18" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="26" t="s">
-        <v>271</v>
-      </c>
+      <c r="A18" s="26"/>
       <c r="B18" s="1"/>
       <c r="C18" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>272</v>
-      </c>
       <c r="E18" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>274</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F18" s="25"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -8999,20 +9023,20 @@
     </row>
     <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="25" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -9025,20 +9049,20 @@
     </row>
     <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="B20"/>
+        <v>268</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="25" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -9049,84 +9073,84 @@
       <c r="M20"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="1:14" ht="261" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="26" t="s">
+    <row r="21" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" ht="261" x14ac:dyDescent="0.35">
+      <c r="A22" s="26"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D22" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="E21" s="26" t="s">
+    </row>
+    <row r="23" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="26" t="s">
+      <c r="C23" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="D23" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="L21" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="M21" s="29"/>
-      <c r="N21" s="26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-    </row>
-    <row r="23" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>298</v>
-      </c>
       <c r="F23" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -9139,101 +9163,110 @@
     </row>
     <row r="24" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+    </row>
+    <row r="25" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="F26" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="C27" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E27" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F27" s="25" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="26" t="s">
+    <row r="28" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D25" s="25" t="s">
+      <c r="C28" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E28" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F28" s="25" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="26" t="s">
+    <row r="29" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+      <c r="A29" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D26" s="25" t="s">
+      <c r="C29" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E29" s="25" t="s">
         <v>309</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="116" x14ac:dyDescent="0.35">
-      <c r="A28" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>320</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>310</v>
@@ -9241,107 +9274,124 @@
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>325</v>
+        <v>314</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
-        <v>336</v>
+        <v>327</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
-        <v>343</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="26" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -9373,7 +9423,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>18</v>
@@ -9402,85 +9452,85 @@
     </row>
     <row r="2" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C8" s="32" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="C9" s="32"/>
       <c r="D9" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E9" s="32"/>
     </row>
@@ -9512,7 +9562,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>18</v>
@@ -9541,72 +9591,72 @@
     </row>
     <row r="2" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="19" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="19"/>
       <c r="D7" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E7" s="32"/>
     </row>
@@ -9614,10 +9664,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="19" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E8" s="32"/>
     </row>
@@ -9626,7 +9676,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="19"/>
       <c r="D9" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E9" s="32"/>
     </row>
@@ -9667,7 +9717,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -9692,60 +9742,60 @@
       </c>
       <c r="B4"/>
       <c r="C4" s="19" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="19" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="25" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E7"/>
     </row>
@@ -9758,43 +9808,43 @@
         <v>168</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
@@ -9809,11 +9859,11 @@
     </row>
     <row r="12" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>177</v>
@@ -9824,7 +9874,7 @@
     </row>
     <row r="13" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
@@ -9890,10 +9940,10 @@
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -9941,14 +9991,14 @@
     </row>
     <row r="4" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>32</v>
@@ -9956,55 +10006,55 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" s="34" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>54</v>
@@ -10016,14 +10066,14 @@
     </row>
     <row r="7" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>54</v>
@@ -10035,14 +10085,14 @@
     </row>
     <row r="8" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>32</v>
@@ -10054,14 +10104,14 @@
     </row>
     <row r="9" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E9" s="21"/>
       <c r="H9"/>
@@ -10071,14 +10121,14 @@
     </row>
     <row r="10" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E10" s="21"/>
       <c r="H10"/>
@@ -10088,14 +10138,14 @@
     </row>
     <row r="11" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E11" s="21"/>
       <c r="H11"/>
@@ -10105,13 +10155,13 @@
     </row>
     <row r="12" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E12" s="21"/>
       <c r="H12"/>
@@ -10121,13 +10171,13 @@
     </row>
     <row r="13" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E13" s="21"/>
       <c r="H13"/>
@@ -10137,13 +10187,13 @@
     </row>
     <row r="14" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E14" s="21"/>
       <c r="H14"/>
@@ -10153,13 +10203,13 @@
     </row>
     <row r="15" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E15" s="21"/>
       <c r="H15"/>
@@ -10169,13 +10219,13 @@
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E16" s="21"/>
       <c r="H16"/>
@@ -10185,13 +10235,13 @@
     </row>
     <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E17" s="21"/>
       <c r="H17"/>
@@ -10201,13 +10251,13 @@
     </row>
     <row r="18" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>122</v>
@@ -10219,13 +10269,13 @@
     </row>
     <row r="19" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E19" s="21"/>
       <c r="H19"/>
@@ -10235,90 +10285,90 @@
     </row>
     <row r="20" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E25" s="21"/>
     </row>
@@ -10353,60 +10403,60 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -743,12 +743,6 @@
     <t>PR_06</t>
   </si>
   <si>
-    <t>Replicate actuals of last year as forecast of current year</t>
-  </si>
-  <si>
-    <t>As a System I will replicate actuals of last year in the forecast of current year in an yearly batch job so as to provide default values for the forecast for current year which administrator can modify wherever required.</t>
-  </si>
-  <si>
     <t>Yearly/half yearly batch,product account</t>
   </si>
   <si>
@@ -756,31 +750,6 @@
   </si>
   <si>
     <t>Calculate foreasted values of defined metrics for a product</t>
-  </si>
-  <si>
-    <t>As a System I will calculate the following metrics when subscriber enters forecast details for a product
-1. Monthly operating expenses per product( sum of commong expenses and subscription specific expenses)
-2. Monthly sales and marketing expenses per product??
-3. Net new subscribers per period(month)
-4. Total subscribers per period(month)
-5. Total churned subscribers per period(month)
-6. Percentage churned subscribers per period(month)
-7.Monthly recurring revenue due to new subscribers( MRR New)
-8. Monthly churned revenue due loosing subscribers associated with each price bucket.
-9. Total Monthly churned revenue
-10. Percentage net revenue churn
-11. Monthly average revenue per subscriber(ARPS New)
-12. Monthly average revenue per total subscribers(ARPS)
-13. Total monthly revenue
-14. Total cost of goods sold
-15. Selling price derived from margin percentage
-16. Operating profit/loss
-17. Percentage operating profit/loss
-18. Subscriber lifetime value(SLV)
-19. Subscriber lifetime period
-20. Cost of acquiring a subscriber(CAS)
-21. SLV to CAS ratio
-22. Months to recover CAS</t>
   </si>
   <si>
     <t>PR_09</t>
@@ -2611,6 +2580,29 @@
     <t>Configure product  with pricing paramters</t>
   </si>
   <si>
+    <t>As an administrator I manually create demand and churn forecast for a product so as to compare the actual performance of that product against these predictions. The structure(for every product) will have following attributes.
+1. New subscriptions per period(week/month)
+2. Churned subscriptions per period(week/month) affiliated to each price bucket
+3. Total subscriptions per period
+3. From date of forecast
+4. To Date of Forecast
+5. purchase price per unit
+6. sale price per unit.</t>
+  </si>
+  <si>
+    <t>Capture demand and churn pseuo actuals for next day</t>
+  </si>
+  <si>
+    <t>As an administrator I manually create demand and churn forecast for a product  for next day so as to use it for calculating offer price for that product for the first time. The structure(for every product) will have following attributes.
+1. New subscriptions per period(week/month)
+2. Churned subscriptions per period(week/month) affiliated to each price bucket
+3. Total subscriptions per period
+3. From date of forecast
+4. To Date of Forecast
+5. purchase price per unit
+6. sale price per unit.</t>
+  </si>
+  <si>
     <t>As an Adminstrator I will define which Parameters shuld be used for detemining the product price so as to decide which data should be captured in product forecast
 1. Product Pricing Policy
  1.1 Instanteneous pricing
@@ -2619,32 +2611,40 @@
 3. Whether to include cross price elasticity(optional) in pricing calculation: true/false
 4. Whether to include advertising expenses(optional) in pricing calculation : true/false
 5. period for which daily actuals should be aggregated to, in order to compare with target figures( weekly ,monthly,quarterly)
-6. next forecast date ( derived by the prcing logic)
+6. next forecast date ( derived by the pricing logic)
 7. demand curve period( period for which historical data should be used for forecasting( last one year,last two years etc).
 8. Pricing options(if the system generated price shoul dbe automatically accepted as offered price, if system generated price should be ignored and price should be manually overridden by merchant  OR if the system generated price should be prompted to merchant for him to make a decision on its acceptance or overriding)</t>
   </si>
   <si>
-    <t>As an administrator I manually create demand and churn forecast for a product so as to compare the actual performance of that product against these predictions. The structure(for every product) will have following attributes.
-1. New subscriptions per period(week/month)
-2. Churned subscriptions per period(week/month) affiliated to each price bucket
-3. Total subscriptions per period
-3. From date of forecast
-4. To Date of Forecast
-5. purchase price per unit
-6. sale price per unit.</t>
-  </si>
-  <si>
-    <t>Capture demand and churn pseuo actuals for next day</t>
-  </si>
-  <si>
-    <t>As an administrator I manually create demand and churn forecast for a product  for next day so as to use it for calculating offer price for that product for the first time. The structure(for every product) will have following attributes.
-1. New subscriptions per period(week/month)
-2. Churned subscriptions per period(week/month) affiliated to each price bucket
-3. Total subscriptions per period
-3. From date of forecast
-4. To Date of Forecast
-5. purchase price per unit
-6. sale price per unit.</t>
+    <t>Define forecast of next yer using actuals of current year</t>
+  </si>
+  <si>
+    <t>As a System I will forecast consumption and churn of next year using actuals of current year in an yearly batch job so as to provide default values for the targets and forecasts for next year which administrator can modify wherever required.</t>
+  </si>
+  <si>
+    <t>As a System I will calculate the following metrics when subscriber enters forecast details for a product
+1. Monthly operating expenses per product( sum of common expenses and subscription specific expenses)
+2. Monthly sales and marketing expenses per product??
+3. Net new subscribers per period(month)
+4. Total subscribers per period(month)
+5. Total churned subscribers per period(month)
+6. Percentage churned subscribers per period(month)
+7.Monthly recurring revenue due to new subscribers( MRR New)
+8. Monthly churned revenue due loosing subscribers associated with each price bucket.
+9. Total Monthly churned revenue
+10. Percentage net revenue churn
+11. Monthly average revenue per subscriber(ARPS New)
+12. Monthly average revenue per total subscribers(ARPS)
+13. Total monthly revenue
+14. Total cost of goods sold
+15. Selling price derived from margin percentage
+16. Operating profit/loss
+17. Percentage operating profit/loss
+18. Subscriber lifetime value(SLV)
+19. Subscriber lifetime period
+20. Cost of acquiring a subscriber(CAS)
+21. SLV to CAS ratio
+22. Months to recover CAS</t>
   </si>
 </sst>
 </file>
@@ -3480,7 +3480,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>20</v>
@@ -3509,15 +3509,15 @@
     </row>
     <row r="3" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="23" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -3531,15 +3531,15 @@
     </row>
     <row r="4" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="23" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -3553,15 +3553,15 @@
     </row>
     <row r="5" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="23" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -3575,40 +3575,40 @@
     </row>
     <row r="6" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="59" t="s">
+        <v>479</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="G6" s="38" t="s">
         <v>482</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>485</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="L6" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="M6" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="N6" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -3617,7 +3617,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="59"/>
       <c r="E7" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -3635,7 +3635,7 @@
       <c r="C8" s="38"/>
       <c r="D8" s="59"/>
       <c r="E8" s="23" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -3649,40 +3649,40 @@
     </row>
     <row r="9" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="58" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="59" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="M9" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="N9" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -3691,7 +3691,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="59"/>
       <c r="E10" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
@@ -3709,7 +3709,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="59"/>
       <c r="E11" s="23" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
@@ -3723,40 +3723,40 @@
     </row>
     <row r="12" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="58" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="59" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="L12" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="M12" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="N12" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="N12" s="41" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -3765,7 +3765,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="59"/>
       <c r="E13" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -3783,7 +3783,7 @@
       <c r="C14" s="38"/>
       <c r="D14" s="59"/>
       <c r="E14" s="23" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -3797,40 +3797,40 @@
     </row>
     <row r="15" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="58" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="59" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="L15" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="M15" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="N15" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -3839,7 +3839,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="59"/>
       <c r="E16" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -3857,7 +3857,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="59"/>
       <c r="E17" s="23" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
@@ -3871,40 +3871,40 @@
     </row>
     <row r="18" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="58" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="59" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="L18" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="M18" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="N18" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="L18" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M18" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="N18" s="41" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -3913,7 +3913,7 @@
       <c r="C19" s="38"/>
       <c r="D19" s="59"/>
       <c r="E19" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -3931,7 +3931,7 @@
       <c r="C20" s="38"/>
       <c r="D20" s="59"/>
       <c r="E20" s="23" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -3945,40 +3945,40 @@
     </row>
     <row r="21" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="58" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="59" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="L21" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="M21" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="N21" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="L21" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M21" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="N21" s="41" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -3987,7 +3987,7 @@
       <c r="C22" s="38"/>
       <c r="D22" s="59"/>
       <c r="E22" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -4005,7 +4005,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="59"/>
       <c r="E23" s="23" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -4019,40 +4019,40 @@
     </row>
     <row r="24" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="59" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H24" s="38"/>
       <c r="I24" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="L24" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="J24" s="41" t="s">
+      <c r="M24" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="N24" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="L24" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M24" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="N24" s="41" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -4061,7 +4061,7 @@
       <c r="C25" s="38"/>
       <c r="D25" s="59"/>
       <c r="E25" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -4079,7 +4079,7 @@
       <c r="C26" s="38"/>
       <c r="D26" s="59"/>
       <c r="E26" s="23" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
@@ -4093,40 +4093,40 @@
     </row>
     <row r="27" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="58" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
       <c r="D27" s="59" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="L27" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="M27" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="N27" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="L27" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="N27" s="41" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -4135,7 +4135,7 @@
       <c r="C28" s="38"/>
       <c r="D28" s="59"/>
       <c r="E28" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -4153,7 +4153,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="59"/>
       <c r="E29" s="23" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
@@ -4167,40 +4167,40 @@
     </row>
     <row r="30" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="58" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
       <c r="D30" s="59" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H30" s="38"/>
       <c r="I30" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="L30" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="M30" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K30" s="41" t="s">
+      <c r="N30" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="L30" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M30" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="N30" s="41" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -4209,7 +4209,7 @@
       <c r="C31" s="38"/>
       <c r="D31" s="59"/>
       <c r="E31" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
@@ -4227,7 +4227,7 @@
       <c r="C32" s="38"/>
       <c r="D32" s="59"/>
       <c r="E32" s="23" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
@@ -4241,40 +4241,40 @@
     </row>
     <row r="33" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="58" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="59" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H33" s="38"/>
       <c r="I33" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="L33" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="J33" s="41" t="s">
+      <c r="M33" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K33" s="41" t="s">
+      <c r="N33" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="L33" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M33" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="N33" s="41" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -4283,7 +4283,7 @@
       <c r="C34" s="38"/>
       <c r="D34" s="59"/>
       <c r="E34" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -4301,7 +4301,7 @@
       <c r="C35" s="38"/>
       <c r="D35" s="59"/>
       <c r="E35" s="23" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -4315,15 +4315,15 @@
     </row>
     <row r="36" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="58" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
       <c r="D36" s="59" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -4341,7 +4341,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="59"/>
       <c r="E37" s="42" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -4359,7 +4359,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="59"/>
       <c r="E38" s="43" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
@@ -4377,83 +4377,83 @@
       <c r="C39" s="38"/>
       <c r="D39" s="59"/>
       <c r="E39" s="43" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H39" s="41"/>
       <c r="I39" s="41" t="s">
+        <v>533</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>534</v>
+      </c>
+      <c r="K39" s="41" t="s">
+        <v>535</v>
+      </c>
+      <c r="L39" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="M39" s="41" t="s">
         <v>536</v>
       </c>
-      <c r="J39" s="41" t="s">
+      <c r="N39" s="41" t="s">
         <v>537</v>
-      </c>
-      <c r="K39" s="41" t="s">
-        <v>538</v>
-      </c>
-      <c r="L39" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M39" s="41" t="s">
-        <v>539</v>
-      </c>
-      <c r="N39" s="41" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A40" s="38" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
       <c r="D40" s="40" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H40" s="38"/>
       <c r="I40" s="38" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J40" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="K40" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="L40" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="M40" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="N40" s="38" t="s">
         <v>543</v>
-      </c>
-      <c r="K40" s="41" t="s">
-        <v>544</v>
-      </c>
-      <c r="L40" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="M40" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="N40" s="38" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="38" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
       <c r="D41" s="23" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -4467,15 +4467,15 @@
     </row>
     <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="38" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
       <c r="D42" s="23" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
@@ -4489,15 +4489,15 @@
     </row>
     <row r="43" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="38" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
       <c r="D43" s="23" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -4511,15 +4511,15 @@
     </row>
     <row r="44" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="38" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
       <c r="D44" s="40" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -4533,129 +4533,129 @@
     </row>
     <row r="45" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="38" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
       <c r="D45" s="40" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H45" s="38"/>
       <c r="I45" s="38" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J45" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="K45" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="L45" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="M45" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="N45" s="38" t="s">
         <v>561</v>
-      </c>
-      <c r="K45" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="L45" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="M45" s="38" t="s">
-        <v>563</v>
-      </c>
-      <c r="N45" s="38" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="38" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
       <c r="D46" s="40" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H46" s="38"/>
       <c r="I46" s="38" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J46" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="K46" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="L46" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="M46" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="N46" s="38" t="s">
         <v>568</v>
-      </c>
-      <c r="K46" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="L46" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="M46" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="N46" s="38" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
       <c r="D47" s="40" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H47" s="38"/>
       <c r="I47" s="38" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J47" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="K47" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="L47" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="M47" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="N47" s="38" t="s">
         <v>568</v>
-      </c>
-      <c r="K47" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="L47" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="M47" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="N47" s="38" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="38" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
       <c r="D48" s="23" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
@@ -4669,91 +4669,91 @@
     </row>
     <row r="49" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A49" s="38" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
       <c r="D49" s="40" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H49" s="38"/>
       <c r="I49" s="38" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="N49" s="38" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="38" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
       <c r="D50" s="40" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E50" s="46" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H50" s="38"/>
       <c r="I50" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="L50" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="M50" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="J50" s="38" t="s">
+      <c r="N50" s="38" t="s">
         <v>587</v>
-      </c>
-      <c r="K50" s="38" t="s">
-        <v>588</v>
-      </c>
-      <c r="L50" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="M50" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="N50" s="38" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="38" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
       <c r="D51" s="23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -4767,15 +4767,15 @@
     </row>
     <row r="52" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A52" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
       <c r="D52" s="23" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
@@ -4789,15 +4789,15 @@
     </row>
     <row r="53" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="38" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
       <c r="D53" s="23" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -4811,15 +4811,15 @@
     </row>
     <row r="54" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" s="38" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="23" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
@@ -4833,15 +4833,15 @@
     </row>
     <row r="55" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="38" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
       <c r="D55" s="23" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
@@ -4855,15 +4855,15 @@
     </row>
     <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="38" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
       <c r="D56" s="23" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
@@ -4877,53 +4877,53 @@
     </row>
     <row r="57" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A57" s="38" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
       <c r="D57" s="40" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H57" s="38"/>
       <c r="I57" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="J57" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="K57" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="L57" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="M57" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="J57" s="38" t="s">
+      <c r="N57" s="38" t="s">
         <v>587</v>
-      </c>
-      <c r="K57" s="38" t="s">
-        <v>588</v>
-      </c>
-      <c r="L57" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="M57" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="N57" s="38" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="38" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
       <c r="D58" s="23" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
@@ -4937,15 +4937,15 @@
     </row>
     <row r="59" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="38" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
       <c r="D59" s="23" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -5227,12 +5227,12 @@
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
@@ -5266,7 +5266,7 @@
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
@@ -5316,7 +5316,7 @@
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
@@ -5334,7 +5334,7 @@
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
@@ -5352,7 +5352,7 @@
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
@@ -5370,7 +5370,7 @@
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
@@ -5404,7 +5404,7 @@
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
@@ -5422,7 +5422,7 @@
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
@@ -5440,7 +5440,7 @@
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
@@ -5458,7 +5458,7 @@
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
@@ -5492,7 +5492,7 @@
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
@@ -5510,7 +5510,7 @@
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
@@ -5544,7 +5544,7 @@
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
@@ -5562,7 +5562,7 @@
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
@@ -5596,7 +5596,7 @@
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
@@ -5614,7 +5614,7 @@
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
@@ -5632,7 +5632,7 @@
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
@@ -5907,7 +5907,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -5941,22 +5941,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
+        <v>630</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>633</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>634</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="F2" s="47" t="s">
         <v>635</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>637</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -5964,19 +5964,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="48" t="s">
+        <v>636</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>637</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>638</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>639</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="F3" s="48" t="s">
         <v>640</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>642</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -5984,19 +5984,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>644</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="F4" s="38" t="s">
         <v>645</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>647</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6004,19 +6004,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>646</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>647</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>649</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="F5" s="38" t="s">
         <v>650</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>651</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6024,19 +6024,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="F6" s="38" t="s">
         <v>655</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>656</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>657</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6044,17 +6044,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6062,17 +6062,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6083,10 +6083,10 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -6097,7 +6097,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F10" s="38"/>
     </row>
@@ -6109,7 +6109,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F11" s="38"/>
     </row>
@@ -6148,7 +6148,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="39"/>
       <c r="B16" s="48" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -6158,7 +6158,7 @@
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
       <c r="B17" s="60" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="38"/>
@@ -6168,7 +6168,7 @@
     <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39"/>
       <c r="B18" s="60" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="38"/>
@@ -6178,7 +6178,7 @@
     <row r="19" spans="1:6" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39"/>
       <c r="B19" s="60" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" s="38"/>
@@ -6188,7 +6188,7 @@
     <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39"/>
       <c r="B20" s="60" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C20" s="60"/>
       <c r="D20" s="38"/>
@@ -6279,50 +6279,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>676</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>677</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>678</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="G1" s="49" t="s">
         <v>679</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="H1" s="50" t="s">
         <v>680</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>681</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>682</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51"/>
       <c r="B2" s="61" t="s">
+        <v>681</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>682</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>683</v>
+      </c>
+      <c r="E2" s="61" t="s">
         <v>684</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="F2" s="61" t="s">
         <v>685</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>686</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>687</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>688</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="62" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
@@ -6331,10 +6331,10 @@
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="51" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="61"/>
@@ -6345,16 +6345,16 @@
       <c r="A4" s="51"/>
       <c r="B4" s="61"/>
       <c r="C4" s="52" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G4" s="64"/>
     </row>
@@ -6362,10 +6362,10 @@
       <c r="A5" s="51"/>
       <c r="B5" s="61"/>
       <c r="C5" s="52" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="63"/>
@@ -6375,13 +6375,13 @@
       <c r="A6" s="51"/>
       <c r="B6" s="61"/>
       <c r="C6" s="52" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="64"/>
@@ -6399,13 +6399,13 @@
       <c r="A8" s="51"/>
       <c r="B8" s="61"/>
       <c r="C8" s="52" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="53"/>
@@ -6414,30 +6414,30 @@
       <c r="A9" s="51"/>
       <c r="B9" s="61"/>
       <c r="C9" s="51" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="51" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
       <c r="B10" s="61"/>
       <c r="C10" s="51" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="51"/>
@@ -6446,50 +6446,50 @@
       <c r="A11" s="51"/>
       <c r="B11" s="61"/>
       <c r="C11" s="51" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="32" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A12" s="51"/>
       <c r="B12" s="54"/>
       <c r="C12" s="51" t="s">
+        <v>708</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>709</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>710</v>
+      </c>
+      <c r="F12" s="51" t="s">
         <v>711</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>712</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>713</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>714</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
       <c r="B13" s="65" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -6499,10 +6499,10 @@
       <c r="A14" s="51"/>
       <c r="B14" s="65"/>
       <c r="C14" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -6512,10 +6512,10 @@
       <c r="A15" s="51"/>
       <c r="B15" s="65"/>
       <c r="C15" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -6525,10 +6525,10 @@
       <c r="A16" s="51"/>
       <c r="B16" s="65"/>
       <c r="C16" s="51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
@@ -6538,10 +6538,10 @@
       <c r="A17" s="51"/>
       <c r="B17" s="65"/>
       <c r="C17" s="51" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
@@ -6551,10 +6551,10 @@
       <c r="A18" s="51"/>
       <c r="B18" s="65"/>
       <c r="C18" s="51" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -6564,10 +6564,10 @@
       <c r="A19" s="51"/>
       <c r="B19" s="65"/>
       <c r="C19" s="51" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -6577,10 +6577,10 @@
       <c r="A20" s="51"/>
       <c r="B20" s="65"/>
       <c r="C20" s="51" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
@@ -6590,10 +6590,10 @@
       <c r="A21" s="51"/>
       <c r="B21" s="65"/>
       <c r="C21" s="51" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -6603,10 +6603,10 @@
       <c r="A22" s="51"/>
       <c r="B22" s="65"/>
       <c r="C22" s="51" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -6616,10 +6616,10 @@
       <c r="A23" s="51"/>
       <c r="B23" s="65"/>
       <c r="C23" s="51" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
@@ -6629,10 +6629,10 @@
       <c r="A24" s="51"/>
       <c r="B24" s="65"/>
       <c r="C24" s="51" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
@@ -6642,10 +6642,10 @@
       <c r="A25" s="51"/>
       <c r="B25" s="65"/>
       <c r="C25" s="51" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -6655,10 +6655,10 @@
       <c r="A26" s="51"/>
       <c r="B26" s="65"/>
       <c r="C26" s="51" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
@@ -6668,10 +6668,10 @@
       <c r="A27" s="51"/>
       <c r="B27" s="65"/>
       <c r="C27" s="51" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E27" s="51"/>
       <c r="F27" s="51"/>
@@ -6681,10 +6681,10 @@
       <c r="A28" s="51"/>
       <c r="B28" s="65"/>
       <c r="C28" s="51" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E28" s="51"/>
       <c r="F28" s="51"/>
@@ -6694,10 +6694,10 @@
       <c r="A29" s="51"/>
       <c r="B29" s="65"/>
       <c r="C29" s="51" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
@@ -6707,10 +6707,10 @@
       <c r="A30" s="51"/>
       <c r="B30" s="65"/>
       <c r="C30" s="51" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E30" s="51"/>
       <c r="F30" s="51"/>
@@ -6720,10 +6720,10 @@
       <c r="A31" s="51"/>
       <c r="B31" s="65"/>
       <c r="C31" s="51" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E31" s="51"/>
       <c r="F31" s="51"/>
@@ -6733,10 +6733,10 @@
       <c r="A32" s="51"/>
       <c r="B32" s="65"/>
       <c r="C32" s="51" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E32" s="51"/>
       <c r="F32" s="51"/>
@@ -6746,10 +6746,10 @@
       <c r="A33" s="51"/>
       <c r="B33" s="65"/>
       <c r="C33" s="51" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E33" s="51"/>
       <c r="F33" s="51"/>
@@ -6759,10 +6759,10 @@
       <c r="A34" s="51"/>
       <c r="B34" s="65"/>
       <c r="C34" s="51" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
@@ -6772,10 +6772,10 @@
       <c r="A35" s="51"/>
       <c r="B35" s="65"/>
       <c r="C35" s="51" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
@@ -6785,10 +6785,10 @@
       <c r="A36" s="51"/>
       <c r="B36" s="65"/>
       <c r="C36" s="51" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51"/>
@@ -6798,10 +6798,10 @@
       <c r="A37" s="51"/>
       <c r="B37" s="65"/>
       <c r="C37" s="51" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
@@ -6811,10 +6811,10 @@
       <c r="A38" s="51"/>
       <c r="B38" s="65"/>
       <c r="C38" s="51" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E38" s="51"/>
       <c r="F38" s="51"/>
@@ -6824,10 +6824,10 @@
       <c r="A39" s="51"/>
       <c r="B39" s="65"/>
       <c r="C39" s="51" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E39" s="51"/>
       <c r="F39" s="51"/>
@@ -6837,10 +6837,10 @@
       <c r="A40" s="51"/>
       <c r="B40" s="65"/>
       <c r="C40" s="51" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E40" s="51"/>
       <c r="F40" s="51"/>
@@ -6850,10 +6850,10 @@
       <c r="A41" s="51"/>
       <c r="B41" s="65"/>
       <c r="C41" s="51" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E41" s="51"/>
       <c r="F41" s="51"/>
@@ -6921,32 +6921,32 @@
         <v>45</v>
       </c>
       <c r="C48" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>726</v>
+      </c>
+      <c r="F48" s="51" t="s">
         <v>727</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>728</v>
-      </c>
-      <c r="E48" s="51" t="s">
-        <v>729</v>
-      </c>
-      <c r="F48" s="51" t="s">
-        <v>730</v>
       </c>
       <c r="G48" s="51"/>
     </row>
     <row r="49" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="51"/>
       <c r="B49" s="61" t="s">
+        <v>728</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>729</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>730</v>
+      </c>
+      <c r="E49" s="51" t="s">
         <v>731</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>732</v>
-      </c>
-      <c r="D49" s="51" t="s">
-        <v>733</v>
-      </c>
-      <c r="E49" s="51" t="s">
-        <v>734</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -6955,13 +6955,13 @@
       <c r="A50" s="51"/>
       <c r="B50" s="61"/>
       <c r="C50" s="51" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -6970,13 +6970,13 @@
       <c r="A51" s="51"/>
       <c r="B51" s="61"/>
       <c r="C51" s="51" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D51" s="51" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -6985,13 +6985,13 @@
       <c r="A52" s="51"/>
       <c r="B52" s="61"/>
       <c r="C52" s="51" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -7000,13 +7000,13 @@
       <c r="A53" s="51"/>
       <c r="B53" s="61"/>
       <c r="C53" s="51" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -7015,13 +7015,13 @@
       <c r="A54" s="51"/>
       <c r="B54" s="61"/>
       <c r="C54" s="51" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D54" s="51" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -7033,10 +7033,10 @@
         <v>121</v>
       </c>
       <c r="D55" s="51" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E55" s="51" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -7044,16 +7044,16 @@
     <row r="56" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A56" s="51"/>
       <c r="B56" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>751</v>
+      </c>
+      <c r="E56" s="51" t="s">
         <v>752</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>753</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>754</v>
-      </c>
-      <c r="E56" s="51" t="s">
-        <v>755</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -7061,16 +7061,16 @@
     <row r="57" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A57" s="51"/>
       <c r="B57" s="51" t="s">
+        <v>753</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>754</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="E57" s="51" t="s">
         <v>756</v>
-      </c>
-      <c r="C57" s="51" t="s">
-        <v>757</v>
-      </c>
-      <c r="D57" s="51" t="s">
-        <v>758</v>
-      </c>
-      <c r="E57" s="51" t="s">
-        <v>759</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -7078,16 +7078,16 @@
     <row r="58" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="51"/>
       <c r="B58" s="61" t="s">
+        <v>757</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>758</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>759</v>
+      </c>
+      <c r="E58" s="51" t="s">
         <v>760</v>
-      </c>
-      <c r="C58" s="51" t="s">
-        <v>761</v>
-      </c>
-      <c r="D58" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="E58" s="51" t="s">
-        <v>763</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -7096,13 +7096,13 @@
       <c r="A59" s="51"/>
       <c r="B59" s="61"/>
       <c r="C59" s="51" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -7110,7 +7110,7 @@
     <row r="60" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A60" s="51"/>
       <c r="B60" s="51" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C60" s="51"/>
       <c r="D60" s="51"/>
@@ -7151,7 +7151,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -7159,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -7167,7 +7167,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -7175,7 +7175,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -7183,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7191,7 +7191,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -7199,7 +7199,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7207,7 +7207,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7215,7 +7215,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -7223,7 +7223,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7231,7 +7231,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -7239,7 +7239,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7247,7 +7247,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7255,7 +7255,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -7263,7 +7263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7271,7 +7271,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -8506,8 +8506,8 @@
   <dimension ref="A1:AMK45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8614,10 +8614,10 @@
         <v>31</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="25" t="s">
@@ -8653,7 +8653,7 @@
         <v>212</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>213</v>
@@ -8688,7 +8688,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>790</v>
@@ -8729,7 +8729,7 @@
         <v>223</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>219</v>
@@ -8752,10 +8752,10 @@
         <v>222</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -8804,13 +8804,13 @@
         <v>31</v>
       </c>
       <c r="D10" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>233</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -8823,17 +8823,17 @@
     </row>
     <row r="11" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>236</v>
+        <v>793</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>213</v>
@@ -8849,20 +8849,20 @@
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>238</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>241</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -8875,20 +8875,20 @@
     </row>
     <row r="13" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -8901,20 +8901,20 @@
     </row>
     <row r="14" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -8927,20 +8927,20 @@
     </row>
     <row r="15" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -8953,20 +8953,20 @@
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>255</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>258</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -8981,13 +8981,13 @@
       <c r="A17" s="26"/>
       <c r="B17" s="1"/>
       <c r="C17" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17"/>
@@ -9003,13 +9003,13 @@
       <c r="A18" s="26"/>
       <c r="B18" s="1"/>
       <c r="C18" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>262</v>
-      </c>
       <c r="E18" s="25" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18"/>
@@ -9023,20 +9023,20 @@
     </row>
     <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -9049,20 +9049,20 @@
     </row>
     <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>269</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>272</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -9075,20 +9075,20 @@
     </row>
     <row r="21" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B21"/>
       <c r="C21" s="25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -9106,48 +9106,48 @@
         <v>31</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="26" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="L22" s="26" t="s">
         <v>279</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>282</v>
       </c>
       <c r="M22" s="29"/>
       <c r="N22" s="26" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>285</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>213</v>
@@ -9163,17 +9163,17 @@
     </row>
     <row r="24" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>213</v>
@@ -9189,209 +9189,209 @@
     </row>
     <row r="25" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="F25" s="25" t="s">
         <v>293</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C26" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>293</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>300</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="F29" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -9423,7 +9423,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>18</v>
@@ -9452,85 +9452,85 @@
     </row>
     <row r="2" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C8" s="32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="C9" s="32"/>
       <c r="D9" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E9" s="32"/>
     </row>
@@ -9562,7 +9562,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>18</v>
@@ -9591,72 +9591,72 @@
     </row>
     <row r="2" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="19"/>
       <c r="D7" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E7" s="32"/>
     </row>
@@ -9664,10 +9664,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E8" s="32"/>
     </row>
@@ -9676,7 +9676,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="19"/>
       <c r="D9" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E9" s="32"/>
     </row>
@@ -9717,7 +9717,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -9742,10 +9742,10 @@
       </c>
       <c r="B4"/>
       <c r="C4" s="19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -9756,46 +9756,46 @@
       </c>
       <c r="B5"/>
       <c r="C5" s="19" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>367</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>370</v>
       </c>
       <c r="E7"/>
     </row>
@@ -9808,43 +9808,43 @@
         <v>168</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>372</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>375</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
@@ -9859,11 +9859,11 @@
     </row>
     <row r="12" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>177</v>
@@ -9874,7 +9874,7 @@
     </row>
     <row r="13" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
@@ -9940,10 +9940,10 @@
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -9991,14 +9991,14 @@
     </row>
     <row r="4" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>32</v>
@@ -10006,55 +10006,55 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" s="34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="L5" s="34" t="s">
         <v>392</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>54</v>
@@ -10066,14 +10066,14 @@
     </row>
     <row r="7" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>54</v>
@@ -10085,14 +10085,14 @@
     </row>
     <row r="8" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>32</v>
@@ -10104,14 +10104,14 @@
     </row>
     <row r="9" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E9" s="21"/>
       <c r="H9"/>
@@ -10121,14 +10121,14 @@
     </row>
     <row r="10" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E10" s="21"/>
       <c r="H10"/>
@@ -10138,14 +10138,14 @@
     </row>
     <row r="11" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E11" s="21"/>
       <c r="H11"/>
@@ -10155,13 +10155,13 @@
     </row>
     <row r="12" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E12" s="21"/>
       <c r="H12"/>
@@ -10171,13 +10171,13 @@
     </row>
     <row r="13" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E13" s="21"/>
       <c r="H13"/>
@@ -10187,13 +10187,13 @@
     </row>
     <row r="14" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E14" s="21"/>
       <c r="H14"/>
@@ -10203,13 +10203,13 @@
     </row>
     <row r="15" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E15" s="21"/>
       <c r="H15"/>
@@ -10219,13 +10219,13 @@
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E16" s="21"/>
       <c r="H16"/>
@@ -10235,13 +10235,13 @@
     </row>
     <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E17" s="21"/>
       <c r="H17"/>
@@ -10251,13 +10251,13 @@
     </row>
     <row r="18" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>122</v>
@@ -10269,13 +10269,13 @@
     </row>
     <row r="19" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E19" s="21"/>
       <c r="H19"/>
@@ -10285,90 +10285,90 @@
     </row>
     <row r="20" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="L20" s="19" t="s">
         <v>441</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E25" s="21"/>
     </row>
@@ -10403,60 +10403,60 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>460</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="796">
   <si>
     <t>Term</t>
   </si>
@@ -2645,6 +2645,12 @@
 20. Cost of acquiring a subscriber(CAS)
 21. SLV to CAS ratio
 22. Months to recover CAS</t>
+  </si>
+  <si>
+    <t>Calculate breakevenr price whenever either of purchase price,fixed expense per unit or variable expense per unit undergoes change</t>
+  </si>
+  <si>
+    <t>As a system I will calculate breakevenr price whenever either of purchase price,fixed expense per unit and variable expense per unit undergoes change. The calculated breakeven price will be stored in associated PriceTaggedWithProduct version( which stores changed purchase price).</t>
   </si>
 </sst>
 </file>
@@ -2984,6 +2990,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2994,9 +3003,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5135,6 +5141,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D21:D23"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="A36:A39"/>
@@ -5145,18 +5163,6 @@
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6305,7 +6311,7 @@
     </row>
     <row r="2" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>681</v>
       </c>
       <c r="C2" s="51" t="s">
@@ -6314,14 +6320,14 @@
       <c r="D2" s="51" t="s">
         <v>683</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="62" t="s">
         <v>684</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="62" t="s">
         <v>685</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62" t="s">
+      <c r="G2" s="62"/>
+      <c r="H2" s="63" t="s">
         <v>686</v>
       </c>
     </row>
@@ -6329,21 +6335,21 @@
       <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="51" t="s">
         <v>687</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>688</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="64.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
-      <c r="B4" s="61"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="52" t="s">
         <v>689</v>
       </c>
@@ -6353,14 +6359,14 @@
       <c r="E4" s="52" t="s">
         <v>690</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="64" t="s">
         <v>691</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:8" ht="64.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
-      <c r="B5" s="61"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="52" t="s">
         <v>781</v>
       </c>
@@ -6368,12 +6374,12 @@
         <v>782</v>
       </c>
       <c r="E5" s="52"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
-      <c r="B6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="52" t="s">
         <v>692</v>
       </c>
@@ -6383,21 +6389,21 @@
       <c r="E6" s="52" t="s">
         <v>694</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
-      <c r="B7" s="61"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
-      <c r="F7" s="63"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
-      <c r="B8" s="61"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="52" t="s">
         <v>695</v>
       </c>
@@ -6407,12 +6413,12 @@
       <c r="E8" s="52" t="s">
         <v>697</v>
       </c>
-      <c r="F8" s="63"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
-      <c r="B9" s="61"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="51" t="s">
         <v>698</v>
       </c>
@@ -6422,14 +6428,14 @@
       <c r="E9" s="51" t="s">
         <v>700</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="51" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
-      <c r="B10" s="61"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="51" t="s">
         <v>702</v>
       </c>
@@ -6439,12 +6445,12 @@
       <c r="E10" s="51" t="s">
         <v>703</v>
       </c>
-      <c r="F10" s="63"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:8" ht="169" x14ac:dyDescent="0.35">
       <c r="A11" s="51"/>
-      <c r="B11" s="61"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="51" t="s">
         <v>704</v>
       </c>
@@ -6482,7 +6488,7 @@
     </row>
     <row r="13" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="61" t="s">
         <v>713</v>
       </c>
       <c r="C13" s="51" t="s">
@@ -6497,7 +6503,7 @@
     </row>
     <row r="14" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A14" s="51"/>
-      <c r="B14" s="65"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="51" t="s">
         <v>474</v>
       </c>
@@ -6510,7 +6516,7 @@
     </row>
     <row r="15" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A15" s="51"/>
-      <c r="B15" s="65"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="51" t="s">
         <v>476</v>
       </c>
@@ -6523,7 +6529,7 @@
     </row>
     <row r="16" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="51"/>
-      <c r="B16" s="65"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="51" t="s">
         <v>479</v>
       </c>
@@ -6536,7 +6542,7 @@
     </row>
     <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
-      <c r="B17" s="65"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="51" t="s">
         <v>492</v>
       </c>
@@ -6549,7 +6555,7 @@
     </row>
     <row r="18" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A18" s="51"/>
-      <c r="B18" s="65"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="51" t="s">
         <v>496</v>
       </c>
@@ -6562,7 +6568,7 @@
     </row>
     <row r="19" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="51"/>
-      <c r="B19" s="65"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="51" t="s">
         <v>500</v>
       </c>
@@ -6575,7 +6581,7 @@
     </row>
     <row r="20" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A20" s="51"/>
-      <c r="B20" s="65"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="51" t="s">
         <v>529</v>
       </c>
@@ -6588,7 +6594,7 @@
     </row>
     <row r="21" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A21" s="51"/>
-      <c r="B21" s="65"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="51" t="s">
         <v>715</v>
       </c>
@@ -6601,7 +6607,7 @@
     </row>
     <row r="22" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A22" s="51"/>
-      <c r="B22" s="65"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="51" t="s">
         <v>545</v>
       </c>
@@ -6614,7 +6620,7 @@
     </row>
     <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A23" s="51"/>
-      <c r="B23" s="65"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="51" t="s">
         <v>548</v>
       </c>
@@ -6627,7 +6633,7 @@
     </row>
     <row r="24" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A24" s="51"/>
-      <c r="B24" s="65"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="51" t="s">
         <v>551</v>
       </c>
@@ -6640,7 +6646,7 @@
     </row>
     <row r="25" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="51"/>
-      <c r="B25" s="65"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="51" t="s">
         <v>716</v>
       </c>
@@ -6653,7 +6659,7 @@
     </row>
     <row r="26" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A26" s="51"/>
-      <c r="B26" s="65"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="51" t="s">
         <v>556</v>
       </c>
@@ -6666,7 +6672,7 @@
     </row>
     <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="51"/>
-      <c r="B27" s="65"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="51" t="s">
         <v>717</v>
       </c>
@@ -6679,7 +6685,7 @@
     </row>
     <row r="28" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A28" s="51"/>
-      <c r="B28" s="65"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="51" t="s">
         <v>570</v>
       </c>
@@ -6692,7 +6698,7 @@
     </row>
     <row r="29" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="51"/>
-      <c r="B29" s="65"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="51" t="s">
         <v>573</v>
       </c>
@@ -6705,7 +6711,7 @@
     </row>
     <row r="30" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A30" s="51"/>
-      <c r="B30" s="65"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="51" t="s">
         <v>576</v>
       </c>
@@ -6718,7 +6724,7 @@
     </row>
     <row r="31" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A31" s="51"/>
-      <c r="B31" s="65"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="51" t="s">
         <v>581</v>
       </c>
@@ -6731,7 +6737,7 @@
     </row>
     <row r="32" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A32" s="51"/>
-      <c r="B32" s="65"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="51" t="s">
         <v>589</v>
       </c>
@@ -6744,7 +6750,7 @@
     </row>
     <row r="33" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A33" s="51"/>
-      <c r="B33" s="65"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="51" t="s">
         <v>592</v>
       </c>
@@ -6757,7 +6763,7 @@
     </row>
     <row r="34" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A34" s="51"/>
-      <c r="B34" s="65"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="51" t="s">
         <v>720</v>
       </c>
@@ -6770,7 +6776,7 @@
     </row>
     <row r="35" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="51"/>
-      <c r="B35" s="65"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="51" t="s">
         <v>597</v>
       </c>
@@ -6783,7 +6789,7 @@
     </row>
     <row r="36" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A36" s="51"/>
-      <c r="B36" s="65"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="51" t="s">
         <v>599</v>
       </c>
@@ -6796,7 +6802,7 @@
     </row>
     <row r="37" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A37" s="51"/>
-      <c r="B37" s="65"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="51" t="s">
         <v>602</v>
       </c>
@@ -6809,7 +6815,7 @@
     </row>
     <row r="38" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A38" s="51"/>
-      <c r="B38" s="65"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="51" t="s">
         <v>605</v>
       </c>
@@ -6822,7 +6828,7 @@
     </row>
     <row r="39" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A39" s="51"/>
-      <c r="B39" s="65"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="51" t="s">
         <v>608</v>
       </c>
@@ -6835,7 +6841,7 @@
     </row>
     <row r="40" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A40" s="51"/>
-      <c r="B40" s="65"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="51" t="s">
         <v>610</v>
       </c>
@@ -6848,7 +6854,7 @@
     </row>
     <row r="41" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A41" s="51"/>
-      <c r="B41" s="65"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="51" t="s">
         <v>722</v>
       </c>
@@ -6936,7 +6942,7 @@
     </row>
     <row r="49" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="51"/>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="62" t="s">
         <v>728</v>
       </c>
       <c r="C49" s="51" t="s">
@@ -6953,7 +6959,7 @@
     </row>
     <row r="50" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A50" s="51"/>
-      <c r="B50" s="61"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="51" t="s">
         <v>732</v>
       </c>
@@ -6968,7 +6974,7 @@
     </row>
     <row r="51" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A51" s="51"/>
-      <c r="B51" s="61"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="51" t="s">
         <v>735</v>
       </c>
@@ -6983,7 +6989,7 @@
     </row>
     <row r="52" spans="1:7" ht="91" x14ac:dyDescent="0.35">
       <c r="A52" s="51"/>
-      <c r="B52" s="61"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="51" t="s">
         <v>738</v>
       </c>
@@ -6998,7 +7004,7 @@
     </row>
     <row r="53" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A53" s="51"/>
-      <c r="B53" s="61"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="51" t="s">
         <v>741</v>
       </c>
@@ -7013,7 +7019,7 @@
     </row>
     <row r="54" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A54" s="51"/>
-      <c r="B54" s="61"/>
+      <c r="B54" s="62"/>
       <c r="C54" s="51" t="s">
         <v>744</v>
       </c>
@@ -7028,7 +7034,7 @@
     </row>
     <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A55" s="51"/>
-      <c r="B55" s="61"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="53" t="s">
         <v>121</v>
       </c>
@@ -7077,7 +7083,7 @@
     </row>
     <row r="58" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="51"/>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="62" t="s">
         <v>757</v>
       </c>
       <c r="C58" s="51" t="s">
@@ -7094,7 +7100,7 @@
     </row>
     <row r="59" spans="1:7" ht="234" x14ac:dyDescent="0.35">
       <c r="A59" s="51"/>
-      <c r="B59" s="61"/>
+      <c r="B59" s="62"/>
       <c r="C59" s="51" t="s">
         <v>761</v>
       </c>
@@ -7120,16 +7126,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B13:B41"/>
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F4:F10"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8181,7 +8187,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="65" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="52" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>163</v>
       </c>
@@ -8503,7 +8509,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK45"/>
+  <dimension ref="A1:AMK46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
@@ -8821,23 +8827,17 @@
       <c r="M10"/>
       <c r="N10"/>
     </row>
-    <row r="11" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
-        <v>232</v>
-      </c>
+    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="26"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="25" t="s">
-        <v>31</v>
-      </c>
+      <c r="C11" s="25"/>
       <c r="D11" s="25" t="s">
-        <v>233</v>
+        <v>794</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>793</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>213</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="F11" s="25"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -8847,22 +8847,22 @@
       <c r="M11"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="25" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>237</v>
+        <v>793</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -8873,22 +8873,22 @@
       <c r="M12"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="25" t="s">
         <v>235</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -8899,22 +8899,22 @@
       <c r="M13"/>
       <c r="N13"/>
     </row>
-    <row r="14" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="25" t="s">
         <v>235</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -8927,20 +8927,20 @@
     </row>
     <row r="15" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="25" t="s">
         <v>235</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -8951,22 +8951,22 @@
       <c r="M15"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="25" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -8978,18 +8978,22 @@
       <c r="N16"/>
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
+      <c r="A17" s="26" t="s">
+        <v>251</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="F17" s="25"/>
+        <v>254</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>255</v>
+      </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -9006,10 +9010,10 @@
         <v>256</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18"/>
@@ -9022,22 +9026,18 @@
       <c r="N18"/>
     </row>
     <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
-        <v>261</v>
-      </c>
+      <c r="A19" s="26"/>
       <c r="B19" s="1"/>
       <c r="C19" s="25" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>264</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F19" s="25"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -9049,20 +9049,20 @@
     </row>
     <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="25" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -9075,20 +9075,20 @@
     </row>
     <row r="21" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21"/>
+        <v>265</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="25" t="s">
         <v>266</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -9099,81 +9099,81 @@
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="1:14" ht="261" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="26" t="s">
+    <row r="22" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14" ht="261" x14ac:dyDescent="0.35">
+      <c r="A23" s="26"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D23" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="26" t="s">
+      <c r="F23" s="28"/>
+      <c r="G23" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="26" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J23" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="K23" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="L23" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="M22" s="29"/>
-      <c r="N22" s="26" t="s">
+      <c r="M23" s="29"/>
+      <c r="N23" s="26" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
+    <row r="24" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B24" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-    </row>
-    <row r="24" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="B24" s="26"/>
       <c r="C24" s="26" t="s">
         <v>283</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>213</v>
@@ -9189,208 +9189,234 @@
     </row>
     <row r="25" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+    </row>
+    <row r="26" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="26" t="s">
         <v>289</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="26" t="s">
-        <v>294</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>290</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>290</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>290</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>290</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>290</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>290</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E38" s="30" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="26" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="26" t="s">
         <v>333</v>
       </c>
     </row>

--- a/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
+++ b/documentation/requirements/SubscriptionRequirements_v0.004.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Applications\affaince\documentation\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\apps\affaince\documentation\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="989" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Terminologies used" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="837">
   <si>
     <t>Term</t>
   </si>
@@ -716,9 +716,6 @@
     <t>configuration</t>
   </si>
   <si>
-    <t>Capture demand and churn forecast for a product(for first time)</t>
-  </si>
-  <si>
     <t>PR_04</t>
   </si>
   <si>
@@ -726,9 +723,6 @@
   </si>
   <si>
     <t>Integration</t>
-  </si>
-  <si>
-    <t>Feed daily values for the attributes from main application</t>
   </si>
   <si>
     <t>As a system I will receive following attributes of every product and feed it in actuals of respective product account so as to calculate the offered price of a product.
@@ -761,9 +755,6 @@
     <t>Capture new subscriptions( all three types of price buckets)</t>
   </si>
   <si>
-    <t>As a System I will add  new subscription count for each subscribed product in the associated price bucket, in product account for a product of type "price committed" when a new subscriber has confirmed subscription,for every product that he/she has subscribed to.</t>
-  </si>
-  <si>
     <t>New subscription, product account</t>
   </si>
   <si>
@@ -773,9 +764,6 @@
     <t>Capture addition in subscription count of a product</t>
   </si>
   <si>
-    <t>As a System I will add additional subscription count in the latest price bucket (at the time of subscription) in product account for a product  of type "price committed" when an existing subscriber has added additional quantity,for that product. -- is the latest price bucket or is it the higher priced between older and newer price bucket???????</t>
-  </si>
-  <si>
     <t>Added subscripton,product account</t>
   </si>
   <si>
@@ -785,9 +773,6 @@
     <t>Capture chruning of subscription count of a product</t>
   </si>
   <si>
-    <t>As a System I will add cancelled subscription count of a product in "churned subscription count" in associated price buckets in product account for a product of type "price committed" when an existing subscriber has cancelled subscription for that product.</t>
-  </si>
-  <si>
     <t>Cancelled subscription</t>
   </si>
   <si>
@@ -795,9 +780,6 @@
   </si>
   <si>
     <t>Capture reduction of subscription count to a product</t>
-  </si>
-  <si>
-    <t>As a system I will add reduced subscription count of a product in "churned subscription count" in associated price buckets in case a subscriber reduces the quantity of a product .</t>
   </si>
   <si>
     <t>Reduced subscripton quantity,product account</t>
@@ -2566,17 +2548,6 @@
 7. it activation status ( if ACTIVE or yet in configured/registered/forecasted/step forecasted status).</t>
   </si>
   <si>
-    <t>As a system I will create a product account for every product that administrator has registered with affaince as a subscriptionable product so as to maintain all product related transactions data in it. It will have following provisions
-1. List of active tagged prices( purchase price and MRP pair)
-2. list of active fixed expenses
-3. list of active variable expenses
-4. List of recommended price buckets( those calculated by system and recommended to merchant)
-5. List of active in force price buckets( which are actually offered to customers during their subscriptions)
-6. Current stock in units
-7. product pricing catogry( if it is none committed, price committed or percent discount committed product)
-8. Credit points</t>
-  </si>
-  <si>
     <t>Configure product  with pricing paramters</t>
   </si>
   <si>
@@ -2601,19 +2572,6 @@
 4. To Date of Forecast
 5. purchase price per unit
 6. sale price per unit.</t>
-  </si>
-  <si>
-    <t>As an Adminstrator I will define which Parameters shuld be used for detemining the product price so as to decide which data should be captured in product forecast
-1. Product Pricing Policy
- 1.1 Instanteneous pricing
- 1.2 Historical data based(Regression based) pricing
-2. Threshold percentage difference between target and actual revenue to triggering price
-3. Whether to include cross price elasticity(optional) in pricing calculation: true/false
-4. Whether to include advertising expenses(optional) in pricing calculation : true/false
-5. period for which daily actuals should be aggregated to, in order to compare with target figures( weekly ,monthly,quarterly)
-6. next forecast date ( derived by the pricing logic)
-7. demand curve period( period for which historical data should be used for forecasting( last one year,last two years etc).
-8. Pricing options(if the system generated price shoul dbe automatically accepted as offered price, if system generated price should be ignored and price should be manually overridden by merchant  OR if the system generated price should be prompted to merchant for him to make a decision on its acceptance or overriding)</t>
   </si>
   <si>
     <t>Define forecast of next yer using actuals of current year</t>
@@ -2647,12 +2605,6 @@
 22. Months to recover CAS</t>
   </si>
   <si>
-    <t>Calculate breakevenr price whenever either of purchase price,fixed expense per unit or variable expense per unit undergoes change</t>
-  </si>
-  <si>
-    <t>As a system I will calculate breakevenr price whenever either of purchase price,fixed expense per unit and variable expense per unit undergoes change. The calculated breakeven price will be stored in associated PriceTaggedWithProduct version( which stores changed purchase price).</t>
-  </si>
-  <si>
     <t>Add Product Details</t>
   </si>
   <si>
@@ -2669,13 +2621,300 @@
   </si>
   <si>
     <t>Update offer price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a system I will create a product account for every product that administrator has registered,at the time of product registration, so as to maintain all product related transactions data in it. It will have following provisions
+1. List of active tagged prices( purchase price and MRP pair)
+2. list of active fixed expenses
+3. list of active variable expenses
+4. List of recommended price buckets( those calculated by system and recommended to merchant)
+5. List of active in force price buckets( which are actually offered to customers during their subscriptions)
+6. Current stock in units
+7. product pricing catogry( if it is none committed, price committed or percent discount committed product)
+8. Credit points that the product may have earned by crediting excess profit to nodal account OR  credit points that it may have loosened by loaning amount from nodal account. </t>
+  </si>
+  <si>
+    <t>As an Adminstrator I will define which Parameters shuld be used for detemining the product price .
+1. Product Pricing Policy
+ 1.1 Instanteneous pricing
+ 1.2 Historical data based(Regression based) pricing
+2. Threshold percentage difference between target and actual revenue to triggering price
+3. Whether to include cross price elasticity(optional) in pricing calculation: true/false
+4. Whether to include advertising expenses(optional) in pricing calculation : true/false
+5. period for which daily actuals should be aggregated to, in order to compare with target figures( weekly ,monthly,quarterly)
+6. next forecast date ( derived by the pricing logic)
+7. demand curve period( period for which historical data should be used for forecasting( last one year,last two years etc).
+8. Pricing options(if the system generated price should be automatically accepted as offered price, if system generated price should be ignored and price should be manually overridden by merchant  OR if the system generated price should be prompted to merchant for him to make a decision on its acceptance or overriding)</t>
+  </si>
+  <si>
+    <t>As an administrator I manually create targets for a product so as to compare the actual performance of that product against these predictions. The structure(for every product) will have following attributes.
+1. New subscriptions per period(week/month)
+2. Churned subscriptions per period(week/month) affiliated to each price bucket
+3. Total subscriptions per period
+3. From date of forecast
+4. To Date of Forecast
+5. purchase price per unit
+6. sale price per unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Set targets for a product( non modifiable for the defined period)</t>
+  </si>
+  <si>
+    <t>Capture demand and churn forecast for a product(for first time) ( System auto modifiable as per performance of the product)</t>
+  </si>
+  <si>
+    <t>Feed daily  price and stock values for the attributes from main application</t>
+  </si>
+  <si>
+    <t>Calculate breakeven price whenever either of purchase price,fixed expense per unit or variable expense per unit undergoes change</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>As a system I will calculate breakeven price whenever either of purchase price,fixed expense per unit and variable expense per unit undergoes change. The calculated breakeven price will be stored in associated PriceTaggedWithProduct version( which stores changed purchase price).</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>Activate the product uping minimum mandatory configuration</t>
+  </si>
+  <si>
+    <t>As an administrator I will provide opening offered price of the product when it is first time launched,so that product will be published on portal with that opening price as  offered price ,also the opening price will for a reference to calculate next offered prices depending upong performance of th product.</t>
+  </si>
+  <si>
+    <t>Capture opening price of a product (only when product is first  time launcehd as subscriptionable product)</t>
+  </si>
+  <si>
+    <t>As a System I will activate the product when all of the following activities are complated, in order to publish this product for subscriptions.
+1. Product registration
+2.Target setting for the product
+3. Setting periodic forecast for the product
+4. Setting next day forecast( pseudo actuals) for the product.
+5.Configure product for appropriate pricing category,pricing policy, and threshold values.
+6. Manually set the opening price of the product.
+7. All necessary configuration for  subscription has been done( in subscription domain).</t>
+  </si>
+  <si>
+    <t>As a System I will add  new subscription count for each subscribed product  unit in the associated price bucket, in product account for a product of type "price committed" when a new subscriber has confirmed subscription,for a product.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a System I will add additional subscription count in the latest price bucket (at the time of subscription) in product account for a product  of type "price committed" when an existing subscriber has added additional quantity,for that product. -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>is the latest price bucket or is it the higher priced between older and newer price bucket???????</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a System I will add additional subscription count in the latest price bucket (at the time of subscription) in product account for a product  of type "price committed" when an existing subscriber has added additional quantity,for that product. -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>is the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> latest price bucket or is it the higher priced between older and newer price bucket???????</t>
+    </r>
+  </si>
+  <si>
+    <t>As a System I will add cancelled subscription count equal to number of cancelled product units in "churned subscription count" in associated price buckets(at which price subscriber had registered) in product account for a product of type "price committed" when an existing subscriber has cancelled subscription for that product.</t>
+  </si>
+  <si>
+    <t>As a system I will add reduced subscription count equal to reduced product units in "churned subscription count" in associated price buckets(at which price subscriber had subscribed for the product) in case a subscriber reduces the quantity of a product .</t>
+  </si>
+  <si>
+    <t>It is expected that for first 10 prices merchant has to manaully enter price ,in case historical demand/pricing data is not available before system should start calculating price.</t>
+  </si>
+  <si>
+    <t>When system calculates new offer price when difference between forecast demand and actual demand cross the set threshold limit,system will caulcate new offered price. IN case merchant is manually chaning prices,whenever he changes price new offer price should come into existance be expiring earlier price.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RAHUL TO Answer.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ideally as overall business grows,delivery cost per unit should come down to certain level and then it may again start increasing ( as per law of economics).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They need to be manually configured using merchant experience. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RAHUL TO CHECK IF APPROPRIATE CONFIGURATION IS AVAILABLE OR NOT.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When a product gets withdrawn from market, it should stop accepting new subscriptions but continue fulfilling existing subscriptions until they last. IN such case the product activation status should be "WITHDRAWN". </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NEED TO CHECK IF THE REQUIREMENT IS CAPTURED.</t>
+    </r>
+  </si>
+  <si>
+    <t>All requirerements are defined and implemented. DONE.</t>
+  </si>
+  <si>
+    <t>Requirement is to validate how many prices are available and prompt merchant ot enter price until 10 prices are available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System has provided configuration on historical data availability after which it will switch from instanteneous demand based price to regression based price ONLY in case merchant has selected regression based pricing policy. IN case merchant has selected instanteneous demand based pricing policy ,the same will continue for price calculation for that product. Merchant can set different pricing policies for differnt products,as well as change earlier pricing policy .  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RAHUL TO Answer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. But I think initially fixed and variable operating expenses should be CONFIGURED manually as we have not done any busines yet.
+When subscriptions start flowing then we can get the revenue and demand figures which will help us derive fixed and variable operating expenses for each product.
+So In my opinion operating expenses should not be auto applied at least until first six months of business. If we calculate operating expense based on initial demands,they will come out to be very high as demand is initially low and business is gradually increasing. Once we reach some stabilization level then only it makes sense to calculate operating expenses. </t>
+    </r>
+  </si>
+  <si>
+    <t>Requirement to configure operating expenses manually( until they are applied automatically)
+Requirement to enable switching from manual op expenses to calculated op expenses.
+Requirement to calculate op expenses from day1 but do not apply it to products,insted use them to calculate the investment losses being encurred by the merchant.</t>
+  </si>
+  <si>
+    <t>requirement is to be decided in day2</t>
+  </si>
+  <si>
+    <t>requirement to withdraw product.</t>
+  </si>
+  <si>
+    <t>Need to be discussed . A BIG thinking required. A logic is required to distribute loss in next prices. Not yet clear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform will not take care of integration with payment gateway as it is expected tobe taken care of by main portal.
+</t>
+  </si>
+  <si>
+    <t>All requirements are discussed and defined. Most requirements are implemented.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Operating expenses are dleiery based. So current as well as future deliveries are taken into consideration while calculating variable expenses.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RAHUL to check logic for Common/fixed expenses.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Command ExecutionContext should be implemented fully. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NEED to check with Anay.</t>
+    </r>
+  </si>
+  <si>
+    <t>Should be timer based configuration. Ideally it should run weekly or monthly.</t>
+  </si>
+  <si>
+    <t>Already taken care of.</t>
+  </si>
+  <si>
+    <t>Reward points should have start and end dates . Thus when a subscriber is gaining any new reward points, they should be redeemed within 14 months of their award( it should be a configuration).
+First policy should be subscription cycle based rewar dpoints. So all reward points gained within a subscription cycle should be valid for six months after the end of that subscription cycle.
+Second policy is that whenever any new reward points are gained they will have their own start and end dates( end date will be 14/16/18 months after start dates) and they can be consumed in the order to their award.</t>
+  </si>
+  <si>
+    <t>Requirements to be added in benefits domain.</t>
+  </si>
+  <si>
+    <t>Did payment domain take care of doing the payment by redeeming reward points?</t>
+  </si>
+  <si>
+    <t>We need to have a requirement that we need to infrom main portal how much payment is happening in money , as how much of it might have been paid through reward points. Need to check payment domain.</t>
+  </si>
+  <si>
+    <t>The money equivalent of all the reward points earned by subscriber should  match with the provision for rewards in business account.</t>
+  </si>
+  <si>
+    <t>Need requirement and alogrithm for the same.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2738,6 +2977,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2838,7 +3089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2994,6 +3245,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3024,16 +3295,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3389,19 +3652,19 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="1"/>
-    <col min="3" max="3" width="18.21875" style="1"/>
+    <col min="1" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="18.1796875" style="1"/>
     <col min="4" max="4" width="108" style="1"/>
-    <col min="5" max="1025" width="9.21875" style="1"/>
+    <col min="5" max="1025" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C1"/>
       <c r="D1"/>
     </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3417,7 +3680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3425,7 +3688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3433,7 +3696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
@@ -3441,7 +3704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3449,7 +3712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
@@ -3457,7 +3720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
@@ -3481,25 +3744,25 @@
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="13.109375"/>
-    <col min="3" max="3" width="19.6640625"/>
-    <col min="4" max="4" width="38.33203125"/>
-    <col min="5" max="5" width="56.109375"/>
-    <col min="6" max="7" width="8.5546875"/>
-    <col min="8" max="8" width="11.21875"/>
+    <col min="1" max="1" width="8.54296875"/>
+    <col min="2" max="2" width="13.08984375"/>
+    <col min="3" max="3" width="19.6328125"/>
+    <col min="4" max="4" width="38.36328125"/>
+    <col min="5" max="5" width="56.08984375"/>
+    <col min="6" max="7" width="8.54296875"/>
+    <col min="8" max="8" width="11.1796875"/>
     <col min="9" max="9" width="20"/>
-    <col min="10" max="10" width="22.77734375"/>
+    <col min="10" max="10" width="22.81640625"/>
     <col min="11" max="11" width="22"/>
-    <col min="12" max="12" width="15.77734375"/>
-    <col min="13" max="13" width="21.5546875"/>
-    <col min="14" max="14" width="20.21875"/>
-    <col min="15" max="1025" width="8.5546875"/>
+    <col min="12" max="12" width="15.81640625"/>
+    <col min="13" max="13" width="21.54296875"/>
+    <col min="14" max="14" width="20.1796875"/>
+    <col min="15" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
@@ -3516,7 +3779,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>20</v>
@@ -3543,17 +3806,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="19" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -3565,17 +3828,17 @@
       <c r="M3" s="35"/>
       <c r="N3" s="35"/>
     </row>
-    <row r="4" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="19" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -3587,17 +3850,17 @@
       <c r="M4" s="35"/>
       <c r="N4" s="35"/>
     </row>
-    <row r="5" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="19" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -3609,51 +3872,51 @@
       <c r="M5" s="35"/>
       <c r="N5" s="35"/>
     </row>
-    <row r="6" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
-        <v>478</v>
+    <row r="6" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="65" t="s">
+        <v>472</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="58" t="s">
-        <v>479</v>
+      <c r="D6" s="66" t="s">
+        <v>473</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M6" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N6" s="37" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="65"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
-      <c r="D7" s="58"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="19" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -3665,13 +3928,13 @@
       <c r="M7" s="35"/>
       <c r="N7" s="35"/>
     </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
+    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="65"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
-      <c r="D8" s="58"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="19" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -3683,51 +3946,51 @@
       <c r="M8" s="35"/>
       <c r="N8" s="35"/>
     </row>
-    <row r="9" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
-        <v>491</v>
+    <row r="9" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="65" t="s">
+        <v>485</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="58" t="s">
-        <v>492</v>
+      <c r="D9" s="66" t="s">
+        <v>486</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="57"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="65"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
-      <c r="D10" s="58"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="19" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -3739,13 +4002,13 @@
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
     </row>
-    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="57"/>
+    <row r="11" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="65"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
-      <c r="D11" s="58"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="19" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -3757,51 +4020,51 @@
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
     </row>
-    <row r="12" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
-        <v>495</v>
+    <row r="12" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="65" t="s">
+        <v>489</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
-      <c r="D12" s="58" t="s">
-        <v>496</v>
+      <c r="D12" s="66" t="s">
+        <v>490</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N12" s="37" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="65"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
-      <c r="D13" s="58"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="19" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -3813,13 +4076,13 @@
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
     </row>
-    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="57"/>
+    <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="65"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
-      <c r="D14" s="58"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="19" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -3831,51 +4094,51 @@
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
     </row>
-    <row r="15" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
-        <v>499</v>
+    <row r="15" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="65" t="s">
+        <v>493</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="58" t="s">
-        <v>500</v>
+      <c r="D15" s="66" t="s">
+        <v>494</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M15" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N15" s="37" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="65"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
-      <c r="D16" s="58"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="19" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -3887,13 +4150,13 @@
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
     </row>
-    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
+    <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="65"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
-      <c r="D17" s="58"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="19" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -3905,51 +4168,51 @@
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
     </row>
-    <row r="18" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
-        <v>503</v>
+    <row r="18" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="65" t="s">
+        <v>497</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="58" t="s">
-        <v>504</v>
+      <c r="D18" s="66" t="s">
+        <v>498</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="65"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="58"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="19" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -3961,13 +4224,13 @@
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
     </row>
-    <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
+    <row r="20" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="65"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
-      <c r="D20" s="58"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="19" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -3979,51 +4242,51 @@
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
     </row>
-    <row r="21" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
-        <v>507</v>
+    <row r="21" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="65" t="s">
+        <v>501</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="58" t="s">
-        <v>508</v>
+      <c r="D21" s="66" t="s">
+        <v>502</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M21" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="65"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="58"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="19" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -4035,13 +4298,13 @@
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
     </row>
-    <row r="23" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="57"/>
+    <row r="23" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="65"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="58"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="19" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -4053,51 +4316,51 @@
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
     </row>
-    <row r="24" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
-        <v>511</v>
+    <row r="24" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="65" t="s">
+        <v>505</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="58" t="s">
-        <v>512</v>
+      <c r="D24" s="66" t="s">
+        <v>506</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="65"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
-      <c r="D25" s="58"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="19" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
@@ -4109,13 +4372,13 @@
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
     </row>
-    <row r="26" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
+    <row r="26" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="65"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
-      <c r="D26" s="58"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="19" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
@@ -4127,51 +4390,51 @@
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
     </row>
-    <row r="27" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
-        <v>515</v>
+    <row r="27" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="65" t="s">
+        <v>509</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="58" t="s">
-        <v>516</v>
+      <c r="D27" s="66" t="s">
+        <v>510</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L27" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="65"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="58"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="19" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -4183,13 +4446,13 @@
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
     </row>
-    <row r="29" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
+    <row r="29" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="65"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="58"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="19" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -4201,51 +4464,51 @@
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
     </row>
-    <row r="30" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
-        <v>519</v>
+    <row r="30" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="65" t="s">
+        <v>513</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="58" t="s">
-        <v>520</v>
+      <c r="D30" s="66" t="s">
+        <v>514</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H30" s="34"/>
       <c r="I30" s="37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M30" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N30" s="37" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="57"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="65"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="58"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="19" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
@@ -4257,13 +4520,13 @@
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
     </row>
-    <row r="32" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="57"/>
+    <row r="32" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="65"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="58"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="19" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
@@ -4275,51 +4538,51 @@
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
     </row>
-    <row r="33" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57" t="s">
-        <v>523</v>
+    <row r="33" spans="1:14" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="65" t="s">
+        <v>517</v>
       </c>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="58" t="s">
-        <v>524</v>
+      <c r="D33" s="66" t="s">
+        <v>518</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H33" s="34"/>
       <c r="I33" s="37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J33" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M33" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="57"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="65"/>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
-      <c r="D34" s="58"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="19" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
@@ -4331,13 +4594,13 @@
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
     </row>
-    <row r="35" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="57"/>
+    <row r="35" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="65"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
-      <c r="D35" s="58"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="19" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
@@ -4349,17 +4612,17 @@
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
     </row>
-    <row r="36" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
-        <v>527</v>
+    <row r="36" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="65" t="s">
+        <v>521</v>
       </c>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="58" t="s">
-        <v>528</v>
+      <c r="D36" s="66" t="s">
+        <v>522</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -4371,13 +4634,13 @@
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
     </row>
-    <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="57"/>
+    <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="65"/>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="58"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="38" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
@@ -4389,13 +4652,13 @@
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
     </row>
-    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="57"/>
+    <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="65"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="58"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="39" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
@@ -4407,89 +4670,89 @@
       <c r="M38" s="40"/>
       <c r="N38" s="40"/>
     </row>
-    <row r="39" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="57"/>
+    <row r="39" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A39" s="65"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="58"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="39" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H39" s="37"/>
       <c r="I39" s="37" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="J39" s="37" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="K39" s="37" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="L39" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M39" s="37" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="N39" s="37" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="34" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="J40" s="37" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="K40" s="37" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L40" s="34" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M40" s="34" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="19" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -4501,17 +4764,17 @@
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
     </row>
-    <row r="42" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="19" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
@@ -4523,17 +4786,17 @@
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
     </row>
-    <row r="43" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="19" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -4545,17 +4808,17 @@
       <c r="M43" s="35"/>
       <c r="N43" s="35"/>
     </row>
-    <row r="44" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="36" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -4567,131 +4830,131 @@
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
     </row>
-    <row r="45" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="36" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H45" s="34"/>
       <c r="I45" s="34" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="J45" s="34" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="L45" s="34" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M45" s="34" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="N45" s="34" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="36" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H46" s="34"/>
       <c r="I46" s="34" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="J46" s="34" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="L46" s="34" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M46" s="34" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="36" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H47" s="34"/>
       <c r="I47" s="34" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="K47" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="L47" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="M47" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="N47" s="34" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="34" t="s">
         <v>566</v>
-      </c>
-      <c r="L47" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="M47" s="34" t="s">
-        <v>567</v>
-      </c>
-      <c r="N47" s="34" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
-        <v>572</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="19" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -4703,93 +4966,93 @@
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
     </row>
-    <row r="49" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="36" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H49" s="34"/>
       <c r="I49" s="34" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="L49" s="34" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M49" s="34" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="N49" s="34" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
       <c r="D50" s="36" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H50" s="34"/>
       <c r="I50" s="34" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L50" s="34" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M50" s="34" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="N50" s="34" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
       <c r="D51" s="19" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
@@ -4801,17 +5064,17 @@
       <c r="M51" s="35"/>
       <c r="N51" s="35"/>
     </row>
-    <row r="52" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
       <c r="D52" s="19" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="34"/>
@@ -4823,17 +5086,17 @@
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
     </row>
-    <row r="53" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
       <c r="D53" s="19" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
@@ -4845,17 +5108,17 @@
       <c r="M53" s="35"/>
       <c r="N53" s="35"/>
     </row>
-    <row r="54" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
       <c r="D54" s="19" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
@@ -4867,17 +5130,17 @@
       <c r="M54" s="35"/>
       <c r="N54" s="35"/>
     </row>
-    <row r="55" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
       <c r="D55" s="19" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
@@ -4889,17 +5152,17 @@
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
     </row>
-    <row r="56" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
       <c r="D56" s="19" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="34"/>
@@ -4911,55 +5174,55 @@
       <c r="M56" s="35"/>
       <c r="N56" s="35"/>
     </row>
-    <row r="57" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H57" s="34"/>
       <c r="I57" s="34" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="J57" s="34" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K57" s="34" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L57" s="34" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M57" s="34" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="N57" s="34" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
       <c r="D58" s="19" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
@@ -4971,17 +5234,17 @@
       <c r="M58" s="35"/>
       <c r="N58" s="35"/>
     </row>
-    <row r="59" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
       <c r="D59" s="19" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
@@ -4993,7 +5256,7 @@
       <c r="M59" s="35"/>
       <c r="N59" s="35"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -5009,7 +5272,7 @@
       <c r="M60" s="35"/>
       <c r="N60" s="35"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
@@ -5025,7 +5288,7 @@
       <c r="M61" s="35"/>
       <c r="N61" s="35"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
@@ -5041,7 +5304,7 @@
       <c r="M62" s="35"/>
       <c r="N62" s="35"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
@@ -5057,7 +5320,7 @@
       <c r="M63" s="35"/>
       <c r="N63" s="35"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -5073,7 +5336,7 @@
       <c r="M64" s="35"/>
       <c r="N64" s="35"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -5089,7 +5352,7 @@
       <c r="M65" s="35"/>
       <c r="N65" s="35"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -5105,7 +5368,7 @@
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -5121,7 +5384,7 @@
       <c r="M67" s="35"/>
       <c r="N67" s="35"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -5137,7 +5400,7 @@
       <c r="M68" s="35"/>
       <c r="N68" s="35"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -5153,7 +5416,7 @@
       <c r="M69" s="35"/>
       <c r="N69" s="35"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="35"/>
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
@@ -5207,19 +5470,19 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="13.109375"/>
-    <col min="3" max="3" width="19.6640625"/>
-    <col min="4" max="4" width="38.33203125"/>
-    <col min="5" max="5" width="56.109375"/>
-    <col min="6" max="7" width="8.5546875"/>
-    <col min="8" max="8" width="11.21875"/>
-    <col min="9" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="8.54296875"/>
+    <col min="2" max="2" width="13.08984375"/>
+    <col min="3" max="3" width="19.6328125"/>
+    <col min="4" max="4" width="38.36328125"/>
+    <col min="5" max="5" width="56.08984375"/>
+    <col min="6" max="7" width="8.54296875"/>
+    <col min="8" max="8" width="11.1796875"/>
+    <col min="9" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
@@ -5261,14 +5524,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
@@ -5281,7 +5544,7 @@
       <c r="M3" s="35"/>
       <c r="N3" s="35"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -5297,12 +5560,12 @@
       <c r="M4" s="35"/>
       <c r="N4" s="35"/>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
@@ -5315,7 +5578,7 @@
       <c r="M5" s="35"/>
       <c r="N5" s="35"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -5331,7 +5594,7 @@
       <c r="M6" s="35"/>
       <c r="N6" s="35"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -5347,12 +5610,12 @@
       <c r="M7" s="35"/>
       <c r="N7" s="35"/>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
@@ -5365,12 +5628,12 @@
       <c r="M8" s="35"/>
       <c r="N8" s="35"/>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
@@ -5383,12 +5646,12 @@
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -5401,12 +5664,12 @@
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
@@ -5419,7 +5682,7 @@
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -5435,12 +5698,12 @@
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -5453,12 +5716,12 @@
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
     </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -5471,12 +5734,12 @@
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
     </row>
-    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -5489,12 +5752,12 @@
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
     </row>
-    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="34"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -5507,7 +5770,7 @@
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -5523,12 +5786,12 @@
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
     </row>
-    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
@@ -5541,12 +5804,12 @@
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
     </row>
-    <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
@@ -5559,7 +5822,7 @@
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -5575,12 +5838,12 @@
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
     </row>
-    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -5593,12 +5856,12 @@
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
     </row>
-    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="34"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
@@ -5611,7 +5874,7 @@
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -5627,12 +5890,12 @@
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
     </row>
-    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
@@ -5645,12 +5908,12 @@
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
     </row>
-    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="34"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -5663,12 +5926,12 @@
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
     </row>
-    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
@@ -5681,7 +5944,7 @@
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -5697,7 +5960,7 @@
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -5713,7 +5976,7 @@
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -5729,7 +5992,7 @@
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -5745,7 +6008,7 @@
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -5761,7 +6024,7 @@
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -5777,7 +6040,7 @@
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -5793,7 +6056,7 @@
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="34"/>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -5809,7 +6072,7 @@
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -5825,7 +6088,7 @@
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -5841,7 +6104,7 @@
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="34"/>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -5857,7 +6120,7 @@
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="34"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -5873,7 +6136,7 @@
       <c r="M38" s="35"/>
       <c r="N38" s="35"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="34"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -5889,7 +6152,7 @@
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="34"/>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
@@ -5905,7 +6168,7 @@
       <c r="M40" s="35"/>
       <c r="N40" s="35"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -5935,15 +6198,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.88671875"/>
-    <col min="2" max="1025" width="9.21875"/>
+    <col min="1" max="1" width="45.90625"/>
+    <col min="2" max="1025" width="9.1796875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -5964,154 +6227,154 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="36.5546875"/>
-    <col min="3" max="3" width="30.44140625"/>
+    <col min="1" max="1" width="8.54296875"/>
+    <col min="2" max="2" width="36.54296875"/>
+    <col min="3" max="3" width="30.453125"/>
     <col min="4" max="4" width="42"/>
-    <col min="5" max="5" width="36.5546875"/>
-    <col min="6" max="6" width="43.44140625"/>
-    <col min="7" max="1025" width="8.5546875"/>
+    <col min="5" max="5" width="36.54296875"/>
+    <col min="6" max="6" width="43.453125"/>
+    <col min="7" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="35">
         <v>1</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="35">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="35">
         <v>2</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="35">
         <v>3</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
         <v>4</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="35">
         <v>5</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="35">
         <v>6</v>
       </c>
@@ -6119,13 +6382,13 @@
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="35">
         <v>7</v>
       </c>
@@ -6133,11 +6396,11 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="35">
         <v>8</v>
       </c>
@@ -6145,11 +6408,11 @@
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -6157,7 +6420,7 @@
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -6165,7 +6428,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -6173,7 +6436,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -6181,65 +6444,65 @@
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
       <c r="B16" s="44" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35"/>
-      <c r="B17" s="59" t="s">
-        <v>669</v>
-      </c>
-      <c r="C17" s="59"/>
+      <c r="B17" s="67" t="s">
+        <v>663</v>
+      </c>
+      <c r="C17" s="67"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
-      <c r="B18" s="59" t="s">
-        <v>670</v>
-      </c>
-      <c r="C18" s="59"/>
+      <c r="B18" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="C18" s="67"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
-      <c r="B19" s="59" t="s">
-        <v>671</v>
-      </c>
-      <c r="C19" s="59"/>
+      <c r="B19" s="67" t="s">
+        <v>665</v>
+      </c>
+      <c r="C19" s="67"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
-      <c r="B20" s="59" t="s">
-        <v>672</v>
-      </c>
-      <c r="C20" s="59"/>
+      <c r="B20" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="C20" s="67"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="35"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -6247,7 +6510,7 @@
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="35"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -6255,7 +6518,7 @@
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="35"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -6263,7 +6526,7 @@
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -6271,7 +6534,7 @@
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -6300,602 +6563,602 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="19.33203125"/>
+    <col min="1" max="1" width="8.54296875"/>
+    <col min="2" max="2" width="19.36328125"/>
     <col min="3" max="3" width="56"/>
     <col min="4" max="4" width="48"/>
-    <col min="5" max="5" width="54.77734375"/>
-    <col min="6" max="6" width="56.109375"/>
-    <col min="7" max="7" width="91.77734375"/>
-    <col min="8" max="8" width="25.109375"/>
-    <col min="9" max="1025" width="8.5546875"/>
+    <col min="5" max="5" width="54.81640625"/>
+    <col min="6" max="6" width="56.08984375"/>
+    <col min="7" max="7" width="91.81640625"/>
+    <col min="8" max="8" width="25.08984375"/>
+    <col min="9" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
+        <v>667</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>668</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>669</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>670</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>671</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>673</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="H1" s="46" t="s">
         <v>674</v>
       </c>
-      <c r="C1" s="45" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="47"/>
+      <c r="B2" s="68" t="s">
         <v>675</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="C2" s="47" t="s">
         <v>676</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="D2" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="E2" s="68" t="s">
         <v>678</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="F2" s="68" t="s">
         <v>679</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="G2" s="68"/>
+      <c r="H2" s="69" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="60" t="s">
-        <v>681</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>684</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>685</v>
-      </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="47" t="s">
+        <v>681</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
+    </row>
+    <row r="4" spans="1:8" ht="64.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="47"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="48" t="s">
+        <v>683</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>774</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>684</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>685</v>
+      </c>
+      <c r="G4" s="71"/>
+    </row>
+    <row r="5" spans="1:8" ht="64.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="47"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="48" t="s">
+        <v>775</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>776</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+    </row>
+    <row r="6" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+      <c r="A6" s="47"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="D6" s="48" t="s">
         <v>687</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="E6" s="48" t="s">
         <v>688</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
-    </row>
-    <row r="4" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>780</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>690</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>691</v>
-      </c>
-      <c r="G4" s="63"/>
-    </row>
-    <row r="5" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-    </row>
-    <row r="6" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="48" t="s">
-        <v>692</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>693</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>694</v>
-      </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="47"/>
-      <c r="B7" s="60"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
-      <c r="F7" s="62"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="49"/>
     </row>
-    <row r="8" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="104" x14ac:dyDescent="0.35">
       <c r="A8" s="47"/>
-      <c r="B8" s="60"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="48" t="s">
+        <v>689</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>690</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>691</v>
+      </c>
+      <c r="F8" s="70"/>
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="1:8" ht="91" x14ac:dyDescent="0.35">
+      <c r="A9" s="47"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="47" t="s">
+        <v>692</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>693</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>694</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="47" t="s">
         <v>695</v>
       </c>
-      <c r="D8" s="48" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+      <c r="A10" s="47"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="47" t="s">
         <v>696</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="D10" s="47" t="s">
+        <v>693</v>
+      </c>
+      <c r="E10" s="47" t="s">
         <v>697</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="47" t="s">
+      <c r="F10" s="70"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:8" ht="169" x14ac:dyDescent="0.35">
+      <c r="A11" s="47"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="47" t="s">
         <v>698</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D11" s="47" t="s">
         <v>699</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E11" s="47" t="s">
         <v>700</v>
-      </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="47" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="47" t="s">
-        <v>702</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>699</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>703</v>
-      </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" spans="1:8" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="47" t="s">
-        <v>704</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>705</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>706</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
       <c r="H11" s="28" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="91" x14ac:dyDescent="0.35">
       <c r="A12" s="47"/>
       <c r="B12" s="50"/>
       <c r="C12" s="47" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G12" s="47"/>
       <c r="H12" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="47"/>
-      <c r="B13" s="64" t="s">
-        <v>713</v>
+      <c r="B13" s="72" t="s">
+        <v>707</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
     </row>
-    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A14" s="47"/>
-      <c r="B14" s="64"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="47" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
     </row>
-    <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="65" x14ac:dyDescent="0.35">
       <c r="A15" s="47"/>
-      <c r="B15" s="64"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="47" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
     </row>
-    <row r="16" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="47"/>
-      <c r="B16" s="64"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="47" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
     </row>
-    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="47"/>
-      <c r="B17" s="64"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="47" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
     </row>
-    <row r="18" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A18" s="47"/>
-      <c r="B18" s="64"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="47" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
     </row>
-    <row r="19" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="47"/>
-      <c r="B19" s="64"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="47" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
     </row>
-    <row r="20" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A20" s="47"/>
-      <c r="B20" s="64"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="47" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
     </row>
-    <row r="21" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A21" s="47"/>
-      <c r="B21" s="64"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="47" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
     </row>
-    <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A22" s="47"/>
-      <c r="B22" s="64"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="47" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
     </row>
-    <row r="23" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A23" s="47"/>
-      <c r="B23" s="64"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="47" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
     </row>
-    <row r="24" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A24" s="47"/>
-      <c r="B24" s="64"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="47" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
     </row>
-    <row r="25" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="47"/>
-      <c r="B25" s="64"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="47" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
     </row>
-    <row r="26" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A26" s="47"/>
-      <c r="B26" s="64"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="47" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
     </row>
-    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="47"/>
-      <c r="B27" s="64"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="47" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47"/>
       <c r="G27" s="47"/>
     </row>
-    <row r="28" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A28" s="47"/>
-      <c r="B28" s="64"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="47" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
     </row>
-    <row r="29" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="47"/>
-      <c r="B29" s="64"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="47" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
     </row>
-    <row r="30" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A30" s="47"/>
-      <c r="B30" s="64"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="47" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
     </row>
-    <row r="31" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A31" s="47"/>
-      <c r="B31" s="64"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="47" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
     </row>
-    <row r="32" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A32" s="47"/>
-      <c r="B32" s="64"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="47" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
     </row>
-    <row r="33" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A33" s="47"/>
-      <c r="B33" s="64"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="47" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
     </row>
-    <row r="34" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
-      <c r="B34" s="64"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="47" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="47"/>
       <c r="G34" s="47"/>
     </row>
-    <row r="35" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="47"/>
-      <c r="B35" s="64"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="47" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
     </row>
-    <row r="36" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A36" s="47"/>
-      <c r="B36" s="64"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="47" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E36" s="47"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
     </row>
-    <row r="37" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A37" s="47"/>
-      <c r="B37" s="64"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="47" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="47"/>
       <c r="G37" s="47"/>
     </row>
-    <row r="38" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A38" s="47"/>
-      <c r="B38" s="64"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="47" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
     </row>
-    <row r="39" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A39" s="47"/>
-      <c r="B39" s="64"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="47" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="47"/>
       <c r="G39" s="47"/>
     </row>
-    <row r="40" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A40" s="47"/>
-      <c r="B40" s="64"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="47" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
     </row>
-    <row r="41" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A41" s="47"/>
-      <c r="B41" s="64"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="47" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E41" s="47"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="47"/>
       <c r="B42" s="50"/>
       <c r="C42" s="47"/>
@@ -6904,7 +7167,7 @@
       <c r="F42" s="47"/>
       <c r="G42" s="47"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="47"/>
       <c r="B43" s="50"/>
       <c r="C43" s="47"/>
@@ -6913,7 +7176,7 @@
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="47"/>
       <c r="B44" s="50"/>
       <c r="C44" s="47"/>
@@ -6922,7 +7185,7 @@
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="47"/>
       <c r="B45" s="50"/>
       <c r="C45" s="47"/>
@@ -6931,7 +7194,7 @@
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="47"/>
       <c r="B46" s="50"/>
       <c r="C46" s="47"/>
@@ -6940,7 +7203,7 @@
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="47"/>
       <c r="B47" s="50"/>
       <c r="C47" s="47"/>
@@ -6949,7 +7212,7 @@
       <c r="F47" s="47"/>
       <c r="G47" s="47"/>
     </row>
-    <row r="48" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A48" s="47">
         <v>2</v>
       </c>
@@ -6957,196 +7220,196 @@
         <v>45</v>
       </c>
       <c r="C48" s="47" t="s">
+        <v>718</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>719</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>720</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>721</v>
+      </c>
+      <c r="G48" s="47"/>
+    </row>
+    <row r="49" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="47"/>
+      <c r="B49" s="68" t="s">
+        <v>722</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>723</v>
+      </c>
+      <c r="D49" s="47" t="s">
         <v>724</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="E49" s="47" t="s">
         <v>725</v>
-      </c>
-      <c r="E48" s="47" t="s">
-        <v>726</v>
-      </c>
-      <c r="F48" s="47" t="s">
-        <v>727</v>
-      </c>
-      <c r="G48" s="47"/>
-    </row>
-    <row r="49" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
-      <c r="B49" s="60" t="s">
-        <v>728</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>729</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>730</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>731</v>
       </c>
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
     </row>
-    <row r="50" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A50" s="47"/>
-      <c r="B50" s="60"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="47" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F50" s="47"/>
       <c r="G50" s="47"/>
     </row>
-    <row r="51" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A51" s="47"/>
-      <c r="B51" s="60"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="47" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F51" s="47"/>
       <c r="G51" s="47"/>
     </row>
-    <row r="52" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="91" x14ac:dyDescent="0.35">
       <c r="A52" s="47"/>
-      <c r="B52" s="60"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="47" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
     </row>
-    <row r="53" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A53" s="47"/>
-      <c r="B53" s="60"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="47" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F53" s="47"/>
       <c r="G53" s="47"/>
     </row>
-    <row r="54" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A54" s="47"/>
-      <c r="B54" s="60"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="47" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E54" s="47" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F54" s="47"/>
       <c r="G54" s="47"/>
     </row>
-    <row r="55" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A55" s="47"/>
-      <c r="B55" s="60"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E55" s="47" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F55" s="47"/>
       <c r="G55" s="47"/>
     </row>
-    <row r="56" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A56" s="47"/>
       <c r="B56" s="47" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E56" s="47" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="F56" s="47"/>
       <c r="G56" s="47"/>
     </row>
-    <row r="57" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A57" s="47"/>
       <c r="B57" s="47" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F57" s="47"/>
       <c r="G57" s="47"/>
     </row>
-    <row r="58" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="47"/>
-      <c r="B58" s="60" t="s">
-        <v>757</v>
+      <c r="B58" s="68" t="s">
+        <v>751</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="F58" s="47"/>
       <c r="G58" s="47"/>
     </row>
-    <row r="59" spans="1:7" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="234" x14ac:dyDescent="0.35">
       <c r="A59" s="47"/>
-      <c r="B59" s="60"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="47" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F59" s="47"/>
       <c r="G59" s="47"/>
     </row>
-    <row r="60" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A60" s="47"/>
       <c r="B60" s="47" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C60" s="47"/>
       <c r="D60" s="47"/>
@@ -7174,145 +7437,235 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="89.44140625"/>
-    <col min="3" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="8.54296875" style="61"/>
+    <col min="2" max="2" width="89.453125" style="61"/>
+    <col min="3" max="3" width="50.81640625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="59.90625" style="61" customWidth="1"/>
+    <col min="6" max="1025" width="8.54296875" style="61"/>
+    <col min="1026" max="16384" width="8.7265625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="61">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="61" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>476</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="61">
+        <v>2</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>760</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="61">
+        <v>3</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>761</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+      <c r="A5" s="61">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>820</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="61">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>814</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="61">
+        <v>6</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>764</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="61">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C8" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="61">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C9" s="30" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="61">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C10" s="32" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="61">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C11" s="30" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="61">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C12" s="30" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="61">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C13" s="30" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="61">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C14" s="30" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="61">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C15" s="30" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="61">
+        <v>15</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>779</v>
+      <c r="C16" s="30" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="73" t="s">
+        <v>831</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="B18" s="61" t="s">
+        <v>833</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7320,25 +7673,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="4"/>
-    <col min="2" max="2" width="15.21875" style="4"/>
-    <col min="3" max="3" width="16.33203125" style="4"/>
-    <col min="4" max="4" width="79.21875" style="4"/>
-    <col min="5" max="7" width="16.33203125" style="4"/>
-    <col min="8" max="8" width="20.109375" style="4"/>
-    <col min="9" max="12" width="16.33203125" style="4"/>
-    <col min="13" max="13" width="17.88671875" style="4"/>
-    <col min="14" max="1025" width="16.33203125" style="4"/>
+    <col min="1" max="1" width="10.36328125" style="4"/>
+    <col min="2" max="2" width="15.1796875" style="4"/>
+    <col min="3" max="3" width="16.36328125" style="4"/>
+    <col min="4" max="4" width="79.1796875" style="4"/>
+    <col min="5" max="7" width="16.36328125" style="4"/>
+    <col min="8" max="8" width="20.08984375" style="4"/>
+    <col min="9" max="12" width="16.36328125" style="4"/>
+    <col min="13" max="13" width="17.90625" style="4"/>
+    <col min="14" max="1025" width="16.36328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -7377,7 +7730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -7392,7 +7745,7 @@
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="39" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -7427,12 +7780,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="54" t="s">
         <v>39</v>
       </c>
@@ -7460,7 +7813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -7472,14 +7825,14 @@
       <c r="E5" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="57" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -7493,7 +7846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -7528,7 +7881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -7551,7 +7904,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -7584,7 +7937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
@@ -7605,7 +7958,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="78.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
@@ -7638,17 +7991,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="35"/>
       <c r="C11" s="53" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="52"/>
@@ -7659,17 +8012,17 @@
       <c r="L11" s="12"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="35"/>
       <c r="C12" s="53" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>800</v>
+        <v>790</